--- a/BackTest/2020-01-20 BackTest ELF.xlsx
+++ b/BackTest/2020-01-20 BackTest ELF.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M145"/>
+  <dimension ref="A1:M146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,28 +433,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>73.88</v>
+        <v>73.97</v>
       </c>
       <c r="C2" t="n">
-        <v>73.98</v>
+        <v>73.97</v>
       </c>
       <c r="D2" t="n">
-        <v>73.98</v>
+        <v>73.97</v>
       </c>
       <c r="E2" t="n">
-        <v>73.88</v>
+        <v>73.97</v>
       </c>
       <c r="F2" t="n">
-        <v>17772.4941</v>
+        <v>3218.3126</v>
       </c>
       <c r="G2" t="n">
-        <v>72.19866666666653</v>
+        <v>72.14683333333321</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>73.11</v>
+        <v>73.88</v>
       </c>
       <c r="C3" t="n">
-        <v>73.11</v>
+        <v>73.98</v>
       </c>
       <c r="D3" t="n">
-        <v>73.11</v>
+        <v>73.98</v>
       </c>
       <c r="E3" t="n">
-        <v>73.11</v>
+        <v>73.88</v>
       </c>
       <c r="F3" t="n">
-        <v>3218.3126</v>
+        <v>17772.4941</v>
       </c>
       <c r="G3" t="n">
-        <v>72.2438333333332</v>
+        <v>72.19866666666653</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>73.98999999999999</v>
+        <v>73.11</v>
       </c>
       <c r="C4" t="n">
-        <v>73.98999999999999</v>
+        <v>73.11</v>
       </c>
       <c r="D4" t="n">
-        <v>73.98999999999999</v>
+        <v>73.11</v>
       </c>
       <c r="E4" t="n">
-        <v>73.98999999999999</v>
+        <v>73.11</v>
       </c>
       <c r="F4" t="n">
-        <v>1297.5828</v>
+        <v>3218.3126</v>
       </c>
       <c r="G4" t="n">
-        <v>72.31033333333319</v>
+        <v>72.2438333333332</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>74</v>
+        <v>73.98999999999999</v>
       </c>
       <c r="C5" t="n">
         <v>73.98999999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>74.09</v>
+        <v>73.98999999999999</v>
       </c>
       <c r="E5" t="n">
         <v>73.98999999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>3515.1604</v>
+        <v>1297.5828</v>
       </c>
       <c r="G5" t="n">
-        <v>72.36916666666653</v>
+        <v>72.31033333333319</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>73.97</v>
+        <v>74</v>
       </c>
       <c r="C6" t="n">
-        <v>73.97</v>
+        <v>73.98999999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>73.98</v>
+        <v>74.09</v>
       </c>
       <c r="E6" t="n">
-        <v>73.97</v>
+        <v>73.98999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>8835.742099999999</v>
+        <v>3515.1604</v>
       </c>
       <c r="G6" t="n">
-        <v>72.4368333333332</v>
+        <v>72.36916666666653</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>73.98999999999999</v>
+        <v>73.97</v>
       </c>
       <c r="C7" t="n">
-        <v>74.75</v>
+        <v>73.97</v>
       </c>
       <c r="D7" t="n">
-        <v>74.75</v>
+        <v>73.98</v>
       </c>
       <c r="E7" t="n">
-        <v>73.98999999999999</v>
+        <v>73.97</v>
       </c>
       <c r="F7" t="n">
-        <v>13561.5984</v>
+        <v>8835.742099999999</v>
       </c>
       <c r="G7" t="n">
-        <v>72.50449999999987</v>
+        <v>72.4368333333332</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>74.73999999999999</v>
+        <v>73.98999999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>74.73999999999999</v>
+        <v>74.75</v>
       </c>
       <c r="D8" t="n">
-        <v>74.73999999999999</v>
+        <v>74.75</v>
       </c>
       <c r="E8" t="n">
-        <v>74.73999999999999</v>
+        <v>73.98999999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>142.515</v>
+        <v>13561.5984</v>
       </c>
       <c r="G8" t="n">
-        <v>72.58149999999986</v>
+        <v>72.50449999999987</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,16 +690,16 @@
         <v>74.73999999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>944.9374</v>
+        <v>142.515</v>
       </c>
       <c r="G9" t="n">
-        <v>72.66699999999987</v>
+        <v>72.58149999999986</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -713,7 +713,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>73.98999999999999</v>
+        <v>74.73999999999999</v>
       </c>
       <c r="C10" t="n">
         <v>74.73999999999999</v>
@@ -722,13 +722,13 @@
         <v>74.73999999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>73.98999999999999</v>
+        <v>74.73999999999999</v>
       </c>
       <c r="F10" t="n">
-        <v>1097.8212</v>
+        <v>944.9374</v>
       </c>
       <c r="G10" t="n">
-        <v>72.7523333333332</v>
+        <v>72.66699999999987</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,28 +748,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>73.64</v>
+        <v>73.98999999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>73.64</v>
+        <v>74.73999999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>73.64</v>
+        <v>74.73999999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>73.64</v>
+        <v>73.98999999999999</v>
       </c>
       <c r="F11" t="n">
-        <v>200.5265</v>
+        <v>1097.8212</v>
       </c>
       <c r="G11" t="n">
-        <v>72.79666666666655</v>
+        <v>72.7523333333332</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>74.72</v>
+        <v>73.64</v>
       </c>
       <c r="C12" t="n">
-        <v>74.72</v>
+        <v>73.64</v>
       </c>
       <c r="D12" t="n">
-        <v>74.72</v>
+        <v>73.64</v>
       </c>
       <c r="E12" t="n">
-        <v>74.72</v>
+        <v>73.64</v>
       </c>
       <c r="F12" t="n">
-        <v>6.9994</v>
+        <v>200.5265</v>
       </c>
       <c r="G12" t="n">
-        <v>72.83533333333322</v>
+        <v>72.79666666666655</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>73.8</v>
+        <v>74.72</v>
       </c>
       <c r="C13" t="n">
-        <v>73.8</v>
+        <v>74.72</v>
       </c>
       <c r="D13" t="n">
-        <v>73.8</v>
+        <v>74.72</v>
       </c>
       <c r="E13" t="n">
-        <v>73.8</v>
+        <v>74.72</v>
       </c>
       <c r="F13" t="n">
-        <v>1409.015</v>
+        <v>6.9994</v>
       </c>
       <c r="G13" t="n">
-        <v>72.86166666666655</v>
+        <v>72.83533333333322</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>73.8</v>
       </c>
       <c r="F14" t="n">
-        <v>3861.457</v>
+        <v>1409.015</v>
       </c>
       <c r="G14" t="n">
-        <v>72.89433333333322</v>
+        <v>72.86166666666655</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>73.66</v>
+        <v>73.8</v>
       </c>
       <c r="C15" t="n">
-        <v>74.34999999999999</v>
+        <v>73.8</v>
       </c>
       <c r="D15" t="n">
-        <v>74.34999999999999</v>
+        <v>73.8</v>
       </c>
       <c r="E15" t="n">
-        <v>73.3</v>
+        <v>73.8</v>
       </c>
       <c r="F15" t="n">
-        <v>11233.2694</v>
+        <v>3861.457</v>
       </c>
       <c r="G15" t="n">
-        <v>72.94016666666656</v>
+        <v>72.89433333333322</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>74.19</v>
+        <v>73.66</v>
       </c>
       <c r="C16" t="n">
-        <v>74.19</v>
+        <v>74.34999999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>74.19</v>
+        <v>74.34999999999999</v>
       </c>
       <c r="E16" t="n">
-        <v>74.19</v>
+        <v>73.3</v>
       </c>
       <c r="F16" t="n">
-        <v>1995.6577</v>
+        <v>11233.2694</v>
       </c>
       <c r="G16" t="n">
-        <v>72.99466666666655</v>
+        <v>72.94016666666656</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>74.18000000000001</v>
+        <v>74.19</v>
       </c>
       <c r="C17" t="n">
         <v>74.19</v>
       </c>
       <c r="D17" t="n">
-        <v>74.3</v>
+        <v>74.19</v>
       </c>
       <c r="E17" t="n">
-        <v>74.18000000000001</v>
+        <v>74.19</v>
       </c>
       <c r="F17" t="n">
-        <v>22914.8417</v>
+        <v>1995.6577</v>
       </c>
       <c r="G17" t="n">
-        <v>73.03216666666655</v>
+        <v>72.99466666666655</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>74.39</v>
+        <v>74.18000000000001</v>
       </c>
       <c r="C18" t="n">
-        <v>74.39</v>
+        <v>74.19</v>
       </c>
       <c r="D18" t="n">
-        <v>74.39</v>
+        <v>74.3</v>
       </c>
       <c r="E18" t="n">
-        <v>74.39</v>
+        <v>74.18000000000001</v>
       </c>
       <c r="F18" t="n">
-        <v>857.0163</v>
+        <v>22914.8417</v>
       </c>
       <c r="G18" t="n">
-        <v>73.08499999999988</v>
+        <v>73.03216666666655</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>74</v>
+        <v>74.39</v>
       </c>
       <c r="C19" t="n">
-        <v>74</v>
+        <v>74.39</v>
       </c>
       <c r="D19" t="n">
-        <v>74.37</v>
+        <v>74.39</v>
       </c>
       <c r="E19" t="n">
-        <v>74</v>
+        <v>74.39</v>
       </c>
       <c r="F19" t="n">
-        <v>1586.5894</v>
+        <v>857.0163</v>
       </c>
       <c r="G19" t="n">
-        <v>73.12799999999989</v>
+        <v>73.08499999999988</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>74.37</v>
+        <v>74</v>
       </c>
       <c r="C20" t="n">
-        <v>74.37</v>
+        <v>74</v>
       </c>
       <c r="D20" t="n">
         <v>74.37</v>
       </c>
       <c r="E20" t="n">
-        <v>74.37</v>
+        <v>74</v>
       </c>
       <c r="F20" t="n">
-        <v>222</v>
+        <v>1586.5894</v>
       </c>
       <c r="G20" t="n">
-        <v>73.15933333333322</v>
+        <v>73.12799999999989</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>74.37</v>
       </c>
       <c r="C21" t="n">
-        <v>74.3</v>
+        <v>74.37</v>
       </c>
       <c r="D21" t="n">
         <v>74.37</v>
       </c>
       <c r="E21" t="n">
-        <v>74.3</v>
+        <v>74.37</v>
       </c>
       <c r="F21" t="n">
-        <v>2511</v>
+        <v>222</v>
       </c>
       <c r="G21" t="n">
-        <v>73.19566666666655</v>
+        <v>73.15933333333322</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>74.19</v>
+        <v>74.37</v>
       </c>
       <c r="C22" t="n">
-        <v>74.19</v>
+        <v>74.3</v>
       </c>
       <c r="D22" t="n">
-        <v>74.19</v>
+        <v>74.37</v>
       </c>
       <c r="E22" t="n">
-        <v>74.19</v>
+        <v>74.3</v>
       </c>
       <c r="F22" t="n">
-        <v>267.857</v>
+        <v>2511</v>
       </c>
       <c r="G22" t="n">
-        <v>73.23016666666655</v>
+        <v>73.19566666666655</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>73.7</v>
+        <v>74.19</v>
       </c>
       <c r="C23" t="n">
-        <v>72.84999999999999</v>
+        <v>74.19</v>
       </c>
       <c r="D23" t="n">
-        <v>73.7</v>
+        <v>74.19</v>
       </c>
       <c r="E23" t="n">
-        <v>72.84999999999999</v>
+        <v>74.19</v>
       </c>
       <c r="F23" t="n">
-        <v>22313.249</v>
+        <v>267.857</v>
       </c>
       <c r="G23" t="n">
-        <v>73.25266666666656</v>
+        <v>73.23016666666655</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>74.59</v>
+        <v>73.7</v>
       </c>
       <c r="C24" t="n">
-        <v>74.59</v>
+        <v>72.84999999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>74.59</v>
+        <v>73.7</v>
       </c>
       <c r="E24" t="n">
-        <v>74.59</v>
+        <v>72.84999999999999</v>
       </c>
       <c r="F24" t="n">
-        <v>111</v>
+        <v>22313.249</v>
       </c>
       <c r="G24" t="n">
-        <v>73.30883333333323</v>
+        <v>73.25266666666656</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>74.58</v>
+        <v>74.59</v>
       </c>
       <c r="C25" t="n">
-        <v>74.58</v>
+        <v>74.59</v>
       </c>
       <c r="D25" t="n">
-        <v>74.58</v>
+        <v>74.59</v>
       </c>
       <c r="E25" t="n">
-        <v>74.58</v>
+        <v>74.59</v>
       </c>
       <c r="F25" t="n">
-        <v>267.857</v>
+        <v>111</v>
       </c>
       <c r="G25" t="n">
-        <v>73.35533333333322</v>
+        <v>73.30883333333323</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>74.59</v>
+        <v>74.58</v>
       </c>
       <c r="C26" t="n">
         <v>74.58</v>
       </c>
       <c r="D26" t="n">
-        <v>74.59</v>
+        <v>74.58</v>
       </c>
       <c r="E26" t="n">
         <v>74.58</v>
       </c>
       <c r="F26" t="n">
-        <v>2231.8096</v>
+        <v>267.857</v>
       </c>
       <c r="G26" t="n">
-        <v>73.40999999999988</v>
+        <v>73.35533333333322</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1311,19 +1311,19 @@
         <v>74.59</v>
       </c>
       <c r="C27" t="n">
-        <v>74.56999999999999</v>
+        <v>74.58</v>
       </c>
       <c r="D27" t="n">
         <v>74.59</v>
       </c>
       <c r="E27" t="n">
-        <v>74.56999999999999</v>
+        <v>74.58</v>
       </c>
       <c r="F27" t="n">
-        <v>666</v>
+        <v>2231.8096</v>
       </c>
       <c r="G27" t="n">
-        <v>73.46266666666655</v>
+        <v>73.40999999999988</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
+        <v>74.59</v>
+      </c>
+      <c r="C28" t="n">
         <v>74.56999999999999</v>
       </c>
-      <c r="C28" t="n">
-        <v>74.59999999999999</v>
-      </c>
       <c r="D28" t="n">
-        <v>74.59999999999999</v>
+        <v>74.59</v>
       </c>
       <c r="E28" t="n">
         <v>74.56999999999999</v>
       </c>
       <c r="F28" t="n">
-        <v>7329.258</v>
+        <v>666</v>
       </c>
       <c r="G28" t="n">
-        <v>73.51083333333322</v>
+        <v>73.46266666666655</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>74.59999999999999</v>
+        <v>74.56999999999999</v>
       </c>
       <c r="C29" t="n">
         <v>74.59999999999999</v>
@@ -1387,13 +1387,13 @@
         <v>74.59999999999999</v>
       </c>
       <c r="E29" t="n">
-        <v>74.59999999999999</v>
+        <v>74.56999999999999</v>
       </c>
       <c r="F29" t="n">
-        <v>588.9337</v>
+        <v>7329.258</v>
       </c>
       <c r="G29" t="n">
-        <v>73.5589999999999</v>
+        <v>73.51083333333322</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1416,19 +1416,19 @@
         <v>74.59999999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>74.70999999999999</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="D30" t="n">
-        <v>74.70999999999999</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="E30" t="n">
         <v>74.59999999999999</v>
       </c>
       <c r="F30" t="n">
-        <v>1927.6477</v>
+        <v>588.9337</v>
       </c>
       <c r="G30" t="n">
-        <v>73.6089999999999</v>
+        <v>73.5589999999999</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>74.72</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>74.3</v>
+        <v>74.70999999999999</v>
       </c>
       <c r="D31" t="n">
-        <v>74.77</v>
+        <v>74.70999999999999</v>
       </c>
       <c r="E31" t="n">
-        <v>74.3</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="F31" t="n">
-        <v>4911.0793</v>
+        <v>1927.6477</v>
       </c>
       <c r="G31" t="n">
-        <v>73.64416666666656</v>
+        <v>73.6089999999999</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
+        <v>74.72</v>
+      </c>
+      <c r="C32" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="D32" t="n">
         <v>74.77</v>
       </c>
-      <c r="C32" t="n">
-        <v>75.18000000000001</v>
-      </c>
-      <c r="D32" t="n">
-        <v>75.18000000000001</v>
-      </c>
       <c r="E32" t="n">
-        <v>74.77</v>
+        <v>74.3</v>
       </c>
       <c r="F32" t="n">
-        <v>1974.6846</v>
+        <v>4911.0793</v>
       </c>
       <c r="G32" t="n">
-        <v>73.69383333333325</v>
+        <v>73.64416666666656</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>75.09999999999999</v>
+        <v>74.77</v>
       </c>
       <c r="C33" t="n">
-        <v>74.90000000000001</v>
+        <v>75.18000000000001</v>
       </c>
       <c r="D33" t="n">
-        <v>75.09999999999999</v>
+        <v>75.18000000000001</v>
       </c>
       <c r="E33" t="n">
-        <v>74.31</v>
+        <v>74.77</v>
       </c>
       <c r="F33" t="n">
-        <v>22324.4904</v>
+        <v>1974.6846</v>
       </c>
       <c r="G33" t="n">
-        <v>73.7379999999999</v>
+        <v>73.69383333333325</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>74.98999999999999</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>74.98999999999999</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="D34" t="n">
-        <v>74.98999999999999</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="E34" t="n">
-        <v>74.98999999999999</v>
+        <v>74.31</v>
       </c>
       <c r="F34" t="n">
-        <v>111</v>
+        <v>22324.4904</v>
       </c>
       <c r="G34" t="n">
-        <v>73.78366666666656</v>
+        <v>73.7379999999999</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>75.09</v>
+        <v>74.98999999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>75.09</v>
+        <v>74.98999999999999</v>
       </c>
       <c r="D35" t="n">
-        <v>75.09</v>
+        <v>74.98999999999999</v>
       </c>
       <c r="E35" t="n">
-        <v>75.09</v>
+        <v>74.98999999999999</v>
       </c>
       <c r="F35" t="n">
-        <v>464.4556</v>
+        <v>111</v>
       </c>
       <c r="G35" t="n">
-        <v>73.83083333333323</v>
+        <v>73.78366666666656</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,7 +1623,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>74.98999999999999</v>
+        <v>75.09</v>
       </c>
       <c r="C36" t="n">
         <v>75.09</v>
@@ -1632,13 +1632,13 @@
         <v>75.09</v>
       </c>
       <c r="E36" t="n">
-        <v>74.98999999999999</v>
+        <v>75.09</v>
       </c>
       <c r="F36" t="n">
-        <v>952.3121749566609</v>
+        <v>464.4556</v>
       </c>
       <c r="G36" t="n">
-        <v>73.87899999999991</v>
+        <v>73.83083333333323</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>75.48</v>
+        <v>74.98999999999999</v>
       </c>
       <c r="C37" t="n">
-        <v>75.48</v>
+        <v>75.09</v>
       </c>
       <c r="D37" t="n">
-        <v>75.48</v>
+        <v>75.09</v>
       </c>
       <c r="E37" t="n">
-        <v>75.48</v>
+        <v>74.98999999999999</v>
       </c>
       <c r="F37" t="n">
-        <v>834.6063</v>
+        <v>952.3121749566609</v>
       </c>
       <c r="G37" t="n">
-        <v>73.93366666666657</v>
+        <v>73.87899999999991</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,7 +1693,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>75</v>
+        <v>75.48</v>
       </c>
       <c r="C38" t="n">
         <v>75.48</v>
@@ -1702,13 +1702,13 @@
         <v>75.48</v>
       </c>
       <c r="E38" t="n">
-        <v>75</v>
+        <v>75.48</v>
       </c>
       <c r="F38" t="n">
-        <v>221.83</v>
+        <v>834.6063</v>
       </c>
       <c r="G38" t="n">
-        <v>73.98216666666657</v>
+        <v>73.93366666666657</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1731,19 +1731,19 @@
         <v>75</v>
       </c>
       <c r="C39" t="n">
-        <v>75.47</v>
+        <v>75.48</v>
       </c>
       <c r="D39" t="n">
         <v>75.48</v>
       </c>
       <c r="E39" t="n">
-        <v>74.3</v>
+        <v>75</v>
       </c>
       <c r="F39" t="n">
-        <v>8273.156300000001</v>
+        <v>221.83</v>
       </c>
       <c r="G39" t="n">
-        <v>74.0349999999999</v>
+        <v>73.98216666666657</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>74.86</v>
+        <v>75</v>
       </c>
       <c r="C40" t="n">
-        <v>74.69</v>
+        <v>75.47</v>
       </c>
       <c r="D40" t="n">
-        <v>74.86</v>
+        <v>75.48</v>
       </c>
       <c r="E40" t="n">
-        <v>74.69</v>
+        <v>74.3</v>
       </c>
       <c r="F40" t="n">
-        <v>8625.892900000001</v>
+        <v>8273.156300000001</v>
       </c>
       <c r="G40" t="n">
-        <v>74.07566666666656</v>
+        <v>74.0349999999999</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>74.19</v>
+        <v>74.86</v>
       </c>
       <c r="C41" t="n">
-        <v>74.19</v>
+        <v>74.69</v>
       </c>
       <c r="D41" t="n">
-        <v>74.19</v>
+        <v>74.86</v>
       </c>
       <c r="E41" t="n">
-        <v>74.19</v>
+        <v>74.69</v>
       </c>
       <c r="F41" t="n">
-        <v>111</v>
+        <v>8625.892900000001</v>
       </c>
       <c r="G41" t="n">
-        <v>74.10166666666655</v>
+        <v>74.07566666666656</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>73.84999999999999</v>
+        <v>74.19</v>
       </c>
       <c r="C42" t="n">
-        <v>73.84999999999999</v>
+        <v>74.19</v>
       </c>
       <c r="D42" t="n">
-        <v>73.84999999999999</v>
+        <v>74.19</v>
       </c>
       <c r="E42" t="n">
-        <v>73.84999999999999</v>
+        <v>74.19</v>
       </c>
       <c r="F42" t="n">
-        <v>419.647</v>
+        <v>111</v>
       </c>
       <c r="G42" t="n">
-        <v>74.12749999999988</v>
+        <v>74.10166666666655</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>73.76000000000001</v>
+        <v>73.84999999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>72.97</v>
+        <v>73.84999999999999</v>
       </c>
       <c r="D43" t="n">
-        <v>73.76000000000001</v>
+        <v>73.84999999999999</v>
       </c>
       <c r="E43" t="n">
-        <v>72.97</v>
+        <v>73.84999999999999</v>
       </c>
       <c r="F43" t="n">
-        <v>52598.3335</v>
+        <v>419.647</v>
       </c>
       <c r="G43" t="n">
-        <v>74.12383333333324</v>
+        <v>74.12749999999988</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,10 +1903,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>73.7</v>
+        <v>73.76000000000001</v>
       </c>
       <c r="C44" t="n">
-        <v>73.76000000000001</v>
+        <v>72.97</v>
       </c>
       <c r="D44" t="n">
         <v>73.76000000000001</v>
@@ -1915,10 +1915,10 @@
         <v>72.97</v>
       </c>
       <c r="F44" t="n">
-        <v>71450.23450000001</v>
+        <v>52598.3335</v>
       </c>
       <c r="G44" t="n">
-        <v>74.1479999999999</v>
+        <v>74.12383333333324</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>72.95999999999999</v>
+        <v>73.7</v>
       </c>
       <c r="C45" t="n">
-        <v>72.95999999999999</v>
+        <v>73.76000000000001</v>
       </c>
       <c r="D45" t="n">
-        <v>72.95999999999999</v>
+        <v>73.76000000000001</v>
       </c>
       <c r="E45" t="n">
-        <v>72.90000000000001</v>
+        <v>72.97</v>
       </c>
       <c r="F45" t="n">
-        <v>7509.5514</v>
+        <v>71450.23450000001</v>
       </c>
       <c r="G45" t="n">
-        <v>74.14933333333323</v>
+        <v>74.1479999999999</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>72.84</v>
+        <v>72.95999999999999</v>
       </c>
       <c r="C46" t="n">
-        <v>72.84</v>
+        <v>72.95999999999999</v>
       </c>
       <c r="D46" t="n">
-        <v>72.84</v>
+        <v>72.95999999999999</v>
       </c>
       <c r="E46" t="n">
-        <v>72.84</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="F46" t="n">
-        <v>8430.231</v>
+        <v>7509.5514</v>
       </c>
       <c r="G46" t="n">
-        <v>74.14999999999989</v>
+        <v>74.14933333333323</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>72.59999999999999</v>
+        <v>72.84</v>
       </c>
       <c r="C47" t="n">
-        <v>72.11</v>
+        <v>72.84</v>
       </c>
       <c r="D47" t="n">
-        <v>72.59999999999999</v>
+        <v>72.84</v>
       </c>
       <c r="E47" t="n">
-        <v>72.11</v>
+        <v>72.84</v>
       </c>
       <c r="F47" t="n">
-        <v>48733.7953</v>
+        <v>8430.231</v>
       </c>
       <c r="G47" t="n">
-        <v>74.13833333333322</v>
+        <v>74.14999999999989</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>73.48</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>73.48</v>
+        <v>72.11</v>
       </c>
       <c r="D48" t="n">
-        <v>73.48</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="E48" t="n">
-        <v>73.48</v>
+        <v>72.11</v>
       </c>
       <c r="F48" t="n">
-        <v>6.81</v>
+        <v>48733.7953</v>
       </c>
       <c r="G48" t="n">
-        <v>74.1373333333332</v>
+        <v>74.13833333333322</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>72.44</v>
+        <v>73.48</v>
       </c>
       <c r="C49" t="n">
-        <v>72.44</v>
+        <v>73.48</v>
       </c>
       <c r="D49" t="n">
-        <v>72.44</v>
+        <v>73.48</v>
       </c>
       <c r="E49" t="n">
-        <v>72.44</v>
+        <v>73.48</v>
       </c>
       <c r="F49" t="n">
-        <v>1197.8125</v>
+        <v>6.81</v>
       </c>
       <c r="G49" t="n">
-        <v>74.11699999999988</v>
+        <v>74.1373333333332</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>73.09</v>
+        <v>72.44</v>
       </c>
       <c r="C50" t="n">
-        <v>73.09</v>
+        <v>72.44</v>
       </c>
       <c r="D50" t="n">
-        <v>73.09</v>
+        <v>72.44</v>
       </c>
       <c r="E50" t="n">
-        <v>73.09</v>
+        <v>72.44</v>
       </c>
       <c r="F50" t="n">
-        <v>40.9292</v>
+        <v>1197.8125</v>
       </c>
       <c r="G50" t="n">
-        <v>74.10949999999987</v>
+        <v>74.11699999999988</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>72.44</v>
+        <v>73.09</v>
       </c>
       <c r="C51" t="n">
-        <v>72.44</v>
+        <v>73.09</v>
       </c>
       <c r="D51" t="n">
-        <v>72.44</v>
+        <v>73.09</v>
       </c>
       <c r="E51" t="n">
-        <v>72.44</v>
+        <v>73.09</v>
       </c>
       <c r="F51" t="n">
-        <v>1634.195</v>
+        <v>40.9292</v>
       </c>
       <c r="G51" t="n">
-        <v>74.08816666666652</v>
+        <v>74.10949999999987</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2195,10 +2195,10 @@
         <v>72.44</v>
       </c>
       <c r="F52" t="n">
-        <v>5939.9722</v>
+        <v>1634.195</v>
       </c>
       <c r="G52" t="n">
-        <v>74.06699999999985</v>
+        <v>74.08816666666652</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>72.43000000000001</v>
+        <v>72.44</v>
       </c>
       <c r="C53" t="n">
-        <v>72.04000000000001</v>
+        <v>72.44</v>
       </c>
       <c r="D53" t="n">
-        <v>72.43000000000001</v>
+        <v>72.44</v>
       </c>
       <c r="E53" t="n">
-        <v>71.81999999999999</v>
+        <v>72.44</v>
       </c>
       <c r="F53" t="n">
-        <v>24753.4073</v>
+        <v>5939.9722</v>
       </c>
       <c r="G53" t="n">
-        <v>74.03899999999985</v>
+        <v>74.06699999999985</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>71.8</v>
+        <v>72.43000000000001</v>
       </c>
       <c r="C54" t="n">
-        <v>72.48999999999999</v>
+        <v>72.04000000000001</v>
       </c>
       <c r="D54" t="n">
-        <v>72.48999999999999</v>
+        <v>72.43000000000001</v>
       </c>
       <c r="E54" t="n">
-        <v>71.41</v>
+        <v>71.81999999999999</v>
       </c>
       <c r="F54" t="n">
-        <v>26882.39</v>
+        <v>24753.4073</v>
       </c>
       <c r="G54" t="n">
-        <v>74.01899999999985</v>
+        <v>74.03899999999985</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>71.31999999999999</v>
+        <v>71.8</v>
       </c>
       <c r="C55" t="n">
-        <v>72.18000000000001</v>
+        <v>72.48999999999999</v>
       </c>
       <c r="D55" t="n">
-        <v>72.18000000000001</v>
+        <v>72.48999999999999</v>
       </c>
       <c r="E55" t="n">
-        <v>71.31999999999999</v>
+        <v>71.41</v>
       </c>
       <c r="F55" t="n">
-        <v>2965.6276</v>
+        <v>26882.39</v>
       </c>
       <c r="G55" t="n">
-        <v>73.9938333333332</v>
+        <v>74.01899999999985</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>71.31</v>
+        <v>71.31999999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>71.3</v>
+        <v>72.18000000000001</v>
       </c>
       <c r="D56" t="n">
-        <v>71.31</v>
+        <v>72.18000000000001</v>
       </c>
       <c r="E56" t="n">
-        <v>71.3</v>
+        <v>71.31999999999999</v>
       </c>
       <c r="F56" t="n">
-        <v>3915.2803</v>
+        <v>2965.6276</v>
       </c>
       <c r="G56" t="n">
-        <v>73.95333333333321</v>
+        <v>73.9938333333332</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>71.3</v>
+        <v>71.31</v>
       </c>
       <c r="C57" t="n">
         <v>71.3</v>
       </c>
       <c r="D57" t="n">
-        <v>71.3</v>
+        <v>71.31</v>
       </c>
       <c r="E57" t="n">
         <v>71.3</v>
       </c>
       <c r="F57" t="n">
-        <v>160</v>
+        <v>3915.2803</v>
       </c>
       <c r="G57" t="n">
-        <v>73.91349999999989</v>
+        <v>73.95333333333321</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2405,10 +2405,10 @@
         <v>71.3</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2679</v>
+        <v>160</v>
       </c>
       <c r="G58" t="n">
-        <v>73.87899999999989</v>
+        <v>73.91349999999989</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2431,19 +2431,19 @@
         <v>71.3</v>
       </c>
       <c r="C59" t="n">
-        <v>71.2</v>
+        <v>71.3</v>
       </c>
       <c r="D59" t="n">
         <v>71.3</v>
       </c>
       <c r="E59" t="n">
-        <v>71.2</v>
+        <v>71.3</v>
       </c>
       <c r="F59" t="n">
-        <v>1000</v>
+        <v>0.2679</v>
       </c>
       <c r="G59" t="n">
-        <v>73.83399999999989</v>
+        <v>73.87899999999989</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>71.79000000000001</v>
+        <v>71.3</v>
       </c>
       <c r="C60" t="n">
-        <v>71.79000000000001</v>
+        <v>71.2</v>
       </c>
       <c r="D60" t="n">
-        <v>71.79000000000001</v>
+        <v>71.3</v>
       </c>
       <c r="E60" t="n">
-        <v>71.79000000000001</v>
+        <v>71.2</v>
       </c>
       <c r="F60" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="G60" t="n">
-        <v>73.79733333333323</v>
+        <v>73.83399999999989</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>71.75</v>
+        <v>71.79000000000001</v>
       </c>
       <c r="C61" t="n">
-        <v>72.5</v>
+        <v>71.79000000000001</v>
       </c>
       <c r="D61" t="n">
-        <v>72.65000000000001</v>
+        <v>71.79000000000001</v>
       </c>
       <c r="E61" t="n">
-        <v>71.75</v>
+        <v>71.79000000000001</v>
       </c>
       <c r="F61" t="n">
-        <v>2976.5173</v>
+        <v>7</v>
       </c>
       <c r="G61" t="n">
-        <v>73.77283333333322</v>
+        <v>73.79733333333323</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>73.27</v>
+        <v>71.75</v>
       </c>
       <c r="C62" t="n">
-        <v>73.27</v>
+        <v>72.5</v>
       </c>
       <c r="D62" t="n">
-        <v>73.27</v>
+        <v>72.65000000000001</v>
       </c>
       <c r="E62" t="n">
-        <v>73.27</v>
+        <v>71.75</v>
       </c>
       <c r="F62" t="n">
-        <v>739.8253999999999</v>
+        <v>2976.5173</v>
       </c>
       <c r="G62" t="n">
-        <v>73.76099999999991</v>
+        <v>73.77283333333322</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2580,10 +2580,10 @@
         <v>73.27</v>
       </c>
       <c r="F63" t="n">
-        <v>2642.896137573359</v>
+        <v>739.8253999999999</v>
       </c>
       <c r="G63" t="n">
-        <v>73.76366666666658</v>
+        <v>73.76099999999991</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>73.28</v>
+        <v>73.27</v>
       </c>
       <c r="C64" t="n">
-        <v>73.28</v>
+        <v>73.27</v>
       </c>
       <c r="D64" t="n">
-        <v>73.28</v>
+        <v>73.27</v>
       </c>
       <c r="E64" t="n">
-        <v>73.28</v>
+        <v>73.27</v>
       </c>
       <c r="F64" t="n">
-        <v>195.4661</v>
+        <v>2642.896137573359</v>
       </c>
       <c r="G64" t="n">
-        <v>73.75183333333325</v>
+        <v>73.76366666666658</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>72.70999999999999</v>
+        <v>73.28</v>
       </c>
       <c r="C65" t="n">
-        <v>72.70999999999999</v>
+        <v>73.28</v>
       </c>
       <c r="D65" t="n">
-        <v>72.70999999999999</v>
+        <v>73.28</v>
       </c>
       <c r="E65" t="n">
-        <v>72.70999999999999</v>
+        <v>73.28</v>
       </c>
       <c r="F65" t="n">
-        <v>5086.4501</v>
+        <v>195.4661</v>
       </c>
       <c r="G65" t="n">
-        <v>73.73049999999992</v>
+        <v>73.75183333333325</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2685,10 +2685,10 @@
         <v>72.70999999999999</v>
       </c>
       <c r="F66" t="n">
-        <v>5445.9999</v>
+        <v>5086.4501</v>
       </c>
       <c r="G66" t="n">
-        <v>73.70949999999992</v>
+        <v>73.73049999999992</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2720,10 +2720,10 @@
         <v>72.70999999999999</v>
       </c>
       <c r="F67" t="n">
-        <v>2800</v>
+        <v>5445.9999</v>
       </c>
       <c r="G67" t="n">
-        <v>73.67549999999991</v>
+        <v>73.70949999999992</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2755,10 +2755,10 @@
         <v>72.70999999999999</v>
       </c>
       <c r="F68" t="n">
-        <v>711</v>
+        <v>2800</v>
       </c>
       <c r="G68" t="n">
-        <v>73.64166666666659</v>
+        <v>73.67549999999991</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2790,10 +2790,10 @@
         <v>72.70999999999999</v>
       </c>
       <c r="F69" t="n">
-        <v>8546.8876</v>
+        <v>711</v>
       </c>
       <c r="G69" t="n">
-        <v>73.60783333333326</v>
+        <v>73.64166666666659</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>71.90000000000001</v>
+        <v>72.70999999999999</v>
       </c>
       <c r="C70" t="n">
-        <v>71.90000000000001</v>
+        <v>72.70999999999999</v>
       </c>
       <c r="D70" t="n">
-        <v>71.90000000000001</v>
+        <v>72.70999999999999</v>
       </c>
       <c r="E70" t="n">
-        <v>71.90000000000001</v>
+        <v>72.70999999999999</v>
       </c>
       <c r="F70" t="n">
-        <v>292.522</v>
+        <v>8546.8876</v>
       </c>
       <c r="G70" t="n">
-        <v>73.56049999999992</v>
+        <v>73.60783333333326</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>72.7</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>72.7</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="D71" t="n">
-        <v>72.7</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="E71" t="n">
-        <v>72.7</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="F71" t="n">
-        <v>6.8776</v>
+        <v>292.522</v>
       </c>
       <c r="G71" t="n">
-        <v>73.54483333333324</v>
+        <v>73.56049999999992</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,22 +2883,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>72.8</v>
+        <v>72.7</v>
       </c>
       <c r="C72" t="n">
-        <v>72.8</v>
+        <v>72.7</v>
       </c>
       <c r="D72" t="n">
-        <v>72.8</v>
+        <v>72.7</v>
       </c>
       <c r="E72" t="n">
-        <v>72.8</v>
+        <v>72.7</v>
       </c>
       <c r="F72" t="n">
-        <v>285.6444</v>
+        <v>6.8776</v>
       </c>
       <c r="G72" t="n">
-        <v>73.51283333333325</v>
+        <v>73.54483333333324</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>73.12</v>
+        <v>72.8</v>
       </c>
       <c r="C73" t="n">
-        <v>73.12</v>
+        <v>72.8</v>
       </c>
       <c r="D73" t="n">
-        <v>73.12</v>
+        <v>72.8</v>
       </c>
       <c r="E73" t="n">
-        <v>73.12</v>
+        <v>72.8</v>
       </c>
       <c r="F73" t="n">
-        <v>1233.8525</v>
+        <v>285.6444</v>
       </c>
       <c r="G73" t="n">
-        <v>73.50149999999991</v>
+        <v>73.51283333333325</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>73.31999999999999</v>
+        <v>73.12</v>
       </c>
       <c r="C74" t="n">
-        <v>73.31999999999999</v>
+        <v>73.12</v>
       </c>
       <c r="D74" t="n">
-        <v>73.31999999999999</v>
+        <v>73.12</v>
       </c>
       <c r="E74" t="n">
-        <v>73.31999999999999</v>
+        <v>73.12</v>
       </c>
       <c r="F74" t="n">
-        <v>31</v>
+        <v>1233.8525</v>
       </c>
       <c r="G74" t="n">
-        <v>73.4934999999999</v>
+        <v>73.50149999999991</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2991,19 +2991,19 @@
         <v>73.31999999999999</v>
       </c>
       <c r="C75" t="n">
-        <v>74.01000000000001</v>
+        <v>73.31999999999999</v>
       </c>
       <c r="D75" t="n">
-        <v>74.01000000000001</v>
+        <v>73.31999999999999</v>
       </c>
       <c r="E75" t="n">
         <v>73.31999999999999</v>
       </c>
       <c r="F75" t="n">
-        <v>42575.4557</v>
+        <v>31</v>
       </c>
       <c r="G75" t="n">
-        <v>73.48783333333323</v>
+        <v>73.4934999999999</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3023,22 +3023,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>74.03</v>
+        <v>73.31999999999999</v>
       </c>
       <c r="C76" t="n">
-        <v>74.03</v>
+        <v>74.01000000000001</v>
       </c>
       <c r="D76" t="n">
-        <v>74.03</v>
+        <v>74.01000000000001</v>
       </c>
       <c r="E76" t="n">
-        <v>74.03</v>
+        <v>73.31999999999999</v>
       </c>
       <c r="F76" t="n">
-        <v>3580.0938</v>
+        <v>42575.4557</v>
       </c>
       <c r="G76" t="n">
-        <v>73.48516666666657</v>
+        <v>73.48783333333323</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,22 +3058,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>74.06</v>
+        <v>74.03</v>
       </c>
       <c r="C77" t="n">
-        <v>73.90000000000001</v>
+        <v>74.03</v>
       </c>
       <c r="D77" t="n">
-        <v>74.44</v>
+        <v>74.03</v>
       </c>
       <c r="E77" t="n">
-        <v>73.90000000000001</v>
+        <v>74.03</v>
       </c>
       <c r="F77" t="n">
-        <v>32412.9891</v>
+        <v>3580.0938</v>
       </c>
       <c r="G77" t="n">
-        <v>73.48033333333323</v>
+        <v>73.48516666666657</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>74.09999999999999</v>
+        <v>74.06</v>
       </c>
       <c r="C78" t="n">
-        <v>74.09999999999999</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="D78" t="n">
-        <v>74.09999999999999</v>
+        <v>74.44</v>
       </c>
       <c r="E78" t="n">
-        <v>74.09999999999999</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="F78" t="n">
-        <v>1039</v>
+        <v>32412.9891</v>
       </c>
       <c r="G78" t="n">
-        <v>73.47549999999991</v>
+        <v>73.48033333333323</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>73.8</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>73.70999999999999</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="D79" t="n">
-        <v>73.8</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="E79" t="n">
-        <v>73.56</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="F79" t="n">
-        <v>8209.771000000001</v>
+        <v>1039</v>
       </c>
       <c r="G79" t="n">
-        <v>73.47066666666657</v>
+        <v>73.47549999999991</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,22 +3163,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>73.45999999999999</v>
+        <v>73.8</v>
       </c>
       <c r="C80" t="n">
-        <v>73.37</v>
+        <v>73.70999999999999</v>
       </c>
       <c r="D80" t="n">
-        <v>73.45999999999999</v>
+        <v>73.8</v>
       </c>
       <c r="E80" t="n">
-        <v>73.37</v>
+        <v>73.56</v>
       </c>
       <c r="F80" t="n">
-        <v>6227.3271</v>
+        <v>8209.771000000001</v>
       </c>
       <c r="G80" t="n">
-        <v>73.45399999999991</v>
+        <v>73.47066666666657</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,22 +3198,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>72.44</v>
+        <v>73.45999999999999</v>
       </c>
       <c r="C81" t="n">
-        <v>72.31999999999999</v>
+        <v>73.37</v>
       </c>
       <c r="D81" t="n">
-        <v>72.44</v>
+        <v>73.45999999999999</v>
       </c>
       <c r="E81" t="n">
-        <v>72.31</v>
+        <v>73.37</v>
       </c>
       <c r="F81" t="n">
-        <v>21</v>
+        <v>6227.3271</v>
       </c>
       <c r="G81" t="n">
-        <v>73.42099999999989</v>
+        <v>73.45399999999991</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,22 +3233,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
+        <v>72.44</v>
+      </c>
+      <c r="C82" t="n">
         <v>72.31999999999999</v>
       </c>
-      <c r="C82" t="n">
-        <v>72.22</v>
-      </c>
       <c r="D82" t="n">
-        <v>72.31999999999999</v>
+        <v>72.44</v>
       </c>
       <c r="E82" t="n">
-        <v>72.2</v>
+        <v>72.31</v>
       </c>
       <c r="F82" t="n">
-        <v>21951.3037</v>
+        <v>21</v>
       </c>
       <c r="G82" t="n">
-        <v>73.38816666666658</v>
+        <v>73.42099999999989</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3268,22 +3268,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
+        <v>72.31999999999999</v>
+      </c>
+      <c r="C83" t="n">
         <v>72.22</v>
       </c>
-      <c r="C83" t="n">
-        <v>72.01000000000001</v>
-      </c>
       <c r="D83" t="n">
-        <v>73.23</v>
+        <v>72.31999999999999</v>
       </c>
       <c r="E83" t="n">
-        <v>72.01000000000001</v>
+        <v>72.2</v>
       </c>
       <c r="F83" t="n">
-        <v>33015.6452</v>
+        <v>21951.3037</v>
       </c>
       <c r="G83" t="n">
-        <v>73.37416666666657</v>
+        <v>73.38816666666658</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3303,22 +3303,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>72.09999999999999</v>
+        <v>72.22</v>
       </c>
       <c r="C84" t="n">
-        <v>72</v>
+        <v>72.01000000000001</v>
       </c>
       <c r="D84" t="n">
-        <v>72.09999999999999</v>
+        <v>73.23</v>
       </c>
       <c r="E84" t="n">
-        <v>72</v>
+        <v>72.01000000000001</v>
       </c>
       <c r="F84" t="n">
-        <v>17966.5193</v>
+        <v>33015.6452</v>
       </c>
       <c r="G84" t="n">
-        <v>73.3309999999999</v>
+        <v>73.37416666666657</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3338,22 +3338,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>72.01000000000001</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="C85" t="n">
-        <v>72.11</v>
+        <v>72</v>
       </c>
       <c r="D85" t="n">
-        <v>72.11</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="E85" t="n">
-        <v>72.01000000000001</v>
+        <v>72</v>
       </c>
       <c r="F85" t="n">
-        <v>49</v>
+        <v>17966.5193</v>
       </c>
       <c r="G85" t="n">
-        <v>73.28983333333323</v>
+        <v>73.3309999999999</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,22 +3373,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>72.16</v>
+        <v>72.01000000000001</v>
       </c>
       <c r="C86" t="n">
-        <v>72.81999999999999</v>
+        <v>72.11</v>
       </c>
       <c r="D86" t="n">
-        <v>72.81999999999999</v>
+        <v>72.11</v>
       </c>
       <c r="E86" t="n">
-        <v>72.16</v>
+        <v>72.01000000000001</v>
       </c>
       <c r="F86" t="n">
-        <v>2257</v>
+        <v>49</v>
       </c>
       <c r="G86" t="n">
-        <v>73.26049999999989</v>
+        <v>73.28983333333323</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3408,22 +3408,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>72.8</v>
+        <v>72.16</v>
       </c>
       <c r="C87" t="n">
-        <v>72.8</v>
+        <v>72.81999999999999</v>
       </c>
       <c r="D87" t="n">
-        <v>72.8</v>
+        <v>72.81999999999999</v>
       </c>
       <c r="E87" t="n">
-        <v>72.8</v>
+        <v>72.16</v>
       </c>
       <c r="F87" t="n">
-        <v>7</v>
+        <v>2257</v>
       </c>
       <c r="G87" t="n">
-        <v>73.23099999999991</v>
+        <v>73.26049999999989</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,22 +3443,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>72.79000000000001</v>
+        <v>72.8</v>
       </c>
       <c r="C88" t="n">
-        <v>72.73</v>
+        <v>72.8</v>
       </c>
       <c r="D88" t="n">
-        <v>72.79000000000001</v>
+        <v>72.8</v>
       </c>
       <c r="E88" t="n">
-        <v>72.73</v>
+        <v>72.8</v>
       </c>
       <c r="F88" t="n">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="G88" t="n">
-        <v>73.19983333333322</v>
+        <v>73.23099999999991</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3478,22 +3478,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>72</v>
+        <v>72.79000000000001</v>
       </c>
       <c r="C89" t="n">
-        <v>72</v>
+        <v>72.73</v>
       </c>
       <c r="D89" t="n">
-        <v>72</v>
+        <v>72.79000000000001</v>
       </c>
       <c r="E89" t="n">
-        <v>72</v>
+        <v>72.73</v>
       </c>
       <c r="F89" t="n">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="G89" t="n">
-        <v>73.15649999999988</v>
+        <v>73.19983333333322</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3513,22 +3513,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>72.01000000000001</v>
+        <v>72</v>
       </c>
       <c r="C90" t="n">
-        <v>72.03</v>
+        <v>72</v>
       </c>
       <c r="D90" t="n">
-        <v>72.03</v>
+        <v>72</v>
       </c>
       <c r="E90" t="n">
-        <v>72.01000000000001</v>
+        <v>72</v>
       </c>
       <c r="F90" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="G90" t="n">
-        <v>73.11183333333321</v>
+        <v>73.15649999999988</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3548,22 +3548,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>72.04000000000001</v>
+        <v>72.01000000000001</v>
       </c>
       <c r="C91" t="n">
-        <v>72.04000000000001</v>
+        <v>72.03</v>
       </c>
       <c r="D91" t="n">
-        <v>72.04000000000001</v>
+        <v>72.03</v>
       </c>
       <c r="E91" t="n">
-        <v>72.04000000000001</v>
+        <v>72.01000000000001</v>
       </c>
       <c r="F91" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="G91" t="n">
-        <v>73.07416666666654</v>
+        <v>73.11183333333321</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3583,22 +3583,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>72.05</v>
+        <v>72.04000000000001</v>
       </c>
       <c r="C92" t="n">
-        <v>72.05</v>
+        <v>72.04000000000001</v>
       </c>
       <c r="D92" t="n">
-        <v>72.05</v>
+        <v>72.04000000000001</v>
       </c>
       <c r="E92" t="n">
-        <v>72.05</v>
+        <v>72.04000000000001</v>
       </c>
       <c r="F92" t="n">
         <v>7</v>
       </c>
       <c r="G92" t="n">
-        <v>73.02199999999988</v>
+        <v>73.07416666666654</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3618,22 +3618,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>72.45999999999999</v>
+        <v>72.05</v>
       </c>
       <c r="C93" t="n">
-        <v>72.45999999999999</v>
+        <v>72.05</v>
       </c>
       <c r="D93" t="n">
-        <v>72.45999999999999</v>
+        <v>72.05</v>
       </c>
       <c r="E93" t="n">
-        <v>72.45999999999999</v>
+        <v>72.05</v>
       </c>
       <c r="F93" t="n">
         <v>7</v>
       </c>
       <c r="G93" t="n">
-        <v>72.98133333333321</v>
+        <v>73.02199999999988</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3653,22 +3653,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>72.73</v>
+        <v>72.45999999999999</v>
       </c>
       <c r="C94" t="n">
-        <v>72.73</v>
+        <v>72.45999999999999</v>
       </c>
       <c r="D94" t="n">
-        <v>72.73</v>
+        <v>72.45999999999999</v>
       </c>
       <c r="E94" t="n">
-        <v>72.73</v>
+        <v>72.45999999999999</v>
       </c>
       <c r="F94" t="n">
-        <v>6.8767</v>
+        <v>7</v>
       </c>
       <c r="G94" t="n">
-        <v>72.94366666666654</v>
+        <v>72.98133333333321</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3688,22 +3688,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>72.12</v>
+        <v>72.73</v>
       </c>
       <c r="C95" t="n">
-        <v>72.12</v>
+        <v>72.73</v>
       </c>
       <c r="D95" t="n">
-        <v>72.12</v>
+        <v>72.73</v>
       </c>
       <c r="E95" t="n">
-        <v>72.12</v>
+        <v>72.73</v>
       </c>
       <c r="F95" t="n">
-        <v>40.035</v>
+        <v>6.8767</v>
       </c>
       <c r="G95" t="n">
-        <v>72.89416666666654</v>
+        <v>72.94366666666654</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3723,22 +3723,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>72.3</v>
+        <v>72.12</v>
       </c>
       <c r="C96" t="n">
-        <v>72.3</v>
+        <v>72.12</v>
       </c>
       <c r="D96" t="n">
-        <v>72.3</v>
+        <v>72.12</v>
       </c>
       <c r="E96" t="n">
-        <v>72.3</v>
+        <v>72.12</v>
       </c>
       <c r="F96" t="n">
-        <v>4742.5736</v>
+        <v>40.035</v>
       </c>
       <c r="G96" t="n">
-        <v>72.84766666666654</v>
+        <v>72.89416666666654</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3758,7 +3758,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>72.01000000000001</v>
+        <v>72.3</v>
       </c>
       <c r="C97" t="n">
         <v>72.3</v>
@@ -3767,13 +3767,13 @@
         <v>72.3</v>
       </c>
       <c r="E97" t="n">
-        <v>72.01000000000001</v>
+        <v>72.3</v>
       </c>
       <c r="F97" t="n">
-        <v>3289.0899</v>
+        <v>4742.5736</v>
       </c>
       <c r="G97" t="n">
-        <v>72.79466666666654</v>
+        <v>72.84766666666654</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>72.3</v>
+        <v>72.01000000000001</v>
       </c>
       <c r="C98" t="n">
         <v>72.3</v>
@@ -3802,13 +3802,13 @@
         <v>72.3</v>
       </c>
       <c r="E98" t="n">
-        <v>72.3</v>
+        <v>72.01000000000001</v>
       </c>
       <c r="F98" t="n">
-        <v>38</v>
+        <v>3289.0899</v>
       </c>
       <c r="G98" t="n">
-        <v>72.74166666666656</v>
+        <v>72.79466666666654</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3840,10 +3840,10 @@
         <v>72.3</v>
       </c>
       <c r="F99" t="n">
-        <v>745.1698</v>
+        <v>38</v>
       </c>
       <c r="G99" t="n">
-        <v>72.68883333333322</v>
+        <v>72.74166666666656</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3875,10 +3875,10 @@
         <v>72.3</v>
       </c>
       <c r="F100" t="n">
-        <v>1046.3208</v>
+        <v>745.1698</v>
       </c>
       <c r="G100" t="n">
-        <v>72.6489999999999</v>
+        <v>72.68883333333322</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>72.09999999999999</v>
+        <v>72.3</v>
       </c>
       <c r="C101" t="n">
-        <v>72.79000000000001</v>
+        <v>72.3</v>
       </c>
       <c r="D101" t="n">
-        <v>72.79000000000001</v>
+        <v>72.3</v>
       </c>
       <c r="E101" t="n">
-        <v>72.09999999999999</v>
+        <v>72.3</v>
       </c>
       <c r="F101" t="n">
-        <v>5258.2109</v>
+        <v>1046.3208</v>
       </c>
       <c r="G101" t="n">
-        <v>72.62566666666658</v>
+        <v>72.6489999999999</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3933,22 +3933,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>72.69</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="C102" t="n">
-        <v>72.69</v>
+        <v>72.79000000000001</v>
       </c>
       <c r="D102" t="n">
-        <v>72.69</v>
+        <v>72.79000000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>72.69</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="F102" t="n">
-        <v>70</v>
+        <v>5258.2109</v>
       </c>
       <c r="G102" t="n">
-        <v>72.60633333333323</v>
+        <v>72.62566666666658</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3968,22 +3968,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>72.12</v>
+        <v>72.69</v>
       </c>
       <c r="C103" t="n">
-        <v>72.12</v>
+        <v>72.69</v>
       </c>
       <c r="D103" t="n">
-        <v>72.12</v>
+        <v>72.69</v>
       </c>
       <c r="E103" t="n">
-        <v>72.12</v>
+        <v>72.69</v>
       </c>
       <c r="F103" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="G103" t="n">
-        <v>72.59216666666656</v>
+        <v>72.60633333333323</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4006,19 +4006,19 @@
         <v>72.12</v>
       </c>
       <c r="C104" t="n">
-        <v>71.86</v>
+        <v>72.12</v>
       </c>
       <c r="D104" t="n">
         <v>72.12</v>
       </c>
       <c r="E104" t="n">
-        <v>71.86</v>
+        <v>72.12</v>
       </c>
       <c r="F104" t="n">
-        <v>8886.185100000001</v>
+        <v>20</v>
       </c>
       <c r="G104" t="n">
-        <v>72.56049999999988</v>
+        <v>72.59216666666656</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4038,22 +4038,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>71.90000000000001</v>
+        <v>72.12</v>
       </c>
       <c r="C105" t="n">
-        <v>71.90000000000001</v>
+        <v>71.86</v>
       </c>
       <c r="D105" t="n">
-        <v>71.90000000000001</v>
+        <v>72.12</v>
       </c>
       <c r="E105" t="n">
-        <v>71.90000000000001</v>
+        <v>71.86</v>
       </c>
       <c r="F105" t="n">
-        <v>888.6185</v>
+        <v>8886.185100000001</v>
       </c>
       <c r="G105" t="n">
-        <v>72.54283333333321</v>
+        <v>72.56049999999988</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4076,19 +4076,19 @@
         <v>71.90000000000001</v>
       </c>
       <c r="C106" t="n">
-        <v>72.59</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="D106" t="n">
-        <v>72.77</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="E106" t="n">
         <v>71.90000000000001</v>
       </c>
       <c r="F106" t="n">
-        <v>4591.3631</v>
+        <v>888.6185</v>
       </c>
       <c r="G106" t="n">
-        <v>72.53866666666654</v>
+        <v>72.54283333333321</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4108,22 +4108,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>71.95</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="C107" t="n">
-        <v>71.98999999999999</v>
+        <v>72.59</v>
       </c>
       <c r="D107" t="n">
-        <v>72.59</v>
+        <v>72.77</v>
       </c>
       <c r="E107" t="n">
-        <v>71.95</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="F107" t="n">
-        <v>1920.0618</v>
+        <v>4591.3631</v>
       </c>
       <c r="G107" t="n">
-        <v>72.53666666666655</v>
+        <v>72.53866666666654</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4143,22 +4143,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>72</v>
+        <v>71.95</v>
       </c>
       <c r="C108" t="n">
-        <v>72.02</v>
+        <v>71.98999999999999</v>
       </c>
       <c r="D108" t="n">
-        <v>72.02</v>
+        <v>72.59</v>
       </c>
       <c r="E108" t="n">
-        <v>72</v>
+        <v>71.95</v>
       </c>
       <c r="F108" t="n">
-        <v>839.6721</v>
+        <v>1920.0618</v>
       </c>
       <c r="G108" t="n">
-        <v>72.51233333333322</v>
+        <v>72.53666666666655</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4178,22 +4178,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>72.03</v>
+        <v>72</v>
       </c>
       <c r="C109" t="n">
-        <v>72.06</v>
+        <v>72.02</v>
       </c>
       <c r="D109" t="n">
-        <v>72.06</v>
+        <v>72.02</v>
       </c>
       <c r="E109" t="n">
-        <v>72.03</v>
+        <v>72</v>
       </c>
       <c r="F109" t="n">
-        <v>776.7838</v>
+        <v>839.6721</v>
       </c>
       <c r="G109" t="n">
-        <v>72.5059999999999</v>
+        <v>72.51233333333322</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4213,7 +4213,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>72.06</v>
+        <v>72.03</v>
       </c>
       <c r="C110" t="n">
         <v>72.06</v>
@@ -4222,13 +4222,13 @@
         <v>72.06</v>
       </c>
       <c r="E110" t="n">
-        <v>72.06</v>
+        <v>72.03</v>
       </c>
       <c r="F110" t="n">
-        <v>787.5774</v>
+        <v>776.7838</v>
       </c>
       <c r="G110" t="n">
-        <v>72.48883333333325</v>
+        <v>72.5059999999999</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4260,10 +4260,10 @@
         <v>72.06</v>
       </c>
       <c r="F111" t="n">
-        <v>694.3881</v>
+        <v>787.5774</v>
       </c>
       <c r="G111" t="n">
-        <v>72.48249999999992</v>
+        <v>72.48883333333325</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4283,22 +4283,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>72.08</v>
+        <v>72.06</v>
       </c>
       <c r="C112" t="n">
-        <v>72.08</v>
+        <v>72.06</v>
       </c>
       <c r="D112" t="n">
-        <v>72.08</v>
+        <v>72.06</v>
       </c>
       <c r="E112" t="n">
-        <v>72.08</v>
+        <v>72.06</v>
       </c>
       <c r="F112" t="n">
-        <v>100.2633</v>
+        <v>694.3881</v>
       </c>
       <c r="G112" t="n">
-        <v>72.47649999999993</v>
+        <v>72.48249999999992</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4318,22 +4318,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>72.76000000000001</v>
+        <v>72.08</v>
       </c>
       <c r="C113" t="n">
-        <v>72.76000000000001</v>
+        <v>72.08</v>
       </c>
       <c r="D113" t="n">
-        <v>72.76000000000001</v>
+        <v>72.08</v>
       </c>
       <c r="E113" t="n">
-        <v>72.76000000000001</v>
+        <v>72.08</v>
       </c>
       <c r="F113" t="n">
-        <v>868.982</v>
+        <v>100.2633</v>
       </c>
       <c r="G113" t="n">
-        <v>72.48849999999993</v>
+        <v>72.47649999999993</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4353,22 +4353,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>72.8</v>
+        <v>72.76000000000001</v>
       </c>
       <c r="C114" t="n">
-        <v>72.88</v>
+        <v>72.76000000000001</v>
       </c>
       <c r="D114" t="n">
-        <v>72.89</v>
+        <v>72.76000000000001</v>
       </c>
       <c r="E114" t="n">
-        <v>72.8</v>
+        <v>72.76000000000001</v>
       </c>
       <c r="F114" t="n">
-        <v>2306.3894</v>
+        <v>868.982</v>
       </c>
       <c r="G114" t="n">
-        <v>72.49499999999993</v>
+        <v>72.48849999999993</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4388,22 +4388,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>72.76000000000001</v>
+        <v>72.8</v>
       </c>
       <c r="C115" t="n">
-        <v>72.76000000000001</v>
+        <v>72.88</v>
       </c>
       <c r="D115" t="n">
-        <v>72.76000000000001</v>
+        <v>72.89</v>
       </c>
       <c r="E115" t="n">
-        <v>72.76000000000001</v>
+        <v>72.8</v>
       </c>
       <c r="F115" t="n">
-        <v>227</v>
+        <v>2306.3894</v>
       </c>
       <c r="G115" t="n">
-        <v>72.50466666666661</v>
+        <v>72.49499999999993</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4423,22 +4423,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>72.88</v>
+        <v>72.76000000000001</v>
       </c>
       <c r="C116" t="n">
-        <v>72.88</v>
+        <v>72.76000000000001</v>
       </c>
       <c r="D116" t="n">
-        <v>72.88</v>
+        <v>72.76000000000001</v>
       </c>
       <c r="E116" t="n">
-        <v>72.88</v>
+        <v>72.76000000000001</v>
       </c>
       <c r="F116" t="n">
-        <v>3000</v>
+        <v>227</v>
       </c>
       <c r="G116" t="n">
-        <v>72.53099999999993</v>
+        <v>72.50466666666661</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4458,22 +4458,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>72.76000000000001</v>
+        <v>72.88</v>
       </c>
       <c r="C117" t="n">
-        <v>72.2</v>
+        <v>72.88</v>
       </c>
       <c r="D117" t="n">
-        <v>72.8</v>
+        <v>72.88</v>
       </c>
       <c r="E117" t="n">
-        <v>72.06</v>
+        <v>72.88</v>
       </c>
       <c r="F117" t="n">
-        <v>71725.60129999999</v>
+        <v>3000</v>
       </c>
       <c r="G117" t="n">
-        <v>72.54599999999992</v>
+        <v>72.53099999999993</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4493,22 +4493,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
+        <v>72.76000000000001</v>
+      </c>
+      <c r="C118" t="n">
+        <v>72.2</v>
+      </c>
+      <c r="D118" t="n">
+        <v>72.8</v>
+      </c>
+      <c r="E118" t="n">
         <v>72.06</v>
       </c>
-      <c r="C118" t="n">
-        <v>71.75</v>
-      </c>
-      <c r="D118" t="n">
-        <v>72.06</v>
-      </c>
-      <c r="E118" t="n">
-        <v>71.75</v>
-      </c>
       <c r="F118" t="n">
-        <v>54051.72</v>
+        <v>71725.60129999999</v>
       </c>
       <c r="G118" t="n">
-        <v>72.55349999999993</v>
+        <v>72.54599999999992</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4528,22 +4528,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
+        <v>72.06</v>
+      </c>
+      <c r="C119" t="n">
         <v>71.75</v>
       </c>
-      <c r="C119" t="n">
-        <v>70.5</v>
-      </c>
       <c r="D119" t="n">
-        <v>72.08</v>
+        <v>72.06</v>
       </c>
       <c r="E119" t="n">
-        <v>70.25</v>
+        <v>71.75</v>
       </c>
       <c r="F119" t="n">
-        <v>93358.25999999999</v>
+        <v>54051.72</v>
       </c>
       <c r="G119" t="n">
-        <v>72.54183333333326</v>
+        <v>72.55349999999993</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4563,22 +4563,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
+        <v>71.75</v>
+      </c>
+      <c r="C120" t="n">
         <v>70.5</v>
       </c>
-      <c r="C120" t="n">
-        <v>70.40000000000001</v>
-      </c>
       <c r="D120" t="n">
-        <v>70.5</v>
+        <v>72.08</v>
       </c>
       <c r="E120" t="n">
-        <v>70.40000000000001</v>
+        <v>70.25</v>
       </c>
       <c r="F120" t="n">
-        <v>4399.3021</v>
+        <v>93358.25999999999</v>
       </c>
       <c r="G120" t="n">
-        <v>72.51866666666659</v>
+        <v>72.54183333333326</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4598,22 +4598,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>70.25</v>
+        <v>70.5</v>
       </c>
       <c r="C121" t="n">
-        <v>70.05</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="D121" t="n">
-        <v>70.25</v>
+        <v>70.5</v>
       </c>
       <c r="E121" t="n">
-        <v>69.88</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="F121" t="n">
-        <v>19200</v>
+        <v>4399.3021</v>
       </c>
       <c r="G121" t="n">
-        <v>72.47783333333327</v>
+        <v>72.51866666666659</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4633,22 +4633,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
+        <v>70.25</v>
+      </c>
+      <c r="C122" t="n">
+        <v>70.05</v>
+      </c>
+      <c r="D122" t="n">
+        <v>70.25</v>
+      </c>
+      <c r="E122" t="n">
         <v>69.88</v>
       </c>
-      <c r="C122" t="n">
-        <v>70.13</v>
-      </c>
-      <c r="D122" t="n">
-        <v>70.13</v>
-      </c>
-      <c r="E122" t="n">
-        <v>69.20999999999999</v>
-      </c>
       <c r="F122" t="n">
-        <v>9953.7714</v>
+        <v>19200</v>
       </c>
       <c r="G122" t="n">
-        <v>72.42549999999991</v>
+        <v>72.47783333333327</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4668,22 +4668,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>69.2</v>
+        <v>69.88</v>
       </c>
       <c r="C123" t="n">
-        <v>68.81</v>
+        <v>70.13</v>
       </c>
       <c r="D123" t="n">
-        <v>69.2</v>
+        <v>70.13</v>
       </c>
       <c r="E123" t="n">
-        <v>68.81</v>
+        <v>69.20999999999999</v>
       </c>
       <c r="F123" t="n">
-        <v>1949.5479</v>
+        <v>9953.7714</v>
       </c>
       <c r="G123" t="n">
-        <v>72.35116666666659</v>
+        <v>72.42549999999991</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4703,22 +4703,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>70.12</v>
+        <v>69.2</v>
       </c>
       <c r="C124" t="n">
-        <v>70.12</v>
+        <v>68.81</v>
       </c>
       <c r="D124" t="n">
-        <v>70.12</v>
+        <v>69.2</v>
       </c>
       <c r="E124" t="n">
-        <v>70.12</v>
+        <v>68.81</v>
       </c>
       <c r="F124" t="n">
-        <v>883.0743</v>
+        <v>1949.5479</v>
       </c>
       <c r="G124" t="n">
-        <v>72.29849999999992</v>
+        <v>72.35116666666659</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4738,22 +4738,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>68.81</v>
+        <v>70.12</v>
       </c>
       <c r="C125" t="n">
-        <v>68.55</v>
+        <v>70.12</v>
       </c>
       <c r="D125" t="n">
-        <v>68.81</v>
+        <v>70.12</v>
       </c>
       <c r="E125" t="n">
-        <v>68.55</v>
+        <v>70.12</v>
       </c>
       <c r="F125" t="n">
-        <v>8800</v>
+        <v>883.0743</v>
       </c>
       <c r="G125" t="n">
-        <v>72.22916666666659</v>
+        <v>72.29849999999992</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4773,22 +4773,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
+        <v>68.81</v>
+      </c>
+      <c r="C126" t="n">
         <v>68.55</v>
       </c>
-      <c r="C126" t="n">
-        <v>68.5</v>
-      </c>
       <c r="D126" t="n">
+        <v>68.81</v>
+      </c>
+      <c r="E126" t="n">
         <v>68.55</v>
       </c>
-      <c r="E126" t="n">
-        <v>68.5</v>
-      </c>
       <c r="F126" t="n">
-        <v>22000</v>
+        <v>8800</v>
       </c>
       <c r="G126" t="n">
-        <v>72.15899999999992</v>
+        <v>72.22916666666659</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4808,22 +4808,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>68.51000000000001</v>
+        <v>68.55</v>
       </c>
       <c r="C127" t="n">
         <v>68.5</v>
       </c>
       <c r="D127" t="n">
-        <v>68.51000000000001</v>
+        <v>68.55</v>
       </c>
       <c r="E127" t="n">
         <v>68.5</v>
       </c>
       <c r="F127" t="n">
-        <v>20500</v>
+        <v>22000</v>
       </c>
       <c r="G127" t="n">
-        <v>72.08883333333326</v>
+        <v>72.15899999999992</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4852,13 +4852,13 @@
         <v>68.51000000000001</v>
       </c>
       <c r="E128" t="n">
-        <v>68.40000000000001</v>
+        <v>68.5</v>
       </c>
       <c r="F128" t="n">
-        <v>85763.3829</v>
+        <v>20500</v>
       </c>
       <c r="G128" t="n">
-        <v>72.01866666666659</v>
+        <v>72.08883333333326</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4878,22 +4878,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>68.5</v>
+        <v>68.51000000000001</v>
       </c>
       <c r="C129" t="n">
         <v>68.5</v>
       </c>
       <c r="D129" t="n">
-        <v>68.5</v>
+        <v>68.51000000000001</v>
       </c>
       <c r="E129" t="n">
-        <v>68.5</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="F129" t="n">
-        <v>18013.2589</v>
+        <v>85763.3829</v>
       </c>
       <c r="G129" t="n">
-        <v>71.94849999999992</v>
+        <v>72.01866666666659</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4913,22 +4913,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>68.48999999999999</v>
+        <v>68.5</v>
       </c>
       <c r="C130" t="n">
-        <v>68.40000000000001</v>
+        <v>68.5</v>
       </c>
       <c r="D130" t="n">
         <v>68.5</v>
       </c>
       <c r="E130" t="n">
-        <v>68.09999999999999</v>
+        <v>68.5</v>
       </c>
       <c r="F130" t="n">
-        <v>12818.7262</v>
+        <v>18013.2589</v>
       </c>
       <c r="G130" t="n">
-        <v>71.89016666666659</v>
+        <v>71.94849999999992</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4948,22 +4948,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
+        <v>68.48999999999999</v>
+      </c>
+      <c r="C131" t="n">
         <v>68.40000000000001</v>
-      </c>
-      <c r="C131" t="n">
-        <v>68.5</v>
       </c>
       <c r="D131" t="n">
         <v>68.5</v>
       </c>
       <c r="E131" t="n">
-        <v>68.40000000000001</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="F131" t="n">
-        <v>1592.5487</v>
+        <v>12818.7262</v>
       </c>
       <c r="G131" t="n">
-        <v>71.82016666666659</v>
+        <v>71.89016666666659</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4983,7 +4983,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>68.5</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="C132" t="n">
         <v>68.5</v>
@@ -4992,13 +4992,13 @@
         <v>68.5</v>
       </c>
       <c r="E132" t="n">
-        <v>68.5</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="F132" t="n">
-        <v>6183.3878</v>
+        <v>1592.5487</v>
       </c>
       <c r="G132" t="n">
-        <v>71.74849999999992</v>
+        <v>71.82016666666659</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5027,13 +5027,13 @@
         <v>68.5</v>
       </c>
       <c r="E133" t="n">
-        <v>68.11</v>
+        <v>68.5</v>
       </c>
       <c r="F133" t="n">
-        <v>10515.2437</v>
+        <v>6183.3878</v>
       </c>
       <c r="G133" t="n">
-        <v>71.67149999999992</v>
+        <v>71.74849999999992</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5062,13 +5062,13 @@
         <v>68.5</v>
       </c>
       <c r="E134" t="n">
-        <v>68.5</v>
+        <v>68.11</v>
       </c>
       <c r="F134" t="n">
-        <v>11142.0942</v>
+        <v>10515.2437</v>
       </c>
       <c r="G134" t="n">
-        <v>71.5911666666666</v>
+        <v>71.67149999999992</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5100,10 +5100,10 @@
         <v>68.5</v>
       </c>
       <c r="F135" t="n">
-        <v>1536.2119</v>
+        <v>11142.0942</v>
       </c>
       <c r="G135" t="n">
-        <v>71.49933333333325</v>
+        <v>71.5911666666666</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5132,13 +5132,13 @@
         <v>68.5</v>
       </c>
       <c r="E136" t="n">
-        <v>68.12</v>
+        <v>68.5</v>
       </c>
       <c r="F136" t="n">
-        <v>9847.761200000001</v>
+        <v>1536.2119</v>
       </c>
       <c r="G136" t="n">
-        <v>71.4071666666666</v>
+        <v>71.49933333333325</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5158,22 +5158,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>68.89</v>
+        <v>68.5</v>
       </c>
       <c r="C137" t="n">
-        <v>68.89</v>
+        <v>68.5</v>
       </c>
       <c r="D137" t="n">
-        <v>68.89</v>
+        <v>68.5</v>
       </c>
       <c r="E137" t="n">
-        <v>68.89</v>
+        <v>68.12</v>
       </c>
       <c r="F137" t="n">
-        <v>3000</v>
+        <v>9847.761200000001</v>
       </c>
       <c r="G137" t="n">
-        <v>71.32366666666661</v>
+        <v>71.4071666666666</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5193,22 +5193,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>68.11</v>
+        <v>68.89</v>
       </c>
       <c r="C138" t="n">
-        <v>67.52</v>
+        <v>68.89</v>
       </c>
       <c r="D138" t="n">
-        <v>68.11</v>
+        <v>68.89</v>
       </c>
       <c r="E138" t="n">
-        <v>67.52</v>
+        <v>68.89</v>
       </c>
       <c r="F138" t="n">
-        <v>11400</v>
+        <v>3000</v>
       </c>
       <c r="G138" t="n">
-        <v>71.21399999999994</v>
+        <v>71.32366666666661</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5228,22 +5228,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>67.51000000000001</v>
+        <v>68.11</v>
       </c>
       <c r="C139" t="n">
-        <v>67.51000000000001</v>
+        <v>67.52</v>
       </c>
       <c r="D139" t="n">
-        <v>67.51000000000001</v>
+        <v>68.11</v>
       </c>
       <c r="E139" t="n">
-        <v>67.51000000000001</v>
+        <v>67.52</v>
       </c>
       <c r="F139" t="n">
-        <v>15983.3984</v>
+        <v>11400</v>
       </c>
       <c r="G139" t="n">
-        <v>71.11066666666662</v>
+        <v>71.21399999999994</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5263,7 +5263,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>67.40000000000001</v>
+        <v>67.51000000000001</v>
       </c>
       <c r="C140" t="n">
         <v>67.51000000000001</v>
@@ -5272,13 +5272,13 @@
         <v>67.51000000000001</v>
       </c>
       <c r="E140" t="n">
-        <v>67.40000000000001</v>
+        <v>67.51000000000001</v>
       </c>
       <c r="F140" t="n">
-        <v>4809.2843</v>
+        <v>15983.3984</v>
       </c>
       <c r="G140" t="n">
-        <v>71.01299999999995</v>
+        <v>71.11066666666662</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5298,22 +5298,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="C141" t="n">
         <v>67.51000000000001</v>
       </c>
-      <c r="C141" t="n">
-        <v>67.98999999999999</v>
-      </c>
       <c r="D141" t="n">
-        <v>68.14</v>
+        <v>67.51000000000001</v>
       </c>
       <c r="E141" t="n">
-        <v>67.51000000000001</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="F141" t="n">
-        <v>20516</v>
+        <v>4809.2843</v>
       </c>
       <c r="G141" t="n">
-        <v>70.94083333333329</v>
+        <v>71.01299999999995</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5333,22 +5333,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>68</v>
+        <v>67.51000000000001</v>
       </c>
       <c r="C142" t="n">
-        <v>68</v>
+        <v>67.98999999999999</v>
       </c>
       <c r="D142" t="n">
-        <v>68</v>
+        <v>68.14</v>
       </c>
       <c r="E142" t="n">
-        <v>68</v>
+        <v>67.51000000000001</v>
       </c>
       <c r="F142" t="n">
-        <v>219</v>
+        <v>20516</v>
       </c>
       <c r="G142" t="n">
-        <v>70.87049999999995</v>
+        <v>70.94083333333329</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5368,22 +5368,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>68.84999999999999</v>
+        <v>68</v>
       </c>
       <c r="C143" t="n">
-        <v>68.89</v>
+        <v>68</v>
       </c>
       <c r="D143" t="n">
-        <v>68.89</v>
+        <v>68</v>
       </c>
       <c r="E143" t="n">
-        <v>68.84999999999999</v>
+        <v>68</v>
       </c>
       <c r="F143" t="n">
-        <v>30858.3237</v>
+        <v>219</v>
       </c>
       <c r="G143" t="n">
-        <v>70.81849999999994</v>
+        <v>70.87049999999995</v>
       </c>
       <c r="H143" t="n">
         <v>1</v>
@@ -5392,10 +5392,10 @@
         <v>0</v>
       </c>
       <c r="J143" t="n">
-        <v>68</v>
+        <v>67.98999999999999</v>
       </c>
       <c r="K143" t="n">
-        <v>68</v>
+        <v>67.98999999999999</v>
       </c>
       <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
@@ -5407,22 +5407,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>68.59999999999999</v>
+        <v>68.84999999999999</v>
       </c>
       <c r="C144" t="n">
-        <v>68.59999999999999</v>
+        <v>68.89</v>
       </c>
       <c r="D144" t="n">
-        <v>68.59999999999999</v>
+        <v>68.89</v>
       </c>
       <c r="E144" t="n">
-        <v>68.59999999999999</v>
+        <v>68.84999999999999</v>
       </c>
       <c r="F144" t="n">
-        <v>1000</v>
+        <v>30858.3237</v>
       </c>
       <c r="G144" t="n">
-        <v>70.76183333333329</v>
+        <v>70.81849999999994</v>
       </c>
       <c r="H144" t="n">
         <v>1</v>
@@ -5431,10 +5431,10 @@
         <v>0</v>
       </c>
       <c r="J144" t="n">
-        <v>68.89</v>
+        <v>68</v>
       </c>
       <c r="K144" t="n">
-        <v>68</v>
+        <v>67.98999999999999</v>
       </c>
       <c r="L144" t="inlineStr">
         <is>
@@ -5450,32 +5450,34 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>68.7</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="C145" t="n">
-        <v>68.79000000000001</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="D145" t="n">
-        <v>68.79000000000001</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="E145" t="n">
-        <v>68.7</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="F145" t="n">
-        <v>2745.721</v>
+        <v>1000</v>
       </c>
       <c r="G145" t="n">
-        <v>70.70649999999996</v>
+        <v>70.76183333333329</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>68.89</v>
+      </c>
       <c r="K145" t="n">
-        <v>68</v>
+        <v>67.98999999999999</v>
       </c>
       <c r="L145" t="inlineStr">
         <is>
@@ -5486,6 +5488,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>68.7</v>
+      </c>
+      <c r="C146" t="n">
+        <v>68.79000000000001</v>
+      </c>
+      <c r="D146" t="n">
+        <v>68.79000000000001</v>
+      </c>
+      <c r="E146" t="n">
+        <v>68.7</v>
+      </c>
+      <c r="F146" t="n">
+        <v>2745.721</v>
+      </c>
+      <c r="G146" t="n">
+        <v>70.70649999999996</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-20 BackTest ELF.xlsx
+++ b/BackTest/2020-01-20 BackTest ELF.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M146"/>
+  <dimension ref="A1:N156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>3218.3126</v>
       </c>
       <c r="G2" t="n">
+        <v>73.64866666666667</v>
+      </c>
+      <c r="H2" t="n">
         <v>72.14683333333321</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>17772.4941</v>
       </c>
       <c r="G3" t="n">
+        <v>73.72666666666667</v>
+      </c>
+      <c r="H3" t="n">
         <v>72.19866666666653</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>3218.3126</v>
       </c>
       <c r="G4" t="n">
+        <v>73.69800000000001</v>
+      </c>
+      <c r="H4" t="n">
         <v>72.2438333333332</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>1297.5828</v>
       </c>
       <c r="G5" t="n">
+        <v>73.72</v>
+      </c>
+      <c r="H5" t="n">
         <v>72.31033333333319</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>3515.1604</v>
       </c>
       <c r="G6" t="n">
+        <v>73.75</v>
+      </c>
+      <c r="H6" t="n">
         <v>72.36916666666653</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>8835.742099999999</v>
       </c>
       <c r="G7" t="n">
+        <v>73.76666666666667</v>
+      </c>
+      <c r="H7" t="n">
         <v>72.4368333333332</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>13561.5984</v>
       </c>
       <c r="G8" t="n">
+        <v>73.836</v>
+      </c>
+      <c r="H8" t="n">
         <v>72.50449999999987</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>142.515</v>
       </c>
       <c r="G9" t="n">
+        <v>73.904</v>
+      </c>
+      <c r="H9" t="n">
         <v>72.58149999999986</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>944.9374</v>
       </c>
       <c r="G10" t="n">
+        <v>73.97399999999999</v>
+      </c>
+      <c r="H10" t="n">
         <v>72.66699999999987</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>1097.8212</v>
       </c>
       <c r="G11" t="n">
+        <v>74.044</v>
+      </c>
+      <c r="H11" t="n">
         <v>72.7523333333332</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>200.5265</v>
       </c>
       <c r="G12" t="n">
+        <v>74.038</v>
+      </c>
+      <c r="H12" t="n">
         <v>72.79666666666655</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>6.9994</v>
       </c>
       <c r="G13" t="n">
+        <v>74.10666666666665</v>
+      </c>
+      <c r="H13" t="n">
         <v>72.83533333333322</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>1409.015</v>
       </c>
       <c r="G14" t="n">
+        <v>74.13533333333332</v>
+      </c>
+      <c r="H14" t="n">
         <v>72.86166666666655</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>3861.457</v>
       </c>
       <c r="G15" t="n">
+        <v>74.12866666666665</v>
+      </c>
+      <c r="H15" t="n">
         <v>72.89433333333322</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>11233.2694</v>
       </c>
       <c r="G16" t="n">
+        <v>74.15266666666663</v>
+      </c>
+      <c r="H16" t="n">
         <v>72.94016666666656</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>1995.6577</v>
       </c>
       <c r="G17" t="n">
+        <v>74.1673333333333</v>
+      </c>
+      <c r="H17" t="n">
         <v>72.99466666666655</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>22914.8417</v>
       </c>
       <c r="G18" t="n">
+        <v>74.1813333333333</v>
+      </c>
+      <c r="H18" t="n">
         <v>73.03216666666655</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>857.0163</v>
       </c>
       <c r="G19" t="n">
+        <v>74.26666666666665</v>
+      </c>
+      <c r="H19" t="n">
         <v>73.08499999999988</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>1586.5894</v>
       </c>
       <c r="G20" t="n">
+        <v>74.26733333333331</v>
+      </c>
+      <c r="H20" t="n">
         <v>73.12799999999989</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>222</v>
       </c>
       <c r="G21" t="n">
+        <v>74.29266666666665</v>
+      </c>
+      <c r="H21" t="n">
         <v>73.15933333333322</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>2511</v>
       </c>
       <c r="G22" t="n">
+        <v>74.31466666666664</v>
+      </c>
+      <c r="H22" t="n">
         <v>73.19566666666655</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>267.857</v>
       </c>
       <c r="G23" t="n">
+        <v>74.2773333333333</v>
+      </c>
+      <c r="H23" t="n">
         <v>73.23016666666655</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>1</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>22313.249</v>
       </c>
       <c r="G24" t="n">
+        <v>74.1513333333333</v>
+      </c>
+      <c r="H24" t="n">
         <v>73.25266666666656</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>1</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>111</v>
       </c>
       <c r="G25" t="n">
+        <v>74.14133333333329</v>
+      </c>
+      <c r="H25" t="n">
         <v>73.30883333333323</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>1</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>267.857</v>
       </c>
       <c r="G26" t="n">
+        <v>74.13066666666663</v>
+      </c>
+      <c r="H26" t="n">
         <v>73.35533333333322</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>1</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>2231.8096</v>
       </c>
       <c r="G27" t="n">
+        <v>74.19333333333329</v>
+      </c>
+      <c r="H27" t="n">
         <v>73.40999999999988</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>1</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>666</v>
       </c>
       <c r="G28" t="n">
+        <v>74.18333333333327</v>
+      </c>
+      <c r="H28" t="n">
         <v>73.46266666666655</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>1</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>7329.258</v>
       </c>
       <c r="G29" t="n">
+        <v>74.23666666666661</v>
+      </c>
+      <c r="H29" t="n">
         <v>73.51083333333322</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>1</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>588.9337</v>
       </c>
       <c r="G30" t="n">
+        <v>74.28999999999994</v>
+      </c>
+      <c r="H30" t="n">
         <v>73.5589999999999</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>1</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>1927.6477</v>
       </c>
       <c r="G31" t="n">
+        <v>74.31399999999994</v>
+      </c>
+      <c r="H31" t="n">
         <v>73.6089999999999</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>1</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>4911.0793</v>
       </c>
       <c r="G32" t="n">
+        <v>74.32133333333327</v>
+      </c>
+      <c r="H32" t="n">
         <v>73.64416666666656</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>1</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>1974.6846</v>
       </c>
       <c r="G33" t="n">
+        <v>74.38733333333327</v>
+      </c>
+      <c r="H33" t="n">
         <v>73.69383333333325</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>1</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>22324.4904</v>
       </c>
       <c r="G34" t="n">
+        <v>74.42133333333327</v>
+      </c>
+      <c r="H34" t="n">
         <v>73.7379999999999</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>1</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>111</v>
       </c>
       <c r="G35" t="n">
+        <v>74.48733333333327</v>
+      </c>
+      <c r="H35" t="n">
         <v>73.78366666666656</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>1</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>464.4556</v>
       </c>
       <c r="G36" t="n">
+        <v>74.53533333333326</v>
+      </c>
+      <c r="H36" t="n">
         <v>73.83083333333323</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>1</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>952.3121749566609</v>
       </c>
       <c r="G37" t="n">
+        <v>74.58799999999992</v>
+      </c>
+      <c r="H37" t="n">
         <v>73.87899999999991</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>1</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>834.6063</v>
       </c>
       <c r="G38" t="n">
+        <v>74.67399999999992</v>
+      </c>
+      <c r="H38" t="n">
         <v>73.93366666666657</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>1</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>221.83</v>
       </c>
       <c r="G39" t="n">
+        <v>74.84933333333326</v>
+      </c>
+      <c r="H39" t="n">
         <v>73.98216666666657</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>1</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>8273.156300000001</v>
       </c>
       <c r="G40" t="n">
+        <v>74.90799999999993</v>
+      </c>
+      <c r="H40" t="n">
         <v>74.0349999999999</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>1</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>8625.892900000001</v>
       </c>
       <c r="G41" t="n">
+        <v>74.91533333333328</v>
+      </c>
+      <c r="H41" t="n">
         <v>74.07566666666656</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>1</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>111</v>
       </c>
       <c r="G42" t="n">
+        <v>74.88933333333328</v>
+      </c>
+      <c r="H42" t="n">
         <v>74.10166666666655</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>1</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>419.647</v>
       </c>
       <c r="G43" t="n">
+        <v>74.84133333333328</v>
+      </c>
+      <c r="H43" t="n">
         <v>74.12749999999988</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>1</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>52598.3335</v>
       </c>
       <c r="G44" t="n">
+        <v>74.73266666666662</v>
+      </c>
+      <c r="H44" t="n">
         <v>74.12383333333324</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>1</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>71450.23450000001</v>
       </c>
       <c r="G45" t="n">
+        <v>74.67666666666663</v>
+      </c>
+      <c r="H45" t="n">
         <v>74.1479999999999</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>1</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>7509.5514</v>
       </c>
       <c r="G46" t="n">
+        <v>74.55999999999996</v>
+      </c>
+      <c r="H46" t="n">
         <v>74.14933333333323</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>1</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>8430.231</v>
       </c>
       <c r="G47" t="n">
+        <v>74.46266666666662</v>
+      </c>
+      <c r="H47" t="n">
         <v>74.14999999999989</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>1</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>48733.7953</v>
       </c>
       <c r="G48" t="n">
+        <v>74.25799999999995</v>
+      </c>
+      <c r="H48" t="n">
         <v>74.13833333333322</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>6.81</v>
       </c>
       <c r="G49" t="n">
+        <v>74.16333333333327</v>
+      </c>
+      <c r="H49" t="n">
         <v>74.1373333333332</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>1</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>1197.8125</v>
       </c>
       <c r="G50" t="n">
+        <v>73.99333333333328</v>
+      </c>
+      <c r="H50" t="n">
         <v>74.11699999999988</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>40.9292</v>
       </c>
       <c r="G51" t="n">
+        <v>73.85999999999994</v>
+      </c>
+      <c r="H51" t="n">
         <v>74.10949999999987</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>1634.195</v>
       </c>
       <c r="G52" t="n">
+        <v>73.68333333333329</v>
+      </c>
+      <c r="H52" t="n">
         <v>74.08816666666652</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>5939.9722</v>
       </c>
       <c r="G53" t="n">
+        <v>73.48066666666662</v>
+      </c>
+      <c r="H53" t="n">
         <v>74.06699999999985</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>24753.4073</v>
       </c>
       <c r="G54" t="n">
+        <v>73.25133333333329</v>
+      </c>
+      <c r="H54" t="n">
         <v>74.03899999999985</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>26882.39</v>
       </c>
       <c r="G55" t="n">
+        <v>73.05266666666662</v>
+      </c>
+      <c r="H55" t="n">
         <v>74.01899999999985</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>2965.6276</v>
       </c>
       <c r="G56" t="n">
+        <v>72.88533333333329</v>
+      </c>
+      <c r="H56" t="n">
         <v>73.9938333333332</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>3915.2803</v>
       </c>
       <c r="G57" t="n">
+        <v>72.69266666666661</v>
+      </c>
+      <c r="H57" t="n">
         <v>73.95333333333321</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>160</v>
       </c>
       <c r="G58" t="n">
+        <v>72.52266666666661</v>
+      </c>
+      <c r="H58" t="n">
         <v>73.91349999999989</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2619,21 @@
         <v>0.2679</v>
       </c>
       <c r="G59" t="n">
+        <v>72.41133333333327</v>
+      </c>
+      <c r="H59" t="n">
         <v>73.87899999999989</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2657,21 @@
         <v>1000</v>
       </c>
       <c r="G60" t="n">
+        <v>72.24066666666661</v>
+      </c>
+      <c r="H60" t="n">
         <v>73.83399999999989</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2695,21 @@
         <v>7</v>
       </c>
       <c r="G61" t="n">
+        <v>72.16266666666661</v>
+      </c>
+      <c r="H61" t="n">
         <v>73.79733333333323</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2733,21 @@
         <v>2976.5173</v>
       </c>
       <c r="G62" t="n">
+        <v>72.13999999999994</v>
+      </c>
+      <c r="H62" t="n">
         <v>73.77283333333322</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2771,21 @@
         <v>739.8253999999999</v>
       </c>
       <c r="G63" t="n">
+        <v>72.21733333333329</v>
+      </c>
+      <c r="H63" t="n">
         <v>73.76099999999991</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2809,21 @@
         <v>2642.896137573359</v>
       </c>
       <c r="G64" t="n">
+        <v>72.20333333333329</v>
+      </c>
+      <c r="H64" t="n">
         <v>73.76366666666658</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2847,21 @@
         <v>195.4661</v>
       </c>
       <c r="G65" t="n">
+        <v>72.25933333333327</v>
+      </c>
+      <c r="H65" t="n">
         <v>73.75183333333325</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2885,21 @@
         <v>5086.4501</v>
       </c>
       <c r="G66" t="n">
+        <v>72.23399999999995</v>
+      </c>
+      <c r="H66" t="n">
         <v>73.73049999999992</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2923,21 @@
         <v>5445.9999</v>
       </c>
       <c r="G67" t="n">
+        <v>72.25199999999995</v>
+      </c>
+      <c r="H67" t="n">
         <v>73.70949999999992</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +2961,21 @@
         <v>2800</v>
       </c>
       <c r="G68" t="n">
+        <v>72.26999999999995</v>
+      </c>
+      <c r="H68" t="n">
         <v>73.67549999999991</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +2999,21 @@
         <v>711</v>
       </c>
       <c r="G69" t="n">
+        <v>72.31466666666662</v>
+      </c>
+      <c r="H69" t="n">
         <v>73.64166666666659</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3037,21 @@
         <v>8546.8876</v>
       </c>
       <c r="G70" t="n">
+        <v>72.3293333333333</v>
+      </c>
+      <c r="H70" t="n">
         <v>73.60783333333326</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3075,21 @@
         <v>292.522</v>
       </c>
       <c r="G71" t="n">
+        <v>72.31066666666662</v>
+      </c>
+      <c r="H71" t="n">
         <v>73.56049999999992</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3113,21 @@
         <v>6.8776</v>
       </c>
       <c r="G72" t="n">
+        <v>72.40399999999997</v>
+      </c>
+      <c r="H72" t="n">
         <v>73.54483333333324</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3151,21 @@
         <v>285.6444</v>
       </c>
       <c r="G73" t="n">
+        <v>72.50399999999996</v>
+      </c>
+      <c r="H73" t="n">
         <v>73.51283333333325</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3189,21 @@
         <v>1233.8525</v>
       </c>
       <c r="G74" t="n">
+        <v>72.6253333333333</v>
+      </c>
+      <c r="H74" t="n">
         <v>73.50149999999991</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3227,21 @@
         <v>31</v>
       </c>
       <c r="G75" t="n">
+        <v>72.76666666666662</v>
+      </c>
+      <c r="H75" t="n">
         <v>73.4934999999999</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3265,21 @@
         <v>42575.4557</v>
       </c>
       <c r="G76" t="n">
+        <v>72.91466666666662</v>
+      </c>
+      <c r="H76" t="n">
         <v>73.48783333333323</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3303,21 @@
         <v>3580.0938</v>
       </c>
       <c r="G77" t="n">
+        <v>73.01666666666662</v>
+      </c>
+      <c r="H77" t="n">
         <v>73.48516666666657</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3341,21 @@
         <v>32412.9891</v>
       </c>
       <c r="G78" t="n">
+        <v>73.05866666666662</v>
+      </c>
+      <c r="H78" t="n">
         <v>73.48033333333323</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3379,21 @@
         <v>1039</v>
       </c>
       <c r="G79" t="n">
+        <v>73.11399999999996</v>
+      </c>
+      <c r="H79" t="n">
         <v>73.47549999999991</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3417,21 @@
         <v>8209.771000000001</v>
       </c>
       <c r="G80" t="n">
+        <v>73.14266666666663</v>
+      </c>
+      <c r="H80" t="n">
         <v>73.47066666666657</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3455,21 @@
         <v>6227.3271</v>
       </c>
       <c r="G81" t="n">
+        <v>73.18666666666662</v>
+      </c>
+      <c r="H81" t="n">
         <v>73.45399999999991</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3493,21 @@
         <v>21</v>
       </c>
       <c r="G82" t="n">
+        <v>73.16066666666661</v>
+      </c>
+      <c r="H82" t="n">
         <v>73.42099999999989</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3531,21 @@
         <v>21951.3037</v>
       </c>
       <c r="G83" t="n">
+        <v>73.12799999999994</v>
+      </c>
+      <c r="H83" t="n">
         <v>73.38816666666658</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3569,21 @@
         <v>33015.6452</v>
       </c>
       <c r="G84" t="n">
+        <v>73.08133333333328</v>
+      </c>
+      <c r="H84" t="n">
         <v>73.37416666666657</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3607,21 @@
         <v>17966.5193</v>
       </c>
       <c r="G85" t="n">
+        <v>73.03399999999993</v>
+      </c>
+      <c r="H85" t="n">
         <v>73.3309999999999</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3645,21 @@
         <v>49</v>
       </c>
       <c r="G86" t="n">
+        <v>73.04799999999993</v>
+      </c>
+      <c r="H86" t="n">
         <v>73.28983333333323</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +3683,21 @@
         <v>2257</v>
       </c>
       <c r="G87" t="n">
+        <v>73.05599999999991</v>
+      </c>
+      <c r="H87" t="n">
         <v>73.26049999999989</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +3721,21 @@
         <v>7</v>
       </c>
       <c r="G88" t="n">
+        <v>73.05599999999991</v>
+      </c>
+      <c r="H88" t="n">
         <v>73.23099999999991</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +3759,21 @@
         <v>49</v>
       </c>
       <c r="G89" t="n">
+        <v>73.02999999999993</v>
+      </c>
+      <c r="H89" t="n">
         <v>73.19983333333322</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +3797,21 @@
         <v>7</v>
       </c>
       <c r="G90" t="n">
+        <v>72.94199999999994</v>
+      </c>
+      <c r="H90" t="n">
         <v>73.15649999999988</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +3835,21 @@
         <v>21</v>
       </c>
       <c r="G91" t="n">
+        <v>72.80999999999993</v>
+      </c>
+      <c r="H91" t="n">
         <v>73.11183333333321</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +3873,21 @@
         <v>7</v>
       </c>
       <c r="G92" t="n">
+        <v>72.67733333333327</v>
+      </c>
+      <c r="H92" t="n">
         <v>73.07416666666654</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +3911,21 @@
         <v>7</v>
       </c>
       <c r="G93" t="n">
+        <v>72.55399999999992</v>
+      </c>
+      <c r="H93" t="n">
         <v>73.02199999999988</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +3949,21 @@
         <v>7</v>
       </c>
       <c r="G94" t="n">
+        <v>72.44466666666659</v>
+      </c>
+      <c r="H94" t="n">
         <v>72.98133333333321</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +3987,21 @@
         <v>6.8767</v>
       </c>
       <c r="G95" t="n">
+        <v>72.37933333333326</v>
+      </c>
+      <c r="H95" t="n">
         <v>72.94366666666654</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4025,21 @@
         <v>40.035</v>
       </c>
       <c r="G96" t="n">
+        <v>72.29599999999995</v>
+      </c>
+      <c r="H96" t="n">
         <v>72.89416666666654</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4063,21 @@
         <v>4742.5736</v>
       </c>
       <c r="G97" t="n">
+        <v>72.29466666666661</v>
+      </c>
+      <c r="H97" t="n">
         <v>72.84766666666654</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4101,21 @@
         <v>3289.0899</v>
       </c>
       <c r="G98" t="n">
+        <v>72.29999999999994</v>
+      </c>
+      <c r="H98" t="n">
         <v>72.79466666666654</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4139,21 @@
         <v>38</v>
       </c>
       <c r="G99" t="n">
+        <v>72.31933333333328</v>
+      </c>
+      <c r="H99" t="n">
         <v>72.74166666666656</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4177,21 @@
         <v>745.1698</v>
       </c>
       <c r="G100" t="n">
+        <v>72.33933333333327</v>
+      </c>
+      <c r="H100" t="n">
         <v>72.68883333333322</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,18 +4215,21 @@
         <v>1046.3208</v>
       </c>
       <c r="G101" t="n">
+        <v>72.35199999999993</v>
+      </c>
+      <c r="H101" t="n">
         <v>72.6489999999999</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,18 +4253,21 @@
         <v>5258.2109</v>
       </c>
       <c r="G102" t="n">
+        <v>72.34999999999994</v>
+      </c>
+      <c r="H102" t="n">
         <v>72.62566666666658</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,18 +4291,21 @@
         <v>70</v>
       </c>
       <c r="G103" t="n">
+        <v>72.34266666666662</v>
+      </c>
+      <c r="H103" t="n">
         <v>72.60633333333323</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,18 +4329,21 @@
         <v>20</v>
       </c>
       <c r="G104" t="n">
+        <v>72.30199999999995</v>
+      </c>
+      <c r="H104" t="n">
         <v>72.59216666666656</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4053,18 +4367,21 @@
         <v>8886.185100000001</v>
       </c>
       <c r="G105" t="n">
+        <v>72.29266666666662</v>
+      </c>
+      <c r="H105" t="n">
         <v>72.56049999999988</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,18 +4405,21 @@
         <v>888.6185</v>
       </c>
       <c r="G106" t="n">
+        <v>72.28399999999995</v>
+      </c>
+      <c r="H106" t="n">
         <v>72.54283333333321</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4123,18 +4443,21 @@
         <v>4591.3631</v>
       </c>
       <c r="G107" t="n">
+        <v>72.32066666666661</v>
+      </c>
+      <c r="H107" t="n">
         <v>72.53866666666654</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4158,18 +4481,21 @@
         <v>1920.0618</v>
       </c>
       <c r="G108" t="n">
+        <v>72.31666666666662</v>
+      </c>
+      <c r="H108" t="n">
         <v>72.53666666666655</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4193,18 +4519,21 @@
         <v>839.6721</v>
       </c>
       <c r="G109" t="n">
+        <v>72.28733333333328</v>
+      </c>
+      <c r="H109" t="n">
         <v>72.51233333333322</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4228,18 +4557,21 @@
         <v>776.7838</v>
       </c>
       <c r="G110" t="n">
+        <v>72.24266666666661</v>
+      </c>
+      <c r="H110" t="n">
         <v>72.5059999999999</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4263,18 +4595,21 @@
         <v>787.5774</v>
       </c>
       <c r="G111" t="n">
+        <v>72.2386666666666</v>
+      </c>
+      <c r="H111" t="n">
         <v>72.48883333333325</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4298,18 +4633,21 @@
         <v>694.3881</v>
       </c>
       <c r="G112" t="n">
+        <v>72.2226666666666</v>
+      </c>
+      <c r="H112" t="n">
         <v>72.48249999999992</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4333,18 +4671,21 @@
         <v>100.2633</v>
       </c>
       <c r="G113" t="n">
+        <v>72.20799999999993</v>
+      </c>
+      <c r="H113" t="n">
         <v>72.47649999999993</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4368,18 +4709,21 @@
         <v>868.982</v>
       </c>
       <c r="G114" t="n">
+        <v>72.2386666666666</v>
+      </c>
+      <c r="H114" t="n">
         <v>72.48849999999993</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4403,18 +4747,21 @@
         <v>2306.3894</v>
       </c>
       <c r="G115" t="n">
+        <v>72.27733333333327</v>
+      </c>
+      <c r="H115" t="n">
         <v>72.49499999999993</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4438,18 +4785,21 @@
         <v>227</v>
       </c>
       <c r="G116" t="n">
+        <v>72.30799999999995</v>
+      </c>
+      <c r="H116" t="n">
         <v>72.50466666666661</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4473,18 +4823,21 @@
         <v>3000</v>
       </c>
       <c r="G117" t="n">
+        <v>72.31399999999994</v>
+      </c>
+      <c r="H117" t="n">
         <v>72.53099999999993</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4508,18 +4861,21 @@
         <v>71725.60129999999</v>
       </c>
       <c r="G118" t="n">
+        <v>72.28133333333328</v>
+      </c>
+      <c r="H118" t="n">
         <v>72.54599999999992</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4543,18 +4899,21 @@
         <v>54051.72</v>
       </c>
       <c r="G119" t="n">
+        <v>72.2566666666666</v>
+      </c>
+      <c r="H119" t="n">
         <v>72.55349999999993</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4578,18 +4937,21 @@
         <v>93358.25999999999</v>
       </c>
       <c r="G120" t="n">
+        <v>72.16599999999994</v>
+      </c>
+      <c r="H120" t="n">
         <v>72.54183333333326</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4613,18 +4975,21 @@
         <v>4399.3021</v>
       </c>
       <c r="G121" t="n">
+        <v>72.06599999999995</v>
+      </c>
+      <c r="H121" t="n">
         <v>72.51866666666659</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4648,18 +5013,21 @@
         <v>19200</v>
       </c>
       <c r="G122" t="n">
+        <v>71.8966666666666</v>
+      </c>
+      <c r="H122" t="n">
         <v>72.47783333333327</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4683,18 +5051,21 @@
         <v>9953.7714</v>
       </c>
       <c r="G123" t="n">
+        <v>71.77266666666659</v>
+      </c>
+      <c r="H123" t="n">
         <v>72.42549999999991</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4718,18 +5089,21 @@
         <v>1949.5479</v>
       </c>
       <c r="G124" t="n">
+        <v>71.5586666666666</v>
+      </c>
+      <c r="H124" t="n">
         <v>72.35116666666659</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4753,18 +5127,21 @@
         <v>883.0743</v>
       </c>
       <c r="G125" t="n">
+        <v>71.42933333333328</v>
+      </c>
+      <c r="H125" t="n">
         <v>72.29849999999992</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4788,18 +5165,21 @@
         <v>8800</v>
       </c>
       <c r="G126" t="n">
+        <v>71.19533333333328</v>
+      </c>
+      <c r="H126" t="n">
         <v>72.22916666666659</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4823,18 +5203,21 @@
         <v>22000</v>
       </c>
       <c r="G127" t="n">
+        <v>70.95799999999994</v>
+      </c>
+      <c r="H127" t="n">
         <v>72.15899999999992</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4858,18 +5241,21 @@
         <v>20500</v>
       </c>
       <c r="G128" t="n">
+        <v>70.71933333333328</v>
+      </c>
+      <c r="H128" t="n">
         <v>72.08883333333326</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4893,18 +5279,21 @@
         <v>85763.3829</v>
       </c>
       <c r="G129" t="n">
+        <v>70.43533333333329</v>
+      </c>
+      <c r="H129" t="n">
         <v>72.01866666666659</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4928,18 +5317,21 @@
         <v>18013.2589</v>
       </c>
       <c r="G130" t="n">
+        <v>70.14333333333327</v>
+      </c>
+      <c r="H130" t="n">
         <v>71.94849999999992</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4963,18 +5355,21 @@
         <v>12818.7262</v>
       </c>
       <c r="G131" t="n">
+        <v>69.85266666666662</v>
+      </c>
+      <c r="H131" t="n">
         <v>71.89016666666659</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4998,18 +5393,21 @@
         <v>1592.5487</v>
       </c>
       <c r="G132" t="n">
+        <v>69.56066666666662</v>
+      </c>
+      <c r="H132" t="n">
         <v>71.82016666666659</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5033,18 +5431,21 @@
         <v>6183.3878</v>
       </c>
       <c r="G133" t="n">
+        <v>69.31399999999995</v>
+      </c>
+      <c r="H133" t="n">
         <v>71.74849999999992</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5068,18 +5469,21 @@
         <v>10515.2437</v>
       </c>
       <c r="G134" t="n">
+        <v>69.0973333333333</v>
+      </c>
+      <c r="H134" t="n">
         <v>71.67149999999992</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5103,18 +5507,25 @@
         <v>11142.0942</v>
       </c>
       <c r="G135" t="n">
+        <v>68.96399999999996</v>
+      </c>
+      <c r="H135" t="n">
         <v>71.5911666666666</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="L135" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5138,18 +5549,29 @@
         <v>1536.2119</v>
       </c>
       <c r="G136" t="n">
+        <v>68.83733333333329</v>
+      </c>
+      <c r="H136" t="n">
         <v>71.49933333333325</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="L136" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5173,18 +5595,29 @@
         <v>9847.761200000001</v>
       </c>
       <c r="G137" t="n">
+        <v>68.73399999999995</v>
+      </c>
+      <c r="H137" t="n">
         <v>71.4071666666666</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="L137" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5208,18 +5641,29 @@
         <v>3000</v>
       </c>
       <c r="G138" t="n">
+        <v>68.6513333333333</v>
+      </c>
+      <c r="H138" t="n">
         <v>71.32366666666661</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="L138" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5243,18 +5687,29 @@
         <v>11400</v>
       </c>
       <c r="G139" t="n">
+        <v>68.5653333333333</v>
+      </c>
+      <c r="H139" t="n">
         <v>71.21399999999994</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="n">
+        <v>68.89</v>
+      </c>
+      <c r="L139" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5278,18 +5733,27 @@
         <v>15983.3984</v>
       </c>
       <c r="G140" t="n">
+        <v>68.39133333333329</v>
+      </c>
+      <c r="H140" t="n">
         <v>71.11066666666662</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="L140" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5313,18 +5777,29 @@
         <v>4809.2843</v>
       </c>
       <c r="G141" t="n">
+        <v>68.32199999999996</v>
+      </c>
+      <c r="H141" t="n">
         <v>71.01299999999995</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="n">
+        <v>67.51000000000001</v>
+      </c>
+      <c r="L141" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5348,18 +5823,29 @@
         <v>20516</v>
       </c>
       <c r="G142" t="n">
+        <v>68.28799999999997</v>
+      </c>
+      <c r="H142" t="n">
         <v>70.94083333333329</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="n">
+        <v>67.51000000000001</v>
+      </c>
+      <c r="L142" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5383,22 +5869,29 @@
         <v>219</v>
       </c>
       <c r="G143" t="n">
+        <v>68.25466666666664</v>
+      </c>
+      <c r="H143" t="n">
         <v>70.87049999999995</v>
       </c>
-      <c r="H143" t="n">
-        <v>1</v>
-      </c>
       <c r="I143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J143" t="n">
-        <v>67.98999999999999</v>
+        <v>0</v>
       </c>
       <c r="K143" t="n">
         <v>67.98999999999999</v>
       </c>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="L143" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5422,26 +5915,29 @@
         <v>30858.3237</v>
       </c>
       <c r="G144" t="n">
+        <v>68.28066666666663</v>
+      </c>
+      <c r="H144" t="n">
         <v>70.81849999999994</v>
       </c>
-      <c r="H144" t="n">
-        <v>1</v>
-      </c>
       <c r="I144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="n">
         <v>68</v>
       </c>
-      <c r="K144" t="n">
-        <v>67.98999999999999</v>
-      </c>
-      <c r="L144" t="inlineStr">
+      <c r="L144" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="M144" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M144" t="n">
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5465,26 +5961,29 @@
         <v>1000</v>
       </c>
       <c r="G145" t="n">
+        <v>68.28733333333329</v>
+      </c>
+      <c r="H145" t="n">
         <v>70.76183333333329</v>
       </c>
-      <c r="H145" t="n">
-        <v>1</v>
-      </c>
       <c r="I145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="n">
         <v>68.89</v>
       </c>
-      <c r="K145" t="n">
-        <v>67.98999999999999</v>
-      </c>
-      <c r="L145" t="inlineStr">
+      <c r="L145" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="M145" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M145" t="n">
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5508,18 +6007,479 @@
         <v>2745.721</v>
       </c>
       <c r="G146" t="n">
+        <v>68.31333333333329</v>
+      </c>
+      <c r="H146" t="n">
         <v>70.70649999999996</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="n">
+        <v>68.59999999999999</v>
+      </c>
+      <c r="L146" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>68.98</v>
+      </c>
+      <c r="C147" t="n">
+        <v>68.98</v>
+      </c>
+      <c r="D147" t="n">
+        <v>68.98</v>
+      </c>
+      <c r="E147" t="n">
+        <v>68.98</v>
+      </c>
+      <c r="F147" t="n">
+        <v>11375.2333</v>
+      </c>
+      <c r="G147" t="n">
+        <v>68.34533333333329</v>
+      </c>
+      <c r="H147" t="n">
+        <v>70.64249999999996</v>
+      </c>
+      <c r="I147" t="n">
+        <v>1</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="n">
+        <v>68.79000000000001</v>
+      </c>
+      <c r="L147" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="C148" t="n">
+        <v>68.3</v>
+      </c>
+      <c r="D148" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="E148" t="n">
+        <v>68.3</v>
+      </c>
+      <c r="F148" t="n">
+        <v>17900</v>
+      </c>
+      <c r="G148" t="n">
+        <v>68.33199999999995</v>
+      </c>
+      <c r="H148" t="n">
+        <v>70.56749999999995</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>68.51000000000001</v>
+      </c>
+      <c r="C149" t="n">
+        <v>68.3</v>
+      </c>
+      <c r="D149" t="n">
+        <v>68.51000000000001</v>
+      </c>
+      <c r="E149" t="n">
+        <v>68.3</v>
+      </c>
+      <c r="F149" t="n">
+        <v>9229.749100000001</v>
+      </c>
+      <c r="G149" t="n">
+        <v>68.31866666666662</v>
+      </c>
+      <c r="H149" t="n">
+        <v>70.49366666666664</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>68.51000000000001</v>
+      </c>
+      <c r="C150" t="n">
+        <v>67.83</v>
+      </c>
+      <c r="D150" t="n">
+        <v>68.51000000000001</v>
+      </c>
+      <c r="E150" t="n">
+        <v>67.83</v>
+      </c>
+      <c r="F150" t="n">
+        <v>7600</v>
+      </c>
+      <c r="G150" t="n">
+        <v>68.27399999999994</v>
+      </c>
+      <c r="H150" t="n">
+        <v>70.42416666666664</v>
+      </c>
+      <c r="I150" t="n">
+        <v>1</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="n">
+        <v>68.3</v>
+      </c>
+      <c r="L150" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>67.62</v>
+      </c>
+      <c r="C151" t="n">
+        <v>67.62</v>
+      </c>
+      <c r="D151" t="n">
+        <v>67.62</v>
+      </c>
+      <c r="E151" t="n">
+        <v>67.62</v>
+      </c>
+      <c r="F151" t="n">
+        <v>1167.4271</v>
+      </c>
+      <c r="G151" t="n">
+        <v>68.21533333333328</v>
+      </c>
+      <c r="H151" t="n">
+        <v>70.35066666666664</v>
+      </c>
+      <c r="I151" t="n">
+        <v>1</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="n">
+        <v>67.83</v>
+      </c>
+      <c r="L151" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>67.63</v>
+      </c>
+      <c r="C152" t="n">
+        <v>67</v>
+      </c>
+      <c r="D152" t="n">
+        <v>67.63</v>
+      </c>
+      <c r="E152" t="n">
+        <v>67</v>
+      </c>
+      <c r="F152" t="n">
+        <v>84310.2648</v>
+      </c>
+      <c r="G152" t="n">
+        <v>68.11533333333327</v>
+      </c>
+      <c r="H152" t="n">
+        <v>70.26666666666664</v>
+      </c>
+      <c r="I152" t="n">
+        <v>1</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="n">
+        <v>67.62</v>
+      </c>
+      <c r="L152" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>68.59999999999999</v>
+      </c>
+      <c r="C153" t="n">
+        <v>68.59999999999999</v>
+      </c>
+      <c r="D153" t="n">
+        <v>68.59999999999999</v>
+      </c>
+      <c r="E153" t="n">
+        <v>68.59999999999999</v>
+      </c>
+      <c r="F153" t="n">
+        <v>150</v>
+      </c>
+      <c r="G153" t="n">
+        <v>68.09599999999993</v>
+      </c>
+      <c r="H153" t="n">
+        <v>70.20916666666663</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>68.34999999999999</v>
+      </c>
+      <c r="C154" t="n">
+        <v>68.34999999999999</v>
+      </c>
+      <c r="D154" t="n">
+        <v>68.34999999999999</v>
+      </c>
+      <c r="E154" t="n">
+        <v>68.34</v>
+      </c>
+      <c r="F154" t="n">
+        <v>1246.3738</v>
+      </c>
+      <c r="G154" t="n">
+        <v>68.15133333333327</v>
+      </c>
+      <c r="H154" t="n">
+        <v>70.14066666666665</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>68.23999999999999</v>
+      </c>
+      <c r="C155" t="n">
+        <v>68.23999999999999</v>
+      </c>
+      <c r="D155" t="n">
+        <v>68.23999999999999</v>
+      </c>
+      <c r="E155" t="n">
+        <v>68.23999999999999</v>
+      </c>
+      <c r="F155" t="n">
+        <v>59.7591</v>
+      </c>
+      <c r="G155" t="n">
+        <v>68.19999999999995</v>
+      </c>
+      <c r="H155" t="n">
+        <v>70.06583333333332</v>
+      </c>
+      <c r="I155" t="n">
+        <v>1</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="n">
+        <v>68.34999999999999</v>
+      </c>
+      <c r="L155" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>68.34</v>
+      </c>
+      <c r="C156" t="n">
+        <v>68.18000000000001</v>
+      </c>
+      <c r="D156" t="n">
+        <v>68.34</v>
+      </c>
+      <c r="E156" t="n">
+        <v>68.18000000000001</v>
+      </c>
+      <c r="F156" t="n">
+        <v>2275.7934</v>
+      </c>
+      <c r="G156" t="n">
+        <v>68.24466666666662</v>
+      </c>
+      <c r="H156" t="n">
+        <v>70.00016666666666</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-20 BackTest ELF.xlsx
+++ b/BackTest/2020-01-20 BackTest ELF.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N156"/>
+  <dimension ref="A1:M185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>MA60</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>73.97</v>
+        <v>72.2</v>
       </c>
       <c r="C2" t="n">
-        <v>73.97</v>
+        <v>72.2</v>
       </c>
       <c r="D2" t="n">
-        <v>73.97</v>
+        <v>72.2</v>
       </c>
       <c r="E2" t="n">
-        <v>73.97</v>
+        <v>72.2</v>
       </c>
       <c r="F2" t="n">
-        <v>3218.3126</v>
+        <v>133.6843</v>
       </c>
       <c r="G2" t="n">
-        <v>73.64866666666667</v>
+        <v>-279440.3686937921</v>
       </c>
       <c r="H2" t="n">
-        <v>72.14683333333321</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>73.88</v>
+        <v>72.25</v>
       </c>
       <c r="C3" t="n">
-        <v>73.98</v>
+        <v>72.25</v>
       </c>
       <c r="D3" t="n">
-        <v>73.98</v>
+        <v>72.25</v>
       </c>
       <c r="E3" t="n">
-        <v>73.88</v>
+        <v>72.25</v>
       </c>
       <c r="F3" t="n">
-        <v>17772.4941</v>
+        <v>518</v>
       </c>
       <c r="G3" t="n">
-        <v>73.72666666666667</v>
+        <v>-278922.3686937921</v>
       </c>
       <c r="H3" t="n">
-        <v>72.19866666666653</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>73.11</v>
+        <v>72.25</v>
       </c>
       <c r="C4" t="n">
-        <v>73.11</v>
+        <v>72.25</v>
       </c>
       <c r="D4" t="n">
-        <v>73.11</v>
+        <v>72.25</v>
       </c>
       <c r="E4" t="n">
-        <v>73.11</v>
+        <v>72.25</v>
       </c>
       <c r="F4" t="n">
-        <v>3218.3126</v>
+        <v>600</v>
       </c>
       <c r="G4" t="n">
-        <v>73.69800000000001</v>
+        <v>-278922.3686937921</v>
       </c>
       <c r="H4" t="n">
-        <v>72.2438333333332</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,36 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>73.98999999999999</v>
+        <v>72.26000000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>73.98999999999999</v>
+        <v>72.26000000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>73.98999999999999</v>
+        <v>72.26000000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>73.98999999999999</v>
+        <v>72.26000000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>1297.5828</v>
+        <v>1218.2455</v>
       </c>
       <c r="G5" t="n">
-        <v>73.72</v>
+        <v>-277704.1231937921</v>
       </c>
       <c r="H5" t="n">
-        <v>72.31033333333319</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -590,36 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>74</v>
+        <v>72.2</v>
       </c>
       <c r="C6" t="n">
-        <v>73.98999999999999</v>
+        <v>72.2</v>
       </c>
       <c r="D6" t="n">
-        <v>74.09</v>
+        <v>72.2</v>
       </c>
       <c r="E6" t="n">
-        <v>73.98999999999999</v>
+        <v>72.2</v>
       </c>
       <c r="F6" t="n">
-        <v>3515.1604</v>
+        <v>5.644</v>
       </c>
       <c r="G6" t="n">
-        <v>73.75</v>
+        <v>-277709.7671937921</v>
       </c>
       <c r="H6" t="n">
-        <v>72.36916666666653</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -628,36 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>73.97</v>
+        <v>71.73</v>
       </c>
       <c r="C7" t="n">
-        <v>73.97</v>
+        <v>72.2</v>
       </c>
       <c r="D7" t="n">
-        <v>73.98</v>
+        <v>72.2</v>
       </c>
       <c r="E7" t="n">
-        <v>73.97</v>
+        <v>71.73</v>
       </c>
       <c r="F7" t="n">
-        <v>8835.742099999999</v>
+        <v>2007.6165</v>
       </c>
       <c r="G7" t="n">
-        <v>73.76666666666667</v>
+        <v>-277709.7671937921</v>
       </c>
       <c r="H7" t="n">
-        <v>72.4368333333332</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,36 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>73.98999999999999</v>
+        <v>72.31999999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>74.75</v>
+        <v>72.56999999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>74.75</v>
+        <v>72.56999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>73.98999999999999</v>
+        <v>72.31999999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>13561.5984</v>
+        <v>20000</v>
       </c>
       <c r="G8" t="n">
-        <v>73.836</v>
+        <v>-257709.7671937921</v>
       </c>
       <c r="H8" t="n">
-        <v>72.50449999999987</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -704,36 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>74.73999999999999</v>
+        <v>72.3</v>
       </c>
       <c r="C9" t="n">
-        <v>74.73999999999999</v>
+        <v>72.3</v>
       </c>
       <c r="D9" t="n">
-        <v>74.73999999999999</v>
+        <v>72.3</v>
       </c>
       <c r="E9" t="n">
-        <v>74.73999999999999</v>
+        <v>72.3</v>
       </c>
       <c r="F9" t="n">
-        <v>142.515</v>
+        <v>1312.2433</v>
       </c>
       <c r="G9" t="n">
-        <v>73.904</v>
+        <v>-259022.0104937921</v>
       </c>
       <c r="H9" t="n">
-        <v>72.58149999999986</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,36 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>74.73999999999999</v>
+        <v>72.25</v>
       </c>
       <c r="C10" t="n">
-        <v>74.73999999999999</v>
+        <v>72.25</v>
       </c>
       <c r="D10" t="n">
-        <v>74.73999999999999</v>
+        <v>72.25</v>
       </c>
       <c r="E10" t="n">
-        <v>74.73999999999999</v>
+        <v>72.25</v>
       </c>
       <c r="F10" t="n">
-        <v>944.9374</v>
+        <v>1233.8525</v>
       </c>
       <c r="G10" t="n">
-        <v>73.97399999999999</v>
+        <v>-260255.8629937921</v>
       </c>
       <c r="H10" t="n">
-        <v>72.66699999999987</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -780,36 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>73.98999999999999</v>
+        <v>72.63</v>
       </c>
       <c r="C11" t="n">
-        <v>74.73999999999999</v>
+        <v>72.63</v>
       </c>
       <c r="D11" t="n">
-        <v>74.73999999999999</v>
+        <v>72.63</v>
       </c>
       <c r="E11" t="n">
-        <v>73.98999999999999</v>
+        <v>72.63</v>
       </c>
       <c r="F11" t="n">
-        <v>1097.8212</v>
+        <v>375.6556</v>
       </c>
       <c r="G11" t="n">
-        <v>74.044</v>
+        <v>-259880.2073937921</v>
       </c>
       <c r="H11" t="n">
-        <v>72.7523333333332</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,36 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>73.64</v>
+        <v>72.3</v>
       </c>
       <c r="C12" t="n">
-        <v>73.64</v>
+        <v>72.3</v>
       </c>
       <c r="D12" t="n">
-        <v>73.64</v>
+        <v>72.3</v>
       </c>
       <c r="E12" t="n">
-        <v>73.64</v>
+        <v>72.3</v>
       </c>
       <c r="F12" t="n">
-        <v>200.5265</v>
+        <v>1293.2763</v>
       </c>
       <c r="G12" t="n">
-        <v>74.038</v>
+        <v>-261173.4836937921</v>
       </c>
       <c r="H12" t="n">
-        <v>72.79666666666655</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -856,36 +818,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>74.72</v>
+        <v>73</v>
       </c>
       <c r="C13" t="n">
-        <v>74.72</v>
+        <v>73.19</v>
       </c>
       <c r="D13" t="n">
-        <v>74.72</v>
+        <v>73.19</v>
       </c>
       <c r="E13" t="n">
-        <v>74.72</v>
+        <v>73</v>
       </c>
       <c r="F13" t="n">
-        <v>6.9994</v>
+        <v>136.6826069135128</v>
       </c>
       <c r="G13" t="n">
-        <v>74.10666666666665</v>
+        <v>-261036.8010868786</v>
       </c>
       <c r="H13" t="n">
-        <v>72.83533333333322</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>1</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -894,36 +853,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>73.8</v>
+        <v>72.31999999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>73.8</v>
+        <v>72.31</v>
       </c>
       <c r="D14" t="n">
-        <v>73.8</v>
+        <v>72.31999999999999</v>
       </c>
       <c r="E14" t="n">
-        <v>73.8</v>
+        <v>72.31</v>
       </c>
       <c r="F14" t="n">
-        <v>1409.015</v>
+        <v>12546.8893</v>
       </c>
       <c r="G14" t="n">
-        <v>74.13533333333332</v>
+        <v>-273583.6903868786</v>
       </c>
       <c r="H14" t="n">
-        <v>72.86166666666655</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -932,36 +888,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>73.8</v>
+        <v>72.89</v>
       </c>
       <c r="C15" t="n">
-        <v>73.8</v>
+        <v>72.88</v>
       </c>
       <c r="D15" t="n">
-        <v>73.8</v>
+        <v>72.89</v>
       </c>
       <c r="E15" t="n">
-        <v>73.8</v>
+        <v>72.88</v>
       </c>
       <c r="F15" t="n">
-        <v>3861.457</v>
+        <v>6610.7466</v>
       </c>
       <c r="G15" t="n">
-        <v>74.12866666666665</v>
+        <v>-266972.9437868786</v>
       </c>
       <c r="H15" t="n">
-        <v>72.89433333333322</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -970,36 +923,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>73.66</v>
+        <v>72.86</v>
       </c>
       <c r="C16" t="n">
-        <v>74.34999999999999</v>
+        <v>72.8</v>
       </c>
       <c r="D16" t="n">
-        <v>74.34999999999999</v>
+        <v>72.86</v>
       </c>
       <c r="E16" t="n">
-        <v>73.3</v>
+        <v>72.8</v>
       </c>
       <c r="F16" t="n">
-        <v>11233.2694</v>
+        <v>19207.6309</v>
       </c>
       <c r="G16" t="n">
-        <v>74.15266666666663</v>
+        <v>-286180.5746868786</v>
       </c>
       <c r="H16" t="n">
-        <v>72.94016666666656</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>1</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,36 +958,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>74.19</v>
+        <v>72.81999999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>74.19</v>
+        <v>72.81</v>
       </c>
       <c r="D17" t="n">
-        <v>74.19</v>
+        <v>72.81999999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>74.19</v>
+        <v>72.81</v>
       </c>
       <c r="F17" t="n">
-        <v>1995.6577</v>
+        <v>2944.421</v>
       </c>
       <c r="G17" t="n">
-        <v>74.1673333333333</v>
+        <v>-283236.1536868786</v>
       </c>
       <c r="H17" t="n">
-        <v>72.99466666666655</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>1</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1046,36 +993,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>74.18000000000001</v>
+        <v>73.39</v>
       </c>
       <c r="C18" t="n">
-        <v>74.19</v>
+        <v>73.54000000000001</v>
       </c>
       <c r="D18" t="n">
-        <v>74.3</v>
+        <v>73.54000000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>74.18000000000001</v>
+        <v>73.39</v>
       </c>
       <c r="F18" t="n">
-        <v>22914.8417</v>
+        <v>4040.4623</v>
       </c>
       <c r="G18" t="n">
-        <v>74.1813333333333</v>
+        <v>-279195.6913868786</v>
       </c>
       <c r="H18" t="n">
-        <v>73.03216666666655</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>1</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1084,36 +1028,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>74.39</v>
+        <v>73.54000000000001</v>
       </c>
       <c r="C19" t="n">
-        <v>74.39</v>
+        <v>73.66</v>
       </c>
       <c r="D19" t="n">
-        <v>74.39</v>
+        <v>73.66</v>
       </c>
       <c r="E19" t="n">
-        <v>74.39</v>
+        <v>73.54000000000001</v>
       </c>
       <c r="F19" t="n">
-        <v>857.0163</v>
+        <v>88126.36719999999</v>
       </c>
       <c r="G19" t="n">
-        <v>74.26666666666665</v>
+        <v>-191069.3241868786</v>
       </c>
       <c r="H19" t="n">
-        <v>73.08499999999988</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>1</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1122,36 +1063,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>74</v>
+        <v>73.54000000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>74</v>
+        <v>73.54000000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>74.37</v>
+        <v>73.66</v>
       </c>
       <c r="E20" t="n">
-        <v>74</v>
+        <v>73.54000000000001</v>
       </c>
       <c r="F20" t="n">
-        <v>1586.5894</v>
+        <v>74016.16529999999</v>
       </c>
       <c r="G20" t="n">
-        <v>74.26733333333331</v>
+        <v>-265085.4894868786</v>
       </c>
       <c r="H20" t="n">
-        <v>73.12799999999989</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>1</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1160,36 +1098,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>74.37</v>
+        <v>73.67</v>
       </c>
       <c r="C21" t="n">
-        <v>74.37</v>
+        <v>73.72</v>
       </c>
       <c r="D21" t="n">
-        <v>74.37</v>
+        <v>73.72</v>
       </c>
       <c r="E21" t="n">
-        <v>74.37</v>
+        <v>73.67</v>
       </c>
       <c r="F21" t="n">
-        <v>222</v>
+        <v>1850.0078</v>
       </c>
       <c r="G21" t="n">
-        <v>74.29266666666665</v>
+        <v>-263235.4816868786</v>
       </c>
       <c r="H21" t="n">
-        <v>73.15933333333322</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>1</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,36 +1133,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>74.37</v>
+        <v>73.7</v>
       </c>
       <c r="C22" t="n">
-        <v>74.3</v>
+        <v>73.70999999999999</v>
       </c>
       <c r="D22" t="n">
-        <v>74.37</v>
+        <v>73.70999999999999</v>
       </c>
       <c r="E22" t="n">
-        <v>74.3</v>
+        <v>73.66</v>
       </c>
       <c r="F22" t="n">
-        <v>2511</v>
+        <v>26834.055</v>
       </c>
       <c r="G22" t="n">
-        <v>74.31466666666664</v>
+        <v>-290069.5366868786</v>
       </c>
       <c r="H22" t="n">
-        <v>73.19566666666655</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>1</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1236,36 +1168,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>74.19</v>
+        <v>73.72</v>
       </c>
       <c r="C23" t="n">
-        <v>74.19</v>
+        <v>73.72</v>
       </c>
       <c r="D23" t="n">
-        <v>74.19</v>
+        <v>73.72</v>
       </c>
       <c r="E23" t="n">
-        <v>74.19</v>
+        <v>73.72</v>
       </c>
       <c r="F23" t="n">
-        <v>267.857</v>
+        <v>1372.0123</v>
       </c>
       <c r="G23" t="n">
-        <v>74.2773333333333</v>
+        <v>-288697.5243868786</v>
       </c>
       <c r="H23" t="n">
-        <v>73.23016666666655</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>1</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1274,36 +1203,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>73.7</v>
+        <v>73.69</v>
       </c>
       <c r="C24" t="n">
-        <v>72.84999999999999</v>
+        <v>73.69</v>
       </c>
       <c r="D24" t="n">
-        <v>73.7</v>
+        <v>73.69</v>
       </c>
       <c r="E24" t="n">
-        <v>72.84999999999999</v>
+        <v>73.69</v>
       </c>
       <c r="F24" t="n">
-        <v>22313.249</v>
+        <v>3000</v>
       </c>
       <c r="G24" t="n">
-        <v>74.1513333333333</v>
+        <v>-291697.5243868786</v>
       </c>
       <c r="H24" t="n">
-        <v>73.25266666666656</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>1</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1312,36 +1238,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>74.59</v>
+        <v>73.69</v>
       </c>
       <c r="C25" t="n">
-        <v>74.59</v>
+        <v>73.69</v>
       </c>
       <c r="D25" t="n">
-        <v>74.59</v>
+        <v>73.69</v>
       </c>
       <c r="E25" t="n">
-        <v>74.59</v>
+        <v>73.69</v>
       </c>
       <c r="F25" t="n">
-        <v>111</v>
+        <v>4070.2464</v>
       </c>
       <c r="G25" t="n">
-        <v>74.14133333333329</v>
+        <v>-291697.5243868786</v>
       </c>
       <c r="H25" t="n">
-        <v>73.30883333333323</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>1</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1350,36 +1273,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>74.58</v>
+        <v>73.73</v>
       </c>
       <c r="C26" t="n">
-        <v>74.58</v>
+        <v>73.73</v>
       </c>
       <c r="D26" t="n">
-        <v>74.58</v>
+        <v>73.73</v>
       </c>
       <c r="E26" t="n">
-        <v>74.58</v>
+        <v>73.73</v>
       </c>
       <c r="F26" t="n">
-        <v>267.857</v>
+        <v>2741.4062</v>
       </c>
       <c r="G26" t="n">
-        <v>74.13066666666663</v>
+        <v>-288956.1181868786</v>
       </c>
       <c r="H26" t="n">
-        <v>73.35533333333322</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>1</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1388,36 +1308,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>74.59</v>
+        <v>73.73</v>
       </c>
       <c r="C27" t="n">
-        <v>74.58</v>
+        <v>73.69</v>
       </c>
       <c r="D27" t="n">
-        <v>74.59</v>
+        <v>73.73</v>
       </c>
       <c r="E27" t="n">
-        <v>74.58</v>
+        <v>73.69</v>
       </c>
       <c r="F27" t="n">
-        <v>2231.8096</v>
+        <v>17544.909</v>
       </c>
       <c r="G27" t="n">
-        <v>74.19333333333329</v>
+        <v>-306501.0271868785</v>
       </c>
       <c r="H27" t="n">
-        <v>73.40999999999988</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>1</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1426,36 +1343,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>74.59</v>
+        <v>73.37</v>
       </c>
       <c r="C28" t="n">
-        <v>74.56999999999999</v>
+        <v>73.37</v>
       </c>
       <c r="D28" t="n">
-        <v>74.59</v>
+        <v>73.37</v>
       </c>
       <c r="E28" t="n">
-        <v>74.56999999999999</v>
+        <v>73.37</v>
       </c>
       <c r="F28" t="n">
-        <v>666</v>
+        <v>225.388</v>
       </c>
       <c r="G28" t="n">
-        <v>74.18333333333327</v>
+        <v>-306726.4151868785</v>
       </c>
       <c r="H28" t="n">
-        <v>73.46266666666655</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>1</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1464,36 +1378,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>74.56999999999999</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="C29" t="n">
-        <v>74.59999999999999</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>74.59999999999999</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>74.56999999999999</v>
+        <v>72.84</v>
       </c>
       <c r="F29" t="n">
-        <v>7329.258</v>
+        <v>83929.5667</v>
       </c>
       <c r="G29" t="n">
-        <v>74.23666666666661</v>
+        <v>-222796.8484868785</v>
       </c>
       <c r="H29" t="n">
-        <v>73.51083333333322</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>1</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1502,36 +1413,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>74.59999999999999</v>
+        <v>73.89</v>
       </c>
       <c r="C30" t="n">
-        <v>74.59999999999999</v>
+        <v>73.98999999999999</v>
       </c>
       <c r="D30" t="n">
-        <v>74.59999999999999</v>
+        <v>73.98999999999999</v>
       </c>
       <c r="E30" t="n">
-        <v>74.59999999999999</v>
+        <v>73.89</v>
       </c>
       <c r="F30" t="n">
-        <v>588.9337</v>
+        <v>15454.9191</v>
       </c>
       <c r="G30" t="n">
-        <v>74.28999999999994</v>
+        <v>-207341.9293868785</v>
       </c>
       <c r="H30" t="n">
-        <v>73.5589999999999</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>1</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1540,36 +1448,33 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>74.59999999999999</v>
+        <v>73.97</v>
       </c>
       <c r="C31" t="n">
-        <v>74.70999999999999</v>
+        <v>73.97</v>
       </c>
       <c r="D31" t="n">
-        <v>74.70999999999999</v>
+        <v>73.97</v>
       </c>
       <c r="E31" t="n">
-        <v>74.59999999999999</v>
+        <v>73.97</v>
       </c>
       <c r="F31" t="n">
-        <v>1927.6477</v>
+        <v>3218.3126</v>
       </c>
       <c r="G31" t="n">
-        <v>74.31399999999994</v>
+        <v>-210560.2419868785</v>
       </c>
       <c r="H31" t="n">
-        <v>73.6089999999999</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>1</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1578,36 +1483,33 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>74.72</v>
+        <v>73.88</v>
       </c>
       <c r="C32" t="n">
-        <v>74.3</v>
+        <v>73.98</v>
       </c>
       <c r="D32" t="n">
-        <v>74.77</v>
+        <v>73.98</v>
       </c>
       <c r="E32" t="n">
-        <v>74.3</v>
+        <v>73.88</v>
       </c>
       <c r="F32" t="n">
-        <v>4911.0793</v>
+        <v>17772.4941</v>
       </c>
       <c r="G32" t="n">
-        <v>74.32133333333327</v>
+        <v>-192787.7478868785</v>
       </c>
       <c r="H32" t="n">
-        <v>73.64416666666656</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>1</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1616,36 +1518,33 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>74.77</v>
+        <v>73.11</v>
       </c>
       <c r="C33" t="n">
-        <v>75.18000000000001</v>
+        <v>73.11</v>
       </c>
       <c r="D33" t="n">
-        <v>75.18000000000001</v>
+        <v>73.11</v>
       </c>
       <c r="E33" t="n">
-        <v>74.77</v>
+        <v>73.11</v>
       </c>
       <c r="F33" t="n">
-        <v>1974.6846</v>
+        <v>3218.3126</v>
       </c>
       <c r="G33" t="n">
-        <v>74.38733333333327</v>
+        <v>-196006.0604868785</v>
       </c>
       <c r="H33" t="n">
-        <v>73.69383333333325</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>1</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1654,36 +1553,33 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>75.09999999999999</v>
+        <v>73.98999999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>74.90000000000001</v>
+        <v>73.98999999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>75.09999999999999</v>
+        <v>73.98999999999999</v>
       </c>
       <c r="E34" t="n">
-        <v>74.31</v>
+        <v>73.98999999999999</v>
       </c>
       <c r="F34" t="n">
-        <v>22324.4904</v>
+        <v>1297.5828</v>
       </c>
       <c r="G34" t="n">
-        <v>74.42133333333327</v>
+        <v>-194708.4776868785</v>
       </c>
       <c r="H34" t="n">
-        <v>73.7379999999999</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>1</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1692,36 +1588,33 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>74.98999999999999</v>
+        <v>74</v>
       </c>
       <c r="C35" t="n">
-        <v>74.98999999999999</v>
+        <v>73.98999999999999</v>
       </c>
       <c r="D35" t="n">
-        <v>74.98999999999999</v>
+        <v>74.09</v>
       </c>
       <c r="E35" t="n">
-        <v>74.98999999999999</v>
+        <v>73.98999999999999</v>
       </c>
       <c r="F35" t="n">
-        <v>111</v>
+        <v>3515.1604</v>
       </c>
       <c r="G35" t="n">
-        <v>74.48733333333327</v>
+        <v>-194708.4776868785</v>
       </c>
       <c r="H35" t="n">
-        <v>73.78366666666656</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>1</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1730,36 +1623,33 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>75.09</v>
+        <v>73.97</v>
       </c>
       <c r="C36" t="n">
-        <v>75.09</v>
+        <v>73.97</v>
       </c>
       <c r="D36" t="n">
-        <v>75.09</v>
+        <v>73.98</v>
       </c>
       <c r="E36" t="n">
-        <v>75.09</v>
+        <v>73.97</v>
       </c>
       <c r="F36" t="n">
-        <v>464.4556</v>
+        <v>8835.742099999999</v>
       </c>
       <c r="G36" t="n">
-        <v>74.53533333333326</v>
+        <v>-203544.2197868785</v>
       </c>
       <c r="H36" t="n">
-        <v>73.83083333333323</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>1</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1768,36 +1658,33 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>74.98999999999999</v>
+        <v>73.98999999999999</v>
       </c>
       <c r="C37" t="n">
-        <v>75.09</v>
+        <v>74.75</v>
       </c>
       <c r="D37" t="n">
-        <v>75.09</v>
+        <v>74.75</v>
       </c>
       <c r="E37" t="n">
-        <v>74.98999999999999</v>
+        <v>73.98999999999999</v>
       </c>
       <c r="F37" t="n">
-        <v>952.3121749566609</v>
+        <v>13561.5984</v>
       </c>
       <c r="G37" t="n">
-        <v>74.58799999999992</v>
+        <v>-189982.6213868785</v>
       </c>
       <c r="H37" t="n">
-        <v>73.87899999999991</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>1</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1806,36 +1693,33 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>75.48</v>
+        <v>74.73999999999999</v>
       </c>
       <c r="C38" t="n">
-        <v>75.48</v>
+        <v>74.73999999999999</v>
       </c>
       <c r="D38" t="n">
-        <v>75.48</v>
+        <v>74.73999999999999</v>
       </c>
       <c r="E38" t="n">
-        <v>75.48</v>
+        <v>74.73999999999999</v>
       </c>
       <c r="F38" t="n">
-        <v>834.6063</v>
+        <v>142.515</v>
       </c>
       <c r="G38" t="n">
-        <v>74.67399999999992</v>
+        <v>-190125.1363868786</v>
       </c>
       <c r="H38" t="n">
-        <v>73.93366666666657</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1844,36 +1728,33 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>75</v>
+        <v>74.73999999999999</v>
       </c>
       <c r="C39" t="n">
-        <v>75.48</v>
+        <v>74.73999999999999</v>
       </c>
       <c r="D39" t="n">
-        <v>75.48</v>
+        <v>74.73999999999999</v>
       </c>
       <c r="E39" t="n">
-        <v>75</v>
+        <v>74.73999999999999</v>
       </c>
       <c r="F39" t="n">
-        <v>221.83</v>
+        <v>944.9374</v>
       </c>
       <c r="G39" t="n">
-        <v>74.84933333333326</v>
+        <v>-190125.1363868786</v>
       </c>
       <c r="H39" t="n">
-        <v>73.98216666666657</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1882,36 +1763,33 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>75</v>
+        <v>73.98999999999999</v>
       </c>
       <c r="C40" t="n">
-        <v>75.47</v>
+        <v>74.73999999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>75.48</v>
+        <v>74.73999999999999</v>
       </c>
       <c r="E40" t="n">
-        <v>74.3</v>
+        <v>73.98999999999999</v>
       </c>
       <c r="F40" t="n">
-        <v>8273.156300000001</v>
+        <v>1097.8212</v>
       </c>
       <c r="G40" t="n">
-        <v>74.90799999999993</v>
+        <v>-190125.1363868786</v>
       </c>
       <c r="H40" t="n">
-        <v>74.0349999999999</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1920,36 +1798,33 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>74.86</v>
+        <v>73.64</v>
       </c>
       <c r="C41" t="n">
-        <v>74.69</v>
+        <v>73.64</v>
       </c>
       <c r="D41" t="n">
-        <v>74.86</v>
+        <v>73.64</v>
       </c>
       <c r="E41" t="n">
-        <v>74.69</v>
+        <v>73.64</v>
       </c>
       <c r="F41" t="n">
-        <v>8625.892900000001</v>
+        <v>200.5265</v>
       </c>
       <c r="G41" t="n">
-        <v>74.91533333333328</v>
+        <v>-190325.6628868786</v>
       </c>
       <c r="H41" t="n">
-        <v>74.07566666666656</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1958,36 +1833,33 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>74.19</v>
+        <v>74.72</v>
       </c>
       <c r="C42" t="n">
-        <v>74.19</v>
+        <v>74.72</v>
       </c>
       <c r="D42" t="n">
-        <v>74.19</v>
+        <v>74.72</v>
       </c>
       <c r="E42" t="n">
-        <v>74.19</v>
+        <v>74.72</v>
       </c>
       <c r="F42" t="n">
-        <v>111</v>
+        <v>6.9994</v>
       </c>
       <c r="G42" t="n">
-        <v>74.88933333333328</v>
+        <v>-190318.6634868786</v>
       </c>
       <c r="H42" t="n">
-        <v>74.10166666666655</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1996,36 +1868,33 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>73.84999999999999</v>
+        <v>73.8</v>
       </c>
       <c r="C43" t="n">
-        <v>73.84999999999999</v>
+        <v>73.8</v>
       </c>
       <c r="D43" t="n">
-        <v>73.84999999999999</v>
+        <v>73.8</v>
       </c>
       <c r="E43" t="n">
-        <v>73.84999999999999</v>
+        <v>73.8</v>
       </c>
       <c r="F43" t="n">
-        <v>419.647</v>
+        <v>1409.015</v>
       </c>
       <c r="G43" t="n">
-        <v>74.84133333333328</v>
+        <v>-191727.6784868786</v>
       </c>
       <c r="H43" t="n">
-        <v>74.12749999999988</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2034,36 +1903,33 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>73.76000000000001</v>
+        <v>73.8</v>
       </c>
       <c r="C44" t="n">
-        <v>72.97</v>
+        <v>73.8</v>
       </c>
       <c r="D44" t="n">
-        <v>73.76000000000001</v>
+        <v>73.8</v>
       </c>
       <c r="E44" t="n">
-        <v>72.97</v>
+        <v>73.8</v>
       </c>
       <c r="F44" t="n">
-        <v>52598.3335</v>
+        <v>3861.457</v>
       </c>
       <c r="G44" t="n">
-        <v>74.73266666666662</v>
+        <v>-191727.6784868786</v>
       </c>
       <c r="H44" t="n">
-        <v>74.12383333333324</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2072,36 +1938,33 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>73.7</v>
+        <v>73.66</v>
       </c>
       <c r="C45" t="n">
-        <v>73.76000000000001</v>
+        <v>74.34999999999999</v>
       </c>
       <c r="D45" t="n">
-        <v>73.76000000000001</v>
+        <v>74.34999999999999</v>
       </c>
       <c r="E45" t="n">
-        <v>72.97</v>
+        <v>73.3</v>
       </c>
       <c r="F45" t="n">
-        <v>71450.23450000001</v>
+        <v>11233.2694</v>
       </c>
       <c r="G45" t="n">
-        <v>74.67666666666663</v>
+        <v>-180494.4090868786</v>
       </c>
       <c r="H45" t="n">
-        <v>74.1479999999999</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2110,36 +1973,33 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>72.95999999999999</v>
+        <v>74.19</v>
       </c>
       <c r="C46" t="n">
-        <v>72.95999999999999</v>
+        <v>74.19</v>
       </c>
       <c r="D46" t="n">
-        <v>72.95999999999999</v>
+        <v>74.19</v>
       </c>
       <c r="E46" t="n">
-        <v>72.90000000000001</v>
+        <v>74.19</v>
       </c>
       <c r="F46" t="n">
-        <v>7509.5514</v>
+        <v>1995.6577</v>
       </c>
       <c r="G46" t="n">
-        <v>74.55999999999996</v>
+        <v>-182490.0667868786</v>
       </c>
       <c r="H46" t="n">
-        <v>74.14933333333323</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2148,36 +2008,33 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>72.84</v>
+        <v>74.18000000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>72.84</v>
+        <v>74.19</v>
       </c>
       <c r="D47" t="n">
-        <v>72.84</v>
+        <v>74.3</v>
       </c>
       <c r="E47" t="n">
-        <v>72.84</v>
+        <v>74.18000000000001</v>
       </c>
       <c r="F47" t="n">
-        <v>8430.231</v>
+        <v>22914.8417</v>
       </c>
       <c r="G47" t="n">
-        <v>74.46266666666662</v>
+        <v>-182490.0667868786</v>
       </c>
       <c r="H47" t="n">
-        <v>74.14999999999989</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2186,36 +2043,33 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>72.59999999999999</v>
+        <v>74.39</v>
       </c>
       <c r="C48" t="n">
-        <v>72.11</v>
+        <v>74.39</v>
       </c>
       <c r="D48" t="n">
-        <v>72.59999999999999</v>
+        <v>74.39</v>
       </c>
       <c r="E48" t="n">
-        <v>72.11</v>
+        <v>74.39</v>
       </c>
       <c r="F48" t="n">
-        <v>48733.7953</v>
+        <v>857.0163</v>
       </c>
       <c r="G48" t="n">
-        <v>74.25799999999995</v>
+        <v>-181633.0504868786</v>
       </c>
       <c r="H48" t="n">
-        <v>74.13833333333322</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2224,36 +2078,33 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>73.48</v>
+        <v>74</v>
       </c>
       <c r="C49" t="n">
-        <v>73.48</v>
+        <v>74</v>
       </c>
       <c r="D49" t="n">
-        <v>73.48</v>
+        <v>74.37</v>
       </c>
       <c r="E49" t="n">
-        <v>73.48</v>
+        <v>74</v>
       </c>
       <c r="F49" t="n">
-        <v>6.81</v>
+        <v>1586.5894</v>
       </c>
       <c r="G49" t="n">
-        <v>74.16333333333327</v>
+        <v>-183219.6398868786</v>
       </c>
       <c r="H49" t="n">
-        <v>74.1373333333332</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2262,36 +2113,33 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>72.44</v>
+        <v>74.37</v>
       </c>
       <c r="C50" t="n">
-        <v>72.44</v>
+        <v>74.37</v>
       </c>
       <c r="D50" t="n">
-        <v>72.44</v>
+        <v>74.37</v>
       </c>
       <c r="E50" t="n">
-        <v>72.44</v>
+        <v>74.37</v>
       </c>
       <c r="F50" t="n">
-        <v>1197.8125</v>
+        <v>222</v>
       </c>
       <c r="G50" t="n">
-        <v>73.99333333333328</v>
+        <v>-182997.6398868786</v>
       </c>
       <c r="H50" t="n">
-        <v>74.11699999999988</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2300,36 +2148,33 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>73.09</v>
+        <v>74.37</v>
       </c>
       <c r="C51" t="n">
-        <v>73.09</v>
+        <v>74.3</v>
       </c>
       <c r="D51" t="n">
-        <v>73.09</v>
+        <v>74.37</v>
       </c>
       <c r="E51" t="n">
-        <v>73.09</v>
+        <v>74.3</v>
       </c>
       <c r="F51" t="n">
-        <v>40.9292</v>
+        <v>2511</v>
       </c>
       <c r="G51" t="n">
-        <v>73.85999999999994</v>
+        <v>-185508.6398868786</v>
       </c>
       <c r="H51" t="n">
-        <v>74.10949999999987</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,36 +2183,33 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>72.44</v>
+        <v>74.19</v>
       </c>
       <c r="C52" t="n">
-        <v>72.44</v>
+        <v>74.19</v>
       </c>
       <c r="D52" t="n">
-        <v>72.44</v>
+        <v>74.19</v>
       </c>
       <c r="E52" t="n">
-        <v>72.44</v>
+        <v>74.19</v>
       </c>
       <c r="F52" t="n">
-        <v>1634.195</v>
+        <v>267.857</v>
       </c>
       <c r="G52" t="n">
-        <v>73.68333333333329</v>
+        <v>-185776.4968868786</v>
       </c>
       <c r="H52" t="n">
-        <v>74.08816666666652</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2376,36 +2218,33 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>72.44</v>
+        <v>73.7</v>
       </c>
       <c r="C53" t="n">
-        <v>72.44</v>
+        <v>72.84999999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>72.44</v>
+        <v>73.7</v>
       </c>
       <c r="E53" t="n">
-        <v>72.44</v>
+        <v>72.84999999999999</v>
       </c>
       <c r="F53" t="n">
-        <v>5939.9722</v>
+        <v>22313.249</v>
       </c>
       <c r="G53" t="n">
-        <v>73.48066666666662</v>
+        <v>-208089.7458868786</v>
       </c>
       <c r="H53" t="n">
-        <v>74.06699999999985</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2414,36 +2253,33 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>72.43000000000001</v>
+        <v>74.59</v>
       </c>
       <c r="C54" t="n">
-        <v>72.04000000000001</v>
+        <v>74.59</v>
       </c>
       <c r="D54" t="n">
-        <v>72.43000000000001</v>
+        <v>74.59</v>
       </c>
       <c r="E54" t="n">
-        <v>71.81999999999999</v>
+        <v>74.59</v>
       </c>
       <c r="F54" t="n">
-        <v>24753.4073</v>
+        <v>111</v>
       </c>
       <c r="G54" t="n">
-        <v>73.25133333333329</v>
+        <v>-207978.7458868786</v>
       </c>
       <c r="H54" t="n">
-        <v>74.03899999999985</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2452,36 +2288,33 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>71.8</v>
+        <v>74.58</v>
       </c>
       <c r="C55" t="n">
-        <v>72.48999999999999</v>
+        <v>74.58</v>
       </c>
       <c r="D55" t="n">
-        <v>72.48999999999999</v>
+        <v>74.58</v>
       </c>
       <c r="E55" t="n">
-        <v>71.41</v>
+        <v>74.58</v>
       </c>
       <c r="F55" t="n">
-        <v>26882.39</v>
+        <v>267.857</v>
       </c>
       <c r="G55" t="n">
-        <v>73.05266666666662</v>
+        <v>-208246.6028868786</v>
       </c>
       <c r="H55" t="n">
-        <v>74.01899999999985</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2490,36 +2323,33 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>71.31999999999999</v>
+        <v>74.59</v>
       </c>
       <c r="C56" t="n">
-        <v>72.18000000000001</v>
+        <v>74.58</v>
       </c>
       <c r="D56" t="n">
-        <v>72.18000000000001</v>
+        <v>74.59</v>
       </c>
       <c r="E56" t="n">
-        <v>71.31999999999999</v>
+        <v>74.58</v>
       </c>
       <c r="F56" t="n">
-        <v>2965.6276</v>
+        <v>2231.8096</v>
       </c>
       <c r="G56" t="n">
-        <v>72.88533333333329</v>
+        <v>-208246.6028868786</v>
       </c>
       <c r="H56" t="n">
-        <v>73.9938333333332</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2528,36 +2358,33 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>71.31</v>
+        <v>74.59</v>
       </c>
       <c r="C57" t="n">
-        <v>71.3</v>
+        <v>74.56999999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>71.31</v>
+        <v>74.59</v>
       </c>
       <c r="E57" t="n">
-        <v>71.3</v>
+        <v>74.56999999999999</v>
       </c>
       <c r="F57" t="n">
-        <v>3915.2803</v>
+        <v>666</v>
       </c>
       <c r="G57" t="n">
-        <v>72.69266666666661</v>
+        <v>-208912.6028868786</v>
       </c>
       <c r="H57" t="n">
-        <v>73.95333333333321</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2566,36 +2393,33 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>71.3</v>
+        <v>74.56999999999999</v>
       </c>
       <c r="C58" t="n">
-        <v>71.3</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="D58" t="n">
-        <v>71.3</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="E58" t="n">
-        <v>71.3</v>
+        <v>74.56999999999999</v>
       </c>
       <c r="F58" t="n">
-        <v>160</v>
+        <v>7329.258</v>
       </c>
       <c r="G58" t="n">
-        <v>72.52266666666661</v>
+        <v>-201583.3448868786</v>
       </c>
       <c r="H58" t="n">
-        <v>73.91349999999989</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2604,36 +2428,33 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>71.3</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="C59" t="n">
-        <v>71.3</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="D59" t="n">
-        <v>71.3</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="E59" t="n">
-        <v>71.3</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="F59" t="n">
-        <v>0.2679</v>
+        <v>588.9337</v>
       </c>
       <c r="G59" t="n">
-        <v>72.41133333333327</v>
+        <v>-201583.3448868786</v>
       </c>
       <c r="H59" t="n">
-        <v>73.87899999999989</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2642,36 +2463,33 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>71.3</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>71.2</v>
+        <v>74.70999999999999</v>
       </c>
       <c r="D60" t="n">
-        <v>71.3</v>
+        <v>74.70999999999999</v>
       </c>
       <c r="E60" t="n">
-        <v>71.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="F60" t="n">
-        <v>1000</v>
+        <v>1927.6477</v>
       </c>
       <c r="G60" t="n">
-        <v>72.24066666666661</v>
+        <v>-199655.6971868786</v>
       </c>
       <c r="H60" t="n">
-        <v>73.83399999999989</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2680,36 +2498,33 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>71.79000000000001</v>
+        <v>74.72</v>
       </c>
       <c r="C61" t="n">
-        <v>71.79000000000001</v>
+        <v>74.3</v>
       </c>
       <c r="D61" t="n">
-        <v>71.79000000000001</v>
+        <v>74.77</v>
       </c>
       <c r="E61" t="n">
-        <v>71.79000000000001</v>
+        <v>74.3</v>
       </c>
       <c r="F61" t="n">
-        <v>7</v>
+        <v>4911.0793</v>
       </c>
       <c r="G61" t="n">
-        <v>72.16266666666661</v>
+        <v>-204566.7764868786</v>
       </c>
       <c r="H61" t="n">
-        <v>73.79733333333323</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2718,36 +2533,33 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>71.75</v>
+        <v>74.77</v>
       </c>
       <c r="C62" t="n">
-        <v>72.5</v>
+        <v>75.18000000000001</v>
       </c>
       <c r="D62" t="n">
-        <v>72.65000000000001</v>
+        <v>75.18000000000001</v>
       </c>
       <c r="E62" t="n">
-        <v>71.75</v>
+        <v>74.77</v>
       </c>
       <c r="F62" t="n">
-        <v>2976.5173</v>
+        <v>1974.6846</v>
       </c>
       <c r="G62" t="n">
-        <v>72.13999999999994</v>
+        <v>-202592.0918868786</v>
       </c>
       <c r="H62" t="n">
-        <v>73.77283333333322</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2756,36 +2568,33 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>73.27</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>73.27</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>73.27</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="E63" t="n">
-        <v>73.27</v>
+        <v>74.31</v>
       </c>
       <c r="F63" t="n">
-        <v>739.8253999999999</v>
+        <v>22324.4904</v>
       </c>
       <c r="G63" t="n">
-        <v>72.21733333333329</v>
+        <v>-224916.5822868786</v>
       </c>
       <c r="H63" t="n">
-        <v>73.76099999999991</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,36 +2603,33 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>73.27</v>
+        <v>74.98999999999999</v>
       </c>
       <c r="C64" t="n">
-        <v>73.27</v>
+        <v>74.98999999999999</v>
       </c>
       <c r="D64" t="n">
-        <v>73.27</v>
+        <v>74.98999999999999</v>
       </c>
       <c r="E64" t="n">
-        <v>73.27</v>
+        <v>74.98999999999999</v>
       </c>
       <c r="F64" t="n">
-        <v>2642.896137573359</v>
+        <v>111</v>
       </c>
       <c r="G64" t="n">
-        <v>72.20333333333329</v>
+        <v>-224805.5822868786</v>
       </c>
       <c r="H64" t="n">
-        <v>73.76366666666658</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2832,36 +2638,33 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>73.28</v>
+        <v>75.09</v>
       </c>
       <c r="C65" t="n">
-        <v>73.28</v>
+        <v>75.09</v>
       </c>
       <c r="D65" t="n">
-        <v>73.28</v>
+        <v>75.09</v>
       </c>
       <c r="E65" t="n">
-        <v>73.28</v>
+        <v>75.09</v>
       </c>
       <c r="F65" t="n">
-        <v>195.4661</v>
+        <v>464.4556</v>
       </c>
       <c r="G65" t="n">
-        <v>72.25933333333327</v>
+        <v>-224341.1266868786</v>
       </c>
       <c r="H65" t="n">
-        <v>73.75183333333325</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2870,36 +2673,33 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>72.70999999999999</v>
+        <v>74.98999999999999</v>
       </c>
       <c r="C66" t="n">
-        <v>72.70999999999999</v>
+        <v>75.09</v>
       </c>
       <c r="D66" t="n">
-        <v>72.70999999999999</v>
+        <v>75.09</v>
       </c>
       <c r="E66" t="n">
-        <v>72.70999999999999</v>
+        <v>74.98999999999999</v>
       </c>
       <c r="F66" t="n">
-        <v>5086.4501</v>
+        <v>952.3121749566609</v>
       </c>
       <c r="G66" t="n">
-        <v>72.23399999999995</v>
+        <v>-224341.1266868786</v>
       </c>
       <c r="H66" t="n">
-        <v>73.73049999999992</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2908,36 +2708,33 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>72.70999999999999</v>
+        <v>75.48</v>
       </c>
       <c r="C67" t="n">
-        <v>72.70999999999999</v>
+        <v>75.48</v>
       </c>
       <c r="D67" t="n">
-        <v>72.70999999999999</v>
+        <v>75.48</v>
       </c>
       <c r="E67" t="n">
-        <v>72.70999999999999</v>
+        <v>75.48</v>
       </c>
       <c r="F67" t="n">
-        <v>5445.9999</v>
+        <v>834.6063</v>
       </c>
       <c r="G67" t="n">
-        <v>72.25199999999995</v>
+        <v>-223506.5203868786</v>
       </c>
       <c r="H67" t="n">
-        <v>73.70949999999992</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2946,36 +2743,33 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>72.70999999999999</v>
+        <v>75</v>
       </c>
       <c r="C68" t="n">
-        <v>72.70999999999999</v>
+        <v>75.48</v>
       </c>
       <c r="D68" t="n">
-        <v>72.70999999999999</v>
+        <v>75.48</v>
       </c>
       <c r="E68" t="n">
-        <v>72.70999999999999</v>
+        <v>75</v>
       </c>
       <c r="F68" t="n">
-        <v>2800</v>
+        <v>221.83</v>
       </c>
       <c r="G68" t="n">
-        <v>72.26999999999995</v>
+        <v>-223506.5203868786</v>
       </c>
       <c r="H68" t="n">
-        <v>73.67549999999991</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2984,36 +2778,33 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>72.70999999999999</v>
+        <v>75</v>
       </c>
       <c r="C69" t="n">
-        <v>72.70999999999999</v>
+        <v>75.47</v>
       </c>
       <c r="D69" t="n">
-        <v>72.70999999999999</v>
+        <v>75.48</v>
       </c>
       <c r="E69" t="n">
-        <v>72.70999999999999</v>
+        <v>74.3</v>
       </c>
       <c r="F69" t="n">
-        <v>711</v>
+        <v>8273.156300000001</v>
       </c>
       <c r="G69" t="n">
-        <v>72.31466666666662</v>
+        <v>-231779.6766868786</v>
       </c>
       <c r="H69" t="n">
-        <v>73.64166666666659</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3022,36 +2813,33 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>72.70999999999999</v>
+        <v>74.86</v>
       </c>
       <c r="C70" t="n">
-        <v>72.70999999999999</v>
+        <v>74.69</v>
       </c>
       <c r="D70" t="n">
-        <v>72.70999999999999</v>
+        <v>74.86</v>
       </c>
       <c r="E70" t="n">
-        <v>72.70999999999999</v>
+        <v>74.69</v>
       </c>
       <c r="F70" t="n">
-        <v>8546.8876</v>
+        <v>8625.892900000001</v>
       </c>
       <c r="G70" t="n">
-        <v>72.3293333333333</v>
+        <v>-240405.5695868786</v>
       </c>
       <c r="H70" t="n">
-        <v>73.60783333333326</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3060,36 +2848,33 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>71.90000000000001</v>
+        <v>74.19</v>
       </c>
       <c r="C71" t="n">
-        <v>71.90000000000001</v>
+        <v>74.19</v>
       </c>
       <c r="D71" t="n">
-        <v>71.90000000000001</v>
+        <v>74.19</v>
       </c>
       <c r="E71" t="n">
-        <v>71.90000000000001</v>
+        <v>74.19</v>
       </c>
       <c r="F71" t="n">
-        <v>292.522</v>
+        <v>111</v>
       </c>
       <c r="G71" t="n">
-        <v>72.31066666666662</v>
+        <v>-240516.5695868786</v>
       </c>
       <c r="H71" t="n">
-        <v>73.56049999999992</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3098,36 +2883,33 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>72.7</v>
+        <v>73.84999999999999</v>
       </c>
       <c r="C72" t="n">
-        <v>72.7</v>
+        <v>73.84999999999999</v>
       </c>
       <c r="D72" t="n">
-        <v>72.7</v>
+        <v>73.84999999999999</v>
       </c>
       <c r="E72" t="n">
-        <v>72.7</v>
+        <v>73.84999999999999</v>
       </c>
       <c r="F72" t="n">
-        <v>6.8776</v>
+        <v>419.647</v>
       </c>
       <c r="G72" t="n">
-        <v>72.40399999999997</v>
+        <v>-240936.2165868786</v>
       </c>
       <c r="H72" t="n">
-        <v>73.54483333333324</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3136,36 +2918,33 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>72.8</v>
+        <v>73.76000000000001</v>
       </c>
       <c r="C73" t="n">
-        <v>72.8</v>
+        <v>72.97</v>
       </c>
       <c r="D73" t="n">
-        <v>72.8</v>
+        <v>73.76000000000001</v>
       </c>
       <c r="E73" t="n">
-        <v>72.8</v>
+        <v>72.97</v>
       </c>
       <c r="F73" t="n">
-        <v>285.6444</v>
+        <v>52598.3335</v>
       </c>
       <c r="G73" t="n">
-        <v>72.50399999999996</v>
+        <v>-293534.5500868786</v>
       </c>
       <c r="H73" t="n">
-        <v>73.51283333333325</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3174,36 +2953,33 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>73.12</v>
+        <v>73.7</v>
       </c>
       <c r="C74" t="n">
-        <v>73.12</v>
+        <v>73.76000000000001</v>
       </c>
       <c r="D74" t="n">
-        <v>73.12</v>
+        <v>73.76000000000001</v>
       </c>
       <c r="E74" t="n">
-        <v>73.12</v>
+        <v>72.97</v>
       </c>
       <c r="F74" t="n">
-        <v>1233.8525</v>
+        <v>71450.23450000001</v>
       </c>
       <c r="G74" t="n">
-        <v>72.6253333333333</v>
+        <v>-222084.3155868786</v>
       </c>
       <c r="H74" t="n">
-        <v>73.50149999999991</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3212,36 +2988,33 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>73.31999999999999</v>
+        <v>72.95999999999999</v>
       </c>
       <c r="C75" t="n">
-        <v>73.31999999999999</v>
+        <v>72.95999999999999</v>
       </c>
       <c r="D75" t="n">
-        <v>73.31999999999999</v>
+        <v>72.95999999999999</v>
       </c>
       <c r="E75" t="n">
-        <v>73.31999999999999</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="F75" t="n">
-        <v>31</v>
+        <v>7509.5514</v>
       </c>
       <c r="G75" t="n">
-        <v>72.76666666666662</v>
+        <v>-229593.8669868786</v>
       </c>
       <c r="H75" t="n">
-        <v>73.4934999999999</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3250,36 +3023,33 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>73.31999999999999</v>
+        <v>72.84</v>
       </c>
       <c r="C76" t="n">
-        <v>74.01000000000001</v>
+        <v>72.84</v>
       </c>
       <c r="D76" t="n">
-        <v>74.01000000000001</v>
+        <v>72.84</v>
       </c>
       <c r="E76" t="n">
-        <v>73.31999999999999</v>
+        <v>72.84</v>
       </c>
       <c r="F76" t="n">
-        <v>42575.4557</v>
+        <v>8430.231</v>
       </c>
       <c r="G76" t="n">
-        <v>72.91466666666662</v>
+        <v>-238024.0979868786</v>
       </c>
       <c r="H76" t="n">
-        <v>73.48783333333323</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3288,36 +3058,33 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>74.03</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="C77" t="n">
-        <v>74.03</v>
+        <v>72.11</v>
       </c>
       <c r="D77" t="n">
-        <v>74.03</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="E77" t="n">
-        <v>74.03</v>
+        <v>72.11</v>
       </c>
       <c r="F77" t="n">
-        <v>3580.0938</v>
+        <v>48733.7953</v>
       </c>
       <c r="G77" t="n">
-        <v>73.01666666666662</v>
+        <v>-286757.8932868786</v>
       </c>
       <c r="H77" t="n">
-        <v>73.48516666666657</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3326,36 +3093,33 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>74.06</v>
+        <v>73.48</v>
       </c>
       <c r="C78" t="n">
-        <v>73.90000000000001</v>
+        <v>73.48</v>
       </c>
       <c r="D78" t="n">
-        <v>74.44</v>
+        <v>73.48</v>
       </c>
       <c r="E78" t="n">
-        <v>73.90000000000001</v>
+        <v>73.48</v>
       </c>
       <c r="F78" t="n">
-        <v>32412.9891</v>
+        <v>6.81</v>
       </c>
       <c r="G78" t="n">
-        <v>73.05866666666662</v>
+        <v>-286751.0832868786</v>
       </c>
       <c r="H78" t="n">
-        <v>73.48033333333323</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3364,36 +3128,33 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>74.09999999999999</v>
+        <v>72.44</v>
       </c>
       <c r="C79" t="n">
-        <v>74.09999999999999</v>
+        <v>72.44</v>
       </c>
       <c r="D79" t="n">
-        <v>74.09999999999999</v>
+        <v>72.44</v>
       </c>
       <c r="E79" t="n">
-        <v>74.09999999999999</v>
+        <v>72.44</v>
       </c>
       <c r="F79" t="n">
-        <v>1039</v>
+        <v>1197.8125</v>
       </c>
       <c r="G79" t="n">
-        <v>73.11399999999996</v>
+        <v>-287948.8957868786</v>
       </c>
       <c r="H79" t="n">
-        <v>73.47549999999991</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3402,36 +3163,33 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>73.8</v>
+        <v>73.09</v>
       </c>
       <c r="C80" t="n">
-        <v>73.70999999999999</v>
+        <v>73.09</v>
       </c>
       <c r="D80" t="n">
-        <v>73.8</v>
+        <v>73.09</v>
       </c>
       <c r="E80" t="n">
-        <v>73.56</v>
+        <v>73.09</v>
       </c>
       <c r="F80" t="n">
-        <v>8209.771000000001</v>
+        <v>40.9292</v>
       </c>
       <c r="G80" t="n">
-        <v>73.14266666666663</v>
+        <v>-287907.9665868786</v>
       </c>
       <c r="H80" t="n">
-        <v>73.47066666666657</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3440,36 +3198,33 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>73.45999999999999</v>
+        <v>72.44</v>
       </c>
       <c r="C81" t="n">
-        <v>73.37</v>
+        <v>72.44</v>
       </c>
       <c r="D81" t="n">
-        <v>73.45999999999999</v>
+        <v>72.44</v>
       </c>
       <c r="E81" t="n">
-        <v>73.37</v>
+        <v>72.44</v>
       </c>
       <c r="F81" t="n">
-        <v>6227.3271</v>
+        <v>1634.195</v>
       </c>
       <c r="G81" t="n">
-        <v>73.18666666666662</v>
+        <v>-289542.1615868786</v>
       </c>
       <c r="H81" t="n">
-        <v>73.45399999999991</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3481,33 +3236,30 @@
         <v>72.44</v>
       </c>
       <c r="C82" t="n">
-        <v>72.31999999999999</v>
+        <v>72.44</v>
       </c>
       <c r="D82" t="n">
         <v>72.44</v>
       </c>
       <c r="E82" t="n">
-        <v>72.31</v>
+        <v>72.44</v>
       </c>
       <c r="F82" t="n">
-        <v>21</v>
+        <v>5939.9722</v>
       </c>
       <c r="G82" t="n">
-        <v>73.16066666666661</v>
+        <v>-289542.1615868786</v>
       </c>
       <c r="H82" t="n">
-        <v>73.42099999999989</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3516,36 +3268,33 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>72.31999999999999</v>
+        <v>72.43000000000001</v>
       </c>
       <c r="C83" t="n">
-        <v>72.22</v>
+        <v>72.04000000000001</v>
       </c>
       <c r="D83" t="n">
-        <v>72.31999999999999</v>
+        <v>72.43000000000001</v>
       </c>
       <c r="E83" t="n">
-        <v>72.2</v>
+        <v>71.81999999999999</v>
       </c>
       <c r="F83" t="n">
-        <v>21951.3037</v>
+        <v>24753.4073</v>
       </c>
       <c r="G83" t="n">
-        <v>73.12799999999994</v>
+        <v>-314295.5688868786</v>
       </c>
       <c r="H83" t="n">
-        <v>73.38816666666658</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3554,36 +3303,33 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>72.22</v>
+        <v>71.8</v>
       </c>
       <c r="C84" t="n">
-        <v>72.01000000000001</v>
+        <v>72.48999999999999</v>
       </c>
       <c r="D84" t="n">
-        <v>73.23</v>
+        <v>72.48999999999999</v>
       </c>
       <c r="E84" t="n">
-        <v>72.01000000000001</v>
+        <v>71.41</v>
       </c>
       <c r="F84" t="n">
-        <v>33015.6452</v>
+        <v>26882.39</v>
       </c>
       <c r="G84" t="n">
-        <v>73.08133333333328</v>
+        <v>-287413.1788868786</v>
       </c>
       <c r="H84" t="n">
-        <v>73.37416666666657</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3592,36 +3338,33 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>72.09999999999999</v>
+        <v>71.31999999999999</v>
       </c>
       <c r="C85" t="n">
-        <v>72</v>
+        <v>72.18000000000001</v>
       </c>
       <c r="D85" t="n">
-        <v>72.09999999999999</v>
+        <v>72.18000000000001</v>
       </c>
       <c r="E85" t="n">
-        <v>72</v>
+        <v>71.31999999999999</v>
       </c>
       <c r="F85" t="n">
-        <v>17966.5193</v>
+        <v>2965.6276</v>
       </c>
       <c r="G85" t="n">
-        <v>73.03399999999993</v>
+        <v>-290378.8064868786</v>
       </c>
       <c r="H85" t="n">
-        <v>73.3309999999999</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3630,36 +3373,33 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>72.01000000000001</v>
+        <v>71.31</v>
       </c>
       <c r="C86" t="n">
-        <v>72.11</v>
+        <v>71.3</v>
       </c>
       <c r="D86" t="n">
-        <v>72.11</v>
+        <v>71.31</v>
       </c>
       <c r="E86" t="n">
-        <v>72.01000000000001</v>
+        <v>71.3</v>
       </c>
       <c r="F86" t="n">
-        <v>49</v>
+        <v>3915.2803</v>
       </c>
       <c r="G86" t="n">
-        <v>73.04799999999993</v>
+        <v>-294294.0867868786</v>
       </c>
       <c r="H86" t="n">
-        <v>73.28983333333323</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,36 +3408,33 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>72.16</v>
+        <v>71.3</v>
       </c>
       <c r="C87" t="n">
-        <v>72.81999999999999</v>
+        <v>71.3</v>
       </c>
       <c r="D87" t="n">
-        <v>72.81999999999999</v>
+        <v>71.3</v>
       </c>
       <c r="E87" t="n">
-        <v>72.16</v>
+        <v>71.3</v>
       </c>
       <c r="F87" t="n">
-        <v>2257</v>
+        <v>160</v>
       </c>
       <c r="G87" t="n">
-        <v>73.05599999999991</v>
+        <v>-294294.0867868786</v>
       </c>
       <c r="H87" t="n">
-        <v>73.26049999999989</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3706,36 +3443,33 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>72.8</v>
+        <v>71.3</v>
       </c>
       <c r="C88" t="n">
-        <v>72.8</v>
+        <v>71.3</v>
       </c>
       <c r="D88" t="n">
-        <v>72.8</v>
+        <v>71.3</v>
       </c>
       <c r="E88" t="n">
-        <v>72.8</v>
+        <v>71.3</v>
       </c>
       <c r="F88" t="n">
-        <v>7</v>
+        <v>0.2679</v>
       </c>
       <c r="G88" t="n">
-        <v>73.05599999999991</v>
+        <v>-294294.0867868786</v>
       </c>
       <c r="H88" t="n">
-        <v>73.23099999999991</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3744,36 +3478,33 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>72.79000000000001</v>
+        <v>71.3</v>
       </c>
       <c r="C89" t="n">
-        <v>72.73</v>
+        <v>71.2</v>
       </c>
       <c r="D89" t="n">
-        <v>72.79000000000001</v>
+        <v>71.3</v>
       </c>
       <c r="E89" t="n">
-        <v>72.73</v>
+        <v>71.2</v>
       </c>
       <c r="F89" t="n">
-        <v>49</v>
+        <v>1000</v>
       </c>
       <c r="G89" t="n">
-        <v>73.02999999999993</v>
+        <v>-295294.0867868786</v>
       </c>
       <c r="H89" t="n">
-        <v>73.19983333333322</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3782,36 +3513,33 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>72</v>
+        <v>71.79000000000001</v>
       </c>
       <c r="C90" t="n">
-        <v>72</v>
+        <v>71.79000000000001</v>
       </c>
       <c r="D90" t="n">
-        <v>72</v>
+        <v>71.79000000000001</v>
       </c>
       <c r="E90" t="n">
-        <v>72</v>
+        <v>71.79000000000001</v>
       </c>
       <c r="F90" t="n">
         <v>7</v>
       </c>
       <c r="G90" t="n">
-        <v>72.94199999999994</v>
+        <v>-295287.0867868786</v>
       </c>
       <c r="H90" t="n">
-        <v>73.15649999999988</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3820,36 +3548,33 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>72.01000000000001</v>
+        <v>71.75</v>
       </c>
       <c r="C91" t="n">
-        <v>72.03</v>
+        <v>72.5</v>
       </c>
       <c r="D91" t="n">
-        <v>72.03</v>
+        <v>72.65000000000001</v>
       </c>
       <c r="E91" t="n">
-        <v>72.01000000000001</v>
+        <v>71.75</v>
       </c>
       <c r="F91" t="n">
-        <v>21</v>
+        <v>2976.5173</v>
       </c>
       <c r="G91" t="n">
-        <v>72.80999999999993</v>
+        <v>-292310.5694868786</v>
       </c>
       <c r="H91" t="n">
-        <v>73.11183333333321</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3858,36 +3583,33 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>72.04000000000001</v>
+        <v>73.27</v>
       </c>
       <c r="C92" t="n">
-        <v>72.04000000000001</v>
+        <v>73.27</v>
       </c>
       <c r="D92" t="n">
-        <v>72.04000000000001</v>
+        <v>73.27</v>
       </c>
       <c r="E92" t="n">
-        <v>72.04000000000001</v>
+        <v>73.27</v>
       </c>
       <c r="F92" t="n">
-        <v>7</v>
+        <v>739.8253999999999</v>
       </c>
       <c r="G92" t="n">
-        <v>72.67733333333327</v>
+        <v>-291570.7440868786</v>
       </c>
       <c r="H92" t="n">
-        <v>73.07416666666654</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3896,36 +3618,33 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>72.05</v>
+        <v>73.27</v>
       </c>
       <c r="C93" t="n">
-        <v>72.05</v>
+        <v>73.27</v>
       </c>
       <c r="D93" t="n">
-        <v>72.05</v>
+        <v>73.27</v>
       </c>
       <c r="E93" t="n">
-        <v>72.05</v>
+        <v>73.27</v>
       </c>
       <c r="F93" t="n">
-        <v>7</v>
+        <v>2642.896137573359</v>
       </c>
       <c r="G93" t="n">
-        <v>72.55399999999992</v>
+        <v>-291570.7440868786</v>
       </c>
       <c r="H93" t="n">
-        <v>73.02199999999988</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3934,36 +3653,33 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>72.45999999999999</v>
+        <v>73.28</v>
       </c>
       <c r="C94" t="n">
-        <v>72.45999999999999</v>
+        <v>73.28</v>
       </c>
       <c r="D94" t="n">
-        <v>72.45999999999999</v>
+        <v>73.28</v>
       </c>
       <c r="E94" t="n">
-        <v>72.45999999999999</v>
+        <v>73.28</v>
       </c>
       <c r="F94" t="n">
-        <v>7</v>
+        <v>195.4661</v>
       </c>
       <c r="G94" t="n">
-        <v>72.44466666666659</v>
+        <v>-291375.2779868786</v>
       </c>
       <c r="H94" t="n">
-        <v>72.98133333333321</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3972,36 +3688,33 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>72.73</v>
+        <v>72.70999999999999</v>
       </c>
       <c r="C95" t="n">
-        <v>72.73</v>
+        <v>72.70999999999999</v>
       </c>
       <c r="D95" t="n">
-        <v>72.73</v>
+        <v>72.70999999999999</v>
       </c>
       <c r="E95" t="n">
-        <v>72.73</v>
+        <v>72.70999999999999</v>
       </c>
       <c r="F95" t="n">
-        <v>6.8767</v>
+        <v>5086.4501</v>
       </c>
       <c r="G95" t="n">
-        <v>72.37933333333326</v>
+        <v>-296461.7280868786</v>
       </c>
       <c r="H95" t="n">
-        <v>72.94366666666654</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4010,36 +3723,33 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>72.12</v>
+        <v>72.70999999999999</v>
       </c>
       <c r="C96" t="n">
-        <v>72.12</v>
+        <v>72.70999999999999</v>
       </c>
       <c r="D96" t="n">
-        <v>72.12</v>
+        <v>72.70999999999999</v>
       </c>
       <c r="E96" t="n">
-        <v>72.12</v>
+        <v>72.70999999999999</v>
       </c>
       <c r="F96" t="n">
-        <v>40.035</v>
+        <v>5445.9999</v>
       </c>
       <c r="G96" t="n">
-        <v>72.29599999999995</v>
+        <v>-296461.7280868786</v>
       </c>
       <c r="H96" t="n">
-        <v>72.89416666666654</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="n">
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4048,36 +3758,33 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>72.3</v>
+        <v>72.70999999999999</v>
       </c>
       <c r="C97" t="n">
-        <v>72.3</v>
+        <v>72.70999999999999</v>
       </c>
       <c r="D97" t="n">
-        <v>72.3</v>
+        <v>72.70999999999999</v>
       </c>
       <c r="E97" t="n">
-        <v>72.3</v>
+        <v>72.70999999999999</v>
       </c>
       <c r="F97" t="n">
-        <v>4742.5736</v>
+        <v>2800</v>
       </c>
       <c r="G97" t="n">
-        <v>72.29466666666661</v>
+        <v>-296461.7280868786</v>
       </c>
       <c r="H97" t="n">
-        <v>72.84766666666654</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4086,36 +3793,33 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>72.01000000000001</v>
+        <v>72.70999999999999</v>
       </c>
       <c r="C98" t="n">
-        <v>72.3</v>
+        <v>72.70999999999999</v>
       </c>
       <c r="D98" t="n">
-        <v>72.3</v>
+        <v>72.70999999999999</v>
       </c>
       <c r="E98" t="n">
-        <v>72.01000000000001</v>
+        <v>72.70999999999999</v>
       </c>
       <c r="F98" t="n">
-        <v>3289.0899</v>
+        <v>711</v>
       </c>
       <c r="G98" t="n">
-        <v>72.29999999999994</v>
+        <v>-296461.7280868786</v>
       </c>
       <c r="H98" t="n">
-        <v>72.79466666666654</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="n">
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4124,36 +3828,33 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>72.3</v>
+        <v>72.70999999999999</v>
       </c>
       <c r="C99" t="n">
-        <v>72.3</v>
+        <v>72.70999999999999</v>
       </c>
       <c r="D99" t="n">
-        <v>72.3</v>
+        <v>72.70999999999999</v>
       </c>
       <c r="E99" t="n">
-        <v>72.3</v>
+        <v>72.70999999999999</v>
       </c>
       <c r="F99" t="n">
-        <v>38</v>
+        <v>8546.8876</v>
       </c>
       <c r="G99" t="n">
-        <v>72.31933333333328</v>
+        <v>-296461.7280868786</v>
       </c>
       <c r="H99" t="n">
-        <v>72.74166666666656</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="n">
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4162,36 +3863,33 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>72.3</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="C100" t="n">
-        <v>72.3</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="D100" t="n">
-        <v>72.3</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="E100" t="n">
-        <v>72.3</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="F100" t="n">
-        <v>745.1698</v>
+        <v>292.522</v>
       </c>
       <c r="G100" t="n">
-        <v>72.33933333333327</v>
+        <v>-296754.2500868786</v>
       </c>
       <c r="H100" t="n">
-        <v>72.68883333333322</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4200,36 +3898,33 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>72.3</v>
+        <v>72.7</v>
       </c>
       <c r="C101" t="n">
-        <v>72.3</v>
+        <v>72.7</v>
       </c>
       <c r="D101" t="n">
-        <v>72.3</v>
+        <v>72.7</v>
       </c>
       <c r="E101" t="n">
-        <v>72.3</v>
+        <v>72.7</v>
       </c>
       <c r="F101" t="n">
-        <v>1046.3208</v>
+        <v>6.8776</v>
       </c>
       <c r="G101" t="n">
-        <v>72.35199999999993</v>
+        <v>-296747.3724868786</v>
       </c>
       <c r="H101" t="n">
-        <v>72.6489999999999</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4238,36 +3933,33 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>72.09999999999999</v>
+        <v>72.8</v>
       </c>
       <c r="C102" t="n">
-        <v>72.79000000000001</v>
+        <v>72.8</v>
       </c>
       <c r="D102" t="n">
-        <v>72.79000000000001</v>
+        <v>72.8</v>
       </c>
       <c r="E102" t="n">
-        <v>72.09999999999999</v>
+        <v>72.8</v>
       </c>
       <c r="F102" t="n">
-        <v>5258.2109</v>
+        <v>285.6444</v>
       </c>
       <c r="G102" t="n">
-        <v>72.34999999999994</v>
+        <v>-296461.7280868786</v>
       </c>
       <c r="H102" t="n">
-        <v>72.62566666666658</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4276,36 +3968,33 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>72.69</v>
+        <v>73.12</v>
       </c>
       <c r="C103" t="n">
-        <v>72.69</v>
+        <v>73.12</v>
       </c>
       <c r="D103" t="n">
-        <v>72.69</v>
+        <v>73.12</v>
       </c>
       <c r="E103" t="n">
-        <v>72.69</v>
+        <v>73.12</v>
       </c>
       <c r="F103" t="n">
-        <v>70</v>
+        <v>1233.8525</v>
       </c>
       <c r="G103" t="n">
-        <v>72.34266666666662</v>
+        <v>-295227.8755868786</v>
       </c>
       <c r="H103" t="n">
-        <v>72.60633333333323</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="n">
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4314,36 +4003,33 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>72.12</v>
+        <v>73.31999999999999</v>
       </c>
       <c r="C104" t="n">
-        <v>72.12</v>
+        <v>73.31999999999999</v>
       </c>
       <c r="D104" t="n">
-        <v>72.12</v>
+        <v>73.31999999999999</v>
       </c>
       <c r="E104" t="n">
-        <v>72.12</v>
+        <v>73.31999999999999</v>
       </c>
       <c r="F104" t="n">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="G104" t="n">
-        <v>72.30199999999995</v>
+        <v>-295196.8755868786</v>
       </c>
       <c r="H104" t="n">
-        <v>72.59216666666656</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="n">
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4352,36 +4038,33 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>72.12</v>
+        <v>73.31999999999999</v>
       </c>
       <c r="C105" t="n">
-        <v>71.86</v>
+        <v>74.01000000000001</v>
       </c>
       <c r="D105" t="n">
-        <v>72.12</v>
+        <v>74.01000000000001</v>
       </c>
       <c r="E105" t="n">
-        <v>71.86</v>
+        <v>73.31999999999999</v>
       </c>
       <c r="F105" t="n">
-        <v>8886.185100000001</v>
+        <v>42575.4557</v>
       </c>
       <c r="G105" t="n">
-        <v>72.29266666666662</v>
+        <v>-252621.4198868786</v>
       </c>
       <c r="H105" t="n">
-        <v>72.56049999999988</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="n">
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4390,36 +4073,33 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>71.90000000000001</v>
+        <v>74.03</v>
       </c>
       <c r="C106" t="n">
-        <v>71.90000000000001</v>
+        <v>74.03</v>
       </c>
       <c r="D106" t="n">
-        <v>71.90000000000001</v>
+        <v>74.03</v>
       </c>
       <c r="E106" t="n">
-        <v>71.90000000000001</v>
+        <v>74.03</v>
       </c>
       <c r="F106" t="n">
-        <v>888.6185</v>
+        <v>3580.0938</v>
       </c>
       <c r="G106" t="n">
-        <v>72.28399999999995</v>
+        <v>-249041.3260868786</v>
       </c>
       <c r="H106" t="n">
-        <v>72.54283333333321</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="n">
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4428,36 +4108,33 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>71.90000000000001</v>
+        <v>74.06</v>
       </c>
       <c r="C107" t="n">
-        <v>72.59</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="D107" t="n">
-        <v>72.77</v>
+        <v>74.44</v>
       </c>
       <c r="E107" t="n">
-        <v>71.90000000000001</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="F107" t="n">
-        <v>4591.3631</v>
+        <v>32412.9891</v>
       </c>
       <c r="G107" t="n">
-        <v>72.32066666666661</v>
+        <v>-281454.3151868786</v>
       </c>
       <c r="H107" t="n">
-        <v>72.53866666666654</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="n">
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4466,36 +4143,33 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>71.95</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="C108" t="n">
-        <v>71.98999999999999</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="D108" t="n">
-        <v>72.59</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="E108" t="n">
-        <v>71.95</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="F108" t="n">
-        <v>1920.0618</v>
+        <v>1039</v>
       </c>
       <c r="G108" t="n">
-        <v>72.31666666666662</v>
+        <v>-280415.3151868786</v>
       </c>
       <c r="H108" t="n">
-        <v>72.53666666666655</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="n">
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4504,36 +4178,33 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>72</v>
+        <v>73.8</v>
       </c>
       <c r="C109" t="n">
-        <v>72.02</v>
+        <v>73.70999999999999</v>
       </c>
       <c r="D109" t="n">
-        <v>72.02</v>
+        <v>73.8</v>
       </c>
       <c r="E109" t="n">
-        <v>72</v>
+        <v>73.56</v>
       </c>
       <c r="F109" t="n">
-        <v>839.6721</v>
+        <v>8209.771000000001</v>
       </c>
       <c r="G109" t="n">
-        <v>72.28733333333328</v>
+        <v>-288625.0861868786</v>
       </c>
       <c r="H109" t="n">
-        <v>72.51233333333322</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" t="n">
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4542,36 +4213,33 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>72.03</v>
+        <v>73.45999999999999</v>
       </c>
       <c r="C110" t="n">
-        <v>72.06</v>
+        <v>73.37</v>
       </c>
       <c r="D110" t="n">
-        <v>72.06</v>
+        <v>73.45999999999999</v>
       </c>
       <c r="E110" t="n">
-        <v>72.03</v>
+        <v>73.37</v>
       </c>
       <c r="F110" t="n">
-        <v>776.7838</v>
+        <v>6227.3271</v>
       </c>
       <c r="G110" t="n">
-        <v>72.24266666666661</v>
+        <v>-294852.4132868786</v>
       </c>
       <c r="H110" t="n">
-        <v>72.5059999999999</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
-      <c r="N110" t="n">
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4580,36 +4248,33 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>72.06</v>
+        <v>72.44</v>
       </c>
       <c r="C111" t="n">
-        <v>72.06</v>
+        <v>72.31999999999999</v>
       </c>
       <c r="D111" t="n">
-        <v>72.06</v>
+        <v>72.44</v>
       </c>
       <c r="E111" t="n">
-        <v>72.06</v>
+        <v>72.31</v>
       </c>
       <c r="F111" t="n">
-        <v>787.5774</v>
+        <v>21</v>
       </c>
       <c r="G111" t="n">
-        <v>72.2386666666666</v>
+        <v>-294873.4132868786</v>
       </c>
       <c r="H111" t="n">
-        <v>72.48883333333325</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
-      <c r="N111" t="n">
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4618,36 +4283,33 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>72.06</v>
+        <v>72.31999999999999</v>
       </c>
       <c r="C112" t="n">
-        <v>72.06</v>
+        <v>72.22</v>
       </c>
       <c r="D112" t="n">
-        <v>72.06</v>
+        <v>72.31999999999999</v>
       </c>
       <c r="E112" t="n">
-        <v>72.06</v>
+        <v>72.2</v>
       </c>
       <c r="F112" t="n">
-        <v>694.3881</v>
+        <v>21951.3037</v>
       </c>
       <c r="G112" t="n">
-        <v>72.2226666666666</v>
+        <v>-316824.7169868786</v>
       </c>
       <c r="H112" t="n">
-        <v>72.48249999999992</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="n">
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4656,36 +4318,33 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>72.08</v>
+        <v>72.22</v>
       </c>
       <c r="C113" t="n">
-        <v>72.08</v>
+        <v>72.01000000000001</v>
       </c>
       <c r="D113" t="n">
-        <v>72.08</v>
+        <v>73.23</v>
       </c>
       <c r="E113" t="n">
-        <v>72.08</v>
+        <v>72.01000000000001</v>
       </c>
       <c r="F113" t="n">
-        <v>100.2633</v>
+        <v>33015.6452</v>
       </c>
       <c r="G113" t="n">
-        <v>72.20799999999993</v>
+        <v>-349840.3621868786</v>
       </c>
       <c r="H113" t="n">
-        <v>72.47649999999993</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
-      <c r="N113" t="n">
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4694,36 +4353,33 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>72.76000000000001</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="C114" t="n">
-        <v>72.76000000000001</v>
+        <v>72</v>
       </c>
       <c r="D114" t="n">
-        <v>72.76000000000001</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="E114" t="n">
-        <v>72.76000000000001</v>
+        <v>72</v>
       </c>
       <c r="F114" t="n">
-        <v>868.982</v>
+        <v>17966.5193</v>
       </c>
       <c r="G114" t="n">
-        <v>72.2386666666666</v>
+        <v>-367806.8814868786</v>
       </c>
       <c r="H114" t="n">
-        <v>72.48849999999993</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr"/>
-      <c r="N114" t="n">
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4732,36 +4388,33 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>72.8</v>
+        <v>72.01000000000001</v>
       </c>
       <c r="C115" t="n">
-        <v>72.88</v>
+        <v>72.11</v>
       </c>
       <c r="D115" t="n">
-        <v>72.89</v>
+        <v>72.11</v>
       </c>
       <c r="E115" t="n">
-        <v>72.8</v>
+        <v>72.01000000000001</v>
       </c>
       <c r="F115" t="n">
-        <v>2306.3894</v>
+        <v>49</v>
       </c>
       <c r="G115" t="n">
-        <v>72.27733333333327</v>
+        <v>-367757.8814868786</v>
       </c>
       <c r="H115" t="n">
-        <v>72.49499999999993</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr"/>
-      <c r="N115" t="n">
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4770,36 +4423,33 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>72.76000000000001</v>
+        <v>72.16</v>
       </c>
       <c r="C116" t="n">
-        <v>72.76000000000001</v>
+        <v>72.81999999999999</v>
       </c>
       <c r="D116" t="n">
-        <v>72.76000000000001</v>
+        <v>72.81999999999999</v>
       </c>
       <c r="E116" t="n">
-        <v>72.76000000000001</v>
+        <v>72.16</v>
       </c>
       <c r="F116" t="n">
-        <v>227</v>
+        <v>2257</v>
       </c>
       <c r="G116" t="n">
-        <v>72.30799999999995</v>
+        <v>-365500.8814868786</v>
       </c>
       <c r="H116" t="n">
-        <v>72.50466666666661</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr"/>
-      <c r="N116" t="n">
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4808,36 +4458,33 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>72.88</v>
+        <v>72.8</v>
       </c>
       <c r="C117" t="n">
-        <v>72.88</v>
+        <v>72.8</v>
       </c>
       <c r="D117" t="n">
-        <v>72.88</v>
+        <v>72.8</v>
       </c>
       <c r="E117" t="n">
-        <v>72.88</v>
+        <v>72.8</v>
       </c>
       <c r="F117" t="n">
-        <v>3000</v>
+        <v>7</v>
       </c>
       <c r="G117" t="n">
-        <v>72.31399999999994</v>
+        <v>-365507.8814868786</v>
       </c>
       <c r="H117" t="n">
-        <v>72.53099999999993</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>0</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
-      <c r="N117" t="n">
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4846,36 +4493,33 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>72.76000000000001</v>
+        <v>72.79000000000001</v>
       </c>
       <c r="C118" t="n">
-        <v>72.2</v>
+        <v>72.73</v>
       </c>
       <c r="D118" t="n">
-        <v>72.8</v>
+        <v>72.79000000000001</v>
       </c>
       <c r="E118" t="n">
-        <v>72.06</v>
+        <v>72.73</v>
       </c>
       <c r="F118" t="n">
-        <v>71725.60129999999</v>
+        <v>49</v>
       </c>
       <c r="G118" t="n">
-        <v>72.28133333333328</v>
+        <v>-365556.8814868786</v>
       </c>
       <c r="H118" t="n">
-        <v>72.54599999999992</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>0</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr"/>
-      <c r="N118" t="n">
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4884,36 +4528,33 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>72.06</v>
+        <v>72</v>
       </c>
       <c r="C119" t="n">
-        <v>71.75</v>
+        <v>72</v>
       </c>
       <c r="D119" t="n">
-        <v>72.06</v>
+        <v>72</v>
       </c>
       <c r="E119" t="n">
-        <v>71.75</v>
+        <v>72</v>
       </c>
       <c r="F119" t="n">
-        <v>54051.72</v>
+        <v>7</v>
       </c>
       <c r="G119" t="n">
-        <v>72.2566666666666</v>
+        <v>-365563.8814868786</v>
       </c>
       <c r="H119" t="n">
-        <v>72.55349999999993</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>0</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr"/>
-      <c r="N119" t="n">
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4922,36 +4563,33 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>71.75</v>
+        <v>72.01000000000001</v>
       </c>
       <c r="C120" t="n">
-        <v>70.5</v>
+        <v>72.03</v>
       </c>
       <c r="D120" t="n">
-        <v>72.08</v>
+        <v>72.03</v>
       </c>
       <c r="E120" t="n">
-        <v>70.25</v>
+        <v>72.01000000000001</v>
       </c>
       <c r="F120" t="n">
-        <v>93358.25999999999</v>
+        <v>21</v>
       </c>
       <c r="G120" t="n">
-        <v>72.16599999999994</v>
+        <v>-365542.8814868786</v>
       </c>
       <c r="H120" t="n">
-        <v>72.54183333333326</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>0</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr"/>
-      <c r="N120" t="n">
+      <c r="M120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4960,36 +4598,33 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>70.5</v>
+        <v>72.04000000000001</v>
       </c>
       <c r="C121" t="n">
-        <v>70.40000000000001</v>
+        <v>72.04000000000001</v>
       </c>
       <c r="D121" t="n">
-        <v>70.5</v>
+        <v>72.04000000000001</v>
       </c>
       <c r="E121" t="n">
-        <v>70.40000000000001</v>
+        <v>72.04000000000001</v>
       </c>
       <c r="F121" t="n">
-        <v>4399.3021</v>
+        <v>7</v>
       </c>
       <c r="G121" t="n">
-        <v>72.06599999999995</v>
+        <v>-365535.8814868786</v>
       </c>
       <c r="H121" t="n">
-        <v>72.51866666666659</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>0</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr"/>
-      <c r="N121" t="n">
+      <c r="M121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4998,36 +4633,33 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>70.25</v>
+        <v>72.05</v>
       </c>
       <c r="C122" t="n">
-        <v>70.05</v>
+        <v>72.05</v>
       </c>
       <c r="D122" t="n">
-        <v>70.25</v>
+        <v>72.05</v>
       </c>
       <c r="E122" t="n">
-        <v>69.88</v>
+        <v>72.05</v>
       </c>
       <c r="F122" t="n">
-        <v>19200</v>
+        <v>7</v>
       </c>
       <c r="G122" t="n">
-        <v>71.8966666666666</v>
+        <v>-365528.8814868786</v>
       </c>
       <c r="H122" t="n">
-        <v>72.47783333333327</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>0</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr"/>
-      <c r="N122" t="n">
+      <c r="M122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5036,36 +4668,33 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>69.88</v>
+        <v>72.45999999999999</v>
       </c>
       <c r="C123" t="n">
-        <v>70.13</v>
+        <v>72.45999999999999</v>
       </c>
       <c r="D123" t="n">
-        <v>70.13</v>
+        <v>72.45999999999999</v>
       </c>
       <c r="E123" t="n">
-        <v>69.20999999999999</v>
+        <v>72.45999999999999</v>
       </c>
       <c r="F123" t="n">
-        <v>9953.7714</v>
+        <v>7</v>
       </c>
       <c r="G123" t="n">
-        <v>71.77266666666659</v>
+        <v>-365521.8814868786</v>
       </c>
       <c r="H123" t="n">
-        <v>72.42549999999991</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>0</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr"/>
-      <c r="N123" t="n">
+      <c r="M123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5074,36 +4703,33 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>69.2</v>
+        <v>72.73</v>
       </c>
       <c r="C124" t="n">
-        <v>68.81</v>
+        <v>72.73</v>
       </c>
       <c r="D124" t="n">
-        <v>69.2</v>
+        <v>72.73</v>
       </c>
       <c r="E124" t="n">
-        <v>68.81</v>
+        <v>72.73</v>
       </c>
       <c r="F124" t="n">
-        <v>1949.5479</v>
+        <v>6.8767</v>
       </c>
       <c r="G124" t="n">
-        <v>71.5586666666666</v>
+        <v>-365515.0047868785</v>
       </c>
       <c r="H124" t="n">
-        <v>72.35116666666659</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>0</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr"/>
-      <c r="N124" t="n">
+      <c r="M124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5112,36 +4738,33 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>70.12</v>
+        <v>72.12</v>
       </c>
       <c r="C125" t="n">
-        <v>70.12</v>
+        <v>72.12</v>
       </c>
       <c r="D125" t="n">
-        <v>70.12</v>
+        <v>72.12</v>
       </c>
       <c r="E125" t="n">
-        <v>70.12</v>
+        <v>72.12</v>
       </c>
       <c r="F125" t="n">
-        <v>883.0743</v>
+        <v>40.035</v>
       </c>
       <c r="G125" t="n">
-        <v>71.42933333333328</v>
+        <v>-365555.0397868785</v>
       </c>
       <c r="H125" t="n">
-        <v>72.29849999999992</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>0</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="inlineStr"/>
-      <c r="N125" t="n">
+      <c r="M125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5150,36 +4773,33 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>68.81</v>
+        <v>72.3</v>
       </c>
       <c r="C126" t="n">
-        <v>68.55</v>
+        <v>72.3</v>
       </c>
       <c r="D126" t="n">
-        <v>68.81</v>
+        <v>72.3</v>
       </c>
       <c r="E126" t="n">
-        <v>68.55</v>
+        <v>72.3</v>
       </c>
       <c r="F126" t="n">
-        <v>8800</v>
+        <v>4742.5736</v>
       </c>
       <c r="G126" t="n">
-        <v>71.19533333333328</v>
+        <v>-360812.4661868785</v>
       </c>
       <c r="H126" t="n">
-        <v>72.22916666666659</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>0</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="inlineStr"/>
-      <c r="N126" t="n">
+      <c r="M126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5188,36 +4808,33 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>68.55</v>
+        <v>72.01000000000001</v>
       </c>
       <c r="C127" t="n">
-        <v>68.5</v>
+        <v>72.3</v>
       </c>
       <c r="D127" t="n">
-        <v>68.55</v>
+        <v>72.3</v>
       </c>
       <c r="E127" t="n">
-        <v>68.5</v>
+        <v>72.01000000000001</v>
       </c>
       <c r="F127" t="n">
-        <v>22000</v>
+        <v>3289.0899</v>
       </c>
       <c r="G127" t="n">
-        <v>70.95799999999994</v>
+        <v>-360812.4661868785</v>
       </c>
       <c r="H127" t="n">
-        <v>72.15899999999992</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>0</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="inlineStr"/>
-      <c r="N127" t="n">
+      <c r="M127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5226,36 +4843,33 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>68.51000000000001</v>
+        <v>72.3</v>
       </c>
       <c r="C128" t="n">
-        <v>68.5</v>
+        <v>72.3</v>
       </c>
       <c r="D128" t="n">
-        <v>68.51000000000001</v>
+        <v>72.3</v>
       </c>
       <c r="E128" t="n">
-        <v>68.5</v>
+        <v>72.3</v>
       </c>
       <c r="F128" t="n">
-        <v>20500</v>
+        <v>38</v>
       </c>
       <c r="G128" t="n">
-        <v>70.71933333333328</v>
+        <v>-360812.4661868785</v>
       </c>
       <c r="H128" t="n">
-        <v>72.08883333333326</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>0</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="inlineStr"/>
-      <c r="N128" t="n">
+      <c r="M128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5264,36 +4878,33 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>68.51000000000001</v>
+        <v>72.3</v>
       </c>
       <c r="C129" t="n">
-        <v>68.5</v>
+        <v>72.3</v>
       </c>
       <c r="D129" t="n">
-        <v>68.51000000000001</v>
+        <v>72.3</v>
       </c>
       <c r="E129" t="n">
-        <v>68.40000000000001</v>
+        <v>72.3</v>
       </c>
       <c r="F129" t="n">
-        <v>85763.3829</v>
+        <v>745.1698</v>
       </c>
       <c r="G129" t="n">
-        <v>70.43533333333329</v>
+        <v>-360812.4661868785</v>
       </c>
       <c r="H129" t="n">
-        <v>72.01866666666659</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>0</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="inlineStr"/>
-      <c r="N129" t="n">
+      <c r="M129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5302,36 +4913,33 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>68.5</v>
+        <v>72.3</v>
       </c>
       <c r="C130" t="n">
-        <v>68.5</v>
+        <v>72.3</v>
       </c>
       <c r="D130" t="n">
-        <v>68.5</v>
+        <v>72.3</v>
       </c>
       <c r="E130" t="n">
-        <v>68.5</v>
+        <v>72.3</v>
       </c>
       <c r="F130" t="n">
-        <v>18013.2589</v>
+        <v>1046.3208</v>
       </c>
       <c r="G130" t="n">
-        <v>70.14333333333327</v>
+        <v>-360812.4661868785</v>
       </c>
       <c r="H130" t="n">
-        <v>71.94849999999992</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>0</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="inlineStr"/>
-      <c r="N130" t="n">
+      <c r="M130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5340,36 +4948,33 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>68.48999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="C131" t="n">
-        <v>68.40000000000001</v>
+        <v>72.79000000000001</v>
       </c>
       <c r="D131" t="n">
-        <v>68.5</v>
+        <v>72.79000000000001</v>
       </c>
       <c r="E131" t="n">
-        <v>68.09999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="F131" t="n">
-        <v>12818.7262</v>
+        <v>5258.2109</v>
       </c>
       <c r="G131" t="n">
-        <v>69.85266666666662</v>
+        <v>-355554.2552868785</v>
       </c>
       <c r="H131" t="n">
-        <v>71.89016666666659</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>0</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="inlineStr"/>
-      <c r="N131" t="n">
+      <c r="M131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5378,36 +4983,33 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>68.40000000000001</v>
+        <v>72.69</v>
       </c>
       <c r="C132" t="n">
-        <v>68.5</v>
+        <v>72.69</v>
       </c>
       <c r="D132" t="n">
-        <v>68.5</v>
+        <v>72.69</v>
       </c>
       <c r="E132" t="n">
-        <v>68.40000000000001</v>
+        <v>72.69</v>
       </c>
       <c r="F132" t="n">
-        <v>1592.5487</v>
+        <v>70</v>
       </c>
       <c r="G132" t="n">
-        <v>69.56066666666662</v>
+        <v>-355624.2552868785</v>
       </c>
       <c r="H132" t="n">
-        <v>71.82016666666659</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>0</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="inlineStr"/>
-      <c r="N132" t="n">
+      <c r="M132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5416,36 +5018,33 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>68.5</v>
+        <v>72.12</v>
       </c>
       <c r="C133" t="n">
-        <v>68.5</v>
+        <v>72.12</v>
       </c>
       <c r="D133" t="n">
-        <v>68.5</v>
+        <v>72.12</v>
       </c>
       <c r="E133" t="n">
-        <v>68.5</v>
+        <v>72.12</v>
       </c>
       <c r="F133" t="n">
-        <v>6183.3878</v>
+        <v>20</v>
       </c>
       <c r="G133" t="n">
-        <v>69.31399999999995</v>
+        <v>-355644.2552868785</v>
       </c>
       <c r="H133" t="n">
-        <v>71.74849999999992</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>0</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="inlineStr"/>
-      <c r="N133" t="n">
+      <c r="M133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5454,36 +5053,33 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>68.5</v>
+        <v>72.12</v>
       </c>
       <c r="C134" t="n">
-        <v>68.5</v>
+        <v>71.86</v>
       </c>
       <c r="D134" t="n">
-        <v>68.5</v>
+        <v>72.12</v>
       </c>
       <c r="E134" t="n">
-        <v>68.11</v>
+        <v>71.86</v>
       </c>
       <c r="F134" t="n">
-        <v>10515.2437</v>
+        <v>8886.185100000001</v>
       </c>
       <c r="G134" t="n">
-        <v>69.0973333333333</v>
+        <v>-364530.4403868785</v>
       </c>
       <c r="H134" t="n">
-        <v>71.67149999999992</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>0</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="inlineStr"/>
-      <c r="N134" t="n">
+      <c r="M134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5492,40 +5088,33 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>68.5</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="C135" t="n">
-        <v>68.5</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="D135" t="n">
-        <v>68.5</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="E135" t="n">
-        <v>68.5</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="F135" t="n">
-        <v>11142.0942</v>
+        <v>888.6185</v>
       </c>
       <c r="G135" t="n">
-        <v>68.96399999999996</v>
+        <v>-363641.8218868785</v>
       </c>
       <c r="H135" t="n">
-        <v>71.5911666666666</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>1</v>
-      </c>
-      <c r="J135" t="n">
-        <v>0</v>
-      </c>
-      <c r="K135" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="L135" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
-      <c r="N135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5534,44 +5123,33 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>68.5</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="C136" t="n">
-        <v>68.5</v>
+        <v>72.59</v>
       </c>
       <c r="D136" t="n">
-        <v>68.5</v>
+        <v>72.77</v>
       </c>
       <c r="E136" t="n">
-        <v>68.5</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="F136" t="n">
-        <v>1536.2119</v>
+        <v>4591.3631</v>
       </c>
       <c r="G136" t="n">
-        <v>68.83733333333329</v>
+        <v>-359050.4587868785</v>
       </c>
       <c r="H136" t="n">
-        <v>71.49933333333325</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>1</v>
-      </c>
-      <c r="J136" t="n">
-        <v>0</v>
-      </c>
-      <c r="K136" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="L136" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="M136" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5580,906 +5158,1845 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
+        <v>71.95</v>
+      </c>
+      <c r="C137" t="n">
+        <v>71.98999999999999</v>
+      </c>
+      <c r="D137" t="n">
+        <v>72.59</v>
+      </c>
+      <c r="E137" t="n">
+        <v>71.95</v>
+      </c>
+      <c r="F137" t="n">
+        <v>1920.0618</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-360970.5205868785</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>72</v>
+      </c>
+      <c r="C138" t="n">
+        <v>72.02</v>
+      </c>
+      <c r="D138" t="n">
+        <v>72.02</v>
+      </c>
+      <c r="E138" t="n">
+        <v>72</v>
+      </c>
+      <c r="F138" t="n">
+        <v>839.6721</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-360130.8484868785</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>72.03</v>
+      </c>
+      <c r="C139" t="n">
+        <v>72.06</v>
+      </c>
+      <c r="D139" t="n">
+        <v>72.06</v>
+      </c>
+      <c r="E139" t="n">
+        <v>72.03</v>
+      </c>
+      <c r="F139" t="n">
+        <v>776.7838</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-359354.0646868785</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>72.06</v>
+      </c>
+      <c r="C140" t="n">
+        <v>72.06</v>
+      </c>
+      <c r="D140" t="n">
+        <v>72.06</v>
+      </c>
+      <c r="E140" t="n">
+        <v>72.06</v>
+      </c>
+      <c r="F140" t="n">
+        <v>787.5774</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-359354.0646868785</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>72.06</v>
+      </c>
+      <c r="C141" t="n">
+        <v>72.06</v>
+      </c>
+      <c r="D141" t="n">
+        <v>72.06</v>
+      </c>
+      <c r="E141" t="n">
+        <v>72.06</v>
+      </c>
+      <c r="F141" t="n">
+        <v>694.3881</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-359354.0646868785</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>72.08</v>
+      </c>
+      <c r="C142" t="n">
+        <v>72.08</v>
+      </c>
+      <c r="D142" t="n">
+        <v>72.08</v>
+      </c>
+      <c r="E142" t="n">
+        <v>72.08</v>
+      </c>
+      <c r="F142" t="n">
+        <v>100.2633</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-359253.8013868785</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>72.76000000000001</v>
+      </c>
+      <c r="C143" t="n">
+        <v>72.76000000000001</v>
+      </c>
+      <c r="D143" t="n">
+        <v>72.76000000000001</v>
+      </c>
+      <c r="E143" t="n">
+        <v>72.76000000000001</v>
+      </c>
+      <c r="F143" t="n">
+        <v>868.982</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-358384.8193868785</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>72.8</v>
+      </c>
+      <c r="C144" t="n">
+        <v>72.88</v>
+      </c>
+      <c r="D144" t="n">
+        <v>72.89</v>
+      </c>
+      <c r="E144" t="n">
+        <v>72.8</v>
+      </c>
+      <c r="F144" t="n">
+        <v>2306.3894</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-356078.4299868785</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>72.76000000000001</v>
+      </c>
+      <c r="C145" t="n">
+        <v>72.76000000000001</v>
+      </c>
+      <c r="D145" t="n">
+        <v>72.76000000000001</v>
+      </c>
+      <c r="E145" t="n">
+        <v>72.76000000000001</v>
+      </c>
+      <c r="F145" t="n">
+        <v>227</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-356305.4299868785</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>72.88</v>
+      </c>
+      <c r="C146" t="n">
+        <v>72.88</v>
+      </c>
+      <c r="D146" t="n">
+        <v>72.88</v>
+      </c>
+      <c r="E146" t="n">
+        <v>72.88</v>
+      </c>
+      <c r="F146" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-353305.4299868785</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>72.76000000000001</v>
+      </c>
+      <c r="C147" t="n">
+        <v>72.2</v>
+      </c>
+      <c r="D147" t="n">
+        <v>72.8</v>
+      </c>
+      <c r="E147" t="n">
+        <v>72.06</v>
+      </c>
+      <c r="F147" t="n">
+        <v>71725.60129999999</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-425031.0312868785</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>72.06</v>
+      </c>
+      <c r="C148" t="n">
+        <v>71.75</v>
+      </c>
+      <c r="D148" t="n">
+        <v>72.06</v>
+      </c>
+      <c r="E148" t="n">
+        <v>71.75</v>
+      </c>
+      <c r="F148" t="n">
+        <v>54051.72</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-479082.7512868785</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>71.75</v>
+      </c>
+      <c r="C149" t="n">
+        <v>70.5</v>
+      </c>
+      <c r="D149" t="n">
+        <v>72.08</v>
+      </c>
+      <c r="E149" t="n">
+        <v>70.25</v>
+      </c>
+      <c r="F149" t="n">
+        <v>93358.25999999999</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-572441.0112868785</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>70.5</v>
+      </c>
+      <c r="C150" t="n">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="D150" t="n">
+        <v>70.5</v>
+      </c>
+      <c r="E150" t="n">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="F150" t="n">
+        <v>4399.3021</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-576840.3133868785</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>70.25</v>
+      </c>
+      <c r="C151" t="n">
+        <v>70.05</v>
+      </c>
+      <c r="D151" t="n">
+        <v>70.25</v>
+      </c>
+      <c r="E151" t="n">
+        <v>69.88</v>
+      </c>
+      <c r="F151" t="n">
+        <v>19200</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-596040.3133868785</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>69.88</v>
+      </c>
+      <c r="C152" t="n">
+        <v>70.13</v>
+      </c>
+      <c r="D152" t="n">
+        <v>70.13</v>
+      </c>
+      <c r="E152" t="n">
+        <v>69.20999999999999</v>
+      </c>
+      <c r="F152" t="n">
+        <v>9953.7714</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-586086.5419868785</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>69.2</v>
+      </c>
+      <c r="C153" t="n">
+        <v>68.81</v>
+      </c>
+      <c r="D153" t="n">
+        <v>69.2</v>
+      </c>
+      <c r="E153" t="n">
+        <v>68.81</v>
+      </c>
+      <c r="F153" t="n">
+        <v>1949.5479</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-588036.0898868785</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>70.12</v>
+      </c>
+      <c r="C154" t="n">
+        <v>70.12</v>
+      </c>
+      <c r="D154" t="n">
+        <v>70.12</v>
+      </c>
+      <c r="E154" t="n">
+        <v>70.12</v>
+      </c>
+      <c r="F154" t="n">
+        <v>883.0743</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-587153.0155868785</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>68.81</v>
+      </c>
+      <c r="C155" t="n">
+        <v>68.55</v>
+      </c>
+      <c r="D155" t="n">
+        <v>68.81</v>
+      </c>
+      <c r="E155" t="n">
+        <v>68.55</v>
+      </c>
+      <c r="F155" t="n">
+        <v>8800</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-595953.0155868785</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>68.55</v>
+      </c>
+      <c r="C156" t="n">
         <v>68.5</v>
       </c>
-      <c r="C137" t="n">
+      <c r="D156" t="n">
+        <v>68.55</v>
+      </c>
+      <c r="E156" t="n">
         <v>68.5</v>
       </c>
-      <c r="D137" t="n">
+      <c r="F156" t="n">
+        <v>22000</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-617953.0155868785</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>68.51000000000001</v>
+      </c>
+      <c r="C157" t="n">
         <v>68.5</v>
       </c>
-      <c r="E137" t="n">
+      <c r="D157" t="n">
+        <v>68.51000000000001</v>
+      </c>
+      <c r="E157" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="F157" t="n">
+        <v>20500</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-617953.0155868785</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>68.51000000000001</v>
+      </c>
+      <c r="C158" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="D158" t="n">
+        <v>68.51000000000001</v>
+      </c>
+      <c r="E158" t="n">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="F158" t="n">
+        <v>85763.3829</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-617953.0155868785</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="C159" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="D159" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="E159" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="F159" t="n">
+        <v>18013.2589</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-617953.0155868785</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>68.48999999999999</v>
+      </c>
+      <c r="C160" t="n">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="D160" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="E160" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="F160" t="n">
+        <v>12818.7262</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-630771.7417868786</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="C161" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="D161" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="E161" t="n">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="F161" t="n">
+        <v>1592.5487</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-629179.1930868785</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="C162" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="D162" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="E162" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="F162" t="n">
+        <v>6183.3878</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-629179.1930868785</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="C163" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="D163" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="E163" t="n">
+        <v>68.11</v>
+      </c>
+      <c r="F163" t="n">
+        <v>10515.2437</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-629179.1930868785</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="C164" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="D164" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="E164" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="F164" t="n">
+        <v>11142.0942</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-629179.1930868785</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="C165" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="D165" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="E165" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="F165" t="n">
+        <v>1536.2119</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-629179.1930868785</v>
+      </c>
+      <c r="H165" t="n">
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="K165" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="C166" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="D166" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="E166" t="n">
         <v>68.12</v>
       </c>
-      <c r="F137" t="n">
+      <c r="F166" t="n">
         <v>9847.761200000001</v>
       </c>
-      <c r="G137" t="n">
-        <v>68.73399999999995</v>
-      </c>
-      <c r="H137" t="n">
-        <v>71.4071666666666</v>
-      </c>
-      <c r="I137" t="n">
-        <v>1</v>
-      </c>
-      <c r="J137" t="n">
-        <v>0</v>
-      </c>
-      <c r="K137" t="n">
+      <c r="G166" t="n">
+        <v>-629179.1930868785</v>
+      </c>
+      <c r="H166" t="n">
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="n">
         <v>68.5</v>
       </c>
-      <c r="L137" t="n">
+      <c r="K166" t="n">
         <v>68.5</v>
       </c>
-      <c r="M137" t="inlineStr">
+      <c r="L166" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="N137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
         <v>68.89</v>
       </c>
-      <c r="C138" t="n">
+      <c r="C167" t="n">
         <v>68.89</v>
       </c>
-      <c r="D138" t="n">
+      <c r="D167" t="n">
         <v>68.89</v>
       </c>
-      <c r="E138" t="n">
+      <c r="E167" t="n">
         <v>68.89</v>
       </c>
-      <c r="F138" t="n">
+      <c r="F167" t="n">
         <v>3000</v>
       </c>
-      <c r="G138" t="n">
-        <v>68.6513333333333</v>
-      </c>
-      <c r="H138" t="n">
-        <v>71.32366666666661</v>
-      </c>
-      <c r="I138" t="n">
-        <v>1</v>
-      </c>
-      <c r="J138" t="n">
-        <v>0</v>
-      </c>
-      <c r="K138" t="n">
+      <c r="G167" t="n">
+        <v>-626179.1930868785</v>
+      </c>
+      <c r="H167" t="n">
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="n">
         <v>68.5</v>
       </c>
-      <c r="L138" t="n">
+      <c r="K167" t="n">
         <v>68.5</v>
       </c>
-      <c r="M138" t="inlineStr">
+      <c r="L167" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
         <v>68.11</v>
       </c>
-      <c r="C139" t="n">
+      <c r="C168" t="n">
         <v>67.52</v>
       </c>
-      <c r="D139" t="n">
+      <c r="D168" t="n">
         <v>68.11</v>
       </c>
-      <c r="E139" t="n">
+      <c r="E168" t="n">
         <v>67.52</v>
       </c>
-      <c r="F139" t="n">
+      <c r="F168" t="n">
         <v>11400</v>
       </c>
-      <c r="G139" t="n">
-        <v>68.5653333333333</v>
-      </c>
-      <c r="H139" t="n">
-        <v>71.21399999999994</v>
-      </c>
-      <c r="I139" t="n">
-        <v>1</v>
-      </c>
-      <c r="J139" t="n">
-        <v>0</v>
-      </c>
-      <c r="K139" t="n">
+      <c r="G168" t="n">
+        <v>-637579.1930868785</v>
+      </c>
+      <c r="H168" t="n">
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="n">
         <v>68.89</v>
       </c>
-      <c r="L139" t="n">
+      <c r="K168" t="n">
         <v>68.5</v>
       </c>
-      <c r="M139" t="inlineStr">
+      <c r="L168" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
         <v>67.51000000000001</v>
       </c>
-      <c r="C140" t="n">
+      <c r="C169" t="n">
         <v>67.51000000000001</v>
       </c>
-      <c r="D140" t="n">
+      <c r="D169" t="n">
         <v>67.51000000000001</v>
       </c>
-      <c r="E140" t="n">
+      <c r="E169" t="n">
         <v>67.51000000000001</v>
       </c>
-      <c r="F140" t="n">
+      <c r="F169" t="n">
         <v>15983.3984</v>
       </c>
-      <c r="G140" t="n">
-        <v>68.39133333333329</v>
-      </c>
-      <c r="H140" t="n">
-        <v>71.11066666666662</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="n">
-        <v>0</v>
-      </c>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
+      <c r="G169" t="n">
+        <v>-653562.5914868785</v>
+      </c>
+      <c r="H169" t="n">
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="n">
+        <v>67.52</v>
+      </c>
+      <c r="K169" t="n">
         <v>68.5</v>
       </c>
-      <c r="M140" t="inlineStr">
+      <c r="L169" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
         <v>67.40000000000001</v>
       </c>
-      <c r="C141" t="n">
+      <c r="C170" t="n">
         <v>67.51000000000001</v>
       </c>
-      <c r="D141" t="n">
+      <c r="D170" t="n">
         <v>67.51000000000001</v>
       </c>
-      <c r="E141" t="n">
+      <c r="E170" t="n">
         <v>67.40000000000001</v>
       </c>
-      <c r="F141" t="n">
+      <c r="F170" t="n">
         <v>4809.2843</v>
       </c>
-      <c r="G141" t="n">
-        <v>68.32199999999996</v>
-      </c>
-      <c r="H141" t="n">
-        <v>71.01299999999995</v>
-      </c>
-      <c r="I141" t="n">
-        <v>1</v>
-      </c>
-      <c r="J141" t="n">
-        <v>0</v>
-      </c>
-      <c r="K141" t="n">
-        <v>67.51000000000001</v>
-      </c>
-      <c r="L141" t="n">
+      <c r="G170" t="n">
+        <v>-653562.5914868785</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="n">
         <v>68.5</v>
       </c>
-      <c r="M141" t="inlineStr">
+      <c r="L170" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
         <v>67.51000000000001</v>
       </c>
-      <c r="C142" t="n">
+      <c r="C171" t="n">
         <v>67.98999999999999</v>
       </c>
-      <c r="D142" t="n">
+      <c r="D171" t="n">
         <v>68.14</v>
       </c>
-      <c r="E142" t="n">
+      <c r="E171" t="n">
         <v>67.51000000000001</v>
       </c>
-      <c r="F142" t="n">
+      <c r="F171" t="n">
         <v>20516</v>
       </c>
-      <c r="G142" t="n">
-        <v>68.28799999999997</v>
-      </c>
-      <c r="H142" t="n">
-        <v>70.94083333333329</v>
-      </c>
-      <c r="I142" t="n">
-        <v>1</v>
-      </c>
-      <c r="J142" t="n">
-        <v>0</v>
-      </c>
-      <c r="K142" t="n">
-        <v>67.51000000000001</v>
-      </c>
-      <c r="L142" t="n">
+      <c r="G171" t="n">
+        <v>-633046.5914868785</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
         <v>68.5</v>
       </c>
-      <c r="M142" t="inlineStr">
+      <c r="L171" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
         <v>68</v>
       </c>
-      <c r="C143" t="n">
+      <c r="C172" t="n">
         <v>68</v>
       </c>
-      <c r="D143" t="n">
+      <c r="D172" t="n">
         <v>68</v>
       </c>
-      <c r="E143" t="n">
+      <c r="E172" t="n">
         <v>68</v>
       </c>
-      <c r="F143" t="n">
+      <c r="F172" t="n">
         <v>219</v>
       </c>
-      <c r="G143" t="n">
-        <v>68.25466666666664</v>
-      </c>
-      <c r="H143" t="n">
-        <v>70.87049999999995</v>
-      </c>
-      <c r="I143" t="n">
-        <v>1</v>
-      </c>
-      <c r="J143" t="n">
-        <v>0</v>
-      </c>
-      <c r="K143" t="n">
-        <v>67.98999999999999</v>
-      </c>
-      <c r="L143" t="n">
+      <c r="G172" t="n">
+        <v>-632827.5914868785</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
         <v>68.5</v>
       </c>
-      <c r="M143" t="inlineStr">
+      <c r="L172" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
         <v>68.84999999999999</v>
       </c>
-      <c r="C144" t="n">
+      <c r="C173" t="n">
         <v>68.89</v>
       </c>
-      <c r="D144" t="n">
+      <c r="D173" t="n">
         <v>68.89</v>
       </c>
-      <c r="E144" t="n">
+      <c r="E173" t="n">
         <v>68.84999999999999</v>
       </c>
-      <c r="F144" t="n">
+      <c r="F173" t="n">
         <v>30858.3237</v>
       </c>
-      <c r="G144" t="n">
-        <v>68.28066666666663</v>
-      </c>
-      <c r="H144" t="n">
-        <v>70.81849999999994</v>
-      </c>
-      <c r="I144" t="n">
-        <v>1</v>
-      </c>
-      <c r="J144" t="n">
-        <v>0</v>
-      </c>
-      <c r="K144" t="n">
-        <v>68</v>
-      </c>
-      <c r="L144" t="n">
+      <c r="G173" t="n">
+        <v>-601969.2677868785</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
         <v>68.5</v>
       </c>
-      <c r="M144" t="inlineStr">
+      <c r="L173" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
         <v>68.59999999999999</v>
       </c>
-      <c r="C145" t="n">
+      <c r="C174" t="n">
         <v>68.59999999999999</v>
       </c>
-      <c r="D145" t="n">
+      <c r="D174" t="n">
         <v>68.59999999999999</v>
       </c>
-      <c r="E145" t="n">
+      <c r="E174" t="n">
         <v>68.59999999999999</v>
       </c>
-      <c r="F145" t="n">
+      <c r="F174" t="n">
         <v>1000</v>
       </c>
-      <c r="G145" t="n">
-        <v>68.28733333333329</v>
-      </c>
-      <c r="H145" t="n">
-        <v>70.76183333333329</v>
-      </c>
-      <c r="I145" t="n">
-        <v>1</v>
-      </c>
-      <c r="J145" t="n">
-        <v>0</v>
-      </c>
-      <c r="K145" t="n">
-        <v>68.89</v>
-      </c>
-      <c r="L145" t="n">
+      <c r="G174" t="n">
+        <v>-602969.2677868785</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
         <v>68.5</v>
       </c>
-      <c r="M145" t="inlineStr">
+      <c r="L174" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
         <v>68.7</v>
       </c>
-      <c r="C146" t="n">
+      <c r="C175" t="n">
         <v>68.79000000000001</v>
       </c>
-      <c r="D146" t="n">
+      <c r="D175" t="n">
         <v>68.79000000000001</v>
       </c>
-      <c r="E146" t="n">
+      <c r="E175" t="n">
         <v>68.7</v>
       </c>
-      <c r="F146" t="n">
+      <c r="F175" t="n">
         <v>2745.721</v>
       </c>
-      <c r="G146" t="n">
-        <v>68.31333333333329</v>
-      </c>
-      <c r="H146" t="n">
-        <v>70.70649999999996</v>
-      </c>
-      <c r="I146" t="n">
-        <v>1</v>
-      </c>
-      <c r="J146" t="n">
-        <v>0</v>
-      </c>
-      <c r="K146" t="n">
-        <v>68.59999999999999</v>
-      </c>
-      <c r="L146" t="n">
+      <c r="G175" t="n">
+        <v>-600223.5467868785</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="n">
         <v>68.5</v>
       </c>
-      <c r="M146" t="inlineStr">
+      <c r="L175" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
         <v>68.98</v>
       </c>
-      <c r="C147" t="n">
+      <c r="C176" t="n">
         <v>68.98</v>
       </c>
-      <c r="D147" t="n">
+      <c r="D176" t="n">
         <v>68.98</v>
       </c>
-      <c r="E147" t="n">
+      <c r="E176" t="n">
         <v>68.98</v>
       </c>
-      <c r="F147" t="n">
+      <c r="F176" t="n">
         <v>11375.2333</v>
       </c>
-      <c r="G147" t="n">
-        <v>68.34533333333329</v>
-      </c>
-      <c r="H147" t="n">
-        <v>70.64249999999996</v>
-      </c>
-      <c r="I147" t="n">
-        <v>1</v>
-      </c>
-      <c r="J147" t="n">
-        <v>0</v>
-      </c>
-      <c r="K147" t="n">
-        <v>68.79000000000001</v>
-      </c>
-      <c r="L147" t="n">
+      <c r="G176" t="n">
+        <v>-588848.3134868785</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="n">
         <v>68.5</v>
       </c>
-      <c r="M147" t="inlineStr">
+      <c r="L176" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
         <v>68.8</v>
       </c>
-      <c r="C148" t="n">
+      <c r="C177" t="n">
         <v>68.3</v>
       </c>
-      <c r="D148" t="n">
+      <c r="D177" t="n">
         <v>68.8</v>
       </c>
-      <c r="E148" t="n">
+      <c r="E177" t="n">
         <v>68.3</v>
       </c>
-      <c r="F148" t="n">
+      <c r="F177" t="n">
         <v>17900</v>
       </c>
-      <c r="G148" t="n">
-        <v>68.33199999999995</v>
-      </c>
-      <c r="H148" t="n">
-        <v>70.56749999999995</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="n">
-        <v>0</v>
-      </c>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
+      <c r="G177" t="n">
+        <v>-606748.3134868785</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="n">
         <v>68.5</v>
       </c>
-      <c r="M148" t="inlineStr">
+      <c r="L177" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
         <v>68.51000000000001</v>
       </c>
-      <c r="C149" t="n">
+      <c r="C178" t="n">
         <v>68.3</v>
       </c>
-      <c r="D149" t="n">
+      <c r="D178" t="n">
         <v>68.51000000000001</v>
       </c>
-      <c r="E149" t="n">
+      <c r="E178" t="n">
         <v>68.3</v>
       </c>
-      <c r="F149" t="n">
+      <c r="F178" t="n">
         <v>9229.749100000001</v>
       </c>
-      <c r="G149" t="n">
-        <v>68.31866666666662</v>
-      </c>
-      <c r="H149" t="n">
-        <v>70.49366666666664</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="n">
-        <v>0</v>
-      </c>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
+      <c r="G178" t="n">
+        <v>-606748.3134868785</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="n">
         <v>68.5</v>
       </c>
-      <c r="M149" t="inlineStr">
+      <c r="L178" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
         <v>68.51000000000001</v>
       </c>
-      <c r="C150" t="n">
+      <c r="C179" t="n">
         <v>67.83</v>
       </c>
-      <c r="D150" t="n">
+      <c r="D179" t="n">
         <v>68.51000000000001</v>
       </c>
-      <c r="E150" t="n">
+      <c r="E179" t="n">
         <v>67.83</v>
       </c>
-      <c r="F150" t="n">
+      <c r="F179" t="n">
         <v>7600</v>
       </c>
-      <c r="G150" t="n">
-        <v>68.27399999999994</v>
-      </c>
-      <c r="H150" t="n">
-        <v>70.42416666666664</v>
-      </c>
-      <c r="I150" t="n">
-        <v>1</v>
-      </c>
-      <c r="J150" t="n">
-        <v>0</v>
-      </c>
-      <c r="K150" t="n">
-        <v>68.3</v>
-      </c>
-      <c r="L150" t="n">
+      <c r="G179" t="n">
+        <v>-614348.3134868785</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="n">
         <v>68.5</v>
       </c>
-      <c r="M150" t="inlineStr">
+      <c r="L179" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
         <v>67.62</v>
       </c>
-      <c r="C151" t="n">
+      <c r="C180" t="n">
         <v>67.62</v>
       </c>
-      <c r="D151" t="n">
+      <c r="D180" t="n">
         <v>67.62</v>
       </c>
-      <c r="E151" t="n">
+      <c r="E180" t="n">
         <v>67.62</v>
       </c>
-      <c r="F151" t="n">
+      <c r="F180" t="n">
         <v>1167.4271</v>
       </c>
-      <c r="G151" t="n">
-        <v>68.21533333333328</v>
-      </c>
-      <c r="H151" t="n">
-        <v>70.35066666666664</v>
-      </c>
-      <c r="I151" t="n">
-        <v>1</v>
-      </c>
-      <c r="J151" t="n">
-        <v>0</v>
-      </c>
-      <c r="K151" t="n">
-        <v>67.83</v>
-      </c>
-      <c r="L151" t="n">
+      <c r="G180" t="n">
+        <v>-615515.7405868785</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="n">
         <v>68.5</v>
       </c>
-      <c r="M151" t="inlineStr">
+      <c r="L180" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
         <v>67.63</v>
       </c>
-      <c r="C152" t="n">
+      <c r="C181" t="n">
         <v>67</v>
       </c>
-      <c r="D152" t="n">
+      <c r="D181" t="n">
         <v>67.63</v>
       </c>
-      <c r="E152" t="n">
+      <c r="E181" t="n">
         <v>67</v>
       </c>
-      <c r="F152" t="n">
+      <c r="F181" t="n">
         <v>84310.2648</v>
       </c>
-      <c r="G152" t="n">
-        <v>68.11533333333327</v>
-      </c>
-      <c r="H152" t="n">
-        <v>70.26666666666664</v>
-      </c>
-      <c r="I152" t="n">
-        <v>1</v>
-      </c>
-      <c r="J152" t="n">
-        <v>0</v>
-      </c>
-      <c r="K152" t="n">
-        <v>67.62</v>
-      </c>
-      <c r="L152" t="n">
+      <c r="G181" t="n">
+        <v>-699826.0053868785</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="n">
         <v>68.5</v>
       </c>
-      <c r="M152" t="inlineStr">
+      <c r="L181" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
         <v>68.59999999999999</v>
       </c>
-      <c r="C153" t="n">
+      <c r="C182" t="n">
         <v>68.59999999999999</v>
       </c>
-      <c r="D153" t="n">
+      <c r="D182" t="n">
         <v>68.59999999999999</v>
       </c>
-      <c r="E153" t="n">
+      <c r="E182" t="n">
         <v>68.59999999999999</v>
       </c>
-      <c r="F153" t="n">
+      <c r="F182" t="n">
         <v>150</v>
       </c>
-      <c r="G153" t="n">
-        <v>68.09599999999993</v>
-      </c>
-      <c r="H153" t="n">
-        <v>70.20916666666663</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="n">
-        <v>0</v>
-      </c>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
+      <c r="G182" t="n">
+        <v>-699676.0053868785</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="n">
         <v>68.5</v>
       </c>
-      <c r="M153" t="inlineStr">
+      <c r="L182" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
         <v>68.34999999999999</v>
       </c>
-      <c r="C154" t="n">
+      <c r="C183" t="n">
         <v>68.34999999999999</v>
       </c>
-      <c r="D154" t="n">
+      <c r="D183" t="n">
         <v>68.34999999999999</v>
       </c>
-      <c r="E154" t="n">
+      <c r="E183" t="n">
         <v>68.34</v>
       </c>
-      <c r="F154" t="n">
+      <c r="F183" t="n">
         <v>1246.3738</v>
       </c>
-      <c r="G154" t="n">
-        <v>68.15133333333327</v>
-      </c>
-      <c r="H154" t="n">
-        <v>70.14066666666665</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="n">
-        <v>0</v>
-      </c>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
+      <c r="G183" t="n">
+        <v>-700922.3791868784</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="n">
         <v>68.5</v>
       </c>
-      <c r="M154" t="inlineStr">
+      <c r="L183" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
         <v>68.23999999999999</v>
       </c>
-      <c r="C155" t="n">
+      <c r="C184" t="n">
         <v>68.23999999999999</v>
       </c>
-      <c r="D155" t="n">
+      <c r="D184" t="n">
         <v>68.23999999999999</v>
       </c>
-      <c r="E155" t="n">
+      <c r="E184" t="n">
         <v>68.23999999999999</v>
       </c>
-      <c r="F155" t="n">
+      <c r="F184" t="n">
         <v>59.7591</v>
       </c>
-      <c r="G155" t="n">
-        <v>68.19999999999995</v>
-      </c>
-      <c r="H155" t="n">
-        <v>70.06583333333332</v>
-      </c>
-      <c r="I155" t="n">
-        <v>1</v>
-      </c>
-      <c r="J155" t="n">
-        <v>0</v>
-      </c>
-      <c r="K155" t="n">
-        <v>68.34999999999999</v>
-      </c>
-      <c r="L155" t="n">
+      <c r="G184" t="n">
+        <v>-700982.1382868785</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="n">
         <v>68.5</v>
       </c>
-      <c r="M155" t="inlineStr">
+      <c r="L184" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
         <v>68.34</v>
       </c>
-      <c r="C156" t="n">
+      <c r="C185" t="n">
         <v>68.18000000000001</v>
       </c>
-      <c r="D156" t="n">
+      <c r="D185" t="n">
         <v>68.34</v>
       </c>
-      <c r="E156" t="n">
+      <c r="E185" t="n">
         <v>68.18000000000001</v>
       </c>
-      <c r="F156" t="n">
+      <c r="F185" t="n">
         <v>2275.7934</v>
       </c>
-      <c r="G156" t="n">
-        <v>68.24466666666662</v>
-      </c>
-      <c r="H156" t="n">
-        <v>70.00016666666666</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="n">
-        <v>0</v>
-      </c>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
+      <c r="G185" t="n">
+        <v>-703257.9316868784</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="n">
         <v>68.5</v>
       </c>
-      <c r="M156" t="inlineStr">
+      <c r="L185" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N156" t="n">
+      <c r="M185" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-20 BackTest ELF.xlsx
+++ b/BackTest/2020-01-20 BackTest ELF.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M185"/>
+  <dimension ref="A1:N143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,34 +427,39 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>72.2</v>
+        <v>73.8</v>
       </c>
       <c r="C2" t="n">
-        <v>72.2</v>
+        <v>73.8</v>
       </c>
       <c r="D2" t="n">
-        <v>72.2</v>
+        <v>73.8</v>
       </c>
       <c r="E2" t="n">
-        <v>72.2</v>
+        <v>73.8</v>
       </c>
       <c r="F2" t="n">
-        <v>133.6843</v>
+        <v>3861.457</v>
       </c>
       <c r="G2" t="n">
-        <v>-279440.3686937921</v>
+        <v>-191727.6784868786</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>72.25</v>
+        <v>73.66</v>
       </c>
       <c r="C3" t="n">
-        <v>72.25</v>
+        <v>74.34999999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>72.25</v>
+        <v>74.34999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>72.25</v>
+        <v>73.3</v>
       </c>
       <c r="F3" t="n">
-        <v>518</v>
+        <v>11233.2694</v>
       </c>
       <c r="G3" t="n">
-        <v>-278922.3686937921</v>
+        <v>-180494.4090868786</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,34 +503,35 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>72.25</v>
+        <v>74.19</v>
       </c>
       <c r="C4" t="n">
-        <v>72.25</v>
+        <v>74.19</v>
       </c>
       <c r="D4" t="n">
-        <v>72.25</v>
+        <v>74.19</v>
       </c>
       <c r="E4" t="n">
-        <v>72.25</v>
+        <v>74.19</v>
       </c>
       <c r="F4" t="n">
-        <v>600</v>
+        <v>1995.6577</v>
       </c>
       <c r="G4" t="n">
-        <v>-278922.3686937921</v>
+        <v>-182490.0667868786</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -532,34 +539,35 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>72.26000000000001</v>
+        <v>74.18000000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>72.26000000000001</v>
+        <v>74.19</v>
       </c>
       <c r="D5" t="n">
-        <v>72.26000000000001</v>
+        <v>74.3</v>
       </c>
       <c r="E5" t="n">
-        <v>72.26000000000001</v>
+        <v>74.18000000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>1218.2455</v>
+        <v>22914.8417</v>
       </c>
       <c r="G5" t="n">
-        <v>-277704.1231937921</v>
+        <v>-182490.0667868786</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -567,34 +575,35 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>72.2</v>
+        <v>74.39</v>
       </c>
       <c r="C6" t="n">
-        <v>72.2</v>
+        <v>74.39</v>
       </c>
       <c r="D6" t="n">
-        <v>72.2</v>
+        <v>74.39</v>
       </c>
       <c r="E6" t="n">
-        <v>72.2</v>
+        <v>74.39</v>
       </c>
       <c r="F6" t="n">
-        <v>5.644</v>
+        <v>857.0163</v>
       </c>
       <c r="G6" t="n">
-        <v>-277709.7671937921</v>
+        <v>-181633.0504868786</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -602,34 +611,35 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>71.73</v>
+        <v>74</v>
       </c>
       <c r="C7" t="n">
-        <v>72.2</v>
+        <v>74</v>
       </c>
       <c r="D7" t="n">
-        <v>72.2</v>
+        <v>74.37</v>
       </c>
       <c r="E7" t="n">
-        <v>71.73</v>
+        <v>74</v>
       </c>
       <c r="F7" t="n">
-        <v>2007.6165</v>
+        <v>1586.5894</v>
       </c>
       <c r="G7" t="n">
-        <v>-277709.7671937921</v>
+        <v>-183219.6398868786</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -637,34 +647,35 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>72.31999999999999</v>
+        <v>74.37</v>
       </c>
       <c r="C8" t="n">
-        <v>72.56999999999999</v>
+        <v>74.37</v>
       </c>
       <c r="D8" t="n">
-        <v>72.56999999999999</v>
+        <v>74.37</v>
       </c>
       <c r="E8" t="n">
-        <v>72.31999999999999</v>
+        <v>74.37</v>
       </c>
       <c r="F8" t="n">
-        <v>20000</v>
+        <v>222</v>
       </c>
       <c r="G8" t="n">
-        <v>-257709.7671937921</v>
+        <v>-182997.6398868786</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -672,34 +683,35 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>72.3</v>
+        <v>74.37</v>
       </c>
       <c r="C9" t="n">
-        <v>72.3</v>
+        <v>74.3</v>
       </c>
       <c r="D9" t="n">
-        <v>72.3</v>
+        <v>74.37</v>
       </c>
       <c r="E9" t="n">
-        <v>72.3</v>
+        <v>74.3</v>
       </c>
       <c r="F9" t="n">
-        <v>1312.2433</v>
+        <v>2511</v>
       </c>
       <c r="G9" t="n">
-        <v>-259022.0104937921</v>
+        <v>-185508.6398868786</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -707,34 +719,35 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>72.25</v>
+        <v>74.19</v>
       </c>
       <c r="C10" t="n">
-        <v>72.25</v>
+        <v>74.19</v>
       </c>
       <c r="D10" t="n">
-        <v>72.25</v>
+        <v>74.19</v>
       </c>
       <c r="E10" t="n">
-        <v>72.25</v>
+        <v>74.19</v>
       </c>
       <c r="F10" t="n">
-        <v>1233.8525</v>
+        <v>267.857</v>
       </c>
       <c r="G10" t="n">
-        <v>-260255.8629937921</v>
+        <v>-185776.4968868786</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -742,34 +755,35 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>72.63</v>
+        <v>73.7</v>
       </c>
       <c r="C11" t="n">
-        <v>72.63</v>
+        <v>72.84999999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>72.63</v>
+        <v>73.7</v>
       </c>
       <c r="E11" t="n">
-        <v>72.63</v>
+        <v>72.84999999999999</v>
       </c>
       <c r="F11" t="n">
-        <v>375.6556</v>
+        <v>22313.249</v>
       </c>
       <c r="G11" t="n">
-        <v>-259880.2073937921</v>
+        <v>-208089.7458868786</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -777,34 +791,35 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>72.3</v>
+        <v>74.59</v>
       </c>
       <c r="C12" t="n">
-        <v>72.3</v>
+        <v>74.59</v>
       </c>
       <c r="D12" t="n">
-        <v>72.3</v>
+        <v>74.59</v>
       </c>
       <c r="E12" t="n">
-        <v>72.3</v>
+        <v>74.59</v>
       </c>
       <c r="F12" t="n">
-        <v>1293.2763</v>
+        <v>111</v>
       </c>
       <c r="G12" t="n">
-        <v>-261173.4836937921</v>
+        <v>-207978.7458868786</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -812,34 +827,35 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>73</v>
+        <v>74.58</v>
       </c>
       <c r="C13" t="n">
-        <v>73.19</v>
+        <v>74.58</v>
       </c>
       <c r="D13" t="n">
-        <v>73.19</v>
+        <v>74.58</v>
       </c>
       <c r="E13" t="n">
-        <v>73</v>
+        <v>74.58</v>
       </c>
       <c r="F13" t="n">
-        <v>136.6826069135128</v>
+        <v>267.857</v>
       </c>
       <c r="G13" t="n">
-        <v>-261036.8010868786</v>
+        <v>-208246.6028868786</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -847,34 +863,35 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>72.31999999999999</v>
+        <v>74.59</v>
       </c>
       <c r="C14" t="n">
-        <v>72.31</v>
+        <v>74.58</v>
       </c>
       <c r="D14" t="n">
-        <v>72.31999999999999</v>
+        <v>74.59</v>
       </c>
       <c r="E14" t="n">
-        <v>72.31</v>
+        <v>74.58</v>
       </c>
       <c r="F14" t="n">
-        <v>12546.8893</v>
+        <v>2231.8096</v>
       </c>
       <c r="G14" t="n">
-        <v>-273583.6903868786</v>
+        <v>-208246.6028868786</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -882,34 +899,35 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>72.89</v>
+        <v>74.59</v>
       </c>
       <c r="C15" t="n">
-        <v>72.88</v>
+        <v>74.56999999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>72.89</v>
+        <v>74.59</v>
       </c>
       <c r="E15" t="n">
-        <v>72.88</v>
+        <v>74.56999999999999</v>
       </c>
       <c r="F15" t="n">
-        <v>6610.7466</v>
+        <v>666</v>
       </c>
       <c r="G15" t="n">
-        <v>-266972.9437868786</v>
+        <v>-208912.6028868786</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -917,34 +935,35 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>72.86</v>
+        <v>74.56999999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>72.8</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>72.86</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="E16" t="n">
-        <v>72.8</v>
+        <v>74.56999999999999</v>
       </c>
       <c r="F16" t="n">
-        <v>19207.6309</v>
+        <v>7329.258</v>
       </c>
       <c r="G16" t="n">
-        <v>-286180.5746868786</v>
+        <v>-201583.3448868786</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -952,34 +971,35 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>72.81999999999999</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>72.81</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="D17" t="n">
-        <v>72.81999999999999</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>72.81</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="F17" t="n">
-        <v>2944.421</v>
+        <v>588.9337</v>
       </c>
       <c r="G17" t="n">
-        <v>-283236.1536868786</v>
+        <v>-201583.3448868786</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -987,34 +1007,35 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>73.39</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>73.54000000000001</v>
+        <v>74.70999999999999</v>
       </c>
       <c r="D18" t="n">
-        <v>73.54000000000001</v>
+        <v>74.70999999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>73.39</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="F18" t="n">
-        <v>4040.4623</v>
+        <v>1927.6477</v>
       </c>
       <c r="G18" t="n">
-        <v>-279195.6913868786</v>
+        <v>-199655.6971868786</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1022,34 +1043,35 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>73.54000000000001</v>
+        <v>74.72</v>
       </c>
       <c r="C19" t="n">
-        <v>73.66</v>
+        <v>74.3</v>
       </c>
       <c r="D19" t="n">
-        <v>73.66</v>
+        <v>74.77</v>
       </c>
       <c r="E19" t="n">
-        <v>73.54000000000001</v>
+        <v>74.3</v>
       </c>
       <c r="F19" t="n">
-        <v>88126.36719999999</v>
+        <v>4911.0793</v>
       </c>
       <c r="G19" t="n">
-        <v>-191069.3241868786</v>
+        <v>-204566.7764868786</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1057,34 +1079,35 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>73.54000000000001</v>
+        <v>74.77</v>
       </c>
       <c r="C20" t="n">
-        <v>73.54000000000001</v>
+        <v>75.18000000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>73.66</v>
+        <v>75.18000000000001</v>
       </c>
       <c r="E20" t="n">
-        <v>73.54000000000001</v>
+        <v>74.77</v>
       </c>
       <c r="F20" t="n">
-        <v>74016.16529999999</v>
+        <v>1974.6846</v>
       </c>
       <c r="G20" t="n">
-        <v>-265085.4894868786</v>
+        <v>-202592.0918868786</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1092,34 +1115,35 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>73.67</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>73.72</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="D21" t="n">
-        <v>73.72</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="E21" t="n">
-        <v>73.67</v>
+        <v>74.31</v>
       </c>
       <c r="F21" t="n">
-        <v>1850.0078</v>
+        <v>22324.4904</v>
       </c>
       <c r="G21" t="n">
-        <v>-263235.4816868786</v>
+        <v>-224916.5822868786</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1127,34 +1151,35 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>73.7</v>
+        <v>74.98999999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>73.70999999999999</v>
+        <v>74.98999999999999</v>
       </c>
       <c r="D22" t="n">
-        <v>73.70999999999999</v>
+        <v>74.98999999999999</v>
       </c>
       <c r="E22" t="n">
-        <v>73.66</v>
+        <v>74.98999999999999</v>
       </c>
       <c r="F22" t="n">
-        <v>26834.055</v>
+        <v>111</v>
       </c>
       <c r="G22" t="n">
-        <v>-290069.5366868786</v>
+        <v>-224805.5822868786</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1162,34 +1187,35 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>73.72</v>
+        <v>75.09</v>
       </c>
       <c r="C23" t="n">
-        <v>73.72</v>
+        <v>75.09</v>
       </c>
       <c r="D23" t="n">
-        <v>73.72</v>
+        <v>75.09</v>
       </c>
       <c r="E23" t="n">
-        <v>73.72</v>
+        <v>75.09</v>
       </c>
       <c r="F23" t="n">
-        <v>1372.0123</v>
+        <v>464.4556</v>
       </c>
       <c r="G23" t="n">
-        <v>-288697.5243868786</v>
+        <v>-224341.1266868786</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1197,34 +1223,35 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>73.69</v>
+        <v>74.98999999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>73.69</v>
+        <v>75.09</v>
       </c>
       <c r="D24" t="n">
-        <v>73.69</v>
+        <v>75.09</v>
       </c>
       <c r="E24" t="n">
-        <v>73.69</v>
+        <v>74.98999999999999</v>
       </c>
       <c r="F24" t="n">
-        <v>3000</v>
+        <v>952.3121749566609</v>
       </c>
       <c r="G24" t="n">
-        <v>-291697.5243868786</v>
+        <v>-224341.1266868786</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1232,34 +1259,35 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>73.69</v>
+        <v>75.48</v>
       </c>
       <c r="C25" t="n">
-        <v>73.69</v>
+        <v>75.48</v>
       </c>
       <c r="D25" t="n">
-        <v>73.69</v>
+        <v>75.48</v>
       </c>
       <c r="E25" t="n">
-        <v>73.69</v>
+        <v>75.48</v>
       </c>
       <c r="F25" t="n">
-        <v>4070.2464</v>
+        <v>834.6063</v>
       </c>
       <c r="G25" t="n">
-        <v>-291697.5243868786</v>
+        <v>-223506.5203868786</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1267,34 +1295,35 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>73.73</v>
+        <v>75</v>
       </c>
       <c r="C26" t="n">
-        <v>73.73</v>
+        <v>75.48</v>
       </c>
       <c r="D26" t="n">
-        <v>73.73</v>
+        <v>75.48</v>
       </c>
       <c r="E26" t="n">
-        <v>73.73</v>
+        <v>75</v>
       </c>
       <c r="F26" t="n">
-        <v>2741.4062</v>
+        <v>221.83</v>
       </c>
       <c r="G26" t="n">
-        <v>-288956.1181868786</v>
+        <v>-223506.5203868786</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1302,34 +1331,35 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>73.73</v>
+        <v>75</v>
       </c>
       <c r="C27" t="n">
-        <v>73.69</v>
+        <v>75.47</v>
       </c>
       <c r="D27" t="n">
-        <v>73.73</v>
+        <v>75.48</v>
       </c>
       <c r="E27" t="n">
-        <v>73.69</v>
+        <v>74.3</v>
       </c>
       <c r="F27" t="n">
-        <v>17544.909</v>
+        <v>8273.156300000001</v>
       </c>
       <c r="G27" t="n">
-        <v>-306501.0271868785</v>
+        <v>-231779.6766868786</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1337,34 +1367,35 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>73.37</v>
+        <v>74.86</v>
       </c>
       <c r="C28" t="n">
-        <v>73.37</v>
+        <v>74.69</v>
       </c>
       <c r="D28" t="n">
-        <v>73.37</v>
+        <v>74.86</v>
       </c>
       <c r="E28" t="n">
-        <v>73.37</v>
+        <v>74.69</v>
       </c>
       <c r="F28" t="n">
-        <v>225.388</v>
+        <v>8625.892900000001</v>
       </c>
       <c r="G28" t="n">
-        <v>-306726.4151868785</v>
+        <v>-240405.5695868786</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1372,34 +1403,35 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>73.40000000000001</v>
+        <v>74.19</v>
       </c>
       <c r="C29" t="n">
-        <v>73.90000000000001</v>
+        <v>74.19</v>
       </c>
       <c r="D29" t="n">
-        <v>73.90000000000001</v>
+        <v>74.19</v>
       </c>
       <c r="E29" t="n">
-        <v>72.84</v>
+        <v>74.19</v>
       </c>
       <c r="F29" t="n">
-        <v>83929.5667</v>
+        <v>111</v>
       </c>
       <c r="G29" t="n">
-        <v>-222796.8484868785</v>
+        <v>-240516.5695868786</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1407,34 +1439,35 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>73.89</v>
+        <v>73.84999999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>73.98999999999999</v>
+        <v>73.84999999999999</v>
       </c>
       <c r="D30" t="n">
-        <v>73.98999999999999</v>
+        <v>73.84999999999999</v>
       </c>
       <c r="E30" t="n">
-        <v>73.89</v>
+        <v>73.84999999999999</v>
       </c>
       <c r="F30" t="n">
-        <v>15454.9191</v>
+        <v>419.647</v>
       </c>
       <c r="G30" t="n">
-        <v>-207341.9293868785</v>
+        <v>-240936.2165868786</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1442,34 +1475,35 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>73.97</v>
+        <v>73.76000000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>73.97</v>
+        <v>72.97</v>
       </c>
       <c r="D31" t="n">
-        <v>73.97</v>
+        <v>73.76000000000001</v>
       </c>
       <c r="E31" t="n">
-        <v>73.97</v>
+        <v>72.97</v>
       </c>
       <c r="F31" t="n">
-        <v>3218.3126</v>
+        <v>52598.3335</v>
       </c>
       <c r="G31" t="n">
-        <v>-210560.2419868785</v>
+        <v>-293534.5500868786</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1477,28 +1511,29 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>73.88</v>
+        <v>73.7</v>
       </c>
       <c r="C32" t="n">
-        <v>73.98</v>
+        <v>73.76000000000001</v>
       </c>
       <c r="D32" t="n">
-        <v>73.98</v>
+        <v>73.76000000000001</v>
       </c>
       <c r="E32" t="n">
-        <v>73.88</v>
+        <v>72.97</v>
       </c>
       <c r="F32" t="n">
-        <v>17772.4941</v>
+        <v>71450.23450000001</v>
       </c>
       <c r="G32" t="n">
-        <v>-192787.7478868785</v>
+        <v>-222084.3155868786</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1512,34 +1547,35 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>73.11</v>
+        <v>72.95999999999999</v>
       </c>
       <c r="C33" t="n">
-        <v>73.11</v>
+        <v>72.95999999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>73.11</v>
+        <v>72.95999999999999</v>
       </c>
       <c r="E33" t="n">
-        <v>73.11</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="F33" t="n">
-        <v>3218.3126</v>
+        <v>7509.5514</v>
       </c>
       <c r="G33" t="n">
-        <v>-196006.0604868785</v>
+        <v>-229593.8669868786</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -1547,34 +1583,35 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>73.98999999999999</v>
+        <v>72.84</v>
       </c>
       <c r="C34" t="n">
-        <v>73.98999999999999</v>
+        <v>72.84</v>
       </c>
       <c r="D34" t="n">
-        <v>73.98999999999999</v>
+        <v>72.84</v>
       </c>
       <c r="E34" t="n">
-        <v>73.98999999999999</v>
+        <v>72.84</v>
       </c>
       <c r="F34" t="n">
-        <v>1297.5828</v>
+        <v>8430.231</v>
       </c>
       <c r="G34" t="n">
-        <v>-194708.4776868785</v>
+        <v>-238024.0979868786</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -1582,34 +1619,35 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>74</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>73.98999999999999</v>
+        <v>72.11</v>
       </c>
       <c r="D35" t="n">
-        <v>74.09</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="E35" t="n">
-        <v>73.98999999999999</v>
+        <v>72.11</v>
       </c>
       <c r="F35" t="n">
-        <v>3515.1604</v>
+        <v>48733.7953</v>
       </c>
       <c r="G35" t="n">
-        <v>-194708.4776868785</v>
+        <v>-286757.8932868786</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -1617,28 +1655,29 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>73.97</v>
+        <v>73.48</v>
       </c>
       <c r="C36" t="n">
-        <v>73.97</v>
+        <v>73.48</v>
       </c>
       <c r="D36" t="n">
-        <v>73.98</v>
+        <v>73.48</v>
       </c>
       <c r="E36" t="n">
-        <v>73.97</v>
+        <v>73.48</v>
       </c>
       <c r="F36" t="n">
-        <v>8835.742099999999</v>
+        <v>6.81</v>
       </c>
       <c r="G36" t="n">
-        <v>-203544.2197868785</v>
+        <v>-286751.0832868786</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1652,28 +1691,29 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>73.98999999999999</v>
+        <v>72.44</v>
       </c>
       <c r="C37" t="n">
-        <v>74.75</v>
+        <v>72.44</v>
       </c>
       <c r="D37" t="n">
-        <v>74.75</v>
+        <v>72.44</v>
       </c>
       <c r="E37" t="n">
-        <v>73.98999999999999</v>
+        <v>72.44</v>
       </c>
       <c r="F37" t="n">
-        <v>13561.5984</v>
+        <v>1197.8125</v>
       </c>
       <c r="G37" t="n">
-        <v>-189982.6213868785</v>
+        <v>-287948.8957868786</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1687,34 +1727,35 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>74.73999999999999</v>
+        <v>73.09</v>
       </c>
       <c r="C38" t="n">
-        <v>74.73999999999999</v>
+        <v>73.09</v>
       </c>
       <c r="D38" t="n">
-        <v>74.73999999999999</v>
+        <v>73.09</v>
       </c>
       <c r="E38" t="n">
-        <v>74.73999999999999</v>
+        <v>73.09</v>
       </c>
       <c r="F38" t="n">
-        <v>142.515</v>
+        <v>40.9292</v>
       </c>
       <c r="G38" t="n">
-        <v>-190125.1363868786</v>
+        <v>-287907.9665868786</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -1722,34 +1763,35 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>74.73999999999999</v>
+        <v>72.44</v>
       </c>
       <c r="C39" t="n">
-        <v>74.73999999999999</v>
+        <v>72.44</v>
       </c>
       <c r="D39" t="n">
-        <v>74.73999999999999</v>
+        <v>72.44</v>
       </c>
       <c r="E39" t="n">
-        <v>74.73999999999999</v>
+        <v>72.44</v>
       </c>
       <c r="F39" t="n">
-        <v>944.9374</v>
+        <v>1634.195</v>
       </c>
       <c r="G39" t="n">
-        <v>-190125.1363868786</v>
+        <v>-289542.1615868786</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
@@ -1757,34 +1799,35 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>73.98999999999999</v>
+        <v>72.44</v>
       </c>
       <c r="C40" t="n">
-        <v>74.73999999999999</v>
+        <v>72.44</v>
       </c>
       <c r="D40" t="n">
-        <v>74.73999999999999</v>
+        <v>72.44</v>
       </c>
       <c r="E40" t="n">
-        <v>73.98999999999999</v>
+        <v>72.44</v>
       </c>
       <c r="F40" t="n">
-        <v>1097.8212</v>
+        <v>5939.9722</v>
       </c>
       <c r="G40" t="n">
-        <v>-190125.1363868786</v>
+        <v>-289542.1615868786</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
@@ -1792,34 +1835,35 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>73.64</v>
+        <v>72.43000000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>73.64</v>
+        <v>72.04000000000001</v>
       </c>
       <c r="D41" t="n">
-        <v>73.64</v>
+        <v>72.43000000000001</v>
       </c>
       <c r="E41" t="n">
-        <v>73.64</v>
+        <v>71.81999999999999</v>
       </c>
       <c r="F41" t="n">
-        <v>200.5265</v>
+        <v>24753.4073</v>
       </c>
       <c r="G41" t="n">
-        <v>-190325.6628868786</v>
+        <v>-314295.5688868786</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
@@ -1827,34 +1871,35 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>74.72</v>
+        <v>71.8</v>
       </c>
       <c r="C42" t="n">
-        <v>74.72</v>
+        <v>72.48999999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>74.72</v>
+        <v>72.48999999999999</v>
       </c>
       <c r="E42" t="n">
-        <v>74.72</v>
+        <v>71.41</v>
       </c>
       <c r="F42" t="n">
-        <v>6.9994</v>
+        <v>26882.39</v>
       </c>
       <c r="G42" t="n">
-        <v>-190318.6634868786</v>
+        <v>-287413.1788868786</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -1862,34 +1907,35 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>73.8</v>
+        <v>71.31999999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>73.8</v>
+        <v>72.18000000000001</v>
       </c>
       <c r="D43" t="n">
-        <v>73.8</v>
+        <v>72.18000000000001</v>
       </c>
       <c r="E43" t="n">
-        <v>73.8</v>
+        <v>71.31999999999999</v>
       </c>
       <c r="F43" t="n">
-        <v>1409.015</v>
+        <v>2965.6276</v>
       </c>
       <c r="G43" t="n">
-        <v>-191727.6784868786</v>
+        <v>-290378.8064868786</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
@@ -1897,34 +1943,35 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>73.8</v>
+        <v>71.31</v>
       </c>
       <c r="C44" t="n">
-        <v>73.8</v>
+        <v>71.3</v>
       </c>
       <c r="D44" t="n">
-        <v>73.8</v>
+        <v>71.31</v>
       </c>
       <c r="E44" t="n">
-        <v>73.8</v>
+        <v>71.3</v>
       </c>
       <c r="F44" t="n">
-        <v>3861.457</v>
+        <v>3915.2803</v>
       </c>
       <c r="G44" t="n">
-        <v>-191727.6784868786</v>
+        <v>-294294.0867868786</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
@@ -1932,34 +1979,35 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>73.66</v>
+        <v>71.3</v>
       </c>
       <c r="C45" t="n">
-        <v>74.34999999999999</v>
+        <v>71.3</v>
       </c>
       <c r="D45" t="n">
-        <v>74.34999999999999</v>
+        <v>71.3</v>
       </c>
       <c r="E45" t="n">
-        <v>73.3</v>
+        <v>71.3</v>
       </c>
       <c r="F45" t="n">
-        <v>11233.2694</v>
+        <v>160</v>
       </c>
       <c r="G45" t="n">
-        <v>-180494.4090868786</v>
+        <v>-294294.0867868786</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
@@ -1967,34 +2015,35 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>74.19</v>
+        <v>71.3</v>
       </c>
       <c r="C46" t="n">
-        <v>74.19</v>
+        <v>71.3</v>
       </c>
       <c r="D46" t="n">
-        <v>74.19</v>
+        <v>71.3</v>
       </c>
       <c r="E46" t="n">
-        <v>74.19</v>
+        <v>71.3</v>
       </c>
       <c r="F46" t="n">
-        <v>1995.6577</v>
+        <v>0.2679</v>
       </c>
       <c r="G46" t="n">
-        <v>-182490.0667868786</v>
+        <v>-294294.0867868786</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
@@ -2002,34 +2051,35 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>74.18000000000001</v>
+        <v>71.3</v>
       </c>
       <c r="C47" t="n">
-        <v>74.19</v>
+        <v>71.2</v>
       </c>
       <c r="D47" t="n">
-        <v>74.3</v>
+        <v>71.3</v>
       </c>
       <c r="E47" t="n">
-        <v>74.18000000000001</v>
+        <v>71.2</v>
       </c>
       <c r="F47" t="n">
-        <v>22914.8417</v>
+        <v>1000</v>
       </c>
       <c r="G47" t="n">
-        <v>-182490.0667868786</v>
+        <v>-295294.0867868786</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
@@ -2037,34 +2087,35 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>74.39</v>
+        <v>71.79000000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>74.39</v>
+        <v>71.79000000000001</v>
       </c>
       <c r="D48" t="n">
-        <v>74.39</v>
+        <v>71.79000000000001</v>
       </c>
       <c r="E48" t="n">
-        <v>74.39</v>
+        <v>71.79000000000001</v>
       </c>
       <c r="F48" t="n">
-        <v>857.0163</v>
+        <v>7</v>
       </c>
       <c r="G48" t="n">
-        <v>-181633.0504868786</v>
+        <v>-295287.0867868786</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -2072,34 +2123,35 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>74</v>
+        <v>71.75</v>
       </c>
       <c r="C49" t="n">
-        <v>74</v>
+        <v>72.5</v>
       </c>
       <c r="D49" t="n">
-        <v>74.37</v>
+        <v>72.65000000000001</v>
       </c>
       <c r="E49" t="n">
-        <v>74</v>
+        <v>71.75</v>
       </c>
       <c r="F49" t="n">
-        <v>1586.5894</v>
+        <v>2976.5173</v>
       </c>
       <c r="G49" t="n">
-        <v>-183219.6398868786</v>
+        <v>-292310.5694868786</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
@@ -2107,34 +2159,35 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>74.37</v>
+        <v>73.27</v>
       </c>
       <c r="C50" t="n">
-        <v>74.37</v>
+        <v>73.27</v>
       </c>
       <c r="D50" t="n">
-        <v>74.37</v>
+        <v>73.27</v>
       </c>
       <c r="E50" t="n">
-        <v>74.37</v>
+        <v>73.27</v>
       </c>
       <c r="F50" t="n">
-        <v>222</v>
+        <v>739.8253999999999</v>
       </c>
       <c r="G50" t="n">
-        <v>-182997.6398868786</v>
+        <v>-291570.7440868786</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -2142,34 +2195,35 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>74.37</v>
+        <v>73.27</v>
       </c>
       <c r="C51" t="n">
-        <v>74.3</v>
+        <v>73.27</v>
       </c>
       <c r="D51" t="n">
-        <v>74.37</v>
+        <v>73.27</v>
       </c>
       <c r="E51" t="n">
-        <v>74.3</v>
+        <v>73.27</v>
       </c>
       <c r="F51" t="n">
-        <v>2511</v>
+        <v>2642.896137573359</v>
       </c>
       <c r="G51" t="n">
-        <v>-185508.6398868786</v>
+        <v>-291570.7440868786</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
@@ -2177,34 +2231,35 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>74.19</v>
+        <v>73.28</v>
       </c>
       <c r="C52" t="n">
-        <v>74.19</v>
+        <v>73.28</v>
       </c>
       <c r="D52" t="n">
-        <v>74.19</v>
+        <v>73.28</v>
       </c>
       <c r="E52" t="n">
-        <v>74.19</v>
+        <v>73.28</v>
       </c>
       <c r="F52" t="n">
-        <v>267.857</v>
+        <v>195.4661</v>
       </c>
       <c r="G52" t="n">
-        <v>-185776.4968868786</v>
+        <v>-291375.2779868786</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
@@ -2212,34 +2267,35 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>73.7</v>
+        <v>72.70999999999999</v>
       </c>
       <c r="C53" t="n">
-        <v>72.84999999999999</v>
+        <v>72.70999999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>73.7</v>
+        <v>72.70999999999999</v>
       </c>
       <c r="E53" t="n">
-        <v>72.84999999999999</v>
+        <v>72.70999999999999</v>
       </c>
       <c r="F53" t="n">
-        <v>22313.249</v>
+        <v>5086.4501</v>
       </c>
       <c r="G53" t="n">
-        <v>-208089.7458868786</v>
+        <v>-296461.7280868786</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -2247,28 +2303,29 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>74.59</v>
+        <v>72.70999999999999</v>
       </c>
       <c r="C54" t="n">
-        <v>74.59</v>
+        <v>72.70999999999999</v>
       </c>
       <c r="D54" t="n">
-        <v>74.59</v>
+        <v>72.70999999999999</v>
       </c>
       <c r="E54" t="n">
-        <v>74.59</v>
+        <v>72.70999999999999</v>
       </c>
       <c r="F54" t="n">
-        <v>111</v>
+        <v>5445.9999</v>
       </c>
       <c r="G54" t="n">
-        <v>-207978.7458868786</v>
+        <v>-296461.7280868786</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2282,34 +2339,35 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>74.58</v>
+        <v>72.70999999999999</v>
       </c>
       <c r="C55" t="n">
-        <v>74.58</v>
+        <v>72.70999999999999</v>
       </c>
       <c r="D55" t="n">
-        <v>74.58</v>
+        <v>72.70999999999999</v>
       </c>
       <c r="E55" t="n">
-        <v>74.58</v>
+        <v>72.70999999999999</v>
       </c>
       <c r="F55" t="n">
-        <v>267.857</v>
+        <v>2800</v>
       </c>
       <c r="G55" t="n">
-        <v>-208246.6028868786</v>
+        <v>-296461.7280868786</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
@@ -2317,34 +2375,35 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>74.59</v>
+        <v>72.70999999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>74.58</v>
+        <v>72.70999999999999</v>
       </c>
       <c r="D56" t="n">
-        <v>74.59</v>
+        <v>72.70999999999999</v>
       </c>
       <c r="E56" t="n">
-        <v>74.58</v>
+        <v>72.70999999999999</v>
       </c>
       <c r="F56" t="n">
-        <v>2231.8096</v>
+        <v>711</v>
       </c>
       <c r="G56" t="n">
-        <v>-208246.6028868786</v>
+        <v>-296461.7280868786</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
@@ -2352,34 +2411,35 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>74.59</v>
+        <v>72.70999999999999</v>
       </c>
       <c r="C57" t="n">
-        <v>74.56999999999999</v>
+        <v>72.70999999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>74.59</v>
+        <v>72.70999999999999</v>
       </c>
       <c r="E57" t="n">
-        <v>74.56999999999999</v>
+        <v>72.70999999999999</v>
       </c>
       <c r="F57" t="n">
-        <v>666</v>
+        <v>8546.8876</v>
       </c>
       <c r="G57" t="n">
-        <v>-208912.6028868786</v>
+        <v>-296461.7280868786</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
@@ -2387,34 +2447,35 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>74.56999999999999</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="C58" t="n">
-        <v>74.59999999999999</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="D58" t="n">
-        <v>74.59999999999999</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="E58" t="n">
-        <v>74.56999999999999</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="F58" t="n">
-        <v>7329.258</v>
+        <v>292.522</v>
       </c>
       <c r="G58" t="n">
-        <v>-201583.3448868786</v>
+        <v>-296754.2500868786</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
@@ -2422,34 +2483,35 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>74.59999999999999</v>
+        <v>72.7</v>
       </c>
       <c r="C59" t="n">
-        <v>74.59999999999999</v>
+        <v>72.7</v>
       </c>
       <c r="D59" t="n">
-        <v>74.59999999999999</v>
+        <v>72.7</v>
       </c>
       <c r="E59" t="n">
-        <v>74.59999999999999</v>
+        <v>72.7</v>
       </c>
       <c r="F59" t="n">
-        <v>588.9337</v>
+        <v>6.8776</v>
       </c>
       <c r="G59" t="n">
-        <v>-201583.3448868786</v>
+        <v>-296747.3724868786</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
@@ -2457,34 +2519,35 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>74.59999999999999</v>
+        <v>72.8</v>
       </c>
       <c r="C60" t="n">
-        <v>74.70999999999999</v>
+        <v>72.8</v>
       </c>
       <c r="D60" t="n">
-        <v>74.70999999999999</v>
+        <v>72.8</v>
       </c>
       <c r="E60" t="n">
-        <v>74.59999999999999</v>
+        <v>72.8</v>
       </c>
       <c r="F60" t="n">
-        <v>1927.6477</v>
+        <v>285.6444</v>
       </c>
       <c r="G60" t="n">
-        <v>-199655.6971868786</v>
+        <v>-296461.7280868786</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
@@ -2492,34 +2555,35 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>74.72</v>
+        <v>73.12</v>
       </c>
       <c r="C61" t="n">
-        <v>74.3</v>
+        <v>73.12</v>
       </c>
       <c r="D61" t="n">
-        <v>74.77</v>
+        <v>73.12</v>
       </c>
       <c r="E61" t="n">
-        <v>74.3</v>
+        <v>73.12</v>
       </c>
       <c r="F61" t="n">
-        <v>4911.0793</v>
+        <v>1233.8525</v>
       </c>
       <c r="G61" t="n">
-        <v>-204566.7764868786</v>
+        <v>-295227.8755868786</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
@@ -2527,34 +2591,35 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>74.77</v>
+        <v>73.31999999999999</v>
       </c>
       <c r="C62" t="n">
-        <v>75.18000000000001</v>
+        <v>73.31999999999999</v>
       </c>
       <c r="D62" t="n">
-        <v>75.18000000000001</v>
+        <v>73.31999999999999</v>
       </c>
       <c r="E62" t="n">
-        <v>74.77</v>
+        <v>73.31999999999999</v>
       </c>
       <c r="F62" t="n">
-        <v>1974.6846</v>
+        <v>31</v>
       </c>
       <c r="G62" t="n">
-        <v>-202592.0918868786</v>
+        <v>-295196.8755868786</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
@@ -2562,34 +2627,35 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>75.09999999999999</v>
+        <v>73.31999999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>74.90000000000001</v>
+        <v>74.01000000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>75.09999999999999</v>
+        <v>74.01000000000001</v>
       </c>
       <c r="E63" t="n">
-        <v>74.31</v>
+        <v>73.31999999999999</v>
       </c>
       <c r="F63" t="n">
-        <v>22324.4904</v>
+        <v>42575.4557</v>
       </c>
       <c r="G63" t="n">
-        <v>-224916.5822868786</v>
+        <v>-252621.4198868786</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
@@ -2597,34 +2663,35 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>74.98999999999999</v>
+        <v>74.03</v>
       </c>
       <c r="C64" t="n">
-        <v>74.98999999999999</v>
+        <v>74.03</v>
       </c>
       <c r="D64" t="n">
-        <v>74.98999999999999</v>
+        <v>74.03</v>
       </c>
       <c r="E64" t="n">
-        <v>74.98999999999999</v>
+        <v>74.03</v>
       </c>
       <c r="F64" t="n">
-        <v>111</v>
+        <v>3580.0938</v>
       </c>
       <c r="G64" t="n">
-        <v>-224805.5822868786</v>
+        <v>-249041.3260868786</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
@@ -2632,34 +2699,35 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>75.09</v>
+        <v>74.06</v>
       </c>
       <c r="C65" t="n">
-        <v>75.09</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="D65" t="n">
-        <v>75.09</v>
+        <v>74.44</v>
       </c>
       <c r="E65" t="n">
-        <v>75.09</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="F65" t="n">
-        <v>464.4556</v>
+        <v>32412.9891</v>
       </c>
       <c r="G65" t="n">
-        <v>-224341.1266868786</v>
+        <v>-281454.3151868786</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
@@ -2667,28 +2735,29 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>74.98999999999999</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="C66" t="n">
-        <v>75.09</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="D66" t="n">
-        <v>75.09</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="E66" t="n">
-        <v>74.98999999999999</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="F66" t="n">
-        <v>952.3121749566609</v>
+        <v>1039</v>
       </c>
       <c r="G66" t="n">
-        <v>-224341.1266868786</v>
+        <v>-280415.3151868786</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2702,34 +2771,35 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>75.48</v>
+        <v>73.8</v>
       </c>
       <c r="C67" t="n">
-        <v>75.48</v>
+        <v>73.70999999999999</v>
       </c>
       <c r="D67" t="n">
-        <v>75.48</v>
+        <v>73.8</v>
       </c>
       <c r="E67" t="n">
-        <v>75.48</v>
+        <v>73.56</v>
       </c>
       <c r="F67" t="n">
-        <v>834.6063</v>
+        <v>8209.771000000001</v>
       </c>
       <c r="G67" t="n">
-        <v>-223506.5203868786</v>
+        <v>-288625.0861868786</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
@@ -2737,34 +2807,35 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>75</v>
+        <v>73.45999999999999</v>
       </c>
       <c r="C68" t="n">
-        <v>75.48</v>
+        <v>73.37</v>
       </c>
       <c r="D68" t="n">
-        <v>75.48</v>
+        <v>73.45999999999999</v>
       </c>
       <c r="E68" t="n">
-        <v>75</v>
+        <v>73.37</v>
       </c>
       <c r="F68" t="n">
-        <v>221.83</v>
+        <v>6227.3271</v>
       </c>
       <c r="G68" t="n">
-        <v>-223506.5203868786</v>
+        <v>-294852.4132868786</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
@@ -2772,34 +2843,35 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>75</v>
+        <v>72.44</v>
       </c>
       <c r="C69" t="n">
-        <v>75.47</v>
+        <v>72.31999999999999</v>
       </c>
       <c r="D69" t="n">
-        <v>75.48</v>
+        <v>72.44</v>
       </c>
       <c r="E69" t="n">
-        <v>74.3</v>
+        <v>72.31</v>
       </c>
       <c r="F69" t="n">
-        <v>8273.156300000001</v>
+        <v>21</v>
       </c>
       <c r="G69" t="n">
-        <v>-231779.6766868786</v>
+        <v>-294873.4132868786</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
@@ -2807,34 +2879,35 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>74.86</v>
+        <v>72.31999999999999</v>
       </c>
       <c r="C70" t="n">
-        <v>74.69</v>
+        <v>72.22</v>
       </c>
       <c r="D70" t="n">
-        <v>74.86</v>
+        <v>72.31999999999999</v>
       </c>
       <c r="E70" t="n">
-        <v>74.69</v>
+        <v>72.2</v>
       </c>
       <c r="F70" t="n">
-        <v>8625.892900000001</v>
+        <v>21951.3037</v>
       </c>
       <c r="G70" t="n">
-        <v>-240405.5695868786</v>
+        <v>-316824.7169868786</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
@@ -2842,28 +2915,29 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>74.19</v>
+        <v>72.22</v>
       </c>
       <c r="C71" t="n">
-        <v>74.19</v>
+        <v>72.01000000000001</v>
       </c>
       <c r="D71" t="n">
-        <v>74.19</v>
+        <v>73.23</v>
       </c>
       <c r="E71" t="n">
-        <v>74.19</v>
+        <v>72.01000000000001</v>
       </c>
       <c r="F71" t="n">
-        <v>111</v>
+        <v>33015.6452</v>
       </c>
       <c r="G71" t="n">
-        <v>-240516.5695868786</v>
+        <v>-349840.3621868786</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2877,28 +2951,29 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>73.84999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="C72" t="n">
-        <v>73.84999999999999</v>
+        <v>72</v>
       </c>
       <c r="D72" t="n">
-        <v>73.84999999999999</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="E72" t="n">
-        <v>73.84999999999999</v>
+        <v>72</v>
       </c>
       <c r="F72" t="n">
-        <v>419.647</v>
+        <v>17966.5193</v>
       </c>
       <c r="G72" t="n">
-        <v>-240936.2165868786</v>
+        <v>-367806.8814868786</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2912,28 +2987,29 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>73.76000000000001</v>
+        <v>72.01000000000001</v>
       </c>
       <c r="C73" t="n">
-        <v>72.97</v>
+        <v>72.11</v>
       </c>
       <c r="D73" t="n">
-        <v>73.76000000000001</v>
+        <v>72.11</v>
       </c>
       <c r="E73" t="n">
-        <v>72.97</v>
+        <v>72.01000000000001</v>
       </c>
       <c r="F73" t="n">
-        <v>52598.3335</v>
+        <v>49</v>
       </c>
       <c r="G73" t="n">
-        <v>-293534.5500868786</v>
+        <v>-367757.8814868786</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2947,28 +3023,29 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>73.7</v>
+        <v>72.16</v>
       </c>
       <c r="C74" t="n">
-        <v>73.76000000000001</v>
+        <v>72.81999999999999</v>
       </c>
       <c r="D74" t="n">
-        <v>73.76000000000001</v>
+        <v>72.81999999999999</v>
       </c>
       <c r="E74" t="n">
-        <v>72.97</v>
+        <v>72.16</v>
       </c>
       <c r="F74" t="n">
-        <v>71450.23450000001</v>
+        <v>2257</v>
       </c>
       <c r="G74" t="n">
-        <v>-222084.3155868786</v>
+        <v>-365500.8814868786</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2982,28 +3059,29 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>72.95999999999999</v>
+        <v>72.8</v>
       </c>
       <c r="C75" t="n">
-        <v>72.95999999999999</v>
+        <v>72.8</v>
       </c>
       <c r="D75" t="n">
-        <v>72.95999999999999</v>
+        <v>72.8</v>
       </c>
       <c r="E75" t="n">
-        <v>72.90000000000001</v>
+        <v>72.8</v>
       </c>
       <c r="F75" t="n">
-        <v>7509.5514</v>
+        <v>7</v>
       </c>
       <c r="G75" t="n">
-        <v>-229593.8669868786</v>
+        <v>-365507.8814868786</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3017,28 +3095,29 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>72.84</v>
+        <v>72.79000000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>72.84</v>
+        <v>72.73</v>
       </c>
       <c r="D76" t="n">
-        <v>72.84</v>
+        <v>72.79000000000001</v>
       </c>
       <c r="E76" t="n">
-        <v>72.84</v>
+        <v>72.73</v>
       </c>
       <c r="F76" t="n">
-        <v>8430.231</v>
+        <v>49</v>
       </c>
       <c r="G76" t="n">
-        <v>-238024.0979868786</v>
+        <v>-365556.8814868786</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3052,28 +3131,29 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>72.59999999999999</v>
+        <v>72</v>
       </c>
       <c r="C77" t="n">
-        <v>72.11</v>
+        <v>72</v>
       </c>
       <c r="D77" t="n">
-        <v>72.59999999999999</v>
+        <v>72</v>
       </c>
       <c r="E77" t="n">
-        <v>72.11</v>
+        <v>72</v>
       </c>
       <c r="F77" t="n">
-        <v>48733.7953</v>
+        <v>7</v>
       </c>
       <c r="G77" t="n">
-        <v>-286757.8932868786</v>
+        <v>-365563.8814868786</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3087,28 +3167,29 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>73.48</v>
+        <v>72.01000000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>73.48</v>
+        <v>72.03</v>
       </c>
       <c r="D78" t="n">
-        <v>73.48</v>
+        <v>72.03</v>
       </c>
       <c r="E78" t="n">
-        <v>73.48</v>
+        <v>72.01000000000001</v>
       </c>
       <c r="F78" t="n">
-        <v>6.81</v>
+        <v>21</v>
       </c>
       <c r="G78" t="n">
-        <v>-286751.0832868786</v>
+        <v>-365542.8814868786</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3122,28 +3203,29 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>72.44</v>
+        <v>72.04000000000001</v>
       </c>
       <c r="C79" t="n">
-        <v>72.44</v>
+        <v>72.04000000000001</v>
       </c>
       <c r="D79" t="n">
-        <v>72.44</v>
+        <v>72.04000000000001</v>
       </c>
       <c r="E79" t="n">
-        <v>72.44</v>
+        <v>72.04000000000001</v>
       </c>
       <c r="F79" t="n">
-        <v>1197.8125</v>
+        <v>7</v>
       </c>
       <c r="G79" t="n">
-        <v>-287948.8957868786</v>
+        <v>-365535.8814868786</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3157,28 +3239,29 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>73.09</v>
+        <v>72.05</v>
       </c>
       <c r="C80" t="n">
-        <v>73.09</v>
+        <v>72.05</v>
       </c>
       <c r="D80" t="n">
-        <v>73.09</v>
+        <v>72.05</v>
       </c>
       <c r="E80" t="n">
-        <v>73.09</v>
+        <v>72.05</v>
       </c>
       <c r="F80" t="n">
-        <v>40.9292</v>
+        <v>7</v>
       </c>
       <c r="G80" t="n">
-        <v>-287907.9665868786</v>
+        <v>-365528.8814868786</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3192,28 +3275,29 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>72.44</v>
+        <v>72.45999999999999</v>
       </c>
       <c r="C81" t="n">
-        <v>72.44</v>
+        <v>72.45999999999999</v>
       </c>
       <c r="D81" t="n">
-        <v>72.44</v>
+        <v>72.45999999999999</v>
       </c>
       <c r="E81" t="n">
-        <v>72.44</v>
+        <v>72.45999999999999</v>
       </c>
       <c r="F81" t="n">
-        <v>1634.195</v>
+        <v>7</v>
       </c>
       <c r="G81" t="n">
-        <v>-289542.1615868786</v>
+        <v>-365521.8814868786</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3227,28 +3311,29 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>72.44</v>
+        <v>72.73</v>
       </c>
       <c r="C82" t="n">
-        <v>72.44</v>
+        <v>72.73</v>
       </c>
       <c r="D82" t="n">
-        <v>72.44</v>
+        <v>72.73</v>
       </c>
       <c r="E82" t="n">
-        <v>72.44</v>
+        <v>72.73</v>
       </c>
       <c r="F82" t="n">
-        <v>5939.9722</v>
+        <v>6.8767</v>
       </c>
       <c r="G82" t="n">
-        <v>-289542.1615868786</v>
+        <v>-365515.0047868785</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3262,28 +3347,29 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>72.43000000000001</v>
+        <v>72.12</v>
       </c>
       <c r="C83" t="n">
-        <v>72.04000000000001</v>
+        <v>72.12</v>
       </c>
       <c r="D83" t="n">
-        <v>72.43000000000001</v>
+        <v>72.12</v>
       </c>
       <c r="E83" t="n">
-        <v>71.81999999999999</v>
+        <v>72.12</v>
       </c>
       <c r="F83" t="n">
-        <v>24753.4073</v>
+        <v>40.035</v>
       </c>
       <c r="G83" t="n">
-        <v>-314295.5688868786</v>
+        <v>-365555.0397868785</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3297,28 +3383,29 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>71.8</v>
+        <v>72.3</v>
       </c>
       <c r="C84" t="n">
-        <v>72.48999999999999</v>
+        <v>72.3</v>
       </c>
       <c r="D84" t="n">
-        <v>72.48999999999999</v>
+        <v>72.3</v>
       </c>
       <c r="E84" t="n">
-        <v>71.41</v>
+        <v>72.3</v>
       </c>
       <c r="F84" t="n">
-        <v>26882.39</v>
+        <v>4742.5736</v>
       </c>
       <c r="G84" t="n">
-        <v>-287413.1788868786</v>
+        <v>-360812.4661868785</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3332,28 +3419,29 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>71.31999999999999</v>
+        <v>72.01000000000001</v>
       </c>
       <c r="C85" t="n">
-        <v>72.18000000000001</v>
+        <v>72.3</v>
       </c>
       <c r="D85" t="n">
-        <v>72.18000000000001</v>
+        <v>72.3</v>
       </c>
       <c r="E85" t="n">
-        <v>71.31999999999999</v>
+        <v>72.01000000000001</v>
       </c>
       <c r="F85" t="n">
-        <v>2965.6276</v>
+        <v>3289.0899</v>
       </c>
       <c r="G85" t="n">
-        <v>-290378.8064868786</v>
+        <v>-360812.4661868785</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3367,28 +3455,29 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>71.31</v>
+        <v>72.3</v>
       </c>
       <c r="C86" t="n">
-        <v>71.3</v>
+        <v>72.3</v>
       </c>
       <c r="D86" t="n">
-        <v>71.31</v>
+        <v>72.3</v>
       </c>
       <c r="E86" t="n">
-        <v>71.3</v>
+        <v>72.3</v>
       </c>
       <c r="F86" t="n">
-        <v>3915.2803</v>
+        <v>38</v>
       </c>
       <c r="G86" t="n">
-        <v>-294294.0867868786</v>
+        <v>-360812.4661868785</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3402,28 +3491,29 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>71.3</v>
+        <v>72.3</v>
       </c>
       <c r="C87" t="n">
-        <v>71.3</v>
+        <v>72.3</v>
       </c>
       <c r="D87" t="n">
-        <v>71.3</v>
+        <v>72.3</v>
       </c>
       <c r="E87" t="n">
-        <v>71.3</v>
+        <v>72.3</v>
       </c>
       <c r="F87" t="n">
-        <v>160</v>
+        <v>745.1698</v>
       </c>
       <c r="G87" t="n">
-        <v>-294294.0867868786</v>
+        <v>-360812.4661868785</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3437,28 +3527,29 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>71.3</v>
+        <v>72.3</v>
       </c>
       <c r="C88" t="n">
-        <v>71.3</v>
+        <v>72.3</v>
       </c>
       <c r="D88" t="n">
-        <v>71.3</v>
+        <v>72.3</v>
       </c>
       <c r="E88" t="n">
-        <v>71.3</v>
+        <v>72.3</v>
       </c>
       <c r="F88" t="n">
-        <v>0.2679</v>
+        <v>1046.3208</v>
       </c>
       <c r="G88" t="n">
-        <v>-294294.0867868786</v>
+        <v>-360812.4661868785</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3472,28 +3563,29 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>71.3</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="C89" t="n">
-        <v>71.2</v>
+        <v>72.79000000000001</v>
       </c>
       <c r="D89" t="n">
-        <v>71.3</v>
+        <v>72.79000000000001</v>
       </c>
       <c r="E89" t="n">
-        <v>71.2</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="F89" t="n">
-        <v>1000</v>
+        <v>5258.2109</v>
       </c>
       <c r="G89" t="n">
-        <v>-295294.0867868786</v>
+        <v>-355554.2552868785</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3507,28 +3599,29 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>71.79000000000001</v>
+        <v>72.69</v>
       </c>
       <c r="C90" t="n">
-        <v>71.79000000000001</v>
+        <v>72.69</v>
       </c>
       <c r="D90" t="n">
-        <v>71.79000000000001</v>
+        <v>72.69</v>
       </c>
       <c r="E90" t="n">
-        <v>71.79000000000001</v>
+        <v>72.69</v>
       </c>
       <c r="F90" t="n">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="G90" t="n">
-        <v>-295287.0867868786</v>
+        <v>-355624.2552868785</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3542,28 +3635,29 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>71.75</v>
+        <v>72.12</v>
       </c>
       <c r="C91" t="n">
-        <v>72.5</v>
+        <v>72.12</v>
       </c>
       <c r="D91" t="n">
-        <v>72.65000000000001</v>
+        <v>72.12</v>
       </c>
       <c r="E91" t="n">
-        <v>71.75</v>
+        <v>72.12</v>
       </c>
       <c r="F91" t="n">
-        <v>2976.5173</v>
+        <v>20</v>
       </c>
       <c r="G91" t="n">
-        <v>-292310.5694868786</v>
+        <v>-355644.2552868785</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3577,28 +3671,29 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>73.27</v>
+        <v>72.12</v>
       </c>
       <c r="C92" t="n">
-        <v>73.27</v>
+        <v>71.86</v>
       </c>
       <c r="D92" t="n">
-        <v>73.27</v>
+        <v>72.12</v>
       </c>
       <c r="E92" t="n">
-        <v>73.27</v>
+        <v>71.86</v>
       </c>
       <c r="F92" t="n">
-        <v>739.8253999999999</v>
+        <v>8886.185100000001</v>
       </c>
       <c r="G92" t="n">
-        <v>-291570.7440868786</v>
+        <v>-364530.4403868785</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3612,28 +3707,29 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>73.27</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="C93" t="n">
-        <v>73.27</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="D93" t="n">
-        <v>73.27</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="E93" t="n">
-        <v>73.27</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="F93" t="n">
-        <v>2642.896137573359</v>
+        <v>888.6185</v>
       </c>
       <c r="G93" t="n">
-        <v>-291570.7440868786</v>
+        <v>-363641.8218868785</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3647,28 +3743,29 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>73.28</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="C94" t="n">
-        <v>73.28</v>
+        <v>72.59</v>
       </c>
       <c r="D94" t="n">
-        <v>73.28</v>
+        <v>72.77</v>
       </c>
       <c r="E94" t="n">
-        <v>73.28</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="F94" t="n">
-        <v>195.4661</v>
+        <v>4591.3631</v>
       </c>
       <c r="G94" t="n">
-        <v>-291375.2779868786</v>
+        <v>-359050.4587868785</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3682,28 +3779,29 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>72.70999999999999</v>
+        <v>71.95</v>
       </c>
       <c r="C95" t="n">
-        <v>72.70999999999999</v>
+        <v>71.98999999999999</v>
       </c>
       <c r="D95" t="n">
-        <v>72.70999999999999</v>
+        <v>72.59</v>
       </c>
       <c r="E95" t="n">
-        <v>72.70999999999999</v>
+        <v>71.95</v>
       </c>
       <c r="F95" t="n">
-        <v>5086.4501</v>
+        <v>1920.0618</v>
       </c>
       <c r="G95" t="n">
-        <v>-296461.7280868786</v>
+        <v>-360970.5205868785</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3717,28 +3815,29 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>72.70999999999999</v>
+        <v>72</v>
       </c>
       <c r="C96" t="n">
-        <v>72.70999999999999</v>
+        <v>72.02</v>
       </c>
       <c r="D96" t="n">
-        <v>72.70999999999999</v>
+        <v>72.02</v>
       </c>
       <c r="E96" t="n">
-        <v>72.70999999999999</v>
+        <v>72</v>
       </c>
       <c r="F96" t="n">
-        <v>5445.9999</v>
+        <v>839.6721</v>
       </c>
       <c r="G96" t="n">
-        <v>-296461.7280868786</v>
+        <v>-360130.8484868785</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3752,28 +3851,29 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>72.70999999999999</v>
+        <v>72.03</v>
       </c>
       <c r="C97" t="n">
-        <v>72.70999999999999</v>
+        <v>72.06</v>
       </c>
       <c r="D97" t="n">
-        <v>72.70999999999999</v>
+        <v>72.06</v>
       </c>
       <c r="E97" t="n">
-        <v>72.70999999999999</v>
+        <v>72.03</v>
       </c>
       <c r="F97" t="n">
-        <v>2800</v>
+        <v>776.7838</v>
       </c>
       <c r="G97" t="n">
-        <v>-296461.7280868786</v>
+        <v>-359354.0646868785</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3787,28 +3887,29 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>72.70999999999999</v>
+        <v>72.06</v>
       </c>
       <c r="C98" t="n">
-        <v>72.70999999999999</v>
+        <v>72.06</v>
       </c>
       <c r="D98" t="n">
-        <v>72.70999999999999</v>
+        <v>72.06</v>
       </c>
       <c r="E98" t="n">
-        <v>72.70999999999999</v>
+        <v>72.06</v>
       </c>
       <c r="F98" t="n">
-        <v>711</v>
+        <v>787.5774</v>
       </c>
       <c r="G98" t="n">
-        <v>-296461.7280868786</v>
+        <v>-359354.0646868785</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3822,28 +3923,29 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>72.70999999999999</v>
+        <v>72.06</v>
       </c>
       <c r="C99" t="n">
-        <v>72.70999999999999</v>
+        <v>72.06</v>
       </c>
       <c r="D99" t="n">
-        <v>72.70999999999999</v>
+        <v>72.06</v>
       </c>
       <c r="E99" t="n">
-        <v>72.70999999999999</v>
+        <v>72.06</v>
       </c>
       <c r="F99" t="n">
-        <v>8546.8876</v>
+        <v>694.3881</v>
       </c>
       <c r="G99" t="n">
-        <v>-296461.7280868786</v>
+        <v>-359354.0646868785</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3857,28 +3959,29 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>71.90000000000001</v>
+        <v>72.08</v>
       </c>
       <c r="C100" t="n">
-        <v>71.90000000000001</v>
+        <v>72.08</v>
       </c>
       <c r="D100" t="n">
-        <v>71.90000000000001</v>
+        <v>72.08</v>
       </c>
       <c r="E100" t="n">
-        <v>71.90000000000001</v>
+        <v>72.08</v>
       </c>
       <c r="F100" t="n">
-        <v>292.522</v>
+        <v>100.2633</v>
       </c>
       <c r="G100" t="n">
-        <v>-296754.2500868786</v>
+        <v>-359253.8013868785</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3892,28 +3995,29 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>72.7</v>
+        <v>72.76000000000001</v>
       </c>
       <c r="C101" t="n">
-        <v>72.7</v>
+        <v>72.76000000000001</v>
       </c>
       <c r="D101" t="n">
-        <v>72.7</v>
+        <v>72.76000000000001</v>
       </c>
       <c r="E101" t="n">
-        <v>72.7</v>
+        <v>72.76000000000001</v>
       </c>
       <c r="F101" t="n">
-        <v>6.8776</v>
+        <v>868.982</v>
       </c>
       <c r="G101" t="n">
-        <v>-296747.3724868786</v>
+        <v>-358384.8193868785</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3927,6 +4031,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3936,19 +4041,19 @@
         <v>72.8</v>
       </c>
       <c r="C102" t="n">
-        <v>72.8</v>
+        <v>72.88</v>
       </c>
       <c r="D102" t="n">
-        <v>72.8</v>
+        <v>72.89</v>
       </c>
       <c r="E102" t="n">
         <v>72.8</v>
       </c>
       <c r="F102" t="n">
-        <v>285.6444</v>
+        <v>2306.3894</v>
       </c>
       <c r="G102" t="n">
-        <v>-296461.7280868786</v>
+        <v>-356078.4299868785</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3962,28 +4067,29 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>73.12</v>
+        <v>72.76000000000001</v>
       </c>
       <c r="C103" t="n">
-        <v>73.12</v>
+        <v>72.76000000000001</v>
       </c>
       <c r="D103" t="n">
-        <v>73.12</v>
+        <v>72.76000000000001</v>
       </c>
       <c r="E103" t="n">
-        <v>73.12</v>
+        <v>72.76000000000001</v>
       </c>
       <c r="F103" t="n">
-        <v>1233.8525</v>
+        <v>227</v>
       </c>
       <c r="G103" t="n">
-        <v>-295227.8755868786</v>
+        <v>-356305.4299868785</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -3997,28 +4103,29 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>73.31999999999999</v>
+        <v>72.88</v>
       </c>
       <c r="C104" t="n">
-        <v>73.31999999999999</v>
+        <v>72.88</v>
       </c>
       <c r="D104" t="n">
-        <v>73.31999999999999</v>
+        <v>72.88</v>
       </c>
       <c r="E104" t="n">
-        <v>73.31999999999999</v>
+        <v>72.88</v>
       </c>
       <c r="F104" t="n">
-        <v>31</v>
+        <v>3000</v>
       </c>
       <c r="G104" t="n">
-        <v>-295196.8755868786</v>
+        <v>-353305.4299868785</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4032,28 +4139,29 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>73.31999999999999</v>
+        <v>72.76000000000001</v>
       </c>
       <c r="C105" t="n">
-        <v>74.01000000000001</v>
+        <v>72.2</v>
       </c>
       <c r="D105" t="n">
-        <v>74.01000000000001</v>
+        <v>72.8</v>
       </c>
       <c r="E105" t="n">
-        <v>73.31999999999999</v>
+        <v>72.06</v>
       </c>
       <c r="F105" t="n">
-        <v>42575.4557</v>
+        <v>71725.60129999999</v>
       </c>
       <c r="G105" t="n">
-        <v>-252621.4198868786</v>
+        <v>-425031.0312868785</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4067,28 +4175,29 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>74.03</v>
+        <v>72.06</v>
       </c>
       <c r="C106" t="n">
-        <v>74.03</v>
+        <v>71.75</v>
       </c>
       <c r="D106" t="n">
-        <v>74.03</v>
+        <v>72.06</v>
       </c>
       <c r="E106" t="n">
-        <v>74.03</v>
+        <v>71.75</v>
       </c>
       <c r="F106" t="n">
-        <v>3580.0938</v>
+        <v>54051.72</v>
       </c>
       <c r="G106" t="n">
-        <v>-249041.3260868786</v>
+        <v>-479082.7512868785</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4102,28 +4211,29 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>74.06</v>
+        <v>71.75</v>
       </c>
       <c r="C107" t="n">
-        <v>73.90000000000001</v>
+        <v>70.5</v>
       </c>
       <c r="D107" t="n">
-        <v>74.44</v>
+        <v>72.08</v>
       </c>
       <c r="E107" t="n">
-        <v>73.90000000000001</v>
+        <v>70.25</v>
       </c>
       <c r="F107" t="n">
-        <v>32412.9891</v>
+        <v>93358.25999999999</v>
       </c>
       <c r="G107" t="n">
-        <v>-281454.3151868786</v>
+        <v>-572441.0112868785</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4137,28 +4247,29 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>74.09999999999999</v>
+        <v>70.5</v>
       </c>
       <c r="C108" t="n">
-        <v>74.09999999999999</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="D108" t="n">
-        <v>74.09999999999999</v>
+        <v>70.5</v>
       </c>
       <c r="E108" t="n">
-        <v>74.09999999999999</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="F108" t="n">
-        <v>1039</v>
+        <v>4399.3021</v>
       </c>
       <c r="G108" t="n">
-        <v>-280415.3151868786</v>
+        <v>-576840.3133868785</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4172,28 +4283,29 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>73.8</v>
+        <v>70.25</v>
       </c>
       <c r="C109" t="n">
-        <v>73.70999999999999</v>
+        <v>70.05</v>
       </c>
       <c r="D109" t="n">
-        <v>73.8</v>
+        <v>70.25</v>
       </c>
       <c r="E109" t="n">
-        <v>73.56</v>
+        <v>69.88</v>
       </c>
       <c r="F109" t="n">
-        <v>8209.771000000001</v>
+        <v>19200</v>
       </c>
       <c r="G109" t="n">
-        <v>-288625.0861868786</v>
+        <v>-596040.3133868785</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4207,28 +4319,29 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>73.45999999999999</v>
+        <v>69.88</v>
       </c>
       <c r="C110" t="n">
-        <v>73.37</v>
+        <v>70.13</v>
       </c>
       <c r="D110" t="n">
-        <v>73.45999999999999</v>
+        <v>70.13</v>
       </c>
       <c r="E110" t="n">
-        <v>73.37</v>
+        <v>69.20999999999999</v>
       </c>
       <c r="F110" t="n">
-        <v>6227.3271</v>
+        <v>9953.7714</v>
       </c>
       <c r="G110" t="n">
-        <v>-294852.4132868786</v>
+        <v>-586086.5419868785</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4242,28 +4355,29 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>72.44</v>
+        <v>69.2</v>
       </c>
       <c r="C111" t="n">
-        <v>72.31999999999999</v>
+        <v>68.81</v>
       </c>
       <c r="D111" t="n">
-        <v>72.44</v>
+        <v>69.2</v>
       </c>
       <c r="E111" t="n">
-        <v>72.31</v>
+        <v>68.81</v>
       </c>
       <c r="F111" t="n">
-        <v>21</v>
+        <v>1949.5479</v>
       </c>
       <c r="G111" t="n">
-        <v>-294873.4132868786</v>
+        <v>-588036.0898868785</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4277,28 +4391,29 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>72.31999999999999</v>
+        <v>70.12</v>
       </c>
       <c r="C112" t="n">
-        <v>72.22</v>
+        <v>70.12</v>
       </c>
       <c r="D112" t="n">
-        <v>72.31999999999999</v>
+        <v>70.12</v>
       </c>
       <c r="E112" t="n">
-        <v>72.2</v>
+        <v>70.12</v>
       </c>
       <c r="F112" t="n">
-        <v>21951.3037</v>
+        <v>883.0743</v>
       </c>
       <c r="G112" t="n">
-        <v>-316824.7169868786</v>
+        <v>-587153.0155868785</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4312,28 +4427,29 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>72.22</v>
+        <v>68.81</v>
       </c>
       <c r="C113" t="n">
-        <v>72.01000000000001</v>
+        <v>68.55</v>
       </c>
       <c r="D113" t="n">
-        <v>73.23</v>
+        <v>68.81</v>
       </c>
       <c r="E113" t="n">
-        <v>72.01000000000001</v>
+        <v>68.55</v>
       </c>
       <c r="F113" t="n">
-        <v>33015.6452</v>
+        <v>8800</v>
       </c>
       <c r="G113" t="n">
-        <v>-349840.3621868786</v>
+        <v>-595953.0155868785</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4347,28 +4463,29 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>72.09999999999999</v>
+        <v>68.55</v>
       </c>
       <c r="C114" t="n">
-        <v>72</v>
+        <v>68.5</v>
       </c>
       <c r="D114" t="n">
-        <v>72.09999999999999</v>
+        <v>68.55</v>
       </c>
       <c r="E114" t="n">
-        <v>72</v>
+        <v>68.5</v>
       </c>
       <c r="F114" t="n">
-        <v>17966.5193</v>
+        <v>22000</v>
       </c>
       <c r="G114" t="n">
-        <v>-367806.8814868786</v>
+        <v>-617953.0155868785</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4382,28 +4499,29 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>72.01000000000001</v>
+        <v>68.51000000000001</v>
       </c>
       <c r="C115" t="n">
-        <v>72.11</v>
+        <v>68.5</v>
       </c>
       <c r="D115" t="n">
-        <v>72.11</v>
+        <v>68.51000000000001</v>
       </c>
       <c r="E115" t="n">
-        <v>72.01000000000001</v>
+        <v>68.5</v>
       </c>
       <c r="F115" t="n">
-        <v>49</v>
+        <v>20500</v>
       </c>
       <c r="G115" t="n">
-        <v>-367757.8814868786</v>
+        <v>-617953.0155868785</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4417,28 +4535,29 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>72.16</v>
+        <v>68.51000000000001</v>
       </c>
       <c r="C116" t="n">
-        <v>72.81999999999999</v>
+        <v>68.5</v>
       </c>
       <c r="D116" t="n">
-        <v>72.81999999999999</v>
+        <v>68.51000000000001</v>
       </c>
       <c r="E116" t="n">
-        <v>72.16</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="F116" t="n">
-        <v>2257</v>
+        <v>85763.3829</v>
       </c>
       <c r="G116" t="n">
-        <v>-365500.8814868786</v>
+        <v>-617953.0155868785</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4452,28 +4571,29 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>72.8</v>
+        <v>68.5</v>
       </c>
       <c r="C117" t="n">
-        <v>72.8</v>
+        <v>68.5</v>
       </c>
       <c r="D117" t="n">
-        <v>72.8</v>
+        <v>68.5</v>
       </c>
       <c r="E117" t="n">
-        <v>72.8</v>
+        <v>68.5</v>
       </c>
       <c r="F117" t="n">
-        <v>7</v>
+        <v>18013.2589</v>
       </c>
       <c r="G117" t="n">
-        <v>-365507.8814868786</v>
+        <v>-617953.0155868785</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4487,28 +4607,29 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>72.79000000000001</v>
+        <v>68.48999999999999</v>
       </c>
       <c r="C118" t="n">
-        <v>72.73</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="D118" t="n">
-        <v>72.79000000000001</v>
+        <v>68.5</v>
       </c>
       <c r="E118" t="n">
-        <v>72.73</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="F118" t="n">
-        <v>49</v>
+        <v>12818.7262</v>
       </c>
       <c r="G118" t="n">
-        <v>-365556.8814868786</v>
+        <v>-630771.7417868786</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4522,28 +4643,29 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>72</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="C119" t="n">
-        <v>72</v>
+        <v>68.5</v>
       </c>
       <c r="D119" t="n">
-        <v>72</v>
+        <v>68.5</v>
       </c>
       <c r="E119" t="n">
-        <v>72</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="F119" t="n">
-        <v>7</v>
+        <v>1592.5487</v>
       </c>
       <c r="G119" t="n">
-        <v>-365563.8814868786</v>
+        <v>-629179.1930868785</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4557,28 +4679,29 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>72.01000000000001</v>
+        <v>68.5</v>
       </c>
       <c r="C120" t="n">
-        <v>72.03</v>
+        <v>68.5</v>
       </c>
       <c r="D120" t="n">
-        <v>72.03</v>
+        <v>68.5</v>
       </c>
       <c r="E120" t="n">
-        <v>72.01000000000001</v>
+        <v>68.5</v>
       </c>
       <c r="F120" t="n">
-        <v>21</v>
+        <v>6183.3878</v>
       </c>
       <c r="G120" t="n">
-        <v>-365542.8814868786</v>
+        <v>-629179.1930868785</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4592,28 +4715,29 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>72.04000000000001</v>
+        <v>68.5</v>
       </c>
       <c r="C121" t="n">
-        <v>72.04000000000001</v>
+        <v>68.5</v>
       </c>
       <c r="D121" t="n">
-        <v>72.04000000000001</v>
+        <v>68.5</v>
       </c>
       <c r="E121" t="n">
-        <v>72.04000000000001</v>
+        <v>68.11</v>
       </c>
       <c r="F121" t="n">
-        <v>7</v>
+        <v>10515.2437</v>
       </c>
       <c r="G121" t="n">
-        <v>-365535.8814868786</v>
+        <v>-629179.1930868785</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4627,28 +4751,29 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>72.05</v>
+        <v>68.5</v>
       </c>
       <c r="C122" t="n">
-        <v>72.05</v>
+        <v>68.5</v>
       </c>
       <c r="D122" t="n">
-        <v>72.05</v>
+        <v>68.5</v>
       </c>
       <c r="E122" t="n">
-        <v>72.05</v>
+        <v>68.5</v>
       </c>
       <c r="F122" t="n">
-        <v>7</v>
+        <v>11142.0942</v>
       </c>
       <c r="G122" t="n">
-        <v>-365528.8814868786</v>
+        <v>-629179.1930868785</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4662,28 +4787,29 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>72.45999999999999</v>
+        <v>68.5</v>
       </c>
       <c r="C123" t="n">
-        <v>72.45999999999999</v>
+        <v>68.5</v>
       </c>
       <c r="D123" t="n">
-        <v>72.45999999999999</v>
+        <v>68.5</v>
       </c>
       <c r="E123" t="n">
-        <v>72.45999999999999</v>
+        <v>68.5</v>
       </c>
       <c r="F123" t="n">
-        <v>7</v>
+        <v>1536.2119</v>
       </c>
       <c r="G123" t="n">
-        <v>-365521.8814868786</v>
+        <v>-629179.1930868785</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4697,28 +4823,29 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>72.73</v>
+        <v>68.5</v>
       </c>
       <c r="C124" t="n">
-        <v>72.73</v>
+        <v>68.5</v>
       </c>
       <c r="D124" t="n">
-        <v>72.73</v>
+        <v>68.5</v>
       </c>
       <c r="E124" t="n">
-        <v>72.73</v>
+        <v>68.12</v>
       </c>
       <c r="F124" t="n">
-        <v>6.8767</v>
+        <v>9847.761200000001</v>
       </c>
       <c r="G124" t="n">
-        <v>-365515.0047868785</v>
+        <v>-629179.1930868785</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4732,28 +4859,29 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>72.12</v>
+        <v>68.89</v>
       </c>
       <c r="C125" t="n">
-        <v>72.12</v>
+        <v>68.89</v>
       </c>
       <c r="D125" t="n">
-        <v>72.12</v>
+        <v>68.89</v>
       </c>
       <c r="E125" t="n">
-        <v>72.12</v>
+        <v>68.89</v>
       </c>
       <c r="F125" t="n">
-        <v>40.035</v>
+        <v>3000</v>
       </c>
       <c r="G125" t="n">
-        <v>-365555.0397868785</v>
+        <v>-626179.1930868785</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4767,28 +4895,29 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>72.3</v>
+        <v>68.11</v>
       </c>
       <c r="C126" t="n">
-        <v>72.3</v>
+        <v>67.52</v>
       </c>
       <c r="D126" t="n">
-        <v>72.3</v>
+        <v>68.11</v>
       </c>
       <c r="E126" t="n">
-        <v>72.3</v>
+        <v>67.52</v>
       </c>
       <c r="F126" t="n">
-        <v>4742.5736</v>
+        <v>11400</v>
       </c>
       <c r="G126" t="n">
-        <v>-360812.4661868785</v>
+        <v>-637579.1930868785</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4802,28 +4931,29 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>72.01000000000001</v>
+        <v>67.51000000000001</v>
       </c>
       <c r="C127" t="n">
-        <v>72.3</v>
+        <v>67.51000000000001</v>
       </c>
       <c r="D127" t="n">
-        <v>72.3</v>
+        <v>67.51000000000001</v>
       </c>
       <c r="E127" t="n">
-        <v>72.01000000000001</v>
+        <v>67.51000000000001</v>
       </c>
       <c r="F127" t="n">
-        <v>3289.0899</v>
+        <v>15983.3984</v>
       </c>
       <c r="G127" t="n">
-        <v>-360812.4661868785</v>
+        <v>-653562.5914868785</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4837,28 +4967,29 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>72.3</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="C128" t="n">
-        <v>72.3</v>
+        <v>67.51000000000001</v>
       </c>
       <c r="D128" t="n">
-        <v>72.3</v>
+        <v>67.51000000000001</v>
       </c>
       <c r="E128" t="n">
-        <v>72.3</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="F128" t="n">
-        <v>38</v>
+        <v>4809.2843</v>
       </c>
       <c r="G128" t="n">
-        <v>-360812.4661868785</v>
+        <v>-653562.5914868785</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4872,413 +5003,491 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>72.3</v>
+        <v>67.51000000000001</v>
       </c>
       <c r="C129" t="n">
-        <v>72.3</v>
+        <v>67.98999999999999</v>
       </c>
       <c r="D129" t="n">
-        <v>72.3</v>
+        <v>68.14</v>
       </c>
       <c r="E129" t="n">
-        <v>72.3</v>
+        <v>67.51000000000001</v>
       </c>
       <c r="F129" t="n">
-        <v>745.1698</v>
+        <v>20516</v>
       </c>
       <c r="G129" t="n">
-        <v>-360812.4661868785</v>
+        <v>-633046.5914868785</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>67.51000000000001</v>
+      </c>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>72.3</v>
+        <v>68</v>
       </c>
       <c r="C130" t="n">
-        <v>72.3</v>
+        <v>68</v>
       </c>
       <c r="D130" t="n">
-        <v>72.3</v>
+        <v>68</v>
       </c>
       <c r="E130" t="n">
-        <v>72.3</v>
+        <v>68</v>
       </c>
       <c r="F130" t="n">
-        <v>1046.3208</v>
+        <v>219</v>
       </c>
       <c r="G130" t="n">
-        <v>-360812.4661868785</v>
+        <v>-632827.5914868785</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>67.98999999999999</v>
+      </c>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>72.09999999999999</v>
+        <v>68.84999999999999</v>
       </c>
       <c r="C131" t="n">
-        <v>72.79000000000001</v>
+        <v>68.89</v>
       </c>
       <c r="D131" t="n">
-        <v>72.79000000000001</v>
+        <v>68.89</v>
       </c>
       <c r="E131" t="n">
-        <v>72.09999999999999</v>
+        <v>68.84999999999999</v>
       </c>
       <c r="F131" t="n">
-        <v>5258.2109</v>
+        <v>30858.3237</v>
       </c>
       <c r="G131" t="n">
-        <v>-355554.2552868785</v>
+        <v>-601969.2677868785</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>68</v>
+      </c>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>72.69</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="C132" t="n">
-        <v>72.69</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="D132" t="n">
-        <v>72.69</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="E132" t="n">
-        <v>72.69</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="F132" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="G132" t="n">
-        <v>-355624.2552868785</v>
+        <v>-602969.2677868785</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>68.89</v>
+      </c>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>72.12</v>
+        <v>68.7</v>
       </c>
       <c r="C133" t="n">
-        <v>72.12</v>
+        <v>68.79000000000001</v>
       </c>
       <c r="D133" t="n">
-        <v>72.12</v>
+        <v>68.79000000000001</v>
       </c>
       <c r="E133" t="n">
-        <v>72.12</v>
+        <v>68.7</v>
       </c>
       <c r="F133" t="n">
-        <v>20</v>
+        <v>2745.721</v>
       </c>
       <c r="G133" t="n">
-        <v>-355644.2552868785</v>
+        <v>-600223.5467868785</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>68.59999999999999</v>
+      </c>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>72.12</v>
+        <v>68.98</v>
       </c>
       <c r="C134" t="n">
-        <v>71.86</v>
+        <v>68.98</v>
       </c>
       <c r="D134" t="n">
-        <v>72.12</v>
+        <v>68.98</v>
       </c>
       <c r="E134" t="n">
-        <v>71.86</v>
+        <v>68.98</v>
       </c>
       <c r="F134" t="n">
-        <v>8886.185100000001</v>
+        <v>11375.2333</v>
       </c>
       <c r="G134" t="n">
-        <v>-364530.4403868785</v>
+        <v>-588848.3134868785</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>68.79000000000001</v>
+      </c>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>71.90000000000001</v>
+        <v>68.8</v>
       </c>
       <c r="C135" t="n">
-        <v>71.90000000000001</v>
+        <v>68.3</v>
       </c>
       <c r="D135" t="n">
-        <v>71.90000000000001</v>
+        <v>68.8</v>
       </c>
       <c r="E135" t="n">
-        <v>71.90000000000001</v>
+        <v>68.3</v>
       </c>
       <c r="F135" t="n">
-        <v>888.6185</v>
+        <v>17900</v>
       </c>
       <c r="G135" t="n">
-        <v>-363641.8218868785</v>
+        <v>-606748.3134868785</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>68.98</v>
+      </c>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>71.90000000000001</v>
+        <v>68.51000000000001</v>
       </c>
       <c r="C136" t="n">
-        <v>72.59</v>
+        <v>68.3</v>
       </c>
       <c r="D136" t="n">
-        <v>72.77</v>
+        <v>68.51000000000001</v>
       </c>
       <c r="E136" t="n">
-        <v>71.90000000000001</v>
+        <v>68.3</v>
       </c>
       <c r="F136" t="n">
-        <v>4591.3631</v>
+        <v>9229.749100000001</v>
       </c>
       <c r="G136" t="n">
-        <v>-359050.4587868785</v>
+        <v>-606748.3134868785</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>68.3</v>
+      </c>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>71.95</v>
+        <v>68.51000000000001</v>
       </c>
       <c r="C137" t="n">
-        <v>71.98999999999999</v>
+        <v>67.83</v>
       </c>
       <c r="D137" t="n">
-        <v>72.59</v>
+        <v>68.51000000000001</v>
       </c>
       <c r="E137" t="n">
-        <v>71.95</v>
+        <v>67.83</v>
       </c>
       <c r="F137" t="n">
-        <v>1920.0618</v>
+        <v>7600</v>
       </c>
       <c r="G137" t="n">
-        <v>-360970.5205868785</v>
+        <v>-614348.3134868785</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>68.3</v>
+      </c>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>72</v>
+        <v>67.62</v>
       </c>
       <c r="C138" t="n">
-        <v>72.02</v>
+        <v>67.62</v>
       </c>
       <c r="D138" t="n">
-        <v>72.02</v>
+        <v>67.62</v>
       </c>
       <c r="E138" t="n">
-        <v>72</v>
+        <v>67.62</v>
       </c>
       <c r="F138" t="n">
-        <v>839.6721</v>
+        <v>1167.4271</v>
       </c>
       <c r="G138" t="n">
-        <v>-360130.8484868785</v>
+        <v>-615515.7405868785</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>67.83</v>
+      </c>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>72.03</v>
+        <v>67.63</v>
       </c>
       <c r="C139" t="n">
-        <v>72.06</v>
+        <v>67</v>
       </c>
       <c r="D139" t="n">
-        <v>72.06</v>
+        <v>67.63</v>
       </c>
       <c r="E139" t="n">
-        <v>72.03</v>
+        <v>67</v>
       </c>
       <c r="F139" t="n">
-        <v>776.7838</v>
+        <v>84310.2648</v>
       </c>
       <c r="G139" t="n">
-        <v>-359354.0646868785</v>
+        <v>-699826.0053868785</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>67.62</v>
+      </c>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>72.06</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="C140" t="n">
-        <v>72.06</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="D140" t="n">
-        <v>72.06</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="E140" t="n">
-        <v>72.06</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="F140" t="n">
-        <v>787.5774</v>
+        <v>150</v>
       </c>
       <c r="G140" t="n">
-        <v>-359354.0646868785</v>
+        <v>-699676.0053868785</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5288,32 +5497,37 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>72.06</v>
+        <v>68.34999999999999</v>
       </c>
       <c r="C141" t="n">
-        <v>72.06</v>
+        <v>68.34999999999999</v>
       </c>
       <c r="D141" t="n">
-        <v>72.06</v>
+        <v>68.34999999999999</v>
       </c>
       <c r="E141" t="n">
-        <v>72.06</v>
+        <v>68.34</v>
       </c>
       <c r="F141" t="n">
-        <v>694.3881</v>
+        <v>1246.3738</v>
       </c>
       <c r="G141" t="n">
-        <v>-359354.0646868785</v>
+        <v>-700922.3791868784</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5323,32 +5537,37 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>72.08</v>
+        <v>68.23999999999999</v>
       </c>
       <c r="C142" t="n">
-        <v>72.08</v>
+        <v>68.23999999999999</v>
       </c>
       <c r="D142" t="n">
-        <v>72.08</v>
+        <v>68.23999999999999</v>
       </c>
       <c r="E142" t="n">
-        <v>72.08</v>
+        <v>68.23999999999999</v>
       </c>
       <c r="F142" t="n">
-        <v>100.2633</v>
+        <v>59.7591</v>
       </c>
       <c r="G142" t="n">
-        <v>-359253.8013868785</v>
+        <v>-700982.1382868785</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5358,32 +5577,37 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>72.76000000000001</v>
+        <v>68.34</v>
       </c>
       <c r="C143" t="n">
-        <v>72.76000000000001</v>
+        <v>68.18000000000001</v>
       </c>
       <c r="D143" t="n">
-        <v>72.76000000000001</v>
+        <v>68.34</v>
       </c>
       <c r="E143" t="n">
-        <v>72.76000000000001</v>
+        <v>68.18000000000001</v>
       </c>
       <c r="F143" t="n">
-        <v>868.982</v>
+        <v>2275.7934</v>
       </c>
       <c r="G143" t="n">
-        <v>-358384.8193868785</v>
+        <v>-703257.9316868784</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5393,1612 +5617,15 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>72.8</v>
-      </c>
-      <c r="C144" t="n">
-        <v>72.88</v>
-      </c>
-      <c r="D144" t="n">
-        <v>72.89</v>
-      </c>
-      <c r="E144" t="n">
-        <v>72.8</v>
-      </c>
-      <c r="F144" t="n">
-        <v>2306.3894</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-356078.4299868785</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>72.76000000000001</v>
-      </c>
-      <c r="C145" t="n">
-        <v>72.76000000000001</v>
-      </c>
-      <c r="D145" t="n">
-        <v>72.76000000000001</v>
-      </c>
-      <c r="E145" t="n">
-        <v>72.76000000000001</v>
-      </c>
-      <c r="F145" t="n">
-        <v>227</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-356305.4299868785</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>72.88</v>
-      </c>
-      <c r="C146" t="n">
-        <v>72.88</v>
-      </c>
-      <c r="D146" t="n">
-        <v>72.88</v>
-      </c>
-      <c r="E146" t="n">
-        <v>72.88</v>
-      </c>
-      <c r="F146" t="n">
-        <v>3000</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-353305.4299868785</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>72.76000000000001</v>
-      </c>
-      <c r="C147" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="D147" t="n">
-        <v>72.8</v>
-      </c>
-      <c r="E147" t="n">
-        <v>72.06</v>
-      </c>
-      <c r="F147" t="n">
-        <v>71725.60129999999</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-425031.0312868785</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>72.06</v>
-      </c>
-      <c r="C148" t="n">
-        <v>71.75</v>
-      </c>
-      <c r="D148" t="n">
-        <v>72.06</v>
-      </c>
-      <c r="E148" t="n">
-        <v>71.75</v>
-      </c>
-      <c r="F148" t="n">
-        <v>54051.72</v>
-      </c>
-      <c r="G148" t="n">
-        <v>-479082.7512868785</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>71.75</v>
-      </c>
-      <c r="C149" t="n">
-        <v>70.5</v>
-      </c>
-      <c r="D149" t="n">
-        <v>72.08</v>
-      </c>
-      <c r="E149" t="n">
-        <v>70.25</v>
-      </c>
-      <c r="F149" t="n">
-        <v>93358.25999999999</v>
-      </c>
-      <c r="G149" t="n">
-        <v>-572441.0112868785</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>70.5</v>
-      </c>
-      <c r="C150" t="n">
-        <v>70.40000000000001</v>
-      </c>
-      <c r="D150" t="n">
-        <v>70.5</v>
-      </c>
-      <c r="E150" t="n">
-        <v>70.40000000000001</v>
-      </c>
-      <c r="F150" t="n">
-        <v>4399.3021</v>
-      </c>
-      <c r="G150" t="n">
-        <v>-576840.3133868785</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>70.25</v>
-      </c>
-      <c r="C151" t="n">
-        <v>70.05</v>
-      </c>
-      <c r="D151" t="n">
-        <v>70.25</v>
-      </c>
-      <c r="E151" t="n">
-        <v>69.88</v>
-      </c>
-      <c r="F151" t="n">
-        <v>19200</v>
-      </c>
-      <c r="G151" t="n">
-        <v>-596040.3133868785</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>69.88</v>
-      </c>
-      <c r="C152" t="n">
-        <v>70.13</v>
-      </c>
-      <c r="D152" t="n">
-        <v>70.13</v>
-      </c>
-      <c r="E152" t="n">
-        <v>69.20999999999999</v>
-      </c>
-      <c r="F152" t="n">
-        <v>9953.7714</v>
-      </c>
-      <c r="G152" t="n">
-        <v>-586086.5419868785</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>69.2</v>
-      </c>
-      <c r="C153" t="n">
-        <v>68.81</v>
-      </c>
-      <c r="D153" t="n">
-        <v>69.2</v>
-      </c>
-      <c r="E153" t="n">
-        <v>68.81</v>
-      </c>
-      <c r="F153" t="n">
-        <v>1949.5479</v>
-      </c>
-      <c r="G153" t="n">
-        <v>-588036.0898868785</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>70.12</v>
-      </c>
-      <c r="C154" t="n">
-        <v>70.12</v>
-      </c>
-      <c r="D154" t="n">
-        <v>70.12</v>
-      </c>
-      <c r="E154" t="n">
-        <v>70.12</v>
-      </c>
-      <c r="F154" t="n">
-        <v>883.0743</v>
-      </c>
-      <c r="G154" t="n">
-        <v>-587153.0155868785</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>68.81</v>
-      </c>
-      <c r="C155" t="n">
-        <v>68.55</v>
-      </c>
-      <c r="D155" t="n">
-        <v>68.81</v>
-      </c>
-      <c r="E155" t="n">
-        <v>68.55</v>
-      </c>
-      <c r="F155" t="n">
-        <v>8800</v>
-      </c>
-      <c r="G155" t="n">
-        <v>-595953.0155868785</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>68.55</v>
-      </c>
-      <c r="C156" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="D156" t="n">
-        <v>68.55</v>
-      </c>
-      <c r="E156" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="F156" t="n">
-        <v>22000</v>
-      </c>
-      <c r="G156" t="n">
-        <v>-617953.0155868785</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>68.51000000000001</v>
-      </c>
-      <c r="C157" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="D157" t="n">
-        <v>68.51000000000001</v>
-      </c>
-      <c r="E157" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="F157" t="n">
-        <v>20500</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-617953.0155868785</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>68.51000000000001</v>
-      </c>
-      <c r="C158" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="D158" t="n">
-        <v>68.51000000000001</v>
-      </c>
-      <c r="E158" t="n">
-        <v>68.40000000000001</v>
-      </c>
-      <c r="F158" t="n">
-        <v>85763.3829</v>
-      </c>
-      <c r="G158" t="n">
-        <v>-617953.0155868785</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="C159" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="D159" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="E159" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="F159" t="n">
-        <v>18013.2589</v>
-      </c>
-      <c r="G159" t="n">
-        <v>-617953.0155868785</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>68.48999999999999</v>
-      </c>
-      <c r="C160" t="n">
-        <v>68.40000000000001</v>
-      </c>
-      <c r="D160" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="E160" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="F160" t="n">
-        <v>12818.7262</v>
-      </c>
-      <c r="G160" t="n">
-        <v>-630771.7417868786</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>68.40000000000001</v>
-      </c>
-      <c r="C161" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="D161" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="E161" t="n">
-        <v>68.40000000000001</v>
-      </c>
-      <c r="F161" t="n">
-        <v>1592.5487</v>
-      </c>
-      <c r="G161" t="n">
-        <v>-629179.1930868785</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="C162" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="D162" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="E162" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="F162" t="n">
-        <v>6183.3878</v>
-      </c>
-      <c r="G162" t="n">
-        <v>-629179.1930868785</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="C163" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="D163" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="E163" t="n">
-        <v>68.11</v>
-      </c>
-      <c r="F163" t="n">
-        <v>10515.2437</v>
-      </c>
-      <c r="G163" t="n">
-        <v>-629179.1930868785</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="C164" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="D164" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="E164" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="F164" t="n">
-        <v>11142.0942</v>
-      </c>
-      <c r="G164" t="n">
-        <v>-629179.1930868785</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="C165" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="D165" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="E165" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="F165" t="n">
-        <v>1536.2119</v>
-      </c>
-      <c r="G165" t="n">
-        <v>-629179.1930868785</v>
-      </c>
-      <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="K165" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="C166" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="D166" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="E166" t="n">
-        <v>68.12</v>
-      </c>
-      <c r="F166" t="n">
-        <v>9847.761200000001</v>
-      </c>
-      <c r="G166" t="n">
-        <v>-629179.1930868785</v>
-      </c>
-      <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="K166" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>68.89</v>
-      </c>
-      <c r="C167" t="n">
-        <v>68.89</v>
-      </c>
-      <c r="D167" t="n">
-        <v>68.89</v>
-      </c>
-      <c r="E167" t="n">
-        <v>68.89</v>
-      </c>
-      <c r="F167" t="n">
-        <v>3000</v>
-      </c>
-      <c r="G167" t="n">
-        <v>-626179.1930868785</v>
-      </c>
-      <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="K167" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="L167" t="inlineStr">
+      <c r="L143" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>68.11</v>
-      </c>
-      <c r="C168" t="n">
-        <v>67.52</v>
-      </c>
-      <c r="D168" t="n">
-        <v>68.11</v>
-      </c>
-      <c r="E168" t="n">
-        <v>67.52</v>
-      </c>
-      <c r="F168" t="n">
-        <v>11400</v>
-      </c>
-      <c r="G168" t="n">
-        <v>-637579.1930868785</v>
-      </c>
-      <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="n">
-        <v>68.89</v>
-      </c>
-      <c r="K168" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>67.51000000000001</v>
-      </c>
-      <c r="C169" t="n">
-        <v>67.51000000000001</v>
-      </c>
-      <c r="D169" t="n">
-        <v>67.51000000000001</v>
-      </c>
-      <c r="E169" t="n">
-        <v>67.51000000000001</v>
-      </c>
-      <c r="F169" t="n">
-        <v>15983.3984</v>
-      </c>
-      <c r="G169" t="n">
-        <v>-653562.5914868785</v>
-      </c>
-      <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="n">
-        <v>67.52</v>
-      </c>
-      <c r="K169" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="C170" t="n">
-        <v>67.51000000000001</v>
-      </c>
-      <c r="D170" t="n">
-        <v>67.51000000000001</v>
-      </c>
-      <c r="E170" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="F170" t="n">
-        <v>4809.2843</v>
-      </c>
-      <c r="G170" t="n">
-        <v>-653562.5914868785</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>67.51000000000001</v>
-      </c>
-      <c r="C171" t="n">
-        <v>67.98999999999999</v>
-      </c>
-      <c r="D171" t="n">
-        <v>68.14</v>
-      </c>
-      <c r="E171" t="n">
-        <v>67.51000000000001</v>
-      </c>
-      <c r="F171" t="n">
-        <v>20516</v>
-      </c>
-      <c r="G171" t="n">
-        <v>-633046.5914868785</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>68</v>
-      </c>
-      <c r="C172" t="n">
-        <v>68</v>
-      </c>
-      <c r="D172" t="n">
-        <v>68</v>
-      </c>
-      <c r="E172" t="n">
-        <v>68</v>
-      </c>
-      <c r="F172" t="n">
-        <v>219</v>
-      </c>
-      <c r="G172" t="n">
-        <v>-632827.5914868785</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>68.84999999999999</v>
-      </c>
-      <c r="C173" t="n">
-        <v>68.89</v>
-      </c>
-      <c r="D173" t="n">
-        <v>68.89</v>
-      </c>
-      <c r="E173" t="n">
-        <v>68.84999999999999</v>
-      </c>
-      <c r="F173" t="n">
-        <v>30858.3237</v>
-      </c>
-      <c r="G173" t="n">
-        <v>-601969.2677868785</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>68.59999999999999</v>
-      </c>
-      <c r="C174" t="n">
-        <v>68.59999999999999</v>
-      </c>
-      <c r="D174" t="n">
-        <v>68.59999999999999</v>
-      </c>
-      <c r="E174" t="n">
-        <v>68.59999999999999</v>
-      </c>
-      <c r="F174" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G174" t="n">
-        <v>-602969.2677868785</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>68.7</v>
-      </c>
-      <c r="C175" t="n">
-        <v>68.79000000000001</v>
-      </c>
-      <c r="D175" t="n">
-        <v>68.79000000000001</v>
-      </c>
-      <c r="E175" t="n">
-        <v>68.7</v>
-      </c>
-      <c r="F175" t="n">
-        <v>2745.721</v>
-      </c>
-      <c r="G175" t="n">
-        <v>-600223.5467868785</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>68.98</v>
-      </c>
-      <c r="C176" t="n">
-        <v>68.98</v>
-      </c>
-      <c r="D176" t="n">
-        <v>68.98</v>
-      </c>
-      <c r="E176" t="n">
-        <v>68.98</v>
-      </c>
-      <c r="F176" t="n">
-        <v>11375.2333</v>
-      </c>
-      <c r="G176" t="n">
-        <v>-588848.3134868785</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>68.8</v>
-      </c>
-      <c r="C177" t="n">
-        <v>68.3</v>
-      </c>
-      <c r="D177" t="n">
-        <v>68.8</v>
-      </c>
-      <c r="E177" t="n">
-        <v>68.3</v>
-      </c>
-      <c r="F177" t="n">
-        <v>17900</v>
-      </c>
-      <c r="G177" t="n">
-        <v>-606748.3134868785</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>68.51000000000001</v>
-      </c>
-      <c r="C178" t="n">
-        <v>68.3</v>
-      </c>
-      <c r="D178" t="n">
-        <v>68.51000000000001</v>
-      </c>
-      <c r="E178" t="n">
-        <v>68.3</v>
-      </c>
-      <c r="F178" t="n">
-        <v>9229.749100000001</v>
-      </c>
-      <c r="G178" t="n">
-        <v>-606748.3134868785</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>68.51000000000001</v>
-      </c>
-      <c r="C179" t="n">
-        <v>67.83</v>
-      </c>
-      <c r="D179" t="n">
-        <v>68.51000000000001</v>
-      </c>
-      <c r="E179" t="n">
-        <v>67.83</v>
-      </c>
-      <c r="F179" t="n">
-        <v>7600</v>
-      </c>
-      <c r="G179" t="n">
-        <v>-614348.3134868785</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>67.62</v>
-      </c>
-      <c r="C180" t="n">
-        <v>67.62</v>
-      </c>
-      <c r="D180" t="n">
-        <v>67.62</v>
-      </c>
-      <c r="E180" t="n">
-        <v>67.62</v>
-      </c>
-      <c r="F180" t="n">
-        <v>1167.4271</v>
-      </c>
-      <c r="G180" t="n">
-        <v>-615515.7405868785</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>67.63</v>
-      </c>
-      <c r="C181" t="n">
-        <v>67</v>
-      </c>
-      <c r="D181" t="n">
-        <v>67.63</v>
-      </c>
-      <c r="E181" t="n">
-        <v>67</v>
-      </c>
-      <c r="F181" t="n">
-        <v>84310.2648</v>
-      </c>
-      <c r="G181" t="n">
-        <v>-699826.0053868785</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>68.59999999999999</v>
-      </c>
-      <c r="C182" t="n">
-        <v>68.59999999999999</v>
-      </c>
-      <c r="D182" t="n">
-        <v>68.59999999999999</v>
-      </c>
-      <c r="E182" t="n">
-        <v>68.59999999999999</v>
-      </c>
-      <c r="F182" t="n">
-        <v>150</v>
-      </c>
-      <c r="G182" t="n">
-        <v>-699676.0053868785</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>68.34999999999999</v>
-      </c>
-      <c r="C183" t="n">
-        <v>68.34999999999999</v>
-      </c>
-      <c r="D183" t="n">
-        <v>68.34999999999999</v>
-      </c>
-      <c r="E183" t="n">
-        <v>68.34</v>
-      </c>
-      <c r="F183" t="n">
-        <v>1246.3738</v>
-      </c>
-      <c r="G183" t="n">
-        <v>-700922.3791868784</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>68.23999999999999</v>
-      </c>
-      <c r="C184" t="n">
-        <v>68.23999999999999</v>
-      </c>
-      <c r="D184" t="n">
-        <v>68.23999999999999</v>
-      </c>
-      <c r="E184" t="n">
-        <v>68.23999999999999</v>
-      </c>
-      <c r="F184" t="n">
-        <v>59.7591</v>
-      </c>
-      <c r="G184" t="n">
-        <v>-700982.1382868785</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>68.34</v>
-      </c>
-      <c r="C185" t="n">
-        <v>68.18000000000001</v>
-      </c>
-      <c r="D185" t="n">
-        <v>68.34</v>
-      </c>
-      <c r="E185" t="n">
-        <v>68.18000000000001</v>
-      </c>
-      <c r="F185" t="n">
-        <v>2275.7934</v>
-      </c>
-      <c r="G185" t="n">
-        <v>-703257.9316868784</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-20 BackTest ELF.xlsx
+++ b/BackTest/2020-01-20 BackTest ELF.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N143"/>
+  <dimension ref="A1:N214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,28 +438,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>73.8</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>73.8</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>73.8</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>73.8</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>3861.457</v>
+        <v>931.8203999999999</v>
       </c>
       <c r="G2" t="n">
-        <v>-191727.6784868786</v>
+        <v>-258401.3788</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>73.66</v>
+        <v>70.22</v>
       </c>
       <c r="C3" t="n">
-        <v>74.34999999999999</v>
+        <v>70</v>
       </c>
       <c r="D3" t="n">
-        <v>74.34999999999999</v>
+        <v>70.22</v>
       </c>
       <c r="E3" t="n">
-        <v>73.3</v>
+        <v>70</v>
       </c>
       <c r="F3" t="n">
-        <v>11233.2694</v>
+        <v>49289.9692</v>
       </c>
       <c r="G3" t="n">
-        <v>-180494.4090868786</v>
+        <v>-307691.348</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,28 +510,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>74.19</v>
+        <v>69.98999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>74.19</v>
+        <v>70.45999999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>74.19</v>
+        <v>70.45999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>74.19</v>
+        <v>69.98999999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>1995.6577</v>
+        <v>5652.957</v>
       </c>
       <c r="G4" t="n">
-        <v>-182490.0667868786</v>
+        <v>-302038.391</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -546,28 +546,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>74.18000000000001</v>
+        <v>69.91</v>
       </c>
       <c r="C5" t="n">
-        <v>74.19</v>
+        <v>69.91</v>
       </c>
       <c r="D5" t="n">
-        <v>74.3</v>
+        <v>69.91</v>
       </c>
       <c r="E5" t="n">
-        <v>74.18000000000001</v>
+        <v>69.91</v>
       </c>
       <c r="F5" t="n">
-        <v>22914.8417</v>
+        <v>2390.3175</v>
       </c>
       <c r="G5" t="n">
-        <v>-182490.0667868786</v>
+        <v>-304428.7085</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -582,28 +582,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>74.39</v>
+        <v>70.69</v>
       </c>
       <c r="C6" t="n">
-        <v>74.39</v>
+        <v>70.69</v>
       </c>
       <c r="D6" t="n">
-        <v>74.39</v>
+        <v>70.69</v>
       </c>
       <c r="E6" t="n">
-        <v>74.39</v>
+        <v>70.69</v>
       </c>
       <c r="F6" t="n">
-        <v>857.0163</v>
+        <v>7.0733</v>
       </c>
       <c r="G6" t="n">
-        <v>-181633.0504868786</v>
+        <v>-304421.6352</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -618,28 +618,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>74</v>
+        <v>70.12</v>
       </c>
       <c r="C7" t="n">
-        <v>74</v>
+        <v>70.12</v>
       </c>
       <c r="D7" t="n">
-        <v>74.37</v>
+        <v>70.12</v>
       </c>
       <c r="E7" t="n">
-        <v>74</v>
+        <v>70.12</v>
       </c>
       <c r="F7" t="n">
-        <v>1586.5894</v>
+        <v>430.9471</v>
       </c>
       <c r="G7" t="n">
-        <v>-183219.6398868786</v>
+        <v>-304852.5823</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -654,28 +654,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>74.37</v>
+        <v>70.22</v>
       </c>
       <c r="C8" t="n">
-        <v>74.37</v>
+        <v>69.61</v>
       </c>
       <c r="D8" t="n">
-        <v>74.37</v>
+        <v>70.22</v>
       </c>
       <c r="E8" t="n">
-        <v>74.37</v>
+        <v>69.61</v>
       </c>
       <c r="F8" t="n">
-        <v>222</v>
+        <v>14007.7959</v>
       </c>
       <c r="G8" t="n">
-        <v>-182997.6398868786</v>
+        <v>-318860.3782</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -690,28 +690,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>74.37</v>
+        <v>70.02</v>
       </c>
       <c r="C9" t="n">
-        <v>74.3</v>
+        <v>69.62</v>
       </c>
       <c r="D9" t="n">
-        <v>74.37</v>
+        <v>70.02</v>
       </c>
       <c r="E9" t="n">
-        <v>74.3</v>
+        <v>69.62</v>
       </c>
       <c r="F9" t="n">
-        <v>2511</v>
+        <v>23353.2347</v>
       </c>
       <c r="G9" t="n">
-        <v>-185508.6398868786</v>
+        <v>-295507.1435</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -726,28 +726,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>74.19</v>
+        <v>70.98</v>
       </c>
       <c r="C10" t="n">
-        <v>74.19</v>
+        <v>70.98</v>
       </c>
       <c r="D10" t="n">
-        <v>74.19</v>
+        <v>70.98</v>
       </c>
       <c r="E10" t="n">
-        <v>74.19</v>
+        <v>70.98</v>
       </c>
       <c r="F10" t="n">
-        <v>267.857</v>
+        <v>574.2889</v>
       </c>
       <c r="G10" t="n">
-        <v>-185776.4968868786</v>
+        <v>-294932.8546</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -762,28 +762,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>73.7</v>
+        <v>70.98</v>
       </c>
       <c r="C11" t="n">
-        <v>72.84999999999999</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>73.7</v>
+        <v>72.98999999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>72.84999999999999</v>
+        <v>70.98</v>
       </c>
       <c r="F11" t="n">
-        <v>22313.249</v>
+        <v>12400</v>
       </c>
       <c r="G11" t="n">
-        <v>-208089.7458868786</v>
+        <v>-282532.8546</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -798,28 +798,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>74.59</v>
+        <v>72.22</v>
       </c>
       <c r="C12" t="n">
-        <v>74.59</v>
+        <v>72.22</v>
       </c>
       <c r="D12" t="n">
-        <v>74.59</v>
+        <v>72.22</v>
       </c>
       <c r="E12" t="n">
-        <v>74.59</v>
+        <v>72.22</v>
       </c>
       <c r="F12" t="n">
-        <v>111</v>
+        <v>94.2679</v>
       </c>
       <c r="G12" t="n">
-        <v>-207978.7458868786</v>
+        <v>-282627.1225</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -834,28 +834,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>74.58</v>
+        <v>71.84</v>
       </c>
       <c r="C13" t="n">
-        <v>74.58</v>
+        <v>71.84</v>
       </c>
       <c r="D13" t="n">
-        <v>74.58</v>
+        <v>71.84</v>
       </c>
       <c r="E13" t="n">
-        <v>74.58</v>
+        <v>71.84</v>
       </c>
       <c r="F13" t="n">
-        <v>267.857</v>
+        <v>424.2776</v>
       </c>
       <c r="G13" t="n">
-        <v>-208246.6028868786</v>
+        <v>-283051.4001</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -870,28 +870,28 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>74.59</v>
+        <v>71.84</v>
       </c>
       <c r="C14" t="n">
-        <v>74.58</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>74.59</v>
+        <v>71.84</v>
       </c>
       <c r="E14" t="n">
-        <v>74.58</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="F14" t="n">
-        <v>2231.8096</v>
+        <v>4556.0685</v>
       </c>
       <c r="G14" t="n">
-        <v>-208246.6028868786</v>
+        <v>-287607.4686</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -906,28 +906,28 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>74.59</v>
+        <v>71.47</v>
       </c>
       <c r="C15" t="n">
-        <v>74.56999999999999</v>
+        <v>70.92</v>
       </c>
       <c r="D15" t="n">
-        <v>74.59</v>
+        <v>71.47</v>
       </c>
       <c r="E15" t="n">
-        <v>74.56999999999999</v>
+        <v>70.92</v>
       </c>
       <c r="F15" t="n">
-        <v>666</v>
+        <v>2132.8026</v>
       </c>
       <c r="G15" t="n">
-        <v>-208912.6028868786</v>
+        <v>-289740.2712</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -942,28 +942,28 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>74.56999999999999</v>
+        <v>71.92</v>
       </c>
       <c r="C16" t="n">
-        <v>74.59999999999999</v>
+        <v>71.94</v>
       </c>
       <c r="D16" t="n">
-        <v>74.59999999999999</v>
+        <v>71.94</v>
       </c>
       <c r="E16" t="n">
-        <v>74.56999999999999</v>
+        <v>71.92</v>
       </c>
       <c r="F16" t="n">
-        <v>7329.258</v>
+        <v>3645.0374</v>
       </c>
       <c r="G16" t="n">
-        <v>-201583.3448868786</v>
+        <v>-286095.2338</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -978,28 +978,28 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>74.59999999999999</v>
+        <v>71.22</v>
       </c>
       <c r="C17" t="n">
-        <v>74.59999999999999</v>
+        <v>71.22</v>
       </c>
       <c r="D17" t="n">
-        <v>74.59999999999999</v>
+        <v>71.22</v>
       </c>
       <c r="E17" t="n">
-        <v>74.59999999999999</v>
+        <v>71.22</v>
       </c>
       <c r="F17" t="n">
-        <v>588.9337</v>
+        <v>674.4357</v>
       </c>
       <c r="G17" t="n">
-        <v>-201583.3448868786</v>
+        <v>-286769.6695</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -1014,28 +1014,28 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>74.59999999999999</v>
+        <v>71.5</v>
       </c>
       <c r="C18" t="n">
-        <v>74.70999999999999</v>
+        <v>71.42</v>
       </c>
       <c r="D18" t="n">
-        <v>74.70999999999999</v>
+        <v>71.5</v>
       </c>
       <c r="E18" t="n">
-        <v>74.59999999999999</v>
+        <v>71.42</v>
       </c>
       <c r="F18" t="n">
-        <v>1927.6477</v>
+        <v>6999.9993</v>
       </c>
       <c r="G18" t="n">
-        <v>-199655.6971868786</v>
+        <v>-279769.6701999999</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1050,28 +1050,28 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>74.72</v>
+        <v>72.48999999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>74.3</v>
+        <v>72.48999999999999</v>
       </c>
       <c r="D19" t="n">
-        <v>74.77</v>
+        <v>72.48999999999999</v>
       </c>
       <c r="E19" t="n">
-        <v>74.3</v>
+        <v>72.48999999999999</v>
       </c>
       <c r="F19" t="n">
-        <v>4911.0793</v>
+        <v>13.79500620775279</v>
       </c>
       <c r="G19" t="n">
-        <v>-204566.7764868786</v>
+        <v>-279755.8751937922</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1086,28 +1086,28 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>74.77</v>
+        <v>72.11</v>
       </c>
       <c r="C20" t="n">
-        <v>75.18000000000001</v>
+        <v>72.12</v>
       </c>
       <c r="D20" t="n">
-        <v>75.18000000000001</v>
+        <v>72.12</v>
       </c>
       <c r="E20" t="n">
-        <v>74.77</v>
+        <v>72.11</v>
       </c>
       <c r="F20" t="n">
-        <v>1974.6846</v>
+        <v>2763.6406</v>
       </c>
       <c r="G20" t="n">
-        <v>-202592.0918868786</v>
+        <v>-282519.5157937921</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1122,28 +1122,28 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>75.09999999999999</v>
+        <v>72.12</v>
       </c>
       <c r="C21" t="n">
-        <v>74.90000000000001</v>
+        <v>72.12</v>
       </c>
       <c r="D21" t="n">
-        <v>75.09999999999999</v>
+        <v>72.12</v>
       </c>
       <c r="E21" t="n">
-        <v>74.31</v>
+        <v>72.12</v>
       </c>
       <c r="F21" t="n">
-        <v>22324.4904</v>
+        <v>840.1823000000001</v>
       </c>
       <c r="G21" t="n">
-        <v>-224916.5822868786</v>
+        <v>-282519.5157937921</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1158,28 +1158,28 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>74.98999999999999</v>
+        <v>72.12</v>
       </c>
       <c r="C22" t="n">
-        <v>74.98999999999999</v>
+        <v>71.5</v>
       </c>
       <c r="D22" t="n">
-        <v>74.98999999999999</v>
+        <v>72.12</v>
       </c>
       <c r="E22" t="n">
-        <v>74.98999999999999</v>
+        <v>71.5</v>
       </c>
       <c r="F22" t="n">
-        <v>111</v>
+        <v>3800</v>
       </c>
       <c r="G22" t="n">
-        <v>-224805.5822868786</v>
+        <v>-286319.5157937921</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1194,28 +1194,28 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>75.09</v>
+        <v>71.22</v>
       </c>
       <c r="C23" t="n">
-        <v>75.09</v>
+        <v>71.22</v>
       </c>
       <c r="D23" t="n">
-        <v>75.09</v>
+        <v>71.22</v>
       </c>
       <c r="E23" t="n">
-        <v>75.09</v>
+        <v>71.22</v>
       </c>
       <c r="F23" t="n">
-        <v>464.4556</v>
+        <v>3130.9999</v>
       </c>
       <c r="G23" t="n">
-        <v>-224341.1266868786</v>
+        <v>-289450.5156937921</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1230,28 +1230,28 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>74.98999999999999</v>
+        <v>71.59</v>
       </c>
       <c r="C24" t="n">
-        <v>75.09</v>
+        <v>71.79000000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>75.09</v>
+        <v>71.79000000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>74.98999999999999</v>
+        <v>71.59</v>
       </c>
       <c r="F24" t="n">
-        <v>952.3121749566609</v>
+        <v>3800</v>
       </c>
       <c r="G24" t="n">
-        <v>-224341.1266868786</v>
+        <v>-285650.5156937921</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1266,28 +1266,28 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>75.48</v>
+        <v>71.3</v>
       </c>
       <c r="C25" t="n">
-        <v>75.48</v>
+        <v>71.3</v>
       </c>
       <c r="D25" t="n">
-        <v>75.48</v>
+        <v>71.3</v>
       </c>
       <c r="E25" t="n">
-        <v>75.48</v>
+        <v>71.3</v>
       </c>
       <c r="F25" t="n">
-        <v>834.6063</v>
+        <v>547.0421</v>
       </c>
       <c r="G25" t="n">
-        <v>-223506.5203868786</v>
+        <v>-286197.5577937922</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1302,28 +1302,28 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>75</v>
+        <v>71.41</v>
       </c>
       <c r="C26" t="n">
-        <v>75.48</v>
+        <v>71.41</v>
       </c>
       <c r="D26" t="n">
-        <v>75.48</v>
+        <v>71.41</v>
       </c>
       <c r="E26" t="n">
-        <v>75</v>
+        <v>71.41</v>
       </c>
       <c r="F26" t="n">
-        <v>221.83</v>
+        <v>152.236</v>
       </c>
       <c r="G26" t="n">
-        <v>-223506.5203868786</v>
+        <v>-286045.3217937922</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1338,28 +1338,28 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>75</v>
+        <v>71.70999999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>75.47</v>
+        <v>71.70999999999999</v>
       </c>
       <c r="D27" t="n">
-        <v>75.48</v>
+        <v>71.70999999999999</v>
       </c>
       <c r="E27" t="n">
-        <v>74.3</v>
+        <v>71.70999999999999</v>
       </c>
       <c r="F27" t="n">
-        <v>8273.156300000001</v>
+        <v>3793.8188</v>
       </c>
       <c r="G27" t="n">
-        <v>-231779.6766868786</v>
+        <v>-282251.5029937922</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1374,28 +1374,28 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>74.86</v>
+        <v>71.70999999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>74.69</v>
+        <v>71.70999999999999</v>
       </c>
       <c r="D28" t="n">
-        <v>74.86</v>
+        <v>71.70999999999999</v>
       </c>
       <c r="E28" t="n">
-        <v>74.69</v>
+        <v>71.70999999999999</v>
       </c>
       <c r="F28" t="n">
-        <v>8625.892900000001</v>
+        <v>1354.7747</v>
       </c>
       <c r="G28" t="n">
-        <v>-240405.5695868786</v>
+        <v>-282251.5029937922</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1410,28 +1410,28 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>74.19</v>
+        <v>71.70999999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>74.19</v>
+        <v>71.70999999999999</v>
       </c>
       <c r="D29" t="n">
-        <v>74.19</v>
+        <v>71.70999999999999</v>
       </c>
       <c r="E29" t="n">
-        <v>74.19</v>
+        <v>71.70999999999999</v>
       </c>
       <c r="F29" t="n">
-        <v>111</v>
+        <v>133.6843</v>
       </c>
       <c r="G29" t="n">
-        <v>-240516.5695868786</v>
+        <v>-282251.5029937922</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1446,28 +1446,28 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>73.84999999999999</v>
+        <v>72.19</v>
       </c>
       <c r="C30" t="n">
-        <v>73.84999999999999</v>
+        <v>72.19</v>
       </c>
       <c r="D30" t="n">
-        <v>73.84999999999999</v>
+        <v>72.19</v>
       </c>
       <c r="E30" t="n">
-        <v>73.84999999999999</v>
+        <v>72.19</v>
       </c>
       <c r="F30" t="n">
-        <v>419.647</v>
+        <v>2677.45</v>
       </c>
       <c r="G30" t="n">
-        <v>-240936.2165868786</v>
+        <v>-279574.0529937922</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1482,28 +1482,28 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>73.76000000000001</v>
+        <v>72.2</v>
       </c>
       <c r="C31" t="n">
-        <v>72.97</v>
+        <v>72.2</v>
       </c>
       <c r="D31" t="n">
-        <v>73.76000000000001</v>
+        <v>72.2</v>
       </c>
       <c r="E31" t="n">
-        <v>72.97</v>
+        <v>72.2</v>
       </c>
       <c r="F31" t="n">
-        <v>52598.3335</v>
+        <v>133.6843</v>
       </c>
       <c r="G31" t="n">
-        <v>-293534.5500868786</v>
+        <v>-279440.3686937921</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1518,22 +1518,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>73.7</v>
+        <v>72.25</v>
       </c>
       <c r="C32" t="n">
-        <v>73.76000000000001</v>
+        <v>72.25</v>
       </c>
       <c r="D32" t="n">
-        <v>73.76000000000001</v>
+        <v>72.25</v>
       </c>
       <c r="E32" t="n">
-        <v>72.97</v>
+        <v>72.25</v>
       </c>
       <c r="F32" t="n">
-        <v>71450.23450000001</v>
+        <v>518</v>
       </c>
       <c r="G32" t="n">
-        <v>-222084.3155868786</v>
+        <v>-278922.3686937921</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1554,28 +1554,28 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>72.95999999999999</v>
+        <v>72.25</v>
       </c>
       <c r="C33" t="n">
-        <v>72.95999999999999</v>
+        <v>72.25</v>
       </c>
       <c r="D33" t="n">
-        <v>72.95999999999999</v>
+        <v>72.25</v>
       </c>
       <c r="E33" t="n">
-        <v>72.90000000000001</v>
+        <v>72.25</v>
       </c>
       <c r="F33" t="n">
-        <v>7509.5514</v>
+        <v>600</v>
       </c>
       <c r="G33" t="n">
-        <v>-229593.8669868786</v>
+        <v>-278922.3686937921</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -1590,28 +1590,28 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>72.84</v>
+        <v>72.26000000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>72.84</v>
+        <v>72.26000000000001</v>
       </c>
       <c r="D34" t="n">
-        <v>72.84</v>
+        <v>72.26000000000001</v>
       </c>
       <c r="E34" t="n">
-        <v>72.84</v>
+        <v>72.26000000000001</v>
       </c>
       <c r="F34" t="n">
-        <v>8430.231</v>
+        <v>1218.2455</v>
       </c>
       <c r="G34" t="n">
-        <v>-238024.0979868786</v>
+        <v>-277704.1231937921</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -1626,28 +1626,28 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>72.59999999999999</v>
+        <v>72.2</v>
       </c>
       <c r="C35" t="n">
-        <v>72.11</v>
+        <v>72.2</v>
       </c>
       <c r="D35" t="n">
-        <v>72.59999999999999</v>
+        <v>72.2</v>
       </c>
       <c r="E35" t="n">
-        <v>72.11</v>
+        <v>72.2</v>
       </c>
       <c r="F35" t="n">
-        <v>48733.7953</v>
+        <v>5.644</v>
       </c>
       <c r="G35" t="n">
-        <v>-286757.8932868786</v>
+        <v>-277709.7671937921</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -1662,22 +1662,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>73.48</v>
+        <v>71.73</v>
       </c>
       <c r="C36" t="n">
-        <v>73.48</v>
+        <v>72.2</v>
       </c>
       <c r="D36" t="n">
-        <v>73.48</v>
+        <v>72.2</v>
       </c>
       <c r="E36" t="n">
-        <v>73.48</v>
+        <v>71.73</v>
       </c>
       <c r="F36" t="n">
-        <v>6.81</v>
+        <v>2007.6165</v>
       </c>
       <c r="G36" t="n">
-        <v>-286751.0832868786</v>
+        <v>-277709.7671937921</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1698,22 +1698,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>72.44</v>
+        <v>72.31999999999999</v>
       </c>
       <c r="C37" t="n">
-        <v>72.44</v>
+        <v>72.56999999999999</v>
       </c>
       <c r="D37" t="n">
-        <v>72.44</v>
+        <v>72.56999999999999</v>
       </c>
       <c r="E37" t="n">
-        <v>72.44</v>
+        <v>72.31999999999999</v>
       </c>
       <c r="F37" t="n">
-        <v>1197.8125</v>
+        <v>20000</v>
       </c>
       <c r="G37" t="n">
-        <v>-287948.8957868786</v>
+        <v>-257709.7671937921</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1734,22 +1734,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>73.09</v>
+        <v>72.3</v>
       </c>
       <c r="C38" t="n">
-        <v>73.09</v>
+        <v>72.3</v>
       </c>
       <c r="D38" t="n">
-        <v>73.09</v>
+        <v>72.3</v>
       </c>
       <c r="E38" t="n">
-        <v>73.09</v>
+        <v>72.3</v>
       </c>
       <c r="F38" t="n">
-        <v>40.9292</v>
+        <v>1312.2433</v>
       </c>
       <c r="G38" t="n">
-        <v>-287907.9665868786</v>
+        <v>-259022.0104937921</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>72.44</v>
+        <v>72.25</v>
       </c>
       <c r="C39" t="n">
-        <v>72.44</v>
+        <v>72.25</v>
       </c>
       <c r="D39" t="n">
-        <v>72.44</v>
+        <v>72.25</v>
       </c>
       <c r="E39" t="n">
-        <v>72.44</v>
+        <v>72.25</v>
       </c>
       <c r="F39" t="n">
-        <v>1634.195</v>
+        <v>1233.8525</v>
       </c>
       <c r="G39" t="n">
-        <v>-289542.1615868786</v>
+        <v>-260255.8629937921</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1806,22 +1806,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>72.44</v>
+        <v>72.63</v>
       </c>
       <c r="C40" t="n">
-        <v>72.44</v>
+        <v>72.63</v>
       </c>
       <c r="D40" t="n">
-        <v>72.44</v>
+        <v>72.63</v>
       </c>
       <c r="E40" t="n">
-        <v>72.44</v>
+        <v>72.63</v>
       </c>
       <c r="F40" t="n">
-        <v>5939.9722</v>
+        <v>375.6556</v>
       </c>
       <c r="G40" t="n">
-        <v>-289542.1615868786</v>
+        <v>-259880.2073937921</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1842,22 +1842,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>72.43000000000001</v>
+        <v>72.3</v>
       </c>
       <c r="C41" t="n">
-        <v>72.04000000000001</v>
+        <v>72.3</v>
       </c>
       <c r="D41" t="n">
-        <v>72.43000000000001</v>
+        <v>72.3</v>
       </c>
       <c r="E41" t="n">
-        <v>71.81999999999999</v>
+        <v>72.3</v>
       </c>
       <c r="F41" t="n">
-        <v>24753.4073</v>
+        <v>1293.2763</v>
       </c>
       <c r="G41" t="n">
-        <v>-314295.5688868786</v>
+        <v>-261173.4836937921</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1878,22 +1878,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>71.8</v>
+        <v>73</v>
       </c>
       <c r="C42" t="n">
-        <v>72.48999999999999</v>
+        <v>73.19</v>
       </c>
       <c r="D42" t="n">
-        <v>72.48999999999999</v>
+        <v>73.19</v>
       </c>
       <c r="E42" t="n">
-        <v>71.41</v>
+        <v>73</v>
       </c>
       <c r="F42" t="n">
-        <v>26882.39</v>
+        <v>136.6826069135128</v>
       </c>
       <c r="G42" t="n">
-        <v>-287413.1788868786</v>
+        <v>-261036.8010868786</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1914,22 +1914,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>71.31999999999999</v>
+        <v>72.31999999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>72.18000000000001</v>
+        <v>72.31</v>
       </c>
       <c r="D43" t="n">
-        <v>72.18000000000001</v>
+        <v>72.31999999999999</v>
       </c>
       <c r="E43" t="n">
-        <v>71.31999999999999</v>
+        <v>72.31</v>
       </c>
       <c r="F43" t="n">
-        <v>2965.6276</v>
+        <v>12546.8893</v>
       </c>
       <c r="G43" t="n">
-        <v>-290378.8064868786</v>
+        <v>-273583.6903868786</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1950,22 +1950,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>71.31</v>
+        <v>72.89</v>
       </c>
       <c r="C44" t="n">
-        <v>71.3</v>
+        <v>72.88</v>
       </c>
       <c r="D44" t="n">
-        <v>71.31</v>
+        <v>72.89</v>
       </c>
       <c r="E44" t="n">
-        <v>71.3</v>
+        <v>72.88</v>
       </c>
       <c r="F44" t="n">
-        <v>3915.2803</v>
+        <v>6610.7466</v>
       </c>
       <c r="G44" t="n">
-        <v>-294294.0867868786</v>
+        <v>-266972.9437868786</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1986,22 +1986,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>71.3</v>
+        <v>72.86</v>
       </c>
       <c r="C45" t="n">
-        <v>71.3</v>
+        <v>72.8</v>
       </c>
       <c r="D45" t="n">
-        <v>71.3</v>
+        <v>72.86</v>
       </c>
       <c r="E45" t="n">
-        <v>71.3</v>
+        <v>72.8</v>
       </c>
       <c r="F45" t="n">
-        <v>160</v>
+        <v>19207.6309</v>
       </c>
       <c r="G45" t="n">
-        <v>-294294.0867868786</v>
+        <v>-286180.5746868786</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2022,22 +2022,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>71.3</v>
+        <v>72.81999999999999</v>
       </c>
       <c r="C46" t="n">
-        <v>71.3</v>
+        <v>72.81</v>
       </c>
       <c r="D46" t="n">
-        <v>71.3</v>
+        <v>72.81999999999999</v>
       </c>
       <c r="E46" t="n">
-        <v>71.3</v>
+        <v>72.81</v>
       </c>
       <c r="F46" t="n">
-        <v>0.2679</v>
+        <v>2944.421</v>
       </c>
       <c r="G46" t="n">
-        <v>-294294.0867868786</v>
+        <v>-283236.1536868786</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2058,22 +2058,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>71.3</v>
+        <v>73.39</v>
       </c>
       <c r="C47" t="n">
-        <v>71.2</v>
+        <v>73.54000000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>71.3</v>
+        <v>73.54000000000001</v>
       </c>
       <c r="E47" t="n">
-        <v>71.2</v>
+        <v>73.39</v>
       </c>
       <c r="F47" t="n">
-        <v>1000</v>
+        <v>4040.4623</v>
       </c>
       <c r="G47" t="n">
-        <v>-295294.0867868786</v>
+        <v>-279195.6913868786</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2094,28 +2094,28 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>71.79000000000001</v>
+        <v>73.54000000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>71.79000000000001</v>
+        <v>73.66</v>
       </c>
       <c r="D48" t="n">
-        <v>71.79000000000001</v>
+        <v>73.66</v>
       </c>
       <c r="E48" t="n">
-        <v>71.79000000000001</v>
+        <v>73.54000000000001</v>
       </c>
       <c r="F48" t="n">
-        <v>7</v>
+        <v>88126.36719999999</v>
       </c>
       <c r="G48" t="n">
-        <v>-295287.0867868786</v>
+        <v>-191069.3241868786</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -2130,28 +2130,28 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>71.75</v>
+        <v>73.54000000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>72.5</v>
+        <v>73.54000000000001</v>
       </c>
       <c r="D49" t="n">
-        <v>72.65000000000001</v>
+        <v>73.66</v>
       </c>
       <c r="E49" t="n">
-        <v>71.75</v>
+        <v>73.54000000000001</v>
       </c>
       <c r="F49" t="n">
-        <v>2976.5173</v>
+        <v>74016.16529999999</v>
       </c>
       <c r="G49" t="n">
-        <v>-292310.5694868786</v>
+        <v>-265085.4894868786</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
@@ -2166,28 +2166,28 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>73.27</v>
+        <v>73.67</v>
       </c>
       <c r="C50" t="n">
-        <v>73.27</v>
+        <v>73.72</v>
       </c>
       <c r="D50" t="n">
-        <v>73.27</v>
+        <v>73.72</v>
       </c>
       <c r="E50" t="n">
-        <v>73.27</v>
+        <v>73.67</v>
       </c>
       <c r="F50" t="n">
-        <v>739.8253999999999</v>
+        <v>1850.0078</v>
       </c>
       <c r="G50" t="n">
-        <v>-291570.7440868786</v>
+        <v>-263235.4816868786</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -2202,28 +2202,28 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>73.27</v>
+        <v>73.7</v>
       </c>
       <c r="C51" t="n">
-        <v>73.27</v>
+        <v>73.70999999999999</v>
       </c>
       <c r="D51" t="n">
-        <v>73.27</v>
+        <v>73.70999999999999</v>
       </c>
       <c r="E51" t="n">
-        <v>73.27</v>
+        <v>73.66</v>
       </c>
       <c r="F51" t="n">
-        <v>2642.896137573359</v>
+        <v>26834.055</v>
       </c>
       <c r="G51" t="n">
-        <v>-291570.7440868786</v>
+        <v>-290069.5366868786</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
@@ -2238,28 +2238,28 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>73.28</v>
+        <v>73.72</v>
       </c>
       <c r="C52" t="n">
-        <v>73.28</v>
+        <v>73.72</v>
       </c>
       <c r="D52" t="n">
-        <v>73.28</v>
+        <v>73.72</v>
       </c>
       <c r="E52" t="n">
-        <v>73.28</v>
+        <v>73.72</v>
       </c>
       <c r="F52" t="n">
-        <v>195.4661</v>
+        <v>1372.0123</v>
       </c>
       <c r="G52" t="n">
-        <v>-291375.2779868786</v>
+        <v>-288697.5243868786</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
@@ -2274,28 +2274,28 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>72.70999999999999</v>
+        <v>73.69</v>
       </c>
       <c r="C53" t="n">
-        <v>72.70999999999999</v>
+        <v>73.69</v>
       </c>
       <c r="D53" t="n">
-        <v>72.70999999999999</v>
+        <v>73.69</v>
       </c>
       <c r="E53" t="n">
-        <v>72.70999999999999</v>
+        <v>73.69</v>
       </c>
       <c r="F53" t="n">
-        <v>5086.4501</v>
+        <v>3000</v>
       </c>
       <c r="G53" t="n">
-        <v>-296461.7280868786</v>
+        <v>-291697.5243868786</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -2310,28 +2310,28 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>72.70999999999999</v>
+        <v>73.69</v>
       </c>
       <c r="C54" t="n">
-        <v>72.70999999999999</v>
+        <v>73.69</v>
       </c>
       <c r="D54" t="n">
-        <v>72.70999999999999</v>
+        <v>73.69</v>
       </c>
       <c r="E54" t="n">
-        <v>72.70999999999999</v>
+        <v>73.69</v>
       </c>
       <c r="F54" t="n">
-        <v>5445.9999</v>
+        <v>4070.2464</v>
       </c>
       <c r="G54" t="n">
-        <v>-296461.7280868786</v>
+        <v>-291697.5243868786</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
@@ -2346,22 +2346,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>72.70999999999999</v>
+        <v>73.73</v>
       </c>
       <c r="C55" t="n">
-        <v>72.70999999999999</v>
+        <v>73.73</v>
       </c>
       <c r="D55" t="n">
-        <v>72.70999999999999</v>
+        <v>73.73</v>
       </c>
       <c r="E55" t="n">
-        <v>72.70999999999999</v>
+        <v>73.73</v>
       </c>
       <c r="F55" t="n">
-        <v>2800</v>
+        <v>2741.4062</v>
       </c>
       <c r="G55" t="n">
-        <v>-296461.7280868786</v>
+        <v>-288956.1181868786</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2382,28 +2382,28 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>72.70999999999999</v>
+        <v>73.73</v>
       </c>
       <c r="C56" t="n">
-        <v>72.70999999999999</v>
+        <v>73.69</v>
       </c>
       <c r="D56" t="n">
-        <v>72.70999999999999</v>
+        <v>73.73</v>
       </c>
       <c r="E56" t="n">
-        <v>72.70999999999999</v>
+        <v>73.69</v>
       </c>
       <c r="F56" t="n">
-        <v>711</v>
+        <v>17544.909</v>
       </c>
       <c r="G56" t="n">
-        <v>-296461.7280868786</v>
+        <v>-306501.0271868785</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
@@ -2418,28 +2418,28 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>72.70999999999999</v>
+        <v>73.37</v>
       </c>
       <c r="C57" t="n">
-        <v>72.70999999999999</v>
+        <v>73.37</v>
       </c>
       <c r="D57" t="n">
-        <v>72.70999999999999</v>
+        <v>73.37</v>
       </c>
       <c r="E57" t="n">
-        <v>72.70999999999999</v>
+        <v>73.37</v>
       </c>
       <c r="F57" t="n">
-        <v>8546.8876</v>
+        <v>225.388</v>
       </c>
       <c r="G57" t="n">
-        <v>-296461.7280868786</v>
+        <v>-306726.4151868785</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
@@ -2454,28 +2454,28 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>71.90000000000001</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="C58" t="n">
-        <v>71.90000000000001</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="D58" t="n">
-        <v>71.90000000000001</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="E58" t="n">
-        <v>71.90000000000001</v>
+        <v>72.84</v>
       </c>
       <c r="F58" t="n">
-        <v>292.522</v>
+        <v>83929.5667</v>
       </c>
       <c r="G58" t="n">
-        <v>-296754.2500868786</v>
+        <v>-222796.8484868785</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
@@ -2490,28 +2490,28 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>72.7</v>
+        <v>73.89</v>
       </c>
       <c r="C59" t="n">
-        <v>72.7</v>
+        <v>73.98999999999999</v>
       </c>
       <c r="D59" t="n">
-        <v>72.7</v>
+        <v>73.98999999999999</v>
       </c>
       <c r="E59" t="n">
-        <v>72.7</v>
+        <v>73.89</v>
       </c>
       <c r="F59" t="n">
-        <v>6.8776</v>
+        <v>15454.9191</v>
       </c>
       <c r="G59" t="n">
-        <v>-296747.3724868786</v>
+        <v>-207341.9293868785</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
@@ -2526,28 +2526,28 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>72.8</v>
+        <v>73.97</v>
       </c>
       <c r="C60" t="n">
-        <v>72.8</v>
+        <v>73.97</v>
       </c>
       <c r="D60" t="n">
-        <v>72.8</v>
+        <v>73.97</v>
       </c>
       <c r="E60" t="n">
-        <v>72.8</v>
+        <v>73.97</v>
       </c>
       <c r="F60" t="n">
-        <v>285.6444</v>
+        <v>3218.3126</v>
       </c>
       <c r="G60" t="n">
-        <v>-296461.7280868786</v>
+        <v>-210560.2419868785</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
@@ -2562,28 +2562,28 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>73.12</v>
+        <v>73.88</v>
       </c>
       <c r="C61" t="n">
-        <v>73.12</v>
+        <v>73.98</v>
       </c>
       <c r="D61" t="n">
-        <v>73.12</v>
+        <v>73.98</v>
       </c>
       <c r="E61" t="n">
-        <v>73.12</v>
+        <v>73.88</v>
       </c>
       <c r="F61" t="n">
-        <v>1233.8525</v>
+        <v>17772.4941</v>
       </c>
       <c r="G61" t="n">
-        <v>-295227.8755868786</v>
+        <v>-192787.7478868785</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
@@ -2598,28 +2598,28 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>73.31999999999999</v>
+        <v>73.11</v>
       </c>
       <c r="C62" t="n">
-        <v>73.31999999999999</v>
+        <v>73.11</v>
       </c>
       <c r="D62" t="n">
-        <v>73.31999999999999</v>
+        <v>73.11</v>
       </c>
       <c r="E62" t="n">
-        <v>73.31999999999999</v>
+        <v>73.11</v>
       </c>
       <c r="F62" t="n">
-        <v>31</v>
+        <v>3218.3126</v>
       </c>
       <c r="G62" t="n">
-        <v>-295196.8755868786</v>
+        <v>-196006.0604868785</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
@@ -2634,22 +2634,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>73.31999999999999</v>
+        <v>73.98999999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>74.01000000000001</v>
+        <v>73.98999999999999</v>
       </c>
       <c r="D63" t="n">
-        <v>74.01000000000001</v>
+        <v>73.98999999999999</v>
       </c>
       <c r="E63" t="n">
-        <v>73.31999999999999</v>
+        <v>73.98999999999999</v>
       </c>
       <c r="F63" t="n">
-        <v>42575.4557</v>
+        <v>1297.5828</v>
       </c>
       <c r="G63" t="n">
-        <v>-252621.4198868786</v>
+        <v>-194708.4776868785</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2670,22 +2670,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>74.03</v>
+        <v>74</v>
       </c>
       <c r="C64" t="n">
-        <v>74.03</v>
+        <v>73.98999999999999</v>
       </c>
       <c r="D64" t="n">
-        <v>74.03</v>
+        <v>74.09</v>
       </c>
       <c r="E64" t="n">
-        <v>74.03</v>
+        <v>73.98999999999999</v>
       </c>
       <c r="F64" t="n">
-        <v>3580.0938</v>
+        <v>3515.1604</v>
       </c>
       <c r="G64" t="n">
-        <v>-249041.3260868786</v>
+        <v>-194708.4776868785</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2706,28 +2706,28 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>74.06</v>
+        <v>73.97</v>
       </c>
       <c r="C65" t="n">
-        <v>73.90000000000001</v>
+        <v>73.97</v>
       </c>
       <c r="D65" t="n">
-        <v>74.44</v>
+        <v>73.98</v>
       </c>
       <c r="E65" t="n">
-        <v>73.90000000000001</v>
+        <v>73.97</v>
       </c>
       <c r="F65" t="n">
-        <v>32412.9891</v>
+        <v>8835.742099999999</v>
       </c>
       <c r="G65" t="n">
-        <v>-281454.3151868786</v>
+        <v>-203544.2197868785</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
@@ -2742,28 +2742,28 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>74.09999999999999</v>
+        <v>73.98999999999999</v>
       </c>
       <c r="C66" t="n">
-        <v>74.09999999999999</v>
+        <v>74.75</v>
       </c>
       <c r="D66" t="n">
-        <v>74.09999999999999</v>
+        <v>74.75</v>
       </c>
       <c r="E66" t="n">
-        <v>74.09999999999999</v>
+        <v>73.98999999999999</v>
       </c>
       <c r="F66" t="n">
-        <v>1039</v>
+        <v>13561.5984</v>
       </c>
       <c r="G66" t="n">
-        <v>-280415.3151868786</v>
+        <v>-189982.6213868785</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
@@ -2778,28 +2778,28 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>73.8</v>
+        <v>74.73999999999999</v>
       </c>
       <c r="C67" t="n">
-        <v>73.70999999999999</v>
+        <v>74.73999999999999</v>
       </c>
       <c r="D67" t="n">
-        <v>73.8</v>
+        <v>74.73999999999999</v>
       </c>
       <c r="E67" t="n">
-        <v>73.56</v>
+        <v>74.73999999999999</v>
       </c>
       <c r="F67" t="n">
-        <v>8209.771000000001</v>
+        <v>142.515</v>
       </c>
       <c r="G67" t="n">
-        <v>-288625.0861868786</v>
+        <v>-190125.1363868786</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
@@ -2814,28 +2814,28 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>73.45999999999999</v>
+        <v>74.73999999999999</v>
       </c>
       <c r="C68" t="n">
-        <v>73.37</v>
+        <v>74.73999999999999</v>
       </c>
       <c r="D68" t="n">
-        <v>73.45999999999999</v>
+        <v>74.73999999999999</v>
       </c>
       <c r="E68" t="n">
-        <v>73.37</v>
+        <v>74.73999999999999</v>
       </c>
       <c r="F68" t="n">
-        <v>6227.3271</v>
+        <v>944.9374</v>
       </c>
       <c r="G68" t="n">
-        <v>-294852.4132868786</v>
+        <v>-190125.1363868786</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
@@ -2850,28 +2850,28 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>72.44</v>
+        <v>73.98999999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>72.31999999999999</v>
+        <v>74.73999999999999</v>
       </c>
       <c r="D69" t="n">
-        <v>72.44</v>
+        <v>74.73999999999999</v>
       </c>
       <c r="E69" t="n">
-        <v>72.31</v>
+        <v>73.98999999999999</v>
       </c>
       <c r="F69" t="n">
-        <v>21</v>
+        <v>1097.8212</v>
       </c>
       <c r="G69" t="n">
-        <v>-294873.4132868786</v>
+        <v>-190125.1363868786</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
@@ -2886,28 +2886,28 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>72.31999999999999</v>
+        <v>73.64</v>
       </c>
       <c r="C70" t="n">
-        <v>72.22</v>
+        <v>73.64</v>
       </c>
       <c r="D70" t="n">
-        <v>72.31999999999999</v>
+        <v>73.64</v>
       </c>
       <c r="E70" t="n">
-        <v>72.2</v>
+        <v>73.64</v>
       </c>
       <c r="F70" t="n">
-        <v>21951.3037</v>
+        <v>200.5265</v>
       </c>
       <c r="G70" t="n">
-        <v>-316824.7169868786</v>
+        <v>-190325.6628868786</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
@@ -2922,28 +2922,28 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>72.22</v>
+        <v>74.72</v>
       </c>
       <c r="C71" t="n">
-        <v>72.01000000000001</v>
+        <v>74.72</v>
       </c>
       <c r="D71" t="n">
-        <v>73.23</v>
+        <v>74.72</v>
       </c>
       <c r="E71" t="n">
-        <v>72.01000000000001</v>
+        <v>74.72</v>
       </c>
       <c r="F71" t="n">
-        <v>33015.6452</v>
+        <v>6.9994</v>
       </c>
       <c r="G71" t="n">
-        <v>-349840.3621868786</v>
+        <v>-190318.6634868786</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
@@ -2958,28 +2958,28 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>72.09999999999999</v>
+        <v>73.8</v>
       </c>
       <c r="C72" t="n">
-        <v>72</v>
+        <v>73.8</v>
       </c>
       <c r="D72" t="n">
-        <v>72.09999999999999</v>
+        <v>73.8</v>
       </c>
       <c r="E72" t="n">
-        <v>72</v>
+        <v>73.8</v>
       </c>
       <c r="F72" t="n">
-        <v>17966.5193</v>
+        <v>1409.015</v>
       </c>
       <c r="G72" t="n">
-        <v>-367806.8814868786</v>
+        <v>-191727.6784868786</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
@@ -2994,28 +2994,28 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>72.01000000000001</v>
+        <v>73.8</v>
       </c>
       <c r="C73" t="n">
-        <v>72.11</v>
+        <v>73.8</v>
       </c>
       <c r="D73" t="n">
-        <v>72.11</v>
+        <v>73.8</v>
       </c>
       <c r="E73" t="n">
-        <v>72.01000000000001</v>
+        <v>73.8</v>
       </c>
       <c r="F73" t="n">
-        <v>49</v>
+        <v>3861.457</v>
       </c>
       <c r="G73" t="n">
-        <v>-367757.8814868786</v>
+        <v>-191727.6784868786</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
@@ -3030,28 +3030,28 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>72.16</v>
+        <v>73.66</v>
       </c>
       <c r="C74" t="n">
-        <v>72.81999999999999</v>
+        <v>74.34999999999999</v>
       </c>
       <c r="D74" t="n">
-        <v>72.81999999999999</v>
+        <v>74.34999999999999</v>
       </c>
       <c r="E74" t="n">
-        <v>72.16</v>
+        <v>73.3</v>
       </c>
       <c r="F74" t="n">
-        <v>2257</v>
+        <v>11233.2694</v>
       </c>
       <c r="G74" t="n">
-        <v>-365500.8814868786</v>
+        <v>-180494.4090868786</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
@@ -3066,28 +3066,28 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>72.8</v>
+        <v>74.19</v>
       </c>
       <c r="C75" t="n">
-        <v>72.8</v>
+        <v>74.19</v>
       </c>
       <c r="D75" t="n">
-        <v>72.8</v>
+        <v>74.19</v>
       </c>
       <c r="E75" t="n">
-        <v>72.8</v>
+        <v>74.19</v>
       </c>
       <c r="F75" t="n">
-        <v>7</v>
+        <v>1995.6577</v>
       </c>
       <c r="G75" t="n">
-        <v>-365507.8814868786</v>
+        <v>-182490.0667868786</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
@@ -3102,28 +3102,28 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>72.79000000000001</v>
+        <v>74.18000000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>72.73</v>
+        <v>74.19</v>
       </c>
       <c r="D76" t="n">
-        <v>72.79000000000001</v>
+        <v>74.3</v>
       </c>
       <c r="E76" t="n">
-        <v>72.73</v>
+        <v>74.18000000000001</v>
       </c>
       <c r="F76" t="n">
-        <v>49</v>
+        <v>22914.8417</v>
       </c>
       <c r="G76" t="n">
-        <v>-365556.8814868786</v>
+        <v>-182490.0667868786</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
@@ -3138,28 +3138,28 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>72</v>
+        <v>74.39</v>
       </c>
       <c r="C77" t="n">
-        <v>72</v>
+        <v>74.39</v>
       </c>
       <c r="D77" t="n">
-        <v>72</v>
+        <v>74.39</v>
       </c>
       <c r="E77" t="n">
-        <v>72</v>
+        <v>74.39</v>
       </c>
       <c r="F77" t="n">
-        <v>7</v>
+        <v>857.0163</v>
       </c>
       <c r="G77" t="n">
-        <v>-365563.8814868786</v>
+        <v>-181633.0504868786</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
@@ -3174,28 +3174,28 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>72.01000000000001</v>
+        <v>74</v>
       </c>
       <c r="C78" t="n">
-        <v>72.03</v>
+        <v>74</v>
       </c>
       <c r="D78" t="n">
-        <v>72.03</v>
+        <v>74.37</v>
       </c>
       <c r="E78" t="n">
-        <v>72.01000000000001</v>
+        <v>74</v>
       </c>
       <c r="F78" t="n">
-        <v>21</v>
+        <v>1586.5894</v>
       </c>
       <c r="G78" t="n">
-        <v>-365542.8814868786</v>
+        <v>-183219.6398868786</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
@@ -3210,28 +3210,28 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>72.04000000000001</v>
+        <v>74.37</v>
       </c>
       <c r="C79" t="n">
-        <v>72.04000000000001</v>
+        <v>74.37</v>
       </c>
       <c r="D79" t="n">
-        <v>72.04000000000001</v>
+        <v>74.37</v>
       </c>
       <c r="E79" t="n">
-        <v>72.04000000000001</v>
+        <v>74.37</v>
       </c>
       <c r="F79" t="n">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="G79" t="n">
-        <v>-365535.8814868786</v>
+        <v>-182997.6398868786</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
@@ -3246,28 +3246,28 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>72.05</v>
+        <v>74.37</v>
       </c>
       <c r="C80" t="n">
-        <v>72.05</v>
+        <v>74.3</v>
       </c>
       <c r="D80" t="n">
-        <v>72.05</v>
+        <v>74.37</v>
       </c>
       <c r="E80" t="n">
-        <v>72.05</v>
+        <v>74.3</v>
       </c>
       <c r="F80" t="n">
-        <v>7</v>
+        <v>2511</v>
       </c>
       <c r="G80" t="n">
-        <v>-365528.8814868786</v>
+        <v>-185508.6398868786</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
@@ -3282,28 +3282,28 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>72.45999999999999</v>
+        <v>74.19</v>
       </c>
       <c r="C81" t="n">
-        <v>72.45999999999999</v>
+        <v>74.19</v>
       </c>
       <c r="D81" t="n">
-        <v>72.45999999999999</v>
+        <v>74.19</v>
       </c>
       <c r="E81" t="n">
-        <v>72.45999999999999</v>
+        <v>74.19</v>
       </c>
       <c r="F81" t="n">
-        <v>7</v>
+        <v>267.857</v>
       </c>
       <c r="G81" t="n">
-        <v>-365521.8814868786</v>
+        <v>-185776.4968868786</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
@@ -3318,28 +3318,28 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>72.73</v>
+        <v>73.7</v>
       </c>
       <c r="C82" t="n">
-        <v>72.73</v>
+        <v>72.84999999999999</v>
       </c>
       <c r="D82" t="n">
-        <v>72.73</v>
+        <v>73.7</v>
       </c>
       <c r="E82" t="n">
-        <v>72.73</v>
+        <v>72.84999999999999</v>
       </c>
       <c r="F82" t="n">
-        <v>6.8767</v>
+        <v>22313.249</v>
       </c>
       <c r="G82" t="n">
-        <v>-365515.0047868785</v>
+        <v>-208089.7458868786</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
@@ -3354,22 +3354,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>72.12</v>
+        <v>74.59</v>
       </c>
       <c r="C83" t="n">
-        <v>72.12</v>
+        <v>74.59</v>
       </c>
       <c r="D83" t="n">
-        <v>72.12</v>
+        <v>74.59</v>
       </c>
       <c r="E83" t="n">
-        <v>72.12</v>
+        <v>74.59</v>
       </c>
       <c r="F83" t="n">
-        <v>40.035</v>
+        <v>111</v>
       </c>
       <c r="G83" t="n">
-        <v>-365555.0397868785</v>
+        <v>-207978.7458868786</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3390,28 +3390,28 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>72.3</v>
+        <v>74.58</v>
       </c>
       <c r="C84" t="n">
-        <v>72.3</v>
+        <v>74.58</v>
       </c>
       <c r="D84" t="n">
-        <v>72.3</v>
+        <v>74.58</v>
       </c>
       <c r="E84" t="n">
-        <v>72.3</v>
+        <v>74.58</v>
       </c>
       <c r="F84" t="n">
-        <v>4742.5736</v>
+        <v>267.857</v>
       </c>
       <c r="G84" t="n">
-        <v>-360812.4661868785</v>
+        <v>-208246.6028868786</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
@@ -3426,28 +3426,28 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>72.01000000000001</v>
+        <v>74.59</v>
       </c>
       <c r="C85" t="n">
-        <v>72.3</v>
+        <v>74.58</v>
       </c>
       <c r="D85" t="n">
-        <v>72.3</v>
+        <v>74.59</v>
       </c>
       <c r="E85" t="n">
-        <v>72.01000000000001</v>
+        <v>74.58</v>
       </c>
       <c r="F85" t="n">
-        <v>3289.0899</v>
+        <v>2231.8096</v>
       </c>
       <c r="G85" t="n">
-        <v>-360812.4661868785</v>
+        <v>-208246.6028868786</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
@@ -3462,28 +3462,28 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>72.3</v>
+        <v>74.59</v>
       </c>
       <c r="C86" t="n">
-        <v>72.3</v>
+        <v>74.56999999999999</v>
       </c>
       <c r="D86" t="n">
-        <v>72.3</v>
+        <v>74.59</v>
       </c>
       <c r="E86" t="n">
-        <v>72.3</v>
+        <v>74.56999999999999</v>
       </c>
       <c r="F86" t="n">
-        <v>38</v>
+        <v>666</v>
       </c>
       <c r="G86" t="n">
-        <v>-360812.4661868785</v>
+        <v>-208912.6028868786</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
@@ -3498,28 +3498,28 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>72.3</v>
+        <v>74.56999999999999</v>
       </c>
       <c r="C87" t="n">
-        <v>72.3</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="D87" t="n">
-        <v>72.3</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="E87" t="n">
-        <v>72.3</v>
+        <v>74.56999999999999</v>
       </c>
       <c r="F87" t="n">
-        <v>745.1698</v>
+        <v>7329.258</v>
       </c>
       <c r="G87" t="n">
-        <v>-360812.4661868785</v>
+        <v>-201583.3448868786</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
@@ -3534,28 +3534,28 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>72.3</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="C88" t="n">
-        <v>72.3</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="D88" t="n">
-        <v>72.3</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="E88" t="n">
-        <v>72.3</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="F88" t="n">
-        <v>1046.3208</v>
+        <v>588.9337</v>
       </c>
       <c r="G88" t="n">
-        <v>-360812.4661868785</v>
+        <v>-201583.3448868786</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
@@ -3570,28 +3570,28 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>72.09999999999999</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="C89" t="n">
-        <v>72.79000000000001</v>
+        <v>74.70999999999999</v>
       </c>
       <c r="D89" t="n">
-        <v>72.79000000000001</v>
+        <v>74.70999999999999</v>
       </c>
       <c r="E89" t="n">
-        <v>72.09999999999999</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="F89" t="n">
-        <v>5258.2109</v>
+        <v>1927.6477</v>
       </c>
       <c r="G89" t="n">
-        <v>-355554.2552868785</v>
+        <v>-199655.6971868786</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
@@ -3606,28 +3606,28 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>72.69</v>
+        <v>74.72</v>
       </c>
       <c r="C90" t="n">
-        <v>72.69</v>
+        <v>74.3</v>
       </c>
       <c r="D90" t="n">
-        <v>72.69</v>
+        <v>74.77</v>
       </c>
       <c r="E90" t="n">
-        <v>72.69</v>
+        <v>74.3</v>
       </c>
       <c r="F90" t="n">
-        <v>70</v>
+        <v>4911.0793</v>
       </c>
       <c r="G90" t="n">
-        <v>-355624.2552868785</v>
+        <v>-204566.7764868786</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
@@ -3642,28 +3642,28 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>72.12</v>
+        <v>74.77</v>
       </c>
       <c r="C91" t="n">
-        <v>72.12</v>
+        <v>75.18000000000001</v>
       </c>
       <c r="D91" t="n">
-        <v>72.12</v>
+        <v>75.18000000000001</v>
       </c>
       <c r="E91" t="n">
-        <v>72.12</v>
+        <v>74.77</v>
       </c>
       <c r="F91" t="n">
-        <v>20</v>
+        <v>1974.6846</v>
       </c>
       <c r="G91" t="n">
-        <v>-355644.2552868785</v>
+        <v>-202592.0918868786</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
@@ -3678,28 +3678,28 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>72.12</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="C92" t="n">
-        <v>71.86</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="D92" t="n">
-        <v>72.12</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="E92" t="n">
-        <v>71.86</v>
+        <v>74.31</v>
       </c>
       <c r="F92" t="n">
-        <v>8886.185100000001</v>
+        <v>22324.4904</v>
       </c>
       <c r="G92" t="n">
-        <v>-364530.4403868785</v>
+        <v>-224916.5822868786</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
@@ -3714,28 +3714,28 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>71.90000000000001</v>
+        <v>74.98999999999999</v>
       </c>
       <c r="C93" t="n">
-        <v>71.90000000000001</v>
+        <v>74.98999999999999</v>
       </c>
       <c r="D93" t="n">
-        <v>71.90000000000001</v>
+        <v>74.98999999999999</v>
       </c>
       <c r="E93" t="n">
-        <v>71.90000000000001</v>
+        <v>74.98999999999999</v>
       </c>
       <c r="F93" t="n">
-        <v>888.6185</v>
+        <v>111</v>
       </c>
       <c r="G93" t="n">
-        <v>-363641.8218868785</v>
+        <v>-224805.5822868786</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
@@ -3750,22 +3750,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>71.90000000000001</v>
+        <v>75.09</v>
       </c>
       <c r="C94" t="n">
-        <v>72.59</v>
+        <v>75.09</v>
       </c>
       <c r="D94" t="n">
-        <v>72.77</v>
+        <v>75.09</v>
       </c>
       <c r="E94" t="n">
-        <v>71.90000000000001</v>
+        <v>75.09</v>
       </c>
       <c r="F94" t="n">
-        <v>4591.3631</v>
+        <v>464.4556</v>
       </c>
       <c r="G94" t="n">
-        <v>-359050.4587868785</v>
+        <v>-224341.1266868786</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3786,22 +3786,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>71.95</v>
+        <v>74.98999999999999</v>
       </c>
       <c r="C95" t="n">
-        <v>71.98999999999999</v>
+        <v>75.09</v>
       </c>
       <c r="D95" t="n">
-        <v>72.59</v>
+        <v>75.09</v>
       </c>
       <c r="E95" t="n">
-        <v>71.95</v>
+        <v>74.98999999999999</v>
       </c>
       <c r="F95" t="n">
-        <v>1920.0618</v>
+        <v>952.3121749566609</v>
       </c>
       <c r="G95" t="n">
-        <v>-360970.5205868785</v>
+        <v>-224341.1266868786</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3822,22 +3822,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>72</v>
+        <v>75.48</v>
       </c>
       <c r="C96" t="n">
-        <v>72.02</v>
+        <v>75.48</v>
       </c>
       <c r="D96" t="n">
-        <v>72.02</v>
+        <v>75.48</v>
       </c>
       <c r="E96" t="n">
-        <v>72</v>
+        <v>75.48</v>
       </c>
       <c r="F96" t="n">
-        <v>839.6721</v>
+        <v>834.6063</v>
       </c>
       <c r="G96" t="n">
-        <v>-360130.8484868785</v>
+        <v>-223506.5203868786</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3858,22 +3858,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>72.03</v>
+        <v>75</v>
       </c>
       <c r="C97" t="n">
-        <v>72.06</v>
+        <v>75.48</v>
       </c>
       <c r="D97" t="n">
-        <v>72.06</v>
+        <v>75.48</v>
       </c>
       <c r="E97" t="n">
-        <v>72.03</v>
+        <v>75</v>
       </c>
       <c r="F97" t="n">
-        <v>776.7838</v>
+        <v>221.83</v>
       </c>
       <c r="G97" t="n">
-        <v>-359354.0646868785</v>
+        <v>-223506.5203868786</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3894,22 +3894,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>72.06</v>
+        <v>75</v>
       </c>
       <c r="C98" t="n">
-        <v>72.06</v>
+        <v>75.47</v>
       </c>
       <c r="D98" t="n">
-        <v>72.06</v>
+        <v>75.48</v>
       </c>
       <c r="E98" t="n">
-        <v>72.06</v>
+        <v>74.3</v>
       </c>
       <c r="F98" t="n">
-        <v>787.5774</v>
+        <v>8273.156300000001</v>
       </c>
       <c r="G98" t="n">
-        <v>-359354.0646868785</v>
+        <v>-231779.6766868786</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3930,22 +3930,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>72.06</v>
+        <v>74.86</v>
       </c>
       <c r="C99" t="n">
-        <v>72.06</v>
+        <v>74.69</v>
       </c>
       <c r="D99" t="n">
-        <v>72.06</v>
+        <v>74.86</v>
       </c>
       <c r="E99" t="n">
-        <v>72.06</v>
+        <v>74.69</v>
       </c>
       <c r="F99" t="n">
-        <v>694.3881</v>
+        <v>8625.892900000001</v>
       </c>
       <c r="G99" t="n">
-        <v>-359354.0646868785</v>
+        <v>-240405.5695868786</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3966,22 +3966,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>72.08</v>
+        <v>74.19</v>
       </c>
       <c r="C100" t="n">
-        <v>72.08</v>
+        <v>74.19</v>
       </c>
       <c r="D100" t="n">
-        <v>72.08</v>
+        <v>74.19</v>
       </c>
       <c r="E100" t="n">
-        <v>72.08</v>
+        <v>74.19</v>
       </c>
       <c r="F100" t="n">
-        <v>100.2633</v>
+        <v>111</v>
       </c>
       <c r="G100" t="n">
-        <v>-359253.8013868785</v>
+        <v>-240516.5695868786</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4002,22 +4002,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>72.76000000000001</v>
+        <v>73.84999999999999</v>
       </c>
       <c r="C101" t="n">
-        <v>72.76000000000001</v>
+        <v>73.84999999999999</v>
       </c>
       <c r="D101" t="n">
-        <v>72.76000000000001</v>
+        <v>73.84999999999999</v>
       </c>
       <c r="E101" t="n">
-        <v>72.76000000000001</v>
+        <v>73.84999999999999</v>
       </c>
       <c r="F101" t="n">
-        <v>868.982</v>
+        <v>419.647</v>
       </c>
       <c r="G101" t="n">
-        <v>-358384.8193868785</v>
+        <v>-240936.2165868786</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4038,22 +4038,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>72.8</v>
+        <v>73.76000000000001</v>
       </c>
       <c r="C102" t="n">
-        <v>72.88</v>
+        <v>72.97</v>
       </c>
       <c r="D102" t="n">
-        <v>72.89</v>
+        <v>73.76000000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>72.8</v>
+        <v>72.97</v>
       </c>
       <c r="F102" t="n">
-        <v>2306.3894</v>
+        <v>52598.3335</v>
       </c>
       <c r="G102" t="n">
-        <v>-356078.4299868785</v>
+        <v>-293534.5500868786</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4074,22 +4074,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>72.76000000000001</v>
+        <v>73.7</v>
       </c>
       <c r="C103" t="n">
-        <v>72.76000000000001</v>
+        <v>73.76000000000001</v>
       </c>
       <c r="D103" t="n">
-        <v>72.76000000000001</v>
+        <v>73.76000000000001</v>
       </c>
       <c r="E103" t="n">
-        <v>72.76000000000001</v>
+        <v>72.97</v>
       </c>
       <c r="F103" t="n">
-        <v>227</v>
+        <v>71450.23450000001</v>
       </c>
       <c r="G103" t="n">
-        <v>-356305.4299868785</v>
+        <v>-222084.3155868786</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4110,22 +4110,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>72.88</v>
+        <v>72.95999999999999</v>
       </c>
       <c r="C104" t="n">
-        <v>72.88</v>
+        <v>72.95999999999999</v>
       </c>
       <c r="D104" t="n">
-        <v>72.88</v>
+        <v>72.95999999999999</v>
       </c>
       <c r="E104" t="n">
-        <v>72.88</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="F104" t="n">
-        <v>3000</v>
+        <v>7509.5514</v>
       </c>
       <c r="G104" t="n">
-        <v>-353305.4299868785</v>
+        <v>-229593.8669868786</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4146,22 +4146,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>72.76000000000001</v>
+        <v>72.84</v>
       </c>
       <c r="C105" t="n">
-        <v>72.2</v>
+        <v>72.84</v>
       </c>
       <c r="D105" t="n">
-        <v>72.8</v>
+        <v>72.84</v>
       </c>
       <c r="E105" t="n">
-        <v>72.06</v>
+        <v>72.84</v>
       </c>
       <c r="F105" t="n">
-        <v>71725.60129999999</v>
+        <v>8430.231</v>
       </c>
       <c r="G105" t="n">
-        <v>-425031.0312868785</v>
+        <v>-238024.0979868786</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>72.06</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="C106" t="n">
-        <v>71.75</v>
+        <v>72.11</v>
       </c>
       <c r="D106" t="n">
-        <v>72.06</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="E106" t="n">
-        <v>71.75</v>
+        <v>72.11</v>
       </c>
       <c r="F106" t="n">
-        <v>54051.72</v>
+        <v>48733.7953</v>
       </c>
       <c r="G106" t="n">
-        <v>-479082.7512868785</v>
+        <v>-286757.8932868786</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4218,22 +4218,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>71.75</v>
+        <v>73.48</v>
       </c>
       <c r="C107" t="n">
-        <v>70.5</v>
+        <v>73.48</v>
       </c>
       <c r="D107" t="n">
-        <v>72.08</v>
+        <v>73.48</v>
       </c>
       <c r="E107" t="n">
-        <v>70.25</v>
+        <v>73.48</v>
       </c>
       <c r="F107" t="n">
-        <v>93358.25999999999</v>
+        <v>6.81</v>
       </c>
       <c r="G107" t="n">
-        <v>-572441.0112868785</v>
+        <v>-286751.0832868786</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4254,22 +4254,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>70.5</v>
+        <v>72.44</v>
       </c>
       <c r="C108" t="n">
-        <v>70.40000000000001</v>
+        <v>72.44</v>
       </c>
       <c r="D108" t="n">
-        <v>70.5</v>
+        <v>72.44</v>
       </c>
       <c r="E108" t="n">
-        <v>70.40000000000001</v>
+        <v>72.44</v>
       </c>
       <c r="F108" t="n">
-        <v>4399.3021</v>
+        <v>1197.8125</v>
       </c>
       <c r="G108" t="n">
-        <v>-576840.3133868785</v>
+        <v>-287948.8957868786</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4290,22 +4290,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>70.25</v>
+        <v>73.09</v>
       </c>
       <c r="C109" t="n">
-        <v>70.05</v>
+        <v>73.09</v>
       </c>
       <c r="D109" t="n">
-        <v>70.25</v>
+        <v>73.09</v>
       </c>
       <c r="E109" t="n">
-        <v>69.88</v>
+        <v>73.09</v>
       </c>
       <c r="F109" t="n">
-        <v>19200</v>
+        <v>40.9292</v>
       </c>
       <c r="G109" t="n">
-        <v>-596040.3133868785</v>
+        <v>-287907.9665868786</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4326,22 +4326,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>69.88</v>
+        <v>72.44</v>
       </c>
       <c r="C110" t="n">
-        <v>70.13</v>
+        <v>72.44</v>
       </c>
       <c r="D110" t="n">
-        <v>70.13</v>
+        <v>72.44</v>
       </c>
       <c r="E110" t="n">
-        <v>69.20999999999999</v>
+        <v>72.44</v>
       </c>
       <c r="F110" t="n">
-        <v>9953.7714</v>
+        <v>1634.195</v>
       </c>
       <c r="G110" t="n">
-        <v>-586086.5419868785</v>
+        <v>-289542.1615868786</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4362,22 +4362,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>69.2</v>
+        <v>72.44</v>
       </c>
       <c r="C111" t="n">
-        <v>68.81</v>
+        <v>72.44</v>
       </c>
       <c r="D111" t="n">
-        <v>69.2</v>
+        <v>72.44</v>
       </c>
       <c r="E111" t="n">
-        <v>68.81</v>
+        <v>72.44</v>
       </c>
       <c r="F111" t="n">
-        <v>1949.5479</v>
+        <v>5939.9722</v>
       </c>
       <c r="G111" t="n">
-        <v>-588036.0898868785</v>
+        <v>-289542.1615868786</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4398,22 +4398,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>70.12</v>
+        <v>72.43000000000001</v>
       </c>
       <c r="C112" t="n">
-        <v>70.12</v>
+        <v>72.04000000000001</v>
       </c>
       <c r="D112" t="n">
-        <v>70.12</v>
+        <v>72.43000000000001</v>
       </c>
       <c r="E112" t="n">
-        <v>70.12</v>
+        <v>71.81999999999999</v>
       </c>
       <c r="F112" t="n">
-        <v>883.0743</v>
+        <v>24753.4073</v>
       </c>
       <c r="G112" t="n">
-        <v>-587153.0155868785</v>
+        <v>-314295.5688868786</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4434,22 +4434,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>68.81</v>
+        <v>71.8</v>
       </c>
       <c r="C113" t="n">
-        <v>68.55</v>
+        <v>72.48999999999999</v>
       </c>
       <c r="D113" t="n">
-        <v>68.81</v>
+        <v>72.48999999999999</v>
       </c>
       <c r="E113" t="n">
-        <v>68.55</v>
+        <v>71.41</v>
       </c>
       <c r="F113" t="n">
-        <v>8800</v>
+        <v>26882.39</v>
       </c>
       <c r="G113" t="n">
-        <v>-595953.0155868785</v>
+        <v>-287413.1788868786</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4470,22 +4470,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>68.55</v>
+        <v>71.31999999999999</v>
       </c>
       <c r="C114" t="n">
-        <v>68.5</v>
+        <v>72.18000000000001</v>
       </c>
       <c r="D114" t="n">
-        <v>68.55</v>
+        <v>72.18000000000001</v>
       </c>
       <c r="E114" t="n">
-        <v>68.5</v>
+        <v>71.31999999999999</v>
       </c>
       <c r="F114" t="n">
-        <v>22000</v>
+        <v>2965.6276</v>
       </c>
       <c r="G114" t="n">
-        <v>-617953.0155868785</v>
+        <v>-290378.8064868786</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4506,22 +4506,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>68.51000000000001</v>
+        <v>71.31</v>
       </c>
       <c r="C115" t="n">
-        <v>68.5</v>
+        <v>71.3</v>
       </c>
       <c r="D115" t="n">
-        <v>68.51000000000001</v>
+        <v>71.31</v>
       </c>
       <c r="E115" t="n">
-        <v>68.5</v>
+        <v>71.3</v>
       </c>
       <c r="F115" t="n">
-        <v>20500</v>
+        <v>3915.2803</v>
       </c>
       <c r="G115" t="n">
-        <v>-617953.0155868785</v>
+        <v>-294294.0867868786</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4542,22 +4542,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>68.51000000000001</v>
+        <v>71.3</v>
       </c>
       <c r="C116" t="n">
-        <v>68.5</v>
+        <v>71.3</v>
       </c>
       <c r="D116" t="n">
-        <v>68.51000000000001</v>
+        <v>71.3</v>
       </c>
       <c r="E116" t="n">
-        <v>68.40000000000001</v>
+        <v>71.3</v>
       </c>
       <c r="F116" t="n">
-        <v>85763.3829</v>
+        <v>160</v>
       </c>
       <c r="G116" t="n">
-        <v>-617953.0155868785</v>
+        <v>-294294.0867868786</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4578,22 +4578,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>68.5</v>
+        <v>71.3</v>
       </c>
       <c r="C117" t="n">
-        <v>68.5</v>
+        <v>71.3</v>
       </c>
       <c r="D117" t="n">
-        <v>68.5</v>
+        <v>71.3</v>
       </c>
       <c r="E117" t="n">
-        <v>68.5</v>
+        <v>71.3</v>
       </c>
       <c r="F117" t="n">
-        <v>18013.2589</v>
+        <v>0.2679</v>
       </c>
       <c r="G117" t="n">
-        <v>-617953.0155868785</v>
+        <v>-294294.0867868786</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4614,22 +4614,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>68.48999999999999</v>
+        <v>71.3</v>
       </c>
       <c r="C118" t="n">
-        <v>68.40000000000001</v>
+        <v>71.2</v>
       </c>
       <c r="D118" t="n">
-        <v>68.5</v>
+        <v>71.3</v>
       </c>
       <c r="E118" t="n">
-        <v>68.09999999999999</v>
+        <v>71.2</v>
       </c>
       <c r="F118" t="n">
-        <v>12818.7262</v>
+        <v>1000</v>
       </c>
       <c r="G118" t="n">
-        <v>-630771.7417868786</v>
+        <v>-295294.0867868786</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4650,22 +4650,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>68.40000000000001</v>
+        <v>71.79000000000001</v>
       </c>
       <c r="C119" t="n">
-        <v>68.5</v>
+        <v>71.79000000000001</v>
       </c>
       <c r="D119" t="n">
-        <v>68.5</v>
+        <v>71.79000000000001</v>
       </c>
       <c r="E119" t="n">
-        <v>68.40000000000001</v>
+        <v>71.79000000000001</v>
       </c>
       <c r="F119" t="n">
-        <v>1592.5487</v>
+        <v>7</v>
       </c>
       <c r="G119" t="n">
-        <v>-629179.1930868785</v>
+        <v>-295287.0867868786</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4686,22 +4686,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>68.5</v>
+        <v>71.75</v>
       </c>
       <c r="C120" t="n">
-        <v>68.5</v>
+        <v>72.5</v>
       </c>
       <c r="D120" t="n">
-        <v>68.5</v>
+        <v>72.65000000000001</v>
       </c>
       <c r="E120" t="n">
-        <v>68.5</v>
+        <v>71.75</v>
       </c>
       <c r="F120" t="n">
-        <v>6183.3878</v>
+        <v>2976.5173</v>
       </c>
       <c r="G120" t="n">
-        <v>-629179.1930868785</v>
+        <v>-292310.5694868786</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4722,22 +4722,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>68.5</v>
+        <v>73.27</v>
       </c>
       <c r="C121" t="n">
-        <v>68.5</v>
+        <v>73.27</v>
       </c>
       <c r="D121" t="n">
-        <v>68.5</v>
+        <v>73.27</v>
       </c>
       <c r="E121" t="n">
-        <v>68.11</v>
+        <v>73.27</v>
       </c>
       <c r="F121" t="n">
-        <v>10515.2437</v>
+        <v>739.8253999999999</v>
       </c>
       <c r="G121" t="n">
-        <v>-629179.1930868785</v>
+        <v>-291570.7440868786</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4758,22 +4758,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>68.5</v>
+        <v>73.27</v>
       </c>
       <c r="C122" t="n">
-        <v>68.5</v>
+        <v>73.27</v>
       </c>
       <c r="D122" t="n">
-        <v>68.5</v>
+        <v>73.27</v>
       </c>
       <c r="E122" t="n">
-        <v>68.5</v>
+        <v>73.27</v>
       </c>
       <c r="F122" t="n">
-        <v>11142.0942</v>
+        <v>2642.896137573359</v>
       </c>
       <c r="G122" t="n">
-        <v>-629179.1930868785</v>
+        <v>-291570.7440868786</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4794,22 +4794,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>68.5</v>
+        <v>73.28</v>
       </c>
       <c r="C123" t="n">
-        <v>68.5</v>
+        <v>73.28</v>
       </c>
       <c r="D123" t="n">
-        <v>68.5</v>
+        <v>73.28</v>
       </c>
       <c r="E123" t="n">
-        <v>68.5</v>
+        <v>73.28</v>
       </c>
       <c r="F123" t="n">
-        <v>1536.2119</v>
+        <v>195.4661</v>
       </c>
       <c r="G123" t="n">
-        <v>-629179.1930868785</v>
+        <v>-291375.2779868786</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4830,22 +4830,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>68.5</v>
+        <v>72.70999999999999</v>
       </c>
       <c r="C124" t="n">
-        <v>68.5</v>
+        <v>72.70999999999999</v>
       </c>
       <c r="D124" t="n">
-        <v>68.5</v>
+        <v>72.70999999999999</v>
       </c>
       <c r="E124" t="n">
-        <v>68.12</v>
+        <v>72.70999999999999</v>
       </c>
       <c r="F124" t="n">
-        <v>9847.761200000001</v>
+        <v>5086.4501</v>
       </c>
       <c r="G124" t="n">
-        <v>-629179.1930868785</v>
+        <v>-296461.7280868786</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4866,22 +4866,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>68.89</v>
+        <v>72.70999999999999</v>
       </c>
       <c r="C125" t="n">
-        <v>68.89</v>
+        <v>72.70999999999999</v>
       </c>
       <c r="D125" t="n">
-        <v>68.89</v>
+        <v>72.70999999999999</v>
       </c>
       <c r="E125" t="n">
-        <v>68.89</v>
+        <v>72.70999999999999</v>
       </c>
       <c r="F125" t="n">
-        <v>3000</v>
+        <v>5445.9999</v>
       </c>
       <c r="G125" t="n">
-        <v>-626179.1930868785</v>
+        <v>-296461.7280868786</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4902,22 +4902,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>68.11</v>
+        <v>72.70999999999999</v>
       </c>
       <c r="C126" t="n">
-        <v>67.52</v>
+        <v>72.70999999999999</v>
       </c>
       <c r="D126" t="n">
-        <v>68.11</v>
+        <v>72.70999999999999</v>
       </c>
       <c r="E126" t="n">
-        <v>67.52</v>
+        <v>72.70999999999999</v>
       </c>
       <c r="F126" t="n">
-        <v>11400</v>
+        <v>2800</v>
       </c>
       <c r="G126" t="n">
-        <v>-637579.1930868785</v>
+        <v>-296461.7280868786</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4938,22 +4938,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>67.51000000000001</v>
+        <v>72.70999999999999</v>
       </c>
       <c r="C127" t="n">
-        <v>67.51000000000001</v>
+        <v>72.70999999999999</v>
       </c>
       <c r="D127" t="n">
-        <v>67.51000000000001</v>
+        <v>72.70999999999999</v>
       </c>
       <c r="E127" t="n">
-        <v>67.51000000000001</v>
+        <v>72.70999999999999</v>
       </c>
       <c r="F127" t="n">
-        <v>15983.3984</v>
+        <v>711</v>
       </c>
       <c r="G127" t="n">
-        <v>-653562.5914868785</v>
+        <v>-296461.7280868786</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4974,22 +4974,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>67.40000000000001</v>
+        <v>72.70999999999999</v>
       </c>
       <c r="C128" t="n">
-        <v>67.51000000000001</v>
+        <v>72.70999999999999</v>
       </c>
       <c r="D128" t="n">
-        <v>67.51000000000001</v>
+        <v>72.70999999999999</v>
       </c>
       <c r="E128" t="n">
-        <v>67.40000000000001</v>
+        <v>72.70999999999999</v>
       </c>
       <c r="F128" t="n">
-        <v>4809.2843</v>
+        <v>8546.8876</v>
       </c>
       <c r="G128" t="n">
-        <v>-653562.5914868785</v>
+        <v>-296461.7280868786</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5010,622 +5010,3200 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>67.51000000000001</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="C129" t="n">
-        <v>67.98999999999999</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="D129" t="n">
-        <v>68.14</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="E129" t="n">
-        <v>67.51000000000001</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="F129" t="n">
-        <v>20516</v>
+        <v>292.522</v>
       </c>
       <c r="G129" t="n">
-        <v>-633046.5914868785</v>
+        <v>-296754.2500868786</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>67.51000000000001</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>72.7</v>
+      </c>
+      <c r="C130" t="n">
+        <v>72.7</v>
+      </c>
+      <c r="D130" t="n">
+        <v>72.7</v>
+      </c>
+      <c r="E130" t="n">
+        <v>72.7</v>
+      </c>
+      <c r="F130" t="n">
+        <v>6.8776</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-296747.3724868786</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>72.8</v>
+      </c>
+      <c r="C131" t="n">
+        <v>72.8</v>
+      </c>
+      <c r="D131" t="n">
+        <v>72.8</v>
+      </c>
+      <c r="E131" t="n">
+        <v>72.8</v>
+      </c>
+      <c r="F131" t="n">
+        <v>285.6444</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-296461.7280868786</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>73.12</v>
+      </c>
+      <c r="C132" t="n">
+        <v>73.12</v>
+      </c>
+      <c r="D132" t="n">
+        <v>73.12</v>
+      </c>
+      <c r="E132" t="n">
+        <v>73.12</v>
+      </c>
+      <c r="F132" t="n">
+        <v>1233.8525</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-295227.8755868786</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>73.31999999999999</v>
+      </c>
+      <c r="C133" t="n">
+        <v>73.31999999999999</v>
+      </c>
+      <c r="D133" t="n">
+        <v>73.31999999999999</v>
+      </c>
+      <c r="E133" t="n">
+        <v>73.31999999999999</v>
+      </c>
+      <c r="F133" t="n">
+        <v>31</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-295196.8755868786</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>73.31999999999999</v>
+      </c>
+      <c r="C134" t="n">
+        <v>74.01000000000001</v>
+      </c>
+      <c r="D134" t="n">
+        <v>74.01000000000001</v>
+      </c>
+      <c r="E134" t="n">
+        <v>73.31999999999999</v>
+      </c>
+      <c r="F134" t="n">
+        <v>42575.4557</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-252621.4198868786</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>74.03</v>
+      </c>
+      <c r="C135" t="n">
+        <v>74.03</v>
+      </c>
+      <c r="D135" t="n">
+        <v>74.03</v>
+      </c>
+      <c r="E135" t="n">
+        <v>74.03</v>
+      </c>
+      <c r="F135" t="n">
+        <v>3580.0938</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-249041.3260868786</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>74.06</v>
+      </c>
+      <c r="C136" t="n">
+        <v>73.90000000000001</v>
+      </c>
+      <c r="D136" t="n">
+        <v>74.44</v>
+      </c>
+      <c r="E136" t="n">
+        <v>73.90000000000001</v>
+      </c>
+      <c r="F136" t="n">
+        <v>32412.9891</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-281454.3151868786</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="C137" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="D137" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="E137" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="F137" t="n">
+        <v>1039</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-280415.3151868786</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>73.8</v>
+      </c>
+      <c r="C138" t="n">
+        <v>73.70999999999999</v>
+      </c>
+      <c r="D138" t="n">
+        <v>73.8</v>
+      </c>
+      <c r="E138" t="n">
+        <v>73.56</v>
+      </c>
+      <c r="F138" t="n">
+        <v>8209.771000000001</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-288625.0861868786</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>73.45999999999999</v>
+      </c>
+      <c r="C139" t="n">
+        <v>73.37</v>
+      </c>
+      <c r="D139" t="n">
+        <v>73.45999999999999</v>
+      </c>
+      <c r="E139" t="n">
+        <v>73.37</v>
+      </c>
+      <c r="F139" t="n">
+        <v>6227.3271</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-294852.4132868786</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>72.44</v>
+      </c>
+      <c r="C140" t="n">
+        <v>72.31999999999999</v>
+      </c>
+      <c r="D140" t="n">
+        <v>72.44</v>
+      </c>
+      <c r="E140" t="n">
+        <v>72.31</v>
+      </c>
+      <c r="F140" t="n">
+        <v>21</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-294873.4132868786</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>72.31999999999999</v>
+      </c>
+      <c r="C141" t="n">
+        <v>72.22</v>
+      </c>
+      <c r="D141" t="n">
+        <v>72.31999999999999</v>
+      </c>
+      <c r="E141" t="n">
+        <v>72.2</v>
+      </c>
+      <c r="F141" t="n">
+        <v>21951.3037</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-316824.7169868786</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>72.22</v>
+      </c>
+      <c r="C142" t="n">
+        <v>72.01000000000001</v>
+      </c>
+      <c r="D142" t="n">
+        <v>73.23</v>
+      </c>
+      <c r="E142" t="n">
+        <v>72.01000000000001</v>
+      </c>
+      <c r="F142" t="n">
+        <v>33015.6452</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-349840.3621868786</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="C143" t="n">
+        <v>72</v>
+      </c>
+      <c r="D143" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="E143" t="n">
+        <v>72</v>
+      </c>
+      <c r="F143" t="n">
+        <v>17966.5193</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-367806.8814868786</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>72.01000000000001</v>
+      </c>
+      <c r="C144" t="n">
+        <v>72.11</v>
+      </c>
+      <c r="D144" t="n">
+        <v>72.11</v>
+      </c>
+      <c r="E144" t="n">
+        <v>72.01000000000001</v>
+      </c>
+      <c r="F144" t="n">
+        <v>49</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-367757.8814868786</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>72.16</v>
+      </c>
+      <c r="C145" t="n">
+        <v>72.81999999999999</v>
+      </c>
+      <c r="D145" t="n">
+        <v>72.81999999999999</v>
+      </c>
+      <c r="E145" t="n">
+        <v>72.16</v>
+      </c>
+      <c r="F145" t="n">
+        <v>2257</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-365500.8814868786</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>72.8</v>
+      </c>
+      <c r="C146" t="n">
+        <v>72.8</v>
+      </c>
+      <c r="D146" t="n">
+        <v>72.8</v>
+      </c>
+      <c r="E146" t="n">
+        <v>72.8</v>
+      </c>
+      <c r="F146" t="n">
+        <v>7</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-365507.8814868786</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>72.79000000000001</v>
+      </c>
+      <c r="C147" t="n">
+        <v>72.73</v>
+      </c>
+      <c r="D147" t="n">
+        <v>72.79000000000001</v>
+      </c>
+      <c r="E147" t="n">
+        <v>72.73</v>
+      </c>
+      <c r="F147" t="n">
+        <v>49</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-365556.8814868786</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>72</v>
+      </c>
+      <c r="C148" t="n">
+        <v>72</v>
+      </c>
+      <c r="D148" t="n">
+        <v>72</v>
+      </c>
+      <c r="E148" t="n">
+        <v>72</v>
+      </c>
+      <c r="F148" t="n">
+        <v>7</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-365563.8814868786</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>72.01000000000001</v>
+      </c>
+      <c r="C149" t="n">
+        <v>72.03</v>
+      </c>
+      <c r="D149" t="n">
+        <v>72.03</v>
+      </c>
+      <c r="E149" t="n">
+        <v>72.01000000000001</v>
+      </c>
+      <c r="F149" t="n">
+        <v>21</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-365542.8814868786</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>72.04000000000001</v>
+      </c>
+      <c r="C150" t="n">
+        <v>72.04000000000001</v>
+      </c>
+      <c r="D150" t="n">
+        <v>72.04000000000001</v>
+      </c>
+      <c r="E150" t="n">
+        <v>72.04000000000001</v>
+      </c>
+      <c r="F150" t="n">
+        <v>7</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-365535.8814868786</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>72.05</v>
+      </c>
+      <c r="C151" t="n">
+        <v>72.05</v>
+      </c>
+      <c r="D151" t="n">
+        <v>72.05</v>
+      </c>
+      <c r="E151" t="n">
+        <v>72.05</v>
+      </c>
+      <c r="F151" t="n">
+        <v>7</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-365528.8814868786</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>72.45999999999999</v>
+      </c>
+      <c r="C152" t="n">
+        <v>72.45999999999999</v>
+      </c>
+      <c r="D152" t="n">
+        <v>72.45999999999999</v>
+      </c>
+      <c r="E152" t="n">
+        <v>72.45999999999999</v>
+      </c>
+      <c r="F152" t="n">
+        <v>7</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-365521.8814868786</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>72.73</v>
+      </c>
+      <c r="C153" t="n">
+        <v>72.73</v>
+      </c>
+      <c r="D153" t="n">
+        <v>72.73</v>
+      </c>
+      <c r="E153" t="n">
+        <v>72.73</v>
+      </c>
+      <c r="F153" t="n">
+        <v>6.8767</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-365515.0047868785</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>72.12</v>
+      </c>
+      <c r="C154" t="n">
+        <v>72.12</v>
+      </c>
+      <c r="D154" t="n">
+        <v>72.12</v>
+      </c>
+      <c r="E154" t="n">
+        <v>72.12</v>
+      </c>
+      <c r="F154" t="n">
+        <v>40.035</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-365555.0397868785</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="C155" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="D155" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="E155" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="F155" t="n">
+        <v>4742.5736</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-360812.4661868785</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>72.01000000000001</v>
+      </c>
+      <c r="C156" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="D156" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="E156" t="n">
+        <v>72.01000000000001</v>
+      </c>
+      <c r="F156" t="n">
+        <v>3289.0899</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-360812.4661868785</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="C157" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="D157" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="E157" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="F157" t="n">
+        <v>38</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-360812.4661868785</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="C158" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="D158" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="E158" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="F158" t="n">
+        <v>745.1698</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-360812.4661868785</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="C159" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="D159" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="E159" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="F159" t="n">
+        <v>1046.3208</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-360812.4661868785</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="C160" t="n">
+        <v>72.79000000000001</v>
+      </c>
+      <c r="D160" t="n">
+        <v>72.79000000000001</v>
+      </c>
+      <c r="E160" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="F160" t="n">
+        <v>5258.2109</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-355554.2552868785</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>72.69</v>
+      </c>
+      <c r="C161" t="n">
+        <v>72.69</v>
+      </c>
+      <c r="D161" t="n">
+        <v>72.69</v>
+      </c>
+      <c r="E161" t="n">
+        <v>72.69</v>
+      </c>
+      <c r="F161" t="n">
+        <v>70</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-355624.2552868785</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>72.12</v>
+      </c>
+      <c r="C162" t="n">
+        <v>72.12</v>
+      </c>
+      <c r="D162" t="n">
+        <v>72.12</v>
+      </c>
+      <c r="E162" t="n">
+        <v>72.12</v>
+      </c>
+      <c r="F162" t="n">
+        <v>20</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-355644.2552868785</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>72.12</v>
+      </c>
+      <c r="C163" t="n">
+        <v>71.86</v>
+      </c>
+      <c r="D163" t="n">
+        <v>72.12</v>
+      </c>
+      <c r="E163" t="n">
+        <v>71.86</v>
+      </c>
+      <c r="F163" t="n">
+        <v>8886.185100000001</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-364530.4403868785</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>71.90000000000001</v>
+      </c>
+      <c r="C164" t="n">
+        <v>71.90000000000001</v>
+      </c>
+      <c r="D164" t="n">
+        <v>71.90000000000001</v>
+      </c>
+      <c r="E164" t="n">
+        <v>71.90000000000001</v>
+      </c>
+      <c r="F164" t="n">
+        <v>888.6185</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-363641.8218868785</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>71.90000000000001</v>
+      </c>
+      <c r="C165" t="n">
+        <v>72.59</v>
+      </c>
+      <c r="D165" t="n">
+        <v>72.77</v>
+      </c>
+      <c r="E165" t="n">
+        <v>71.90000000000001</v>
+      </c>
+      <c r="F165" t="n">
+        <v>4591.3631</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-359050.4587868785</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>71.95</v>
+      </c>
+      <c r="C166" t="n">
+        <v>71.98999999999999</v>
+      </c>
+      <c r="D166" t="n">
+        <v>72.59</v>
+      </c>
+      <c r="E166" t="n">
+        <v>71.95</v>
+      </c>
+      <c r="F166" t="n">
+        <v>1920.0618</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-360970.5205868785</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>72</v>
+      </c>
+      <c r="C167" t="n">
+        <v>72.02</v>
+      </c>
+      <c r="D167" t="n">
+        <v>72.02</v>
+      </c>
+      <c r="E167" t="n">
+        <v>72</v>
+      </c>
+      <c r="F167" t="n">
+        <v>839.6721</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-360130.8484868785</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>72.03</v>
+      </c>
+      <c r="C168" t="n">
+        <v>72.06</v>
+      </c>
+      <c r="D168" t="n">
+        <v>72.06</v>
+      </c>
+      <c r="E168" t="n">
+        <v>72.03</v>
+      </c>
+      <c r="F168" t="n">
+        <v>776.7838</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-359354.0646868785</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>72.06</v>
+      </c>
+      <c r="C169" t="n">
+        <v>72.06</v>
+      </c>
+      <c r="D169" t="n">
+        <v>72.06</v>
+      </c>
+      <c r="E169" t="n">
+        <v>72.06</v>
+      </c>
+      <c r="F169" t="n">
+        <v>787.5774</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-359354.0646868785</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>72.06</v>
+      </c>
+      <c r="C170" t="n">
+        <v>72.06</v>
+      </c>
+      <c r="D170" t="n">
+        <v>72.06</v>
+      </c>
+      <c r="E170" t="n">
+        <v>72.06</v>
+      </c>
+      <c r="F170" t="n">
+        <v>694.3881</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-359354.0646868785</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>72.08</v>
+      </c>
+      <c r="C171" t="n">
+        <v>72.08</v>
+      </c>
+      <c r="D171" t="n">
+        <v>72.08</v>
+      </c>
+      <c r="E171" t="n">
+        <v>72.08</v>
+      </c>
+      <c r="F171" t="n">
+        <v>100.2633</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-359253.8013868785</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>72.76000000000001</v>
+      </c>
+      <c r="C172" t="n">
+        <v>72.76000000000001</v>
+      </c>
+      <c r="D172" t="n">
+        <v>72.76000000000001</v>
+      </c>
+      <c r="E172" t="n">
+        <v>72.76000000000001</v>
+      </c>
+      <c r="F172" t="n">
+        <v>868.982</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-358384.8193868785</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>72.8</v>
+      </c>
+      <c r="C173" t="n">
+        <v>72.88</v>
+      </c>
+      <c r="D173" t="n">
+        <v>72.89</v>
+      </c>
+      <c r="E173" t="n">
+        <v>72.8</v>
+      </c>
+      <c r="F173" t="n">
+        <v>2306.3894</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-356078.4299868785</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>72.76000000000001</v>
+      </c>
+      <c r="C174" t="n">
+        <v>72.76000000000001</v>
+      </c>
+      <c r="D174" t="n">
+        <v>72.76000000000001</v>
+      </c>
+      <c r="E174" t="n">
+        <v>72.76000000000001</v>
+      </c>
+      <c r="F174" t="n">
+        <v>227</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-356305.4299868785</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>72.88</v>
+      </c>
+      <c r="C175" t="n">
+        <v>72.88</v>
+      </c>
+      <c r="D175" t="n">
+        <v>72.88</v>
+      </c>
+      <c r="E175" t="n">
+        <v>72.88</v>
+      </c>
+      <c r="F175" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-353305.4299868785</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>72.76000000000001</v>
+      </c>
+      <c r="C176" t="n">
+        <v>72.2</v>
+      </c>
+      <c r="D176" t="n">
+        <v>72.8</v>
+      </c>
+      <c r="E176" t="n">
+        <v>72.06</v>
+      </c>
+      <c r="F176" t="n">
+        <v>71725.60129999999</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-425031.0312868785</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>72.06</v>
+      </c>
+      <c r="C177" t="n">
+        <v>71.75</v>
+      </c>
+      <c r="D177" t="n">
+        <v>72.06</v>
+      </c>
+      <c r="E177" t="n">
+        <v>71.75</v>
+      </c>
+      <c r="F177" t="n">
+        <v>54051.72</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-479082.7512868785</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>71.75</v>
+      </c>
+      <c r="C178" t="n">
+        <v>70.5</v>
+      </c>
+      <c r="D178" t="n">
+        <v>72.08</v>
+      </c>
+      <c r="E178" t="n">
+        <v>70.25</v>
+      </c>
+      <c r="F178" t="n">
+        <v>93358.25999999999</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-572441.0112868785</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>70.5</v>
+      </c>
+      <c r="C179" t="n">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="D179" t="n">
+        <v>70.5</v>
+      </c>
+      <c r="E179" t="n">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="F179" t="n">
+        <v>4399.3021</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-576840.3133868785</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>70.25</v>
+      </c>
+      <c r="C180" t="n">
+        <v>70.05</v>
+      </c>
+      <c r="D180" t="n">
+        <v>70.25</v>
+      </c>
+      <c r="E180" t="n">
+        <v>69.88</v>
+      </c>
+      <c r="F180" t="n">
+        <v>19200</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-596040.3133868785</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>69.88</v>
+      </c>
+      <c r="C181" t="n">
+        <v>70.13</v>
+      </c>
+      <c r="D181" t="n">
+        <v>70.13</v>
+      </c>
+      <c r="E181" t="n">
+        <v>69.20999999999999</v>
+      </c>
+      <c r="F181" t="n">
+        <v>9953.7714</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-586086.5419868785</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>69.2</v>
+      </c>
+      <c r="C182" t="n">
+        <v>68.81</v>
+      </c>
+      <c r="D182" t="n">
+        <v>69.2</v>
+      </c>
+      <c r="E182" t="n">
+        <v>68.81</v>
+      </c>
+      <c r="F182" t="n">
+        <v>1949.5479</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-588036.0898868785</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>70.12</v>
+      </c>
+      <c r="C183" t="n">
+        <v>70.12</v>
+      </c>
+      <c r="D183" t="n">
+        <v>70.12</v>
+      </c>
+      <c r="E183" t="n">
+        <v>70.12</v>
+      </c>
+      <c r="F183" t="n">
+        <v>883.0743</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-587153.0155868785</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>68.81</v>
+      </c>
+      <c r="C184" t="n">
+        <v>68.55</v>
+      </c>
+      <c r="D184" t="n">
+        <v>68.81</v>
+      </c>
+      <c r="E184" t="n">
+        <v>68.55</v>
+      </c>
+      <c r="F184" t="n">
+        <v>8800</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-595953.0155868785</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>68.55</v>
+      </c>
+      <c r="C185" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="D185" t="n">
+        <v>68.55</v>
+      </c>
+      <c r="E185" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="F185" t="n">
+        <v>22000</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-617953.0155868785</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>68.51000000000001</v>
+      </c>
+      <c r="C186" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="D186" t="n">
+        <v>68.51000000000001</v>
+      </c>
+      <c r="E186" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="F186" t="n">
+        <v>20500</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-617953.0155868785</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>68.51000000000001</v>
+      </c>
+      <c r="C187" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="D187" t="n">
+        <v>68.51000000000001</v>
+      </c>
+      <c r="E187" t="n">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="F187" t="n">
+        <v>85763.3829</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-617953.0155868785</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="C188" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="D188" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="E188" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="F188" t="n">
+        <v>18013.2589</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-617953.0155868785</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>68.48999999999999</v>
+      </c>
+      <c r="C189" t="n">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="D189" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="E189" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="F189" t="n">
+        <v>12818.7262</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-630771.7417868786</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="C190" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="D190" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="E190" t="n">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="F190" t="n">
+        <v>1592.5487</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-629179.1930868785</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="C191" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="D191" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="E191" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="F191" t="n">
+        <v>6183.3878</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-629179.1930868785</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="C192" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="D192" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="E192" t="n">
+        <v>68.11</v>
+      </c>
+      <c r="F192" t="n">
+        <v>10515.2437</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-629179.1930868785</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="C193" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="D193" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="E193" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="F193" t="n">
+        <v>11142.0942</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-629179.1930868785</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="C194" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="D194" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="E194" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="F194" t="n">
+        <v>1536.2119</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-629179.1930868785</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="C195" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="D195" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="E195" t="n">
+        <v>68.12</v>
+      </c>
+      <c r="F195" t="n">
+        <v>9847.761200000001</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-629179.1930868785</v>
+      </c>
+      <c r="H195" t="n">
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>68</v>
-      </c>
-      <c r="C130" t="n">
-        <v>68</v>
-      </c>
-      <c r="D130" t="n">
-        <v>68</v>
-      </c>
-      <c r="E130" t="n">
-        <v>68</v>
-      </c>
-      <c r="F130" t="n">
-        <v>219</v>
-      </c>
-      <c r="G130" t="n">
-        <v>-632827.5914868785</v>
-      </c>
-      <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="n">
-        <v>67.98999999999999</v>
-      </c>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>68.89</v>
+      </c>
+      <c r="C196" t="n">
+        <v>68.89</v>
+      </c>
+      <c r="D196" t="n">
+        <v>68.89</v>
+      </c>
+      <c r="E196" t="n">
+        <v>68.89</v>
+      </c>
+      <c r="F196" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-626179.1930868785</v>
+      </c>
+      <c r="H196" t="n">
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>68.84999999999999</v>
-      </c>
-      <c r="C131" t="n">
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>68.11</v>
+      </c>
+      <c r="C197" t="n">
+        <v>67.52</v>
+      </c>
+      <c r="D197" t="n">
+        <v>68.11</v>
+      </c>
+      <c r="E197" t="n">
+        <v>67.52</v>
+      </c>
+      <c r="F197" t="n">
+        <v>11400</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-637579.1930868785</v>
+      </c>
+      <c r="H197" t="n">
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="n">
         <v>68.89</v>
       </c>
-      <c r="D131" t="n">
-        <v>68.89</v>
-      </c>
-      <c r="E131" t="n">
-        <v>68.84999999999999</v>
-      </c>
-      <c r="F131" t="n">
-        <v>30858.3237</v>
-      </c>
-      <c r="G131" t="n">
-        <v>-601969.2677868785</v>
-      </c>
-      <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="n">
-        <v>68</v>
-      </c>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>68.59999999999999</v>
-      </c>
-      <c r="C132" t="n">
-        <v>68.59999999999999</v>
-      </c>
-      <c r="D132" t="n">
-        <v>68.59999999999999</v>
-      </c>
-      <c r="E132" t="n">
-        <v>68.59999999999999</v>
-      </c>
-      <c r="F132" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G132" t="n">
-        <v>-602969.2677868785</v>
-      </c>
-      <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="n">
-        <v>68.89</v>
-      </c>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>67.51000000000001</v>
+      </c>
+      <c r="C198" t="n">
+        <v>67.51000000000001</v>
+      </c>
+      <c r="D198" t="n">
+        <v>67.51000000000001</v>
+      </c>
+      <c r="E198" t="n">
+        <v>67.51000000000001</v>
+      </c>
+      <c r="F198" t="n">
+        <v>15983.3984</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-653562.5914868785</v>
+      </c>
+      <c r="H198" t="n">
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="n">
+        <v>67.52</v>
+      </c>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>68.7</v>
-      </c>
-      <c r="C133" t="n">
-        <v>68.79000000000001</v>
-      </c>
-      <c r="D133" t="n">
-        <v>68.79000000000001</v>
-      </c>
-      <c r="E133" t="n">
-        <v>68.7</v>
-      </c>
-      <c r="F133" t="n">
-        <v>2745.721</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-600223.5467868785</v>
-      </c>
-      <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="n">
-        <v>68.59999999999999</v>
-      </c>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="C199" t="n">
+        <v>67.51000000000001</v>
+      </c>
+      <c r="D199" t="n">
+        <v>67.51000000000001</v>
+      </c>
+      <c r="E199" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="F199" t="n">
+        <v>4809.2843</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-653562.5914868785</v>
+      </c>
+      <c r="H199" t="n">
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="n">
+        <v>67.51000000000001</v>
+      </c>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>68.98</v>
-      </c>
-      <c r="C134" t="n">
-        <v>68.98</v>
-      </c>
-      <c r="D134" t="n">
-        <v>68.98</v>
-      </c>
-      <c r="E134" t="n">
-        <v>68.98</v>
-      </c>
-      <c r="F134" t="n">
-        <v>11375.2333</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-588848.3134868785</v>
-      </c>
-      <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="n">
-        <v>68.79000000000001</v>
-      </c>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>67.51000000000001</v>
+      </c>
+      <c r="C200" t="n">
+        <v>67.98999999999999</v>
+      </c>
+      <c r="D200" t="n">
+        <v>68.14</v>
+      </c>
+      <c r="E200" t="n">
+        <v>67.51000000000001</v>
+      </c>
+      <c r="F200" t="n">
+        <v>20516</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-633046.5914868785</v>
+      </c>
+      <c r="H200" t="n">
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="n">
+        <v>67.51000000000001</v>
+      </c>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>68.8</v>
-      </c>
-      <c r="C135" t="n">
-        <v>68.3</v>
-      </c>
-      <c r="D135" t="n">
-        <v>68.8</v>
-      </c>
-      <c r="E135" t="n">
-        <v>68.3</v>
-      </c>
-      <c r="F135" t="n">
-        <v>17900</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-606748.3134868785</v>
-      </c>
-      <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="n">
-        <v>68.98</v>
-      </c>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>68</v>
+      </c>
+      <c r="C201" t="n">
+        <v>68</v>
+      </c>
+      <c r="D201" t="n">
+        <v>68</v>
+      </c>
+      <c r="E201" t="n">
+        <v>68</v>
+      </c>
+      <c r="F201" t="n">
+        <v>219</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-632827.5914868785</v>
+      </c>
+      <c r="H201" t="n">
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="n">
+        <v>67.98999999999999</v>
+      </c>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>68.51000000000001</v>
-      </c>
-      <c r="C136" t="n">
-        <v>68.3</v>
-      </c>
-      <c r="D136" t="n">
-        <v>68.51000000000001</v>
-      </c>
-      <c r="E136" t="n">
-        <v>68.3</v>
-      </c>
-      <c r="F136" t="n">
-        <v>9229.749100000001</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-606748.3134868785</v>
-      </c>
-      <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="n">
-        <v>68.3</v>
-      </c>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>68.84999999999999</v>
+      </c>
+      <c r="C202" t="n">
+        <v>68.89</v>
+      </c>
+      <c r="D202" t="n">
+        <v>68.89</v>
+      </c>
+      <c r="E202" t="n">
+        <v>68.84999999999999</v>
+      </c>
+      <c r="F202" t="n">
+        <v>30858.3237</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-601969.2677868785</v>
+      </c>
+      <c r="H202" t="n">
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="n">
+        <v>68</v>
+      </c>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>68.51000000000001</v>
-      </c>
-      <c r="C137" t="n">
-        <v>67.83</v>
-      </c>
-      <c r="D137" t="n">
-        <v>68.51000000000001</v>
-      </c>
-      <c r="E137" t="n">
-        <v>67.83</v>
-      </c>
-      <c r="F137" t="n">
-        <v>7600</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-614348.3134868785</v>
-      </c>
-      <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="n">
-        <v>68.3</v>
-      </c>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>68.59999999999999</v>
+      </c>
+      <c r="C203" t="n">
+        <v>68.59999999999999</v>
+      </c>
+      <c r="D203" t="n">
+        <v>68.59999999999999</v>
+      </c>
+      <c r="E203" t="n">
+        <v>68.59999999999999</v>
+      </c>
+      <c r="F203" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-602969.2677868785</v>
+      </c>
+      <c r="H203" t="n">
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="n">
+        <v>68.89</v>
+      </c>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>67.62</v>
-      </c>
-      <c r="C138" t="n">
-        <v>67.62</v>
-      </c>
-      <c r="D138" t="n">
-        <v>67.62</v>
-      </c>
-      <c r="E138" t="n">
-        <v>67.62</v>
-      </c>
-      <c r="F138" t="n">
-        <v>1167.4271</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-615515.7405868785</v>
-      </c>
-      <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="n">
-        <v>67.83</v>
-      </c>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>68.7</v>
+      </c>
+      <c r="C204" t="n">
+        <v>68.79000000000001</v>
+      </c>
+      <c r="D204" t="n">
+        <v>68.79000000000001</v>
+      </c>
+      <c r="E204" t="n">
+        <v>68.7</v>
+      </c>
+      <c r="F204" t="n">
+        <v>2745.721</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-600223.5467868785</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>67.63</v>
-      </c>
-      <c r="C139" t="n">
-        <v>67</v>
-      </c>
-      <c r="D139" t="n">
-        <v>67.63</v>
-      </c>
-      <c r="E139" t="n">
-        <v>67</v>
-      </c>
-      <c r="F139" t="n">
-        <v>84310.2648</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-699826.0053868785</v>
-      </c>
-      <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="n">
-        <v>67.62</v>
-      </c>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>68.98</v>
+      </c>
+      <c r="C205" t="n">
+        <v>68.98</v>
+      </c>
+      <c r="D205" t="n">
+        <v>68.98</v>
+      </c>
+      <c r="E205" t="n">
+        <v>68.98</v>
+      </c>
+      <c r="F205" t="n">
+        <v>11375.2333</v>
+      </c>
+      <c r="G205" t="n">
+        <v>-588848.3134868785</v>
+      </c>
+      <c r="H205" t="n">
+        <v>1</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="n">
+        <v>68.79000000000001</v>
+      </c>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>68.59999999999999</v>
-      </c>
-      <c r="C140" t="n">
-        <v>68.59999999999999</v>
-      </c>
-      <c r="D140" t="n">
-        <v>68.59999999999999</v>
-      </c>
-      <c r="E140" t="n">
-        <v>68.59999999999999</v>
-      </c>
-      <c r="F140" t="n">
-        <v>150</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-699676.0053868785</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="C206" t="n">
+        <v>68.3</v>
+      </c>
+      <c r="D206" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="E206" t="n">
+        <v>68.3</v>
+      </c>
+      <c r="F206" t="n">
+        <v>17900</v>
+      </c>
+      <c r="G206" t="n">
+        <v>-606748.3134868785</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>68.34999999999999</v>
-      </c>
-      <c r="C141" t="n">
-        <v>68.34999999999999</v>
-      </c>
-      <c r="D141" t="n">
-        <v>68.34999999999999</v>
-      </c>
-      <c r="E141" t="n">
-        <v>68.34</v>
-      </c>
-      <c r="F141" t="n">
-        <v>1246.3738</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-700922.3791868784</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>68.51000000000001</v>
+      </c>
+      <c r="C207" t="n">
+        <v>68.3</v>
+      </c>
+      <c r="D207" t="n">
+        <v>68.51000000000001</v>
+      </c>
+      <c r="E207" t="n">
+        <v>68.3</v>
+      </c>
+      <c r="F207" t="n">
+        <v>9229.749100000001</v>
+      </c>
+      <c r="G207" t="n">
+        <v>-606748.3134868785</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>68.23999999999999</v>
-      </c>
-      <c r="C142" t="n">
-        <v>68.23999999999999</v>
-      </c>
-      <c r="D142" t="n">
-        <v>68.23999999999999</v>
-      </c>
-      <c r="E142" t="n">
-        <v>68.23999999999999</v>
-      </c>
-      <c r="F142" t="n">
-        <v>59.7591</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-700982.1382868785</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>68.51000000000001</v>
+      </c>
+      <c r="C208" t="n">
+        <v>67.83</v>
+      </c>
+      <c r="D208" t="n">
+        <v>68.51000000000001</v>
+      </c>
+      <c r="E208" t="n">
+        <v>67.83</v>
+      </c>
+      <c r="F208" t="n">
+        <v>7600</v>
+      </c>
+      <c r="G208" t="n">
+        <v>-614348.3134868785</v>
+      </c>
+      <c r="H208" t="n">
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="n">
+        <v>68.3</v>
+      </c>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>68.34</v>
-      </c>
-      <c r="C143" t="n">
-        <v>68.18000000000001</v>
-      </c>
-      <c r="D143" t="n">
-        <v>68.34</v>
-      </c>
-      <c r="E143" t="n">
-        <v>68.18000000000001</v>
-      </c>
-      <c r="F143" t="n">
-        <v>2275.7934</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-703257.9316868784</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>67.62</v>
+      </c>
+      <c r="C209" t="n">
+        <v>67.62</v>
+      </c>
+      <c r="D209" t="n">
+        <v>67.62</v>
+      </c>
+      <c r="E209" t="n">
+        <v>67.62</v>
+      </c>
+      <c r="F209" t="n">
+        <v>1167.4271</v>
+      </c>
+      <c r="G209" t="n">
+        <v>-615515.7405868785</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+      <c r="N209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>67.63</v>
+      </c>
+      <c r="C210" t="n">
+        <v>67</v>
+      </c>
+      <c r="D210" t="n">
+        <v>67.63</v>
+      </c>
+      <c r="E210" t="n">
+        <v>67</v>
+      </c>
+      <c r="F210" t="n">
+        <v>84310.2648</v>
+      </c>
+      <c r="G210" t="n">
+        <v>-699826.0053868785</v>
+      </c>
+      <c r="H210" t="n">
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="n">
+        <v>67.62</v>
+      </c>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>68.59999999999999</v>
+      </c>
+      <c r="C211" t="n">
+        <v>68.59999999999999</v>
+      </c>
+      <c r="D211" t="n">
+        <v>68.59999999999999</v>
+      </c>
+      <c r="E211" t="n">
+        <v>68.59999999999999</v>
+      </c>
+      <c r="F211" t="n">
+        <v>150</v>
+      </c>
+      <c r="G211" t="n">
+        <v>-699676.0053868785</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="N211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>68.34999999999999</v>
+      </c>
+      <c r="C212" t="n">
+        <v>68.34999999999999</v>
+      </c>
+      <c r="D212" t="n">
+        <v>68.34999999999999</v>
+      </c>
+      <c r="E212" t="n">
+        <v>68.34</v>
+      </c>
+      <c r="F212" t="n">
+        <v>1246.3738</v>
+      </c>
+      <c r="G212" t="n">
+        <v>-700922.3791868784</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>68.23999999999999</v>
+      </c>
+      <c r="C213" t="n">
+        <v>68.23999999999999</v>
+      </c>
+      <c r="D213" t="n">
+        <v>68.23999999999999</v>
+      </c>
+      <c r="E213" t="n">
+        <v>68.23999999999999</v>
+      </c>
+      <c r="F213" t="n">
+        <v>59.7591</v>
+      </c>
+      <c r="G213" t="n">
+        <v>-700982.1382868785</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M213" t="n">
+        <v>1</v>
+      </c>
+      <c r="N213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>68.34</v>
+      </c>
+      <c r="C214" t="n">
+        <v>68.18000000000001</v>
+      </c>
+      <c r="D214" t="n">
+        <v>68.34</v>
+      </c>
+      <c r="E214" t="n">
+        <v>68.18000000000001</v>
+      </c>
+      <c r="F214" t="n">
+        <v>2275.7934</v>
+      </c>
+      <c r="G214" t="n">
+        <v>-703257.9316868784</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M214" t="n">
+        <v>1</v>
+      </c>
+      <c r="N214" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-20 BackTest ELF.xlsx
+++ b/BackTest/2020-01-20 BackTest ELF.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N214"/>
+  <dimension ref="A1:M214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>1</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>1</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2184,18 +2035,15 @@
         <v>-263235.4816868786</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2220,18 +2068,15 @@
         <v>-290069.5366868786</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>1</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2292,18 +2134,15 @@
         <v>-291697.5243868786</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2328,18 +2167,15 @@
         <v>-291697.5243868786</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2364,18 +2200,15 @@
         <v>-288956.1181868786</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2400,18 +2233,15 @@
         <v>-306501.0271868785</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2436,18 +2266,15 @@
         <v>-306726.4151868785</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2472,18 +2299,15 @@
         <v>-222796.8484868785</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2508,18 +2332,15 @@
         <v>-207341.9293868785</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>1</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2580,18 +2398,15 @@
         <v>-192787.7478868785</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2616,18 +2431,15 @@
         <v>-196006.0604868785</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2652,18 +2464,15 @@
         <v>-194708.4776868785</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2688,18 +2497,15 @@
         <v>-194708.4776868785</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2724,18 +2530,15 @@
         <v>-203544.2197868785</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2760,18 +2563,15 @@
         <v>-189982.6213868785</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2796,18 +2596,15 @@
         <v>-190125.1363868786</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2832,18 +2629,15 @@
         <v>-190125.1363868786</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2868,18 +2662,15 @@
         <v>-190125.1363868786</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>1</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2940,18 +2728,15 @@
         <v>-190318.6634868786</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2976,18 +2761,15 @@
         <v>-191727.6784868786</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>1</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3048,18 +2827,15 @@
         <v>-180494.4090868786</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3084,18 +2860,15 @@
         <v>-182490.0667868786</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>1</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3156,18 +2926,15 @@
         <v>-181633.0504868786</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3192,18 +2959,15 @@
         <v>-183219.6398868786</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>1</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>1</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3300,18 +3058,15 @@
         <v>-185776.4968868786</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>1</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>1</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>1</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>1</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>1</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>1</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>1</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>1</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3660,18 +3388,15 @@
         <v>-202592.0918868786</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>1</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3456,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>1</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3768,18 +3487,15 @@
         <v>-224341.1266868786</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3804,18 +3520,15 @@
         <v>-224341.1266868786</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3840,18 +3553,15 @@
         <v>-223506.5203868786</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3876,18 +3586,15 @@
         <v>-223506.5203868786</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3912,18 +3619,15 @@
         <v>-231779.6766868786</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3948,18 +3652,15 @@
         <v>-240405.5695868786</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3984,18 +3685,15 @@
         <v>-240516.5695868786</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4020,18 +3718,15 @@
         <v>-240936.2165868786</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4056,18 +3751,15 @@
         <v>-293534.5500868786</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3786,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3819,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +3852,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +3885,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +3918,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +3951,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +3984,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4017,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4050,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4083,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4116,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4149,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4182,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4215,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4248,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4634,16 +4281,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4670,16 +4314,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4706,16 +4347,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4742,16 +4380,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4778,16 +4413,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4812,18 +4444,15 @@
         <v>-291375.2779868786</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4850,16 +4479,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4886,16 +4512,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4922,16 +4545,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4958,16 +4578,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4994,16 +4611,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5030,16 +4644,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5066,16 +4677,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5102,16 +4710,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5138,16 +4743,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5174,16 +4776,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5210,16 +4809,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5246,16 +4842,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5282,16 +4875,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5318,16 +4908,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5354,16 +4941,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5390,16 +4974,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5426,16 +5007,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5462,16 +5040,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5496,18 +5071,15 @@
         <v>-349840.3621868786</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5534,16 +5106,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5570,16 +5139,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5606,16 +5172,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5642,16 +5205,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5678,16 +5238,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5714,16 +5271,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5750,16 +5304,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5786,16 +5337,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5822,16 +5370,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5858,16 +5403,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5894,16 +5436,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5930,16 +5469,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5966,16 +5502,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6002,16 +5535,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6038,16 +5568,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6074,16 +5601,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6110,16 +5634,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6146,16 +5667,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6182,16 +5700,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6216,18 +5731,15 @@
         <v>-355644.2552868785</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6252,18 +5764,15 @@
         <v>-364530.4403868785</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6288,18 +5797,15 @@
         <v>-363641.8218868785</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6324,18 +5830,15 @@
         <v>-359050.4587868785</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6360,18 +5863,15 @@
         <v>-360970.5205868785</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6396,18 +5896,15 @@
         <v>-360130.8484868785</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6432,18 +5929,15 @@
         <v>-359354.0646868785</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6468,18 +5962,15 @@
         <v>-359354.0646868785</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6504,18 +5995,15 @@
         <v>-359354.0646868785</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6542,16 +6030,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6578,16 +6063,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6614,16 +6096,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6650,16 +6129,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6686,16 +6162,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6722,16 +6195,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6758,16 +6228,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6794,16 +6261,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6830,16 +6294,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6866,16 +6327,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6902,16 +6360,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6938,16 +6393,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6974,16 +6426,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7010,16 +6459,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7046,16 +6492,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7082,16 +6525,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7118,16 +6558,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7154,16 +6591,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7190,16 +6624,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7226,16 +6657,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7262,16 +6690,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7298,16 +6723,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7334,16 +6756,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7370,16 +6789,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7404,24 +6820,21 @@
         <v>-629179.1930868785</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="n">
         <v>68.5</v>
       </c>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7446,24 +6859,21 @@
         <v>-626179.1930868785</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="n">
         <v>68.5</v>
       </c>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7488,24 +6898,19 @@
         <v>-637579.1930868785</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="n">
-        <v>68.89</v>
-      </c>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7530,24 +6935,21 @@
         <v>-653562.5914868785</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="n">
         <v>67.52</v>
       </c>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7572,24 +6974,19 @@
         <v>-653562.5914868785</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="n">
-        <v>67.51000000000001</v>
-      </c>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7614,24 +7011,19 @@
         <v>-633046.5914868785</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="n">
-        <v>67.51000000000001</v>
-      </c>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7656,24 +7048,19 @@
         <v>-632827.5914868785</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="n">
-        <v>67.98999999999999</v>
-      </c>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7698,24 +7085,21 @@
         <v>-601969.2677868785</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="n">
         <v>68</v>
       </c>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7740,24 +7124,21 @@
         <v>-602969.2677868785</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="n">
         <v>68.89</v>
       </c>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7782,22 +7163,21 @@
         <v>-600223.5467868785</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="n">
-        <v>0</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
+      <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7822,24 +7202,19 @@
         <v>-588848.3134868785</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="n">
-        <v>68.79000000000001</v>
-      </c>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7866,20 +7241,17 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr">
+      <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7906,20 +7278,17 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr">
+      <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7944,24 +7313,19 @@
         <v>-614348.3134868785</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
-      </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="n">
-        <v>68.3</v>
-      </c>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7988,20 +7352,17 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr">
+      <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8026,24 +7387,19 @@
         <v>-699826.0053868785</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="n">
-        <v>67.62</v>
-      </c>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8070,20 +7426,17 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr">
+      <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8110,20 +7463,17 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr">
+      <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8150,20 +7500,17 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr">
+      <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8190,22 +7537,19 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr">
+      <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest ELF.xlsx
+++ b/BackTest/2020-01-20 BackTest ELF.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2035,7 +2035,7 @@
         <v>-263235.4816868786</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-290069.5366868786</v>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-291697.5243868786</v>
       </c>
       <c r="H53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-291697.5243868786</v>
       </c>
       <c r="H54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-288956.1181868786</v>
       </c>
       <c r="H55" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-306501.0271868785</v>
       </c>
       <c r="H56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-306726.4151868785</v>
       </c>
       <c r="H57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-222796.8484868785</v>
       </c>
       <c r="H58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-207341.9293868785</v>
       </c>
       <c r="H59" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-192787.7478868785</v>
       </c>
       <c r="H61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-196006.0604868785</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-194708.4776868785</v>
       </c>
       <c r="H63" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-194708.4776868785</v>
       </c>
       <c r="H64" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-203544.2197868785</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-189982.6213868785</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-190125.1363868786</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-190125.1363868786</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-190125.1363868786</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-190318.6634868786</v>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-191727.6784868786</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-180494.4090868786</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-182490.0667868786</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-181633.0504868786</v>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-183219.6398868786</v>
       </c>
       <c r="H78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-182997.6398868786</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-185776.4968868786</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-208246.6028868786</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-208246.6028868786</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-208912.6028868786</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-201583.3448868786</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-201583.3448868786</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-199655.6971868786</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-204566.7764868786</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-202592.0918868786</v>
       </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-224916.5822868786</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-224805.5822868786</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-224341.1266868786</v>
       </c>
       <c r="H94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-224341.1266868786</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-223506.5203868786</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-223506.5203868786</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-231779.6766868786</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-240405.5695868786</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-240516.5695868786</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-240936.2165868786</v>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-293534.5500868786</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-222084.3155868786</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-229593.8669868786</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-238024.0979868786</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-286757.8932868786</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-286751.0832868786</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-287948.8957868786</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-287907.9665868786</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-289542.1615868786</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-289542.1615868786</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-314295.5688868786</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-287413.1788868786</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-290378.8064868786</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-294294.0867868786</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-294294.0867868786</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-294294.0867868786</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-295294.0867868786</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-291375.2779868786</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-349840.3621868786</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-355644.2552868785</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-364530.4403868785</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-363641.8218868785</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-359050.4587868785</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-360970.5205868785</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-360130.8484868785</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-359354.0646868785</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-359354.0646868785</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-359354.0646868785</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6820,93 +6820,87 @@
         <v>-629179.1930868785</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
-      </c>
-      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>68.89</v>
+      </c>
+      <c r="C196" t="n">
+        <v>68.89</v>
+      </c>
+      <c r="D196" t="n">
+        <v>68.89</v>
+      </c>
+      <c r="E196" t="n">
+        <v>68.89</v>
+      </c>
+      <c r="F196" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-626179.1930868785</v>
+      </c>
+      <c r="H196" t="n">
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
         <v>68.5</v>
       </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
+      <c r="J196" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>68.11</v>
+      </c>
+      <c r="C197" t="n">
+        <v>67.52</v>
+      </c>
+      <c r="D197" t="n">
+        <v>68.11</v>
+      </c>
+      <c r="E197" t="n">
+        <v>67.52</v>
+      </c>
+      <c r="F197" t="n">
+        <v>11400</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-637579.1930868785</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="K197" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>68.89</v>
-      </c>
-      <c r="C196" t="n">
-        <v>68.89</v>
-      </c>
-      <c r="D196" t="n">
-        <v>68.89</v>
-      </c>
-      <c r="E196" t="n">
-        <v>68.89</v>
-      </c>
-      <c r="F196" t="n">
-        <v>3000</v>
-      </c>
-      <c r="G196" t="n">
-        <v>-626179.1930868785</v>
-      </c>
-      <c r="H196" t="n">
-        <v>2</v>
-      </c>
-      <c r="I196" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>68.11</v>
-      </c>
-      <c r="C197" t="n">
-        <v>67.52</v>
-      </c>
-      <c r="D197" t="n">
-        <v>68.11</v>
-      </c>
-      <c r="E197" t="n">
-        <v>67.52</v>
-      </c>
-      <c r="F197" t="n">
-        <v>11400</v>
-      </c>
-      <c r="G197" t="n">
-        <v>-637579.1930868785</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6935,12 +6929,14 @@
         <v>-653562.5914868785</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I198" t="n">
         <v>67.52</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>68.5</v>
+      </c>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6974,10 +6970,14 @@
         <v>-653562.5914868785</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>67.51000000000001</v>
+      </c>
+      <c r="J199" t="n">
+        <v>68.5</v>
+      </c>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7011,10 +7011,14 @@
         <v>-633046.5914868785</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>67.51000000000001</v>
+      </c>
+      <c r="J200" t="n">
+        <v>68.5</v>
+      </c>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7048,10 +7052,14 @@
         <v>-632827.5914868785</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>67.98999999999999</v>
+      </c>
+      <c r="J201" t="n">
+        <v>68.5</v>
+      </c>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7085,12 +7093,14 @@
         <v>-601969.2677868785</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I202" t="n">
         <v>68</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>68.5</v>
+      </c>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7124,12 +7134,14 @@
         <v>-602969.2677868785</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I203" t="n">
         <v>68.89</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>68.5</v>
+      </c>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7163,12 +7175,14 @@
         <v>-600223.5467868785</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I204" t="n">
         <v>68.59999999999999</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>68.5</v>
+      </c>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7205,7 +7219,9 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>68.5</v>
+      </c>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7242,7 +7258,9 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>68.5</v>
+      </c>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7279,7 +7297,9 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>68.5</v>
+      </c>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7316,7 +7336,9 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>68.5</v>
+      </c>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7350,10 +7372,14 @@
         <v>-615515.7405868785</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I209" t="n">
+        <v>67.83</v>
+      </c>
+      <c r="J209" t="n">
+        <v>68.5</v>
+      </c>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7387,10 +7413,14 @@
         <v>-699826.0053868785</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>67.62</v>
+      </c>
+      <c r="J210" t="n">
+        <v>68.5</v>
+      </c>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7427,7 +7457,9 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>68.5</v>
+      </c>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7464,7 +7496,9 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>68.5</v>
+      </c>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7501,7 +7535,9 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>68.5</v>
+      </c>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7535,10 +7571,14 @@
         <v>-703257.9316868784</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I214" t="n">
+        <v>68.23999999999999</v>
+      </c>
+      <c r="J214" t="n">
+        <v>68.5</v>
+      </c>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7550,6 +7590,6 @@
       <c r="M214" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest ELF.xlsx
+++ b/BackTest/2020-01-20 BackTest ELF.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1408,7 +1408,7 @@
         <v>-279440.3686937921</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-278922.3686937921</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-278922.3686937921</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-277704.1231937921</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-277709.7671937921</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-277709.7671937921</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-257709.7671937921</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-259022.0104937921</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-260255.8629937921</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-259880.2073937921</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-261173.4836937921</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-261036.8010868786</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-273583.6903868786</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-266972.9437868786</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-286180.5746868786</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-283236.1536868786</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-279195.6913868786</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-191069.3241868786</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-265085.4894868786</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-288956.1181868786</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-306501.0271868785</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-306726.4151868785</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-222796.8484868785</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-181633.0504868786</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-183219.6398868786</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-182997.6398868786</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-208246.6028868786</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-208246.6028868786</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-208912.6028868786</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-201583.3448868786</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-201583.3448868786</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-199655.6971868786</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-204566.7764868786</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-202592.0918868786</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-224916.5822868786</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-224805.5822868786</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-224341.1266868786</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-224341.1266868786</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-223506.5203868786</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-223506.5203868786</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-240405.5695868786</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-240516.5695868786</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-240936.2165868786</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-293534.5500868786</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-222084.3155868786</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-229593.8669868786</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-238024.0979868786</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-286757.8932868786</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-286751.0832868786</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-287948.8957868786</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-287907.9665868786</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-289542.1615868786</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-289542.1615868786</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-314295.5688868786</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-287413.1788868786</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-290378.8064868786</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-294294.0867868786</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-294294.0867868786</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-294294.0867868786</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-295294.0867868786</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-355624.2552868785</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-355644.2552868785</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-364530.4403868785</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-363641.8218868785</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-359050.4587868785</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-360970.5205868785</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-360130.8484868785</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-359354.0646868785</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-359354.0646868785</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-596040.3133868785</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6853,14 +6853,10 @@
         <v>-626179.1930868785</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="J196" t="n">
-        <v>68.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
@@ -6893,96 +6889,86 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="K197" t="inlineStr">
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>67.51000000000001</v>
+      </c>
+      <c r="C198" t="n">
+        <v>67.51000000000001</v>
+      </c>
+      <c r="D198" t="n">
+        <v>67.51000000000001</v>
+      </c>
+      <c r="E198" t="n">
+        <v>67.51000000000001</v>
+      </c>
+      <c r="F198" t="n">
+        <v>15983.3984</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-653562.5914868785</v>
+      </c>
+      <c r="H198" t="n">
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>67.52</v>
+      </c>
+      <c r="J198" t="n">
+        <v>67.52</v>
+      </c>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="C199" t="n">
+        <v>67.51000000000001</v>
+      </c>
+      <c r="D199" t="n">
+        <v>67.51000000000001</v>
+      </c>
+      <c r="E199" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="F199" t="n">
+        <v>4809.2843</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-653562.5914868785</v>
+      </c>
+      <c r="H199" t="n">
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>67.51000000000001</v>
+      </c>
+      <c r="J199" t="n">
+        <v>67.52</v>
+      </c>
+      <c r="K199" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>67.51000000000001</v>
-      </c>
-      <c r="C198" t="n">
-        <v>67.51000000000001</v>
-      </c>
-      <c r="D198" t="n">
-        <v>67.51000000000001</v>
-      </c>
-      <c r="E198" t="n">
-        <v>67.51000000000001</v>
-      </c>
-      <c r="F198" t="n">
-        <v>15983.3984</v>
-      </c>
-      <c r="G198" t="n">
-        <v>-653562.5914868785</v>
-      </c>
-      <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>67.52</v>
-      </c>
-      <c r="J198" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="C199" t="n">
-        <v>67.51000000000001</v>
-      </c>
-      <c r="D199" t="n">
-        <v>67.51000000000001</v>
-      </c>
-      <c r="E199" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="F199" t="n">
-        <v>4809.2843</v>
-      </c>
-      <c r="G199" t="n">
-        <v>-653562.5914868785</v>
-      </c>
-      <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>67.51000000000001</v>
-      </c>
-      <c r="J199" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7017,7 +7003,7 @@
         <v>67.51000000000001</v>
       </c>
       <c r="J200" t="n">
-        <v>68.5</v>
+        <v>67.52</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -7058,7 +7044,7 @@
         <v>67.98999999999999</v>
       </c>
       <c r="J201" t="n">
-        <v>68.5</v>
+        <v>67.52</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -7099,7 +7085,7 @@
         <v>68</v>
       </c>
       <c r="J202" t="n">
-        <v>68.5</v>
+        <v>67.52</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -7134,13 +7120,11 @@
         <v>-602969.2677868785</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
-      </c>
-      <c r="I203" t="n">
-        <v>68.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>68.5</v>
+        <v>67.52</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -7175,13 +7159,11 @@
         <v>-600223.5467868785</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
-      </c>
-      <c r="I204" t="n">
-        <v>68.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>68.5</v>
+        <v>67.52</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -7220,7 +7202,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>68.5</v>
+        <v>67.52</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -7259,7 +7241,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
-        <v>68.5</v>
+        <v>67.52</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -7298,7 +7280,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
-        <v>68.5</v>
+        <v>67.52</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -7337,7 +7319,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
-        <v>68.5</v>
+        <v>67.52</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -7372,13 +7354,11 @@
         <v>-615515.7405868785</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
-      </c>
-      <c r="I209" t="n">
-        <v>67.83</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="n">
-        <v>68.5</v>
+        <v>67.52</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -7413,13 +7393,11 @@
         <v>-699826.0053868785</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I210" t="n">
-        <v>67.62</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
-        <v>68.5</v>
+        <v>67.52</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
@@ -7458,7 +7436,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="n">
-        <v>68.5</v>
+        <v>67.52</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
@@ -7497,7 +7475,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
-        <v>68.5</v>
+        <v>67.52</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
@@ -7536,7 +7514,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="n">
-        <v>68.5</v>
+        <v>67.52</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
@@ -7571,13 +7549,11 @@
         <v>-703257.9316868784</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
-      </c>
-      <c r="I214" t="n">
-        <v>68.23999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="n">
-        <v>68.5</v>
+        <v>67.52</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -7590,6 +7566,6 @@
       <c r="M214" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest ELF.xlsx
+++ b/BackTest/2020-01-20 BackTest ELF.xlsx
@@ -1408,7 +1408,7 @@
         <v>-279440.3686937921</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-278922.3686937921</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-278922.3686937921</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-277704.1231937921</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-277709.7671937921</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-277709.7671937921</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-257709.7671937921</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-259022.0104937921</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-260255.8629937921</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-259880.2073937921</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-261173.4836937921</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-261036.8010868786</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-273583.6903868786</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-266972.9437868786</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-286180.5746868786</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-283236.1536868786</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-279195.6913868786</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-191069.3241868786</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-265085.4894868786</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-288956.1181868786</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-306501.0271868785</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-306726.4151868785</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-222796.8484868785</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-190125.1363868786</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-190325.6628868786</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-191727.6784868786</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-191727.6784868786</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-182490.0667868786</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-181633.0504868786</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-182997.6398868786</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-185508.6398868786</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-185776.4968868786</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-208089.7458868786</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-207978.7458868786</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-208246.6028868786</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-208246.6028868786</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-208912.6028868786</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-201583.3448868786</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-201583.3448868786</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-199655.6971868786</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-204566.7764868786</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-202592.0918868786</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-224916.5822868786</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-224805.5822868786</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-224341.1266868786</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-224341.1266868786</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-223506.5203868786</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-223506.5203868786</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-231779.6766868786</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-240405.5695868786</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-240516.5695868786</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-229593.8669868786</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-355624.2552868785</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-355644.2552868785</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-364530.4403868785</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-363641.8218868785</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-359050.4587868785</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-360970.5205868785</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-360130.8484868785</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-359354.0646868785</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-359354.0646868785</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-596040.3133868785</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6919,14 +6919,10 @@
         <v>-653562.5914868785</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>67.52</v>
-      </c>
-      <c r="J198" t="n">
-        <v>67.52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
@@ -6956,60 +6952,50 @@
         <v>-653562.5914868785</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
         <v>67.51000000000001</v>
       </c>
-      <c r="J199" t="n">
-        <v>67.52</v>
-      </c>
-      <c r="K199" t="inlineStr">
+      <c r="C200" t="n">
+        <v>67.98999999999999</v>
+      </c>
+      <c r="D200" t="n">
+        <v>68.14</v>
+      </c>
+      <c r="E200" t="n">
+        <v>67.51000000000001</v>
+      </c>
+      <c r="F200" t="n">
+        <v>20516</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-633046.5914868785</v>
+      </c>
+      <c r="H200" t="n">
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>67.51000000000001</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>67.51000000000001</v>
-      </c>
-      <c r="C200" t="n">
-        <v>67.98999999999999</v>
-      </c>
-      <c r="D200" t="n">
-        <v>68.14</v>
-      </c>
-      <c r="E200" t="n">
-        <v>67.51000000000001</v>
-      </c>
-      <c r="F200" t="n">
-        <v>20516</v>
-      </c>
-      <c r="G200" t="n">
-        <v>-633046.5914868785</v>
-      </c>
-      <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>67.51000000000001</v>
-      </c>
-      <c r="J200" t="n">
-        <v>67.52</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7038,14 +7024,10 @@
         <v>-632827.5914868785</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I201" t="n">
-        <v>67.98999999999999</v>
-      </c>
-      <c r="J201" t="n">
-        <v>67.52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7079,14 +7061,10 @@
         <v>-601969.2677868785</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
-      </c>
-      <c r="I202" t="n">
-        <v>68</v>
-      </c>
-      <c r="J202" t="n">
-        <v>67.52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7123,9 +7101,7 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>67.52</v>
-      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7162,9 +7138,7 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>67.52</v>
-      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7201,9 +7175,7 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>67.52</v>
-      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7240,9 +7212,7 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>67.52</v>
-      </c>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7276,12 +7246,12 @@
         <v>-606748.3134868785</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>67.52</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>68.3</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7315,12 +7285,12 @@
         <v>-614348.3134868785</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>67.52</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>68.3</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7354,12 +7324,12 @@
         <v>-615515.7405868785</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>67.52</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I209" t="n">
+        <v>67.83</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7393,12 +7363,12 @@
         <v>-699826.0053868785</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>67.52</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>67.62</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7435,9 +7405,7 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>67.52</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7474,9 +7442,7 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>67.52</v>
-      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7513,9 +7479,7 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>67.52</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7552,9 +7516,7 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>67.52</v>
-      </c>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>

--- a/BackTest/2020-01-20 BackTest ELF.xlsx
+++ b/BackTest/2020-01-20 BackTest ELF.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M214"/>
+  <dimension ref="A1:L214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>931.8203999999999</v>
       </c>
       <c r="G2" t="n">
-        <v>-258401.3788</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>49289.9692</v>
       </c>
       <c r="G3" t="n">
-        <v>-307691.348</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>5652.957</v>
       </c>
       <c r="G4" t="n">
-        <v>-302038.391</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>2390.3175</v>
       </c>
       <c r="G5" t="n">
-        <v>-304428.7085</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>7.0733</v>
       </c>
       <c r="G6" t="n">
-        <v>-304421.6352</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>430.9471</v>
       </c>
       <c r="G7" t="n">
-        <v>-304852.5823</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>14007.7959</v>
       </c>
       <c r="G8" t="n">
-        <v>-318860.3782</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>23353.2347</v>
       </c>
       <c r="G9" t="n">
-        <v>-295507.1435</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>574.2889</v>
       </c>
       <c r="G10" t="n">
-        <v>-294932.8546</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>12400</v>
       </c>
       <c r="G11" t="n">
-        <v>-282532.8546</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>94.2679</v>
       </c>
       <c r="G12" t="n">
-        <v>-282627.1225</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>424.2776</v>
       </c>
       <c r="G13" t="n">
-        <v>-283051.4001</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>4556.0685</v>
       </c>
       <c r="G14" t="n">
-        <v>-287607.4686</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>2132.8026</v>
       </c>
       <c r="G15" t="n">
-        <v>-289740.2712</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>3645.0374</v>
       </c>
       <c r="G16" t="n">
-        <v>-286095.2338</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>674.4357</v>
       </c>
       <c r="G17" t="n">
-        <v>-286769.6695</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>6999.9993</v>
       </c>
       <c r="G18" t="n">
-        <v>-279769.6701999999</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>13.79500620775279</v>
       </c>
       <c r="G19" t="n">
-        <v>-279755.8751937922</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>2763.6406</v>
       </c>
       <c r="G20" t="n">
-        <v>-282519.5157937921</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>840.1823000000001</v>
       </c>
       <c r="G21" t="n">
-        <v>-282519.5157937921</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>3800</v>
       </c>
       <c r="G22" t="n">
-        <v>-286319.5157937921</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>3130.9999</v>
       </c>
       <c r="G23" t="n">
-        <v>-289450.5156937921</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>3800</v>
       </c>
       <c r="G24" t="n">
-        <v>-285650.5156937921</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>547.0421</v>
       </c>
       <c r="G25" t="n">
-        <v>-286197.5577937922</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>152.236</v>
       </c>
       <c r="G26" t="n">
-        <v>-286045.3217937922</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>3793.8188</v>
       </c>
       <c r="G27" t="n">
-        <v>-282251.5029937922</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>1354.7747</v>
       </c>
       <c r="G28" t="n">
-        <v>-282251.5029937922</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>133.6843</v>
       </c>
       <c r="G29" t="n">
-        <v>-282251.5029937922</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>2677.45</v>
       </c>
       <c r="G30" t="n">
-        <v>-279574.0529937922</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>133.6843</v>
       </c>
       <c r="G31" t="n">
-        <v>-279440.3686937921</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>518</v>
       </c>
       <c r="G32" t="n">
-        <v>-278922.3686937921</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>600</v>
       </c>
       <c r="G33" t="n">
-        <v>-278922.3686937921</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>1218.2455</v>
       </c>
       <c r="G34" t="n">
-        <v>-277704.1231937921</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>5.644</v>
       </c>
       <c r="G35" t="n">
-        <v>-277709.7671937921</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>2007.6165</v>
       </c>
       <c r="G36" t="n">
-        <v>-277709.7671937921</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>20000</v>
       </c>
       <c r="G37" t="n">
-        <v>-257709.7671937921</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>1312.2433</v>
       </c>
       <c r="G38" t="n">
-        <v>-259022.0104937921</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>1233.8525</v>
       </c>
       <c r="G39" t="n">
-        <v>-260255.8629937921</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>375.6556</v>
       </c>
       <c r="G40" t="n">
-        <v>-259880.2073937921</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>1293.2763</v>
       </c>
       <c r="G41" t="n">
-        <v>-261173.4836937921</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>136.6826069135128</v>
       </c>
       <c r="G42" t="n">
-        <v>-261036.8010868786</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>12546.8893</v>
       </c>
       <c r="G43" t="n">
-        <v>-273583.6903868786</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>6610.7466</v>
       </c>
       <c r="G44" t="n">
-        <v>-266972.9437868786</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>19207.6309</v>
       </c>
       <c r="G45" t="n">
-        <v>-286180.5746868786</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>2944.421</v>
       </c>
       <c r="G46" t="n">
-        <v>-283236.1536868786</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>4040.4623</v>
       </c>
       <c r="G47" t="n">
-        <v>-279195.6913868786</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>88126.36719999999</v>
       </c>
       <c r="G48" t="n">
-        <v>-191069.3241868786</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>74016.16529999999</v>
       </c>
       <c r="G49" t="n">
-        <v>-265085.4894868786</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>1850.0078</v>
       </c>
       <c r="G50" t="n">
-        <v>-263235.4816868786</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>26834.055</v>
       </c>
       <c r="G51" t="n">
-        <v>-290069.5366868786</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>1372.0123</v>
       </c>
       <c r="G52" t="n">
-        <v>-288697.5243868786</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>3000</v>
       </c>
       <c r="G53" t="n">
-        <v>-291697.5243868786</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>4070.2464</v>
       </c>
       <c r="G54" t="n">
-        <v>-291697.5243868786</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>2741.4062</v>
       </c>
       <c r="G55" t="n">
-        <v>-288956.1181868786</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>17544.909</v>
       </c>
       <c r="G56" t="n">
-        <v>-306501.0271868785</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>225.388</v>
       </c>
       <c r="G57" t="n">
-        <v>-306726.4151868785</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>83929.5667</v>
       </c>
       <c r="G58" t="n">
-        <v>-222796.8484868785</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>15454.9191</v>
       </c>
       <c r="G59" t="n">
-        <v>-207341.9293868785</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>3218.3126</v>
       </c>
       <c r="G60" t="n">
-        <v>-210560.2419868785</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>17772.4941</v>
       </c>
       <c r="G61" t="n">
-        <v>-192787.7478868785</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>3218.3126</v>
       </c>
       <c r="G62" t="n">
-        <v>-196006.0604868785</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>1297.5828</v>
       </c>
       <c r="G63" t="n">
-        <v>-194708.4776868785</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>3515.1604</v>
       </c>
       <c r="G64" t="n">
-        <v>-194708.4776868785</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>8835.742099999999</v>
       </c>
       <c r="G65" t="n">
-        <v>-203544.2197868785</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>13561.5984</v>
       </c>
       <c r="G66" t="n">
-        <v>-189982.6213868785</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>142.515</v>
       </c>
       <c r="G67" t="n">
-        <v>-190125.1363868786</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>944.9374</v>
       </c>
       <c r="G68" t="n">
-        <v>-190125.1363868786</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>1097.8212</v>
       </c>
       <c r="G69" t="n">
-        <v>-190125.1363868786</v>
-      </c>
-      <c r="H69" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>200.5265</v>
       </c>
       <c r="G70" t="n">
-        <v>-190325.6628868786</v>
-      </c>
-      <c r="H70" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>6.9994</v>
       </c>
       <c r="G71" t="n">
-        <v>-190318.6634868786</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>1409.015</v>
       </c>
       <c r="G72" t="n">
-        <v>-191727.6784868786</v>
-      </c>
-      <c r="H72" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>3861.457</v>
       </c>
       <c r="G73" t="n">
-        <v>-191727.6784868786</v>
-      </c>
-      <c r="H73" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>11233.2694</v>
       </c>
       <c r="G74" t="n">
-        <v>-180494.4090868786</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>1995.6577</v>
       </c>
       <c r="G75" t="n">
-        <v>-182490.0667868786</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>22914.8417</v>
       </c>
       <c r="G76" t="n">
-        <v>-182490.0667868786</v>
-      </c>
-      <c r="H76" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>857.0163</v>
       </c>
       <c r="G77" t="n">
-        <v>-181633.0504868786</v>
-      </c>
-      <c r="H77" t="n">
         <v>2</v>
       </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>1586.5894</v>
       </c>
       <c r="G78" t="n">
-        <v>-183219.6398868786</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>222</v>
       </c>
       <c r="G79" t="n">
-        <v>-182997.6398868786</v>
-      </c>
-      <c r="H79" t="n">
         <v>2</v>
       </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>2511</v>
       </c>
       <c r="G80" t="n">
-        <v>-185508.6398868786</v>
-      </c>
-      <c r="H80" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>267.857</v>
       </c>
       <c r="G81" t="n">
-        <v>-185776.4968868786</v>
-      </c>
-      <c r="H81" t="n">
         <v>2</v>
       </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>22313.249</v>
       </c>
       <c r="G82" t="n">
-        <v>-208089.7458868786</v>
-      </c>
-      <c r="H82" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>111</v>
       </c>
       <c r="G83" t="n">
-        <v>-207978.7458868786</v>
-      </c>
-      <c r="H83" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>267.857</v>
       </c>
       <c r="G84" t="n">
-        <v>-208246.6028868786</v>
-      </c>
-      <c r="H84" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>2231.8096</v>
       </c>
       <c r="G85" t="n">
-        <v>-208246.6028868786</v>
-      </c>
-      <c r="H85" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>666</v>
       </c>
       <c r="G86" t="n">
-        <v>-208912.6028868786</v>
-      </c>
-      <c r="H86" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>7329.258</v>
       </c>
       <c r="G87" t="n">
-        <v>-201583.3448868786</v>
-      </c>
-      <c r="H87" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>588.9337</v>
       </c>
       <c r="G88" t="n">
-        <v>-201583.3448868786</v>
-      </c>
-      <c r="H88" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>1927.6477</v>
       </c>
       <c r="G89" t="n">
-        <v>-199655.6971868786</v>
-      </c>
-      <c r="H89" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>4911.0793</v>
       </c>
       <c r="G90" t="n">
-        <v>-204566.7764868786</v>
-      </c>
-      <c r="H90" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>1974.6846</v>
       </c>
       <c r="G91" t="n">
-        <v>-202592.0918868786</v>
-      </c>
-      <c r="H91" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>22324.4904</v>
       </c>
       <c r="G92" t="n">
-        <v>-224916.5822868786</v>
-      </c>
-      <c r="H92" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>111</v>
       </c>
       <c r="G93" t="n">
-        <v>-224805.5822868786</v>
-      </c>
-      <c r="H93" t="n">
         <v>2</v>
       </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>464.4556</v>
       </c>
       <c r="G94" t="n">
-        <v>-224341.1266868786</v>
-      </c>
-      <c r="H94" t="n">
         <v>2</v>
       </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,15 @@
         <v>952.3121749566609</v>
       </c>
       <c r="G95" t="n">
-        <v>-224341.1266868786</v>
-      </c>
-      <c r="H95" t="n">
         <v>2</v>
       </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3263,15 @@
         <v>834.6063</v>
       </c>
       <c r="G96" t="n">
-        <v>-223506.5203868786</v>
-      </c>
-      <c r="H96" t="n">
         <v>2</v>
       </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3293,15 @@
         <v>221.83</v>
       </c>
       <c r="G97" t="n">
-        <v>-223506.5203868786</v>
-      </c>
-      <c r="H97" t="n">
         <v>2</v>
       </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3323,15 @@
         <v>8273.156300000001</v>
       </c>
       <c r="G98" t="n">
-        <v>-231779.6766868786</v>
-      </c>
-      <c r="H98" t="n">
         <v>2</v>
       </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3353,15 @@
         <v>8625.892900000001</v>
       </c>
       <c r="G99" t="n">
-        <v>-240405.5695868786</v>
-      </c>
-      <c r="H99" t="n">
         <v>2</v>
       </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3383,15 @@
         <v>111</v>
       </c>
       <c r="G100" t="n">
-        <v>-240516.5695868786</v>
-      </c>
-      <c r="H100" t="n">
         <v>2</v>
       </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3413,15 @@
         <v>419.647</v>
       </c>
       <c r="G101" t="n">
-        <v>-240936.2165868786</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3443,15 @@
         <v>52598.3335</v>
       </c>
       <c r="G102" t="n">
-        <v>-293534.5500868786</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3473,15 @@
         <v>71450.23450000001</v>
       </c>
       <c r="G103" t="n">
-        <v>-222084.3155868786</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3503,15 @@
         <v>7509.5514</v>
       </c>
       <c r="G104" t="n">
-        <v>-229593.8669868786</v>
-      </c>
-      <c r="H104" t="n">
         <v>2</v>
       </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3533,15 @@
         <v>8430.231</v>
       </c>
       <c r="G105" t="n">
-        <v>-238024.0979868786</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3563,15 @@
         <v>48733.7953</v>
       </c>
       <c r="G106" t="n">
-        <v>-286757.8932868786</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3593,15 @@
         <v>6.81</v>
       </c>
       <c r="G107" t="n">
-        <v>-286751.0832868786</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3623,15 @@
         <v>1197.8125</v>
       </c>
       <c r="G108" t="n">
-        <v>-287948.8957868786</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3653,15 @@
         <v>40.9292</v>
       </c>
       <c r="G109" t="n">
-        <v>-287907.9665868786</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3683,15 @@
         <v>1634.195</v>
       </c>
       <c r="G110" t="n">
-        <v>-289542.1615868786</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3713,15 @@
         <v>5939.9722</v>
       </c>
       <c r="G111" t="n">
-        <v>-289542.1615868786</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3743,15 @@
         <v>24753.4073</v>
       </c>
       <c r="G112" t="n">
-        <v>-314295.5688868786</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3773,15 @@
         <v>26882.39</v>
       </c>
       <c r="G113" t="n">
-        <v>-287413.1788868786</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3803,15 @@
         <v>2965.6276</v>
       </c>
       <c r="G114" t="n">
-        <v>-290378.8064868786</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3833,15 @@
         <v>3915.2803</v>
       </c>
       <c r="G115" t="n">
-        <v>-294294.0867868786</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3863,15 @@
         <v>160</v>
       </c>
       <c r="G116" t="n">
-        <v>-294294.0867868786</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3893,15 @@
         <v>0.2679</v>
       </c>
       <c r="G117" t="n">
-        <v>-294294.0867868786</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3923,15 @@
         <v>1000</v>
       </c>
       <c r="G118" t="n">
-        <v>-295294.0867868786</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +3953,15 @@
         <v>7</v>
       </c>
       <c r="G119" t="n">
-        <v>-295287.0867868786</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +3983,15 @@
         <v>2976.5173</v>
       </c>
       <c r="G120" t="n">
-        <v>-292310.5694868786</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4013,15 @@
         <v>739.8253999999999</v>
       </c>
       <c r="G121" t="n">
-        <v>-291570.7440868786</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4043,15 @@
         <v>2642.896137573359</v>
       </c>
       <c r="G122" t="n">
-        <v>-291570.7440868786</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4073,15 @@
         <v>195.4661</v>
       </c>
       <c r="G123" t="n">
-        <v>-291375.2779868786</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4103,15 @@
         <v>5086.4501</v>
       </c>
       <c r="G124" t="n">
-        <v>-296461.7280868786</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4133,15 @@
         <v>5445.9999</v>
       </c>
       <c r="G125" t="n">
-        <v>-296461.7280868786</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4163,15 @@
         <v>2800</v>
       </c>
       <c r="G126" t="n">
-        <v>-296461.7280868786</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4193,15 @@
         <v>711</v>
       </c>
       <c r="G127" t="n">
-        <v>-296461.7280868786</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4223,15 @@
         <v>8546.8876</v>
       </c>
       <c r="G128" t="n">
-        <v>-296461.7280868786</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4253,15 @@
         <v>292.522</v>
       </c>
       <c r="G129" t="n">
-        <v>-296754.2500868786</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4283,15 @@
         <v>6.8776</v>
       </c>
       <c r="G130" t="n">
-        <v>-296747.3724868786</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4313,15 @@
         <v>285.6444</v>
       </c>
       <c r="G131" t="n">
-        <v>-296461.7280868786</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4343,15 @@
         <v>1233.8525</v>
       </c>
       <c r="G132" t="n">
-        <v>-295227.8755868786</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4373,15 @@
         <v>31</v>
       </c>
       <c r="G133" t="n">
-        <v>-295196.8755868786</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4403,15 @@
         <v>42575.4557</v>
       </c>
       <c r="G134" t="n">
-        <v>-252621.4198868786</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4433,15 @@
         <v>3580.0938</v>
       </c>
       <c r="G135" t="n">
-        <v>-249041.3260868786</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4463,15 @@
         <v>32412.9891</v>
       </c>
       <c r="G136" t="n">
-        <v>-281454.3151868786</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4493,15 @@
         <v>1039</v>
       </c>
       <c r="G137" t="n">
-        <v>-280415.3151868786</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4523,15 @@
         <v>8209.771000000001</v>
       </c>
       <c r="G138" t="n">
-        <v>-288625.0861868786</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4553,15 @@
         <v>6227.3271</v>
       </c>
       <c r="G139" t="n">
-        <v>-294852.4132868786</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4583,15 @@
         <v>21</v>
       </c>
       <c r="G140" t="n">
-        <v>-294873.4132868786</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4613,15 @@
         <v>21951.3037</v>
       </c>
       <c r="G141" t="n">
-        <v>-316824.7169868786</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4643,15 @@
         <v>33015.6452</v>
       </c>
       <c r="G142" t="n">
-        <v>-349840.3621868786</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4673,15 @@
         <v>17966.5193</v>
       </c>
       <c r="G143" t="n">
-        <v>-367806.8814868786</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4703,15 @@
         <v>49</v>
       </c>
       <c r="G144" t="n">
-        <v>-367757.8814868786</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4733,15 @@
         <v>2257</v>
       </c>
       <c r="G145" t="n">
-        <v>-365500.8814868786</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +4763,15 @@
         <v>7</v>
       </c>
       <c r="G146" t="n">
-        <v>-365507.8814868786</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +4793,15 @@
         <v>49</v>
       </c>
       <c r="G147" t="n">
-        <v>-365556.8814868786</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +4823,15 @@
         <v>7</v>
       </c>
       <c r="G148" t="n">
-        <v>-365563.8814868786</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +4853,15 @@
         <v>21</v>
       </c>
       <c r="G149" t="n">
-        <v>-365542.8814868786</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +4883,15 @@
         <v>7</v>
       </c>
       <c r="G150" t="n">
-        <v>-365535.8814868786</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +4913,15 @@
         <v>7</v>
       </c>
       <c r="G151" t="n">
-        <v>-365528.8814868786</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +4943,15 @@
         <v>7</v>
       </c>
       <c r="G152" t="n">
-        <v>-365521.8814868786</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +4973,15 @@
         <v>6.8767</v>
       </c>
       <c r="G153" t="n">
-        <v>-365515.0047868785</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5003,15 @@
         <v>40.035</v>
       </c>
       <c r="G154" t="n">
-        <v>-365555.0397868785</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5033,15 @@
         <v>4742.5736</v>
       </c>
       <c r="G155" t="n">
-        <v>-360812.4661868785</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5063,15 @@
         <v>3289.0899</v>
       </c>
       <c r="G156" t="n">
-        <v>-360812.4661868785</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5093,15 @@
         <v>38</v>
       </c>
       <c r="G157" t="n">
-        <v>-360812.4661868785</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5123,15 @@
         <v>745.1698</v>
       </c>
       <c r="G158" t="n">
-        <v>-360812.4661868785</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5153,15 @@
         <v>1046.3208</v>
       </c>
       <c r="G159" t="n">
-        <v>-360812.4661868785</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,18 +5183,15 @@
         <v>5258.2109</v>
       </c>
       <c r="G160" t="n">
-        <v>-355554.2552868785</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5695,18 +5213,15 @@
         <v>70</v>
       </c>
       <c r="G161" t="n">
-        <v>-355624.2552868785</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5728,18 +5243,15 @@
         <v>20</v>
       </c>
       <c r="G162" t="n">
-        <v>-355644.2552868785</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5761,18 +5273,15 @@
         <v>8886.185100000001</v>
       </c>
       <c r="G163" t="n">
-        <v>-364530.4403868785</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5794,18 +5303,15 @@
         <v>888.6185</v>
       </c>
       <c r="G164" t="n">
-        <v>-363641.8218868785</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5827,18 +5333,15 @@
         <v>4591.3631</v>
       </c>
       <c r="G165" t="n">
-        <v>-359050.4587868785</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5860,18 +5363,15 @@
         <v>1920.0618</v>
       </c>
       <c r="G166" t="n">
-        <v>-360970.5205868785</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5893,18 +5393,15 @@
         <v>839.6721</v>
       </c>
       <c r="G167" t="n">
-        <v>-360130.8484868785</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5926,18 +5423,15 @@
         <v>776.7838</v>
       </c>
       <c r="G168" t="n">
-        <v>-359354.0646868785</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5959,18 +5453,15 @@
         <v>787.5774</v>
       </c>
       <c r="G169" t="n">
-        <v>-359354.0646868785</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -5992,18 +5483,15 @@
         <v>694.3881</v>
       </c>
       <c r="G170" t="n">
-        <v>-359354.0646868785</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6025,18 +5513,15 @@
         <v>100.2633</v>
       </c>
       <c r="G171" t="n">
-        <v>-359253.8013868785</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6058,18 +5543,15 @@
         <v>868.982</v>
       </c>
       <c r="G172" t="n">
-        <v>-358384.8193868785</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6091,18 +5573,15 @@
         <v>2306.3894</v>
       </c>
       <c r="G173" t="n">
-        <v>-356078.4299868785</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6124,18 +5603,15 @@
         <v>227</v>
       </c>
       <c r="G174" t="n">
-        <v>-356305.4299868785</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6157,18 +5633,15 @@
         <v>3000</v>
       </c>
       <c r="G175" t="n">
-        <v>-353305.4299868785</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6190,18 +5663,15 @@
         <v>71725.60129999999</v>
       </c>
       <c r="G176" t="n">
-        <v>-425031.0312868785</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6223,18 +5693,15 @@
         <v>54051.72</v>
       </c>
       <c r="G177" t="n">
-        <v>-479082.7512868785</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6256,18 +5723,15 @@
         <v>93358.25999999999</v>
       </c>
       <c r="G178" t="n">
-        <v>-572441.0112868785</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6289,18 +5753,15 @@
         <v>4399.3021</v>
       </c>
       <c r="G179" t="n">
-        <v>-576840.3133868785</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6322,18 +5783,15 @@
         <v>19200</v>
       </c>
       <c r="G180" t="n">
-        <v>-596040.3133868785</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6355,18 +5813,15 @@
         <v>9953.7714</v>
       </c>
       <c r="G181" t="n">
-        <v>-586086.5419868785</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6388,18 +5843,15 @@
         <v>1949.5479</v>
       </c>
       <c r="G182" t="n">
-        <v>-588036.0898868785</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6421,18 +5873,15 @@
         <v>883.0743</v>
       </c>
       <c r="G183" t="n">
-        <v>-587153.0155868785</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6454,18 +5903,15 @@
         <v>8800</v>
       </c>
       <c r="G184" t="n">
-        <v>-595953.0155868785</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6487,18 +5933,15 @@
         <v>22000</v>
       </c>
       <c r="G185" t="n">
-        <v>-617953.0155868785</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6520,18 +5963,15 @@
         <v>20500</v>
       </c>
       <c r="G186" t="n">
-        <v>-617953.0155868785</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6553,18 +5993,15 @@
         <v>85763.3829</v>
       </c>
       <c r="G187" t="n">
-        <v>-617953.0155868785</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6586,18 +6023,15 @@
         <v>18013.2589</v>
       </c>
       <c r="G188" t="n">
-        <v>-617953.0155868785</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6619,18 +6053,15 @@
         <v>12818.7262</v>
       </c>
       <c r="G189" t="n">
-        <v>-630771.7417868786</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6652,18 +6083,15 @@
         <v>1592.5487</v>
       </c>
       <c r="G190" t="n">
-        <v>-629179.1930868785</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6685,18 +6113,15 @@
         <v>6183.3878</v>
       </c>
       <c r="G191" t="n">
-        <v>-629179.1930868785</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6718,18 +6143,15 @@
         <v>10515.2437</v>
       </c>
       <c r="G192" t="n">
-        <v>-629179.1930868785</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6751,18 +6173,15 @@
         <v>11142.0942</v>
       </c>
       <c r="G193" t="n">
-        <v>-629179.1930868785</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6784,18 +6203,15 @@
         <v>1536.2119</v>
       </c>
       <c r="G194" t="n">
-        <v>-629179.1930868785</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6817,18 +6233,15 @@
         <v>9847.761200000001</v>
       </c>
       <c r="G195" t="n">
-        <v>-629179.1930868785</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6850,18 +6263,15 @@
         <v>3000</v>
       </c>
       <c r="G196" t="n">
-        <v>-626179.1930868785</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -6883,18 +6293,15 @@
         <v>11400</v>
       </c>
       <c r="G197" t="n">
-        <v>-637579.1930868785</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -6916,18 +6323,15 @@
         <v>15983.3984</v>
       </c>
       <c r="G198" t="n">
-        <v>-653562.5914868785</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -6949,18 +6353,21 @@
         <v>4809.2843</v>
       </c>
       <c r="G199" t="n">
-        <v>-653562.5914868785</v>
+        <v>1</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>67.51000000000001</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -6982,24 +6389,21 @@
         <v>20516</v>
       </c>
       <c r="G200" t="n">
-        <v>-633046.5914868785</v>
+        <v>1</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
         <v>67.51000000000001</v>
       </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7021,22 +6425,21 @@
         <v>219</v>
       </c>
       <c r="G201" t="n">
-        <v>-632827.5914868785</v>
+        <v>1</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>67.98999999999999</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
+      <c r="J201" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7058,22 +6461,21 @@
         <v>30858.3237</v>
       </c>
       <c r="G202" t="n">
-        <v>-601969.2677868785</v>
+        <v>1</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
+      <c r="J202" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7095,22 +6497,21 @@
         <v>1000</v>
       </c>
       <c r="G203" t="n">
-        <v>-602969.2677868785</v>
+        <v>1</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>68.89</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
+      <c r="J203" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7132,22 +6533,21 @@
         <v>2745.721</v>
       </c>
       <c r="G204" t="n">
-        <v>-600223.5467868785</v>
+        <v>1</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
+      <c r="J204" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7169,22 +6569,19 @@
         <v>11375.2333</v>
       </c>
       <c r="G205" t="n">
-        <v>-588848.3134868785</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
+      <c r="J205" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7206,22 +6603,19 @@
         <v>17900</v>
       </c>
       <c r="G206" t="n">
-        <v>-606748.3134868785</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
+      <c r="J206" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7243,24 +6637,21 @@
         <v>9229.749100000001</v>
       </c>
       <c r="G207" t="n">
-        <v>-606748.3134868785</v>
+        <v>1</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
-      </c>
-      <c r="I207" t="n">
         <v>68.3</v>
       </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7282,24 +6673,21 @@
         <v>7600</v>
       </c>
       <c r="G208" t="n">
-        <v>-614348.3134868785</v>
+        <v>1</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
-      </c>
-      <c r="I208" t="n">
         <v>68.3</v>
       </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7321,24 +6709,21 @@
         <v>1167.4271</v>
       </c>
       <c r="G209" t="n">
-        <v>-615515.7405868785</v>
+        <v>1</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
-      </c>
-      <c r="I209" t="n">
         <v>67.83</v>
       </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7360,24 +6745,21 @@
         <v>84310.2648</v>
       </c>
       <c r="G210" t="n">
-        <v>-699826.0053868785</v>
+        <v>1</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I210" t="n">
         <v>67.62</v>
       </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7399,22 +6781,21 @@
         <v>150</v>
       </c>
       <c r="G211" t="n">
-        <v>-699676.0053868785</v>
+        <v>1</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
+      <c r="J211" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7436,22 +6817,21 @@
         <v>1246.3738</v>
       </c>
       <c r="G212" t="n">
-        <v>-700922.3791868784</v>
+        <v>1</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
+      <c r="J212" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7473,22 +6853,21 @@
         <v>59.7591</v>
       </c>
       <c r="G213" t="n">
-        <v>-700982.1382868785</v>
+        <v>1</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>68.34999999999999</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
+      <c r="J213" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7510,22 +6889,21 @@
         <v>2275.7934</v>
       </c>
       <c r="G214" t="n">
-        <v>-703257.9316868784</v>
+        <v>1</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>68.23999999999999</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
+      <c r="J214" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
